--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="147">
   <si>
     <t>FECHA</t>
   </si>
@@ -439,6 +439,33 @@
   </si>
   <si>
     <t>XXXXX</t>
+  </si>
+  <si>
+    <t>M-278</t>
+  </si>
+  <si>
+    <t>M-279</t>
+  </si>
+  <si>
+    <t>M-281</t>
+  </si>
+  <si>
+    <t>M-284</t>
+  </si>
+  <si>
+    <t>M-285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filete Pco </t>
+  </si>
+  <si>
+    <t>Carne enchilada--Conchas- Molida</t>
+  </si>
+  <si>
+    <t>Espinazo-Cañas-Manos y patas</t>
+  </si>
+  <si>
+    <t>M-265</t>
   </si>
 </sst>
 </file>
@@ -704,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,9 +780,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,6 +806,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1074,8 +1108,8 @@
   </sheetPr>
   <dimension ref="B1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1087,22 +1121,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>89</v>
       </c>
       <c r="F2" s="20" t="s">
@@ -1122,7 +1156,7 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>90</v>
       </c>
       <c r="F3" s="7">
@@ -1142,13 +1176,13 @@
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>92</v>
       </c>
       <c r="F4" s="8">
         <v>3418.2</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1162,13 +1196,13 @@
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>91</v>
       </c>
       <c r="F5" s="8">
         <v>7277</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1182,13 +1216,13 @@
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1202,13 +1236,13 @@
       <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>94</v>
       </c>
       <c r="F7" s="8">
         <v>21226.799999999999</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1222,13 +1256,13 @@
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="8">
         <v>149593.20000000001</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1242,13 +1276,13 @@
       <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>98</v>
       </c>
       <c r="F9" s="8">
         <v>78056.479999999996</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1262,13 +1296,13 @@
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>104</v>
       </c>
       <c r="F10" s="8">
         <v>2783</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1282,13 +1316,13 @@
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="8">
         <v>36830</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1300,7 +1334,7 @@
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="10">
         <v>0</v>
       </c>
@@ -1316,13 +1350,13 @@
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="8">
         <v>4140</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1336,13 +1370,13 @@
       <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="31" t="s">
         <v>105</v>
       </c>
       <c r="F14" s="8">
         <v>6612</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1356,13 +1390,13 @@
       <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>106</v>
       </c>
       <c r="F15" s="8">
         <v>600</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1376,13 +1410,13 @@
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="8">
         <v>136.32</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1396,13 +1430,13 @@
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>100</v>
       </c>
       <c r="F17" s="8">
         <v>48332.6</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1416,13 +1450,13 @@
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="31" t="s">
         <v>107</v>
       </c>
       <c r="F18" s="8">
         <v>660</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="27" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1436,13 +1470,13 @@
       <c r="D19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="31" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="8">
         <v>8616</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1456,13 +1490,13 @@
       <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="31" t="s">
         <v>109</v>
       </c>
       <c r="F20" s="8">
         <v>5686.8</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1476,13 +1510,13 @@
       <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="31" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="8">
         <v>33583.4</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1496,13 +1530,13 @@
       <c r="D22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="31" t="s">
         <v>102</v>
       </c>
       <c r="F22" s="8">
         <v>25746.9</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1516,13 +1550,13 @@
       <c r="D23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="31" t="s">
         <v>103</v>
       </c>
       <c r="F23" s="8">
         <v>8921.6</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="27" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1536,13 +1570,13 @@
       <c r="D24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="31" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="8">
         <v>61442.36</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1556,13 +1590,13 @@
       <c r="D25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="31" t="s">
         <v>111</v>
       </c>
       <c r="F25" s="8">
         <v>15890.6</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1576,13 +1610,13 @@
       <c r="D26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="31" t="s">
         <v>112</v>
       </c>
       <c r="F26" s="8">
         <v>139218.4</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1596,13 +1630,13 @@
       <c r="D27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="31" t="s">
         <v>113</v>
       </c>
       <c r="F27" s="8">
         <v>50607.12</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1616,13 +1650,13 @@
       <c r="D28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="31" t="s">
         <v>114</v>
       </c>
       <c r="F28" s="8">
         <v>1098.9000000000001</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="27" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1636,13 +1670,13 @@
       <c r="D29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="31" t="s">
         <v>115</v>
       </c>
       <c r="F29" s="8">
         <v>14898.4</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1656,13 +1690,13 @@
       <c r="D30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
         <v>116</v>
       </c>
       <c r="F30" s="8">
         <v>60156.800000000003</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1676,13 +1710,13 @@
       <c r="D31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>117</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1696,13 +1730,13 @@
       <c r="D32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>124</v>
       </c>
       <c r="F32" s="8">
         <v>6380.4</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1716,7 +1750,7 @@
       <c r="D33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>125</v>
       </c>
       <c r="F33" s="8">
@@ -1736,13 +1770,13 @@
       <c r="D34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="29" t="s">
         <v>126</v>
       </c>
       <c r="F34" s="8">
         <v>40231.519999999997</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1756,11 +1790,11 @@
       <c r="D35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="30"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="8">
         <v>0</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1774,13 +1808,13 @@
       <c r="D36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="31" t="s">
         <v>128</v>
       </c>
       <c r="F36" s="8">
         <v>139881.26</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1794,13 +1828,13 @@
       <c r="D37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="31" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="8">
         <v>50029.4</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="28" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1808,15 +1842,21 @@
       <c r="B38" s="6">
         <v>36</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="11">
+        <v>45220</v>
+      </c>
       <c r="D38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="10">
-        <v>0</v>
-      </c>
-      <c r="G38" s="27"/>
+      <c r="E38" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="34">
+        <v>132575.82</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
@@ -1828,13 +1868,13 @@
       <c r="D39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>130</v>
       </c>
       <c r="F39" s="8">
         <v>2100.6</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1848,13 +1888,13 @@
       <c r="D40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="31" t="s">
         <v>131</v>
       </c>
       <c r="F40" s="8">
         <v>82278.960000000006</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1868,13 +1908,13 @@
       <c r="D41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="8">
         <v>92378.5</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1888,13 +1928,13 @@
       <c r="D42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="29" t="s">
         <v>118</v>
       </c>
       <c r="F42" s="8">
         <v>26978</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1908,13 +1948,13 @@
       <c r="D43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="29" t="s">
         <v>134</v>
       </c>
       <c r="F43" s="8">
         <v>119417.36</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1926,11 +1966,11 @@
       <c r="D44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="30"/>
+      <c r="E44" s="29"/>
       <c r="F44" s="10">
         <v>0</v>
       </c>
-      <c r="G44" s="27"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
@@ -1942,13 +1982,13 @@
       <c r="D45" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>119</v>
       </c>
       <c r="F45" s="8">
         <v>11736.4</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="26" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1962,13 +2002,13 @@
       <c r="D46" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="29" t="s">
         <v>120</v>
       </c>
       <c r="F46" s="8">
         <v>22751.1</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="26" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1982,13 +2022,13 @@
       <c r="D47" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="29" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="8">
         <v>70164.84</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2002,13 +2042,13 @@
       <c r="D48" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="29" t="s">
         <v>122</v>
       </c>
       <c r="F48" s="8">
         <v>20764.400000000001</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="26" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2022,13 +2062,13 @@
       <c r="D49" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F49" s="8">
         <v>18512.5</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="26" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2042,13 +2082,13 @@
       <c r="D50" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="29" t="s">
         <v>135</v>
       </c>
       <c r="F50" s="8">
         <v>5100.8</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2062,13 +2102,13 @@
       <c r="D51" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="29" t="s">
         <v>132</v>
       </c>
       <c r="F51" s="8">
         <v>6076.2</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G51" s="26" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2076,29 +2116,41 @@
       <c r="B52" s="6">
         <v>50</v>
       </c>
-      <c r="C52" s="11"/>
+      <c r="C52" s="33">
+        <v>45222</v>
+      </c>
       <c r="D52" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="10">
-        <v>0</v>
-      </c>
-      <c r="G52" s="27"/>
-    </row>
-    <row r="53" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="34">
+        <v>2436</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
         <v>51</v>
       </c>
-      <c r="C53" s="11"/>
+      <c r="C53" s="33">
+        <v>45222</v>
+      </c>
       <c r="D53" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="10">
-        <v>0</v>
-      </c>
-      <c r="G53" s="27"/>
+      <c r="E53" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="34">
+        <v>9656</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="54" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
@@ -2110,13 +2162,13 @@
       <c r="D54" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="29" t="s">
         <v>137</v>
       </c>
       <c r="F54" s="8">
         <v>48937.4</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G54" s="26" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2124,15 +2176,21 @@
       <c r="B55" s="6">
         <v>53</v>
       </c>
-      <c r="C55" s="11"/>
+      <c r="C55" s="33">
+        <v>45223</v>
+      </c>
       <c r="D55" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="10">
-        <v>0</v>
-      </c>
-      <c r="G55" s="27"/>
+      <c r="E55" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="34">
+        <v>67869.600000000006</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="56" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
@@ -2144,43 +2202,55 @@
       <c r="D56" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="31" t="s">
         <v>127</v>
       </c>
       <c r="F56" s="8">
         <v>15440</v>
       </c>
-      <c r="G56" s="27" t="s">
+      <c r="G56" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
         <v>55</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="4">
+        <v>45223</v>
+      </c>
       <c r="D57" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="30"/>
+      <c r="E57" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="F57" s="8">
-        <v>0</v>
-      </c>
-      <c r="G57" s="27"/>
+        <v>26845.200000000001</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="58" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
         <v>56</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C58" s="4">
+        <v>45223</v>
+      </c>
       <c r="D58" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="30"/>
+      <c r="E58" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="F58" s="8">
-        <v>0</v>
-      </c>
-      <c r="G58" s="27"/>
+        <v>606</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="59" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
@@ -2190,11 +2260,11 @@
       <c r="D59" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="30"/>
+      <c r="E59" s="29"/>
       <c r="F59" s="8">
         <v>0</v>
       </c>
-      <c r="G59" s="27"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="6">
@@ -2204,21 +2274,21 @@
       <c r="D60" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="31"/>
+      <c r="E60" s="30"/>
       <c r="F60" s="14">
         <v>0</v>
       </c>
-      <c r="G60" s="27"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="D61" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E61" s="24"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="16">
         <f>SUM(F3:F60)</f>
-        <v>1642354.52</v>
+        <v>1882343.1400000001</v>
       </c>
     </row>
   </sheetData>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NOTAS  OBRADOR---CENTRAL   " sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
+    <sheet name="NOTAS CENTRAL  23  AL 28  Oct" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="216">
   <si>
     <t>FECHA</t>
   </si>
@@ -466,6 +468,213 @@
   </si>
   <si>
     <t>M-265</t>
+  </si>
+  <si>
+    <t>M-270</t>
+  </si>
+  <si>
+    <t>287 M</t>
+  </si>
+  <si>
+    <t>288 M</t>
+  </si>
+  <si>
+    <t>289 M</t>
+  </si>
+  <si>
+    <t>290 M</t>
+  </si>
+  <si>
+    <t>291 M</t>
+  </si>
+  <si>
+    <t>292 M</t>
+  </si>
+  <si>
+    <t>293 M</t>
+  </si>
+  <si>
+    <t>294 M</t>
+  </si>
+  <si>
+    <t>295 M</t>
+  </si>
+  <si>
+    <t>296 M</t>
+  </si>
+  <si>
+    <t>297 M</t>
+  </si>
+  <si>
+    <t>298 M</t>
+  </si>
+  <si>
+    <t>299 M</t>
+  </si>
+  <si>
+    <t>300 M</t>
+  </si>
+  <si>
+    <t>301 M</t>
+  </si>
+  <si>
+    <t>302 M</t>
+  </si>
+  <si>
+    <t>303 M</t>
+  </si>
+  <si>
+    <t>304 M</t>
+  </si>
+  <si>
+    <t>305 M</t>
+  </si>
+  <si>
+    <t>306 M</t>
+  </si>
+  <si>
+    <t>307 M</t>
+  </si>
+  <si>
+    <t>308 M</t>
+  </si>
+  <si>
+    <t>309 M</t>
+  </si>
+  <si>
+    <t>310 M</t>
+  </si>
+  <si>
+    <t>311 M</t>
+  </si>
+  <si>
+    <t>312 M</t>
+  </si>
+  <si>
+    <t>313 M</t>
+  </si>
+  <si>
+    <t>314 M</t>
+  </si>
+  <si>
+    <t>315 M</t>
+  </si>
+  <si>
+    <t>316 M</t>
+  </si>
+  <si>
+    <t>317 M</t>
+  </si>
+  <si>
+    <t>318 M</t>
+  </si>
+  <si>
+    <t>319 M</t>
+  </si>
+  <si>
+    <t>320 M</t>
+  </si>
+  <si>
+    <t>321 M</t>
+  </si>
+  <si>
+    <t>322 M</t>
+  </si>
+  <si>
+    <t>323 M</t>
+  </si>
+  <si>
+    <t>324 M</t>
+  </si>
+  <si>
+    <t>325 M</t>
+  </si>
+  <si>
+    <t>326 M</t>
+  </si>
+  <si>
+    <t>327 M</t>
+  </si>
+  <si>
+    <t>M-287</t>
+  </si>
+  <si>
+    <t>Canal C/C/ C/P--Capote</t>
+  </si>
+  <si>
+    <t>M-288</t>
+  </si>
+  <si>
+    <t>M-299</t>
+  </si>
+  <si>
+    <t>CHULETA AHUM</t>
+  </si>
+  <si>
+    <t>M-289</t>
+  </si>
+  <si>
+    <t>M-290</t>
+  </si>
+  <si>
+    <t>Filete Puerco</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
+  </si>
+  <si>
+    <t>M-291</t>
+  </si>
+  <si>
+    <t>M-292</t>
+  </si>
+  <si>
+    <t>M-293</t>
+  </si>
+  <si>
+    <t>M-294</t>
+  </si>
+  <si>
+    <t>M-295</t>
+  </si>
+  <si>
+    <t>M-296</t>
+  </si>
+  <si>
+    <t>M-297</t>
+  </si>
+  <si>
+    <t>Carne abierta--grasa res</t>
+  </si>
+  <si>
+    <t>ASADO</t>
+  </si>
+  <si>
+    <t>M-298</t>
+  </si>
+  <si>
+    <t>M-301</t>
+  </si>
+  <si>
+    <t>M-302</t>
+  </si>
+  <si>
+    <t>M-303</t>
+  </si>
+  <si>
+    <t>CAPOTE</t>
+  </si>
+  <si>
+    <t>Cecina-Sesos-Canal</t>
+  </si>
+  <si>
+    <t>SESOS MARQUETA</t>
+  </si>
+  <si>
+    <t>Canal</t>
+  </si>
+  <si>
+    <t>CARNE ABIERTA</t>
   </si>
 </sst>
 </file>
@@ -475,7 +684,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +767,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -731,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,6 +1033,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1106,10 +1347,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:G61"/>
+  <dimension ref="B1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1981,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>31</v>
       </c>
@@ -1760,7 +2001,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <v>32</v>
       </c>
@@ -1780,7 +2021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6">
         <v>33</v>
       </c>
@@ -1798,7 +2039,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>34</v>
       </c>
@@ -1818,7 +2059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
         <v>35</v>
       </c>
@@ -1838,11 +2079,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>36</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="33">
         <v>45220</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -1858,7 +2099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>37</v>
       </c>
@@ -1878,7 +2119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <v>38</v>
       </c>
@@ -1898,7 +2139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <v>39</v>
       </c>
@@ -1918,7 +2159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <v>40</v>
       </c>
@@ -1938,7 +2179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>41</v>
       </c>
@@ -1958,21 +2199,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <v>42</v>
       </c>
-      <c r="C44" s="11"/>
+      <c r="C44" s="33">
+        <v>45220</v>
+      </c>
       <c r="D44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="10">
+      <c r="E44" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="34">
         <v>0</v>
       </c>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
         <v>43</v>
       </c>
@@ -1992,295 +2239,141 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
-        <v>44</v>
-      </c>
-      <c r="C46" s="4">
-        <v>45222</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46" s="8">
-        <v>22751.1</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
-        <v>45</v>
-      </c>
-      <c r="C47" s="4">
-        <v>45222</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="8">
-        <v>70164.84</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="6">
-        <v>46</v>
-      </c>
-      <c r="C48" s="4">
-        <v>45222</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="8">
-        <v>20764.400000000001</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="6">
-        <v>47</v>
-      </c>
-      <c r="C49" s="4">
-        <v>45222</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="8">
-        <v>18512.5</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="6">
-        <v>48</v>
-      </c>
-      <c r="C50" s="4">
-        <v>45222</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="8">
-        <v>5100.8</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="6">
-        <v>49</v>
-      </c>
-      <c r="C51" s="12">
-        <v>45220</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" s="8">
-        <v>6076.2</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
-        <v>50</v>
-      </c>
-      <c r="C52" s="33">
-        <v>45222</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="34">
-        <v>2436</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="6">
-        <v>51</v>
-      </c>
-      <c r="C53" s="33">
-        <v>45222</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="34">
-        <v>9656</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="6">
-        <v>52</v>
-      </c>
-      <c r="C54" s="4">
-        <v>45222</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="8">
-        <v>48937.4</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="6">
-        <v>53</v>
-      </c>
-      <c r="C55" s="33">
-        <v>45223</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="34">
-        <v>67869.600000000006</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="6">
-        <v>54</v>
-      </c>
-      <c r="C56" s="4">
-        <v>45223</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="8">
-        <v>15440</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="6">
-        <v>55</v>
-      </c>
-      <c r="C57" s="4">
-        <v>45223</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F57" s="8">
-        <v>26845.200000000001</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6">
-        <v>56</v>
-      </c>
-      <c r="C58" s="4">
-        <v>45223</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="F58" s="8">
-        <v>606</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="6">
-        <v>57</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="8">
-        <v>0</v>
-      </c>
-      <c r="G59" s="26"/>
-    </row>
-    <row r="60" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="6">
-        <v>58</v>
-      </c>
+    <row r="46" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="38"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+    </row>
+    <row r="47" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="38"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+    </row>
+    <row r="48" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="38"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="40"/>
+    </row>
+    <row r="49" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="38"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="40"/>
+    </row>
+    <row r="50" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="38"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="40"/>
+    </row>
+    <row r="51" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="38"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
+    </row>
+    <row r="52" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="38"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
+    </row>
+    <row r="53" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="38"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="40"/>
+    </row>
+    <row r="54" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="38"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="40"/>
+    </row>
+    <row r="55" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="38"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="40"/>
+    </row>
+    <row r="56" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="38"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
+    </row>
+    <row r="57" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="38"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="40"/>
+    </row>
+    <row r="58" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="38"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="40"/>
+    </row>
+    <row r="59" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="38"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="40"/>
+    </row>
+    <row r="60" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="6"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="D60" s="13"/>
       <c r="E60" s="30"/>
-      <c r="F60" s="14">
-        <v>0</v>
-      </c>
+      <c r="F60" s="14"/>
       <c r="G60" s="26"/>
     </row>
-    <row r="61" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="D61" s="15" t="s">
         <v>86</v>
@@ -2288,7 +2381,7 @@
       <c r="E61" s="23"/>
       <c r="F61" s="16">
         <f>SUM(F3:F60)</f>
-        <v>1882343.1400000001</v>
+        <v>1567183.1</v>
       </c>
     </row>
   </sheetData>
@@ -2302,6 +2395,1032 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B1:G61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45220</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="8">
+        <v>11736.4</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45222</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="8">
+        <v>22751.1</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45222</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="8">
+        <v>70164.84</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45222</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="8">
+        <v>20764.400000000001</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45222</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="8">
+        <v>18512.5</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45222</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5100.8</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45220</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6076.2</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="33">
+        <v>45222</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="34">
+        <v>2436</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="33">
+        <v>45222</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="34">
+        <v>9656</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45222</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="8">
+        <v>48937.4</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="33">
+        <v>45223</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="34">
+        <v>67869.600000000006</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45223</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="8">
+        <v>15440</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45223</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="8">
+        <v>26845.200000000001</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45223</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="8">
+        <v>606</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45224</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="34">
+        <v>55687.5</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>45224</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="14">
+        <v>10019.6</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>17</v>
+      </c>
+      <c r="C19" s="33">
+        <v>45224</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="34">
+        <v>134020.35999999999</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>18</v>
+      </c>
+      <c r="C20" s="33">
+        <v>45224</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="34">
+        <v>6188</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>19</v>
+      </c>
+      <c r="C21" s="33">
+        <v>45223</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="34">
+        <v>0</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>20</v>
+      </c>
+      <c r="C22" s="33">
+        <v>45224</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>21</v>
+      </c>
+      <c r="C23" s="33">
+        <v>45225</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="34">
+        <v>124407.5</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>22</v>
+      </c>
+      <c r="C24" s="33">
+        <v>45225</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="34">
+        <v>10456.44</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>23</v>
+      </c>
+      <c r="C25" s="33">
+        <v>45225</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="34">
+        <v>345</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>24</v>
+      </c>
+      <c r="C26" s="33">
+        <v>45225</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="34">
+        <v>45834.7</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>25</v>
+      </c>
+      <c r="C27" s="33">
+        <v>45225</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="34">
+        <v>7125</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>26</v>
+      </c>
+      <c r="C28" s="33">
+        <v>45225</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="34">
+        <v>55137.9</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>27</v>
+      </c>
+      <c r="C29" s="33">
+        <v>45226</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="34">
+        <v>37652.400000000001</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>28</v>
+      </c>
+      <c r="C30" s="33">
+        <v>45226</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="34">
+        <v>48202.54</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>29</v>
+      </c>
+      <c r="C31" s="33">
+        <v>45226</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="34">
+        <v>5609.2</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>30</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>31</v>
+      </c>
+      <c r="C33" s="33">
+        <v>45227</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="34">
+        <v>199527.8</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>32</v>
+      </c>
+      <c r="C34" s="33">
+        <v>45227</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="34">
+        <v>29534.1</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>33</v>
+      </c>
+      <c r="C35" s="33">
+        <v>45227</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="34">
+        <v>1734.4</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>34</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="39"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>35</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="42"/>
+    </row>
+    <row r="38" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>36</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="39"/>
+    </row>
+    <row r="39" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>37</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="39"/>
+    </row>
+    <row r="40" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>38</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="39"/>
+    </row>
+    <row r="41" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>39</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="39"/>
+    </row>
+    <row r="42" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>40</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="39"/>
+    </row>
+    <row r="43" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
+        <v>41</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="39"/>
+    </row>
+    <row r="44" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
+        <v>42</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="44"/>
+    </row>
+    <row r="45" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <v>43</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="39"/>
+    </row>
+    <row r="46" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="6">
+        <v>44</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="39"/>
+    </row>
+    <row r="47" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
+        <v>45</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="39"/>
+    </row>
+    <row r="48" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="6">
+        <v>46</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="39"/>
+    </row>
+    <row r="49" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
+        <v>47</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="39"/>
+    </row>
+    <row r="50" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="6">
+        <v>48</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="39"/>
+    </row>
+    <row r="51" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="6">
+        <v>49</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="39"/>
+    </row>
+    <row r="52" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="6">
+        <v>50</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="39"/>
+    </row>
+    <row r="53" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="6">
+        <v>51</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="41"/>
+    </row>
+    <row r="54" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="6">
+        <v>52</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="39"/>
+    </row>
+    <row r="55" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="6">
+        <v>53</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="39"/>
+    </row>
+    <row r="56" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="6">
+        <v>54</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="39"/>
+    </row>
+    <row r="57" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="6">
+        <v>55</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="42"/>
+    </row>
+    <row r="58" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
+        <v>56</v>
+      </c>
+      <c r="C58" s="33"/>
+      <c r="D58" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="39"/>
+    </row>
+    <row r="59" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="6">
+        <v>57</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="31"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="39"/>
+    </row>
+    <row r="60" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="6">
+        <v>58</v>
+      </c>
+      <c r="C60" s="33"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="39"/>
+    </row>
+    <row r="61" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+      <c r="D61" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="23"/>
+      <c r="F61" s="16">
+        <f>SUM(F3:F60)</f>
+        <v>1098378.8799999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="209">
   <si>
     <t>FECHA</t>
   </si>
@@ -542,60 +542,6 @@
     <t>309 M</t>
   </si>
   <si>
-    <t>310 M</t>
-  </si>
-  <si>
-    <t>311 M</t>
-  </si>
-  <si>
-    <t>312 M</t>
-  </si>
-  <si>
-    <t>313 M</t>
-  </si>
-  <si>
-    <t>314 M</t>
-  </si>
-  <si>
-    <t>315 M</t>
-  </si>
-  <si>
-    <t>316 M</t>
-  </si>
-  <si>
-    <t>317 M</t>
-  </si>
-  <si>
-    <t>318 M</t>
-  </si>
-  <si>
-    <t>319 M</t>
-  </si>
-  <si>
-    <t>320 M</t>
-  </si>
-  <si>
-    <t>321 M</t>
-  </si>
-  <si>
-    <t>322 M</t>
-  </si>
-  <si>
-    <t>323 M</t>
-  </si>
-  <si>
-    <t>324 M</t>
-  </si>
-  <si>
-    <t>325 M</t>
-  </si>
-  <si>
-    <t>326 M</t>
-  </si>
-  <si>
-    <t>327 M</t>
-  </si>
-  <si>
     <t>M-287</t>
   </si>
   <si>
@@ -675,6 +621,39 @@
   </si>
   <si>
     <t>CARNE ABIERTA</t>
+  </si>
+  <si>
+    <t>M-300</t>
+  </si>
+  <si>
+    <t>M-304</t>
+  </si>
+  <si>
+    <t>M-305</t>
+  </si>
+  <si>
+    <t>M-306</t>
+  </si>
+  <si>
+    <t>M-307</t>
+  </si>
+  <si>
+    <t>M-308</t>
+  </si>
+  <si>
+    <t>M-309</t>
+  </si>
+  <si>
+    <t>FILETE Pco --Arrachera</t>
+  </si>
+  <si>
+    <t>ABIERTA</t>
+  </si>
+  <si>
+    <t>ENCHILADA</t>
+  </si>
+  <si>
+    <t>ARRACHERA--SUADERO</t>
   </si>
 </sst>
 </file>
@@ -948,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,9 +951,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,18 +1007,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1055,8 +1025,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1347,10 +1317,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:H61"/>
+  <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1358,32 +1328,32 @@
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1397,13 +1367,13 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>90</v>
       </c>
       <c r="F3" s="7">
         <v>45282.8</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1417,13 +1387,13 @@
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>92</v>
       </c>
       <c r="F4" s="8">
         <v>3418.2</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1437,13 +1407,13 @@
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>91</v>
       </c>
       <c r="F5" s="8">
         <v>7277</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1457,13 +1427,13 @@
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>93</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1477,13 +1447,13 @@
       <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>94</v>
       </c>
       <c r="F7" s="8">
         <v>21226.799999999999</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1497,13 +1467,13 @@
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="8">
         <v>149593.20000000001</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1517,13 +1487,13 @@
       <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F9" s="8">
         <v>78056.479999999996</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1537,13 +1507,13 @@
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>104</v>
       </c>
       <c r="F10" s="8">
         <v>2783</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1557,13 +1527,13 @@
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="8">
         <v>36830</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1575,11 +1545,11 @@
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="10">
         <v>0</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
@@ -1591,13 +1561,13 @@
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="8">
         <v>4140</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1611,13 +1581,13 @@
       <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>105</v>
       </c>
       <c r="F14" s="8">
         <v>6612</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1631,13 +1601,13 @@
       <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>106</v>
       </c>
       <c r="F15" s="8">
         <v>600</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1651,13 +1621,13 @@
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="8">
         <v>136.32</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1671,13 +1641,13 @@
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>100</v>
       </c>
       <c r="F17" s="8">
         <v>48332.6</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1691,13 +1661,13 @@
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F18" s="8">
         <v>660</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1711,13 +1681,13 @@
       <c r="D19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="8">
         <v>8616</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1731,13 +1701,13 @@
       <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>109</v>
       </c>
       <c r="F20" s="8">
         <v>5686.8</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1751,13 +1721,13 @@
       <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="8">
         <v>33583.4</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1771,13 +1741,13 @@
       <c r="D22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>102</v>
       </c>
       <c r="F22" s="8">
         <v>25746.9</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1791,13 +1761,13 @@
       <c r="D23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="30" t="s">
         <v>103</v>
       </c>
       <c r="F23" s="8">
         <v>8921.6</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1811,13 +1781,13 @@
       <c r="D24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="8">
         <v>61442.36</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1831,13 +1801,13 @@
       <c r="D25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>111</v>
       </c>
       <c r="F25" s="8">
         <v>15890.6</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1851,13 +1821,13 @@
       <c r="D26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="30" t="s">
         <v>112</v>
       </c>
       <c r="F26" s="8">
         <v>139218.4</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1871,13 +1841,13 @@
       <c r="D27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>113</v>
       </c>
       <c r="F27" s="8">
         <v>50607.12</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1891,13 +1861,13 @@
       <c r="D28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="30" t="s">
         <v>114</v>
       </c>
       <c r="F28" s="8">
         <v>1098.9000000000001</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1911,13 +1881,13 @@
       <c r="D29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="30" t="s">
         <v>115</v>
       </c>
       <c r="F29" s="8">
         <v>14898.4</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1931,13 +1901,13 @@
       <c r="D30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="30" t="s">
         <v>116</v>
       </c>
       <c r="F30" s="8">
         <v>60156.800000000003</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="26" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1951,13 +1921,13 @@
       <c r="D31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="28" t="s">
         <v>117</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1971,13 +1941,13 @@
       <c r="D32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="28" t="s">
         <v>124</v>
       </c>
       <c r="F32" s="8">
         <v>6380.4</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="27" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1991,13 +1961,13 @@
       <c r="D33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F33" s="8">
         <v>32379.200000000001</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2011,13 +1981,13 @@
       <c r="D34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="28" t="s">
         <v>126</v>
       </c>
       <c r="F34" s="8">
         <v>40231.519999999997</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2031,11 +2001,11 @@
       <c r="D35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="29"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="8">
         <v>0</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2049,13 +2019,13 @@
       <c r="D36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="30" t="s">
         <v>128</v>
       </c>
       <c r="F36" s="8">
         <v>139881.26</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2069,13 +2039,13 @@
       <c r="D37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="30" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="8">
         <v>50029.4</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="27" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2083,19 +2053,19 @@
       <c r="B38" s="6">
         <v>36</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="32">
         <v>45220</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="33">
         <v>132575.82</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2109,13 +2079,13 @@
       <c r="D39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="28" t="s">
         <v>130</v>
       </c>
       <c r="F39" s="8">
         <v>2100.6</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2129,13 +2099,13 @@
       <c r="D40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="30" t="s">
         <v>131</v>
       </c>
       <c r="F40" s="8">
         <v>82278.960000000006</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2149,13 +2119,13 @@
       <c r="D41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="28" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="8">
         <v>92378.5</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2169,13 +2139,13 @@
       <c r="D42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="28" t="s">
         <v>118</v>
       </c>
       <c r="F42" s="8">
         <v>26978</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="25" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2189,13 +2159,13 @@
       <c r="D43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="28" t="s">
         <v>134</v>
       </c>
       <c r="F43" s="8">
         <v>119417.36</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2203,19 +2173,19 @@
       <c r="B44" s="6">
         <v>42</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="32">
         <v>45220</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="33">
         <v>0</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="35" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2229,158 +2199,41 @@
       <c r="D45" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="28" t="s">
         <v>119</v>
       </c>
       <c r="F45" s="8">
         <v>11736.4</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="38"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="38"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="40"/>
-    </row>
-    <row r="48" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="40"/>
-    </row>
-    <row r="49" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="38"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="40"/>
-    </row>
-    <row r="50" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="38"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="40"/>
-    </row>
-    <row r="51" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="38"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="40"/>
-    </row>
-    <row r="52" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="38"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="40"/>
-    </row>
-    <row r="53" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="38"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="40"/>
-    </row>
-    <row r="54" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="38"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="40"/>
-    </row>
-    <row r="55" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="38"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="40"/>
-    </row>
-    <row r="56" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="38"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="40"/>
-    </row>
-    <row r="57" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="38"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="40"/>
-    </row>
-    <row r="58" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="38"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="40"/>
-    </row>
-    <row r="59" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="38"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="40"/>
-    </row>
-    <row r="60" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="6"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-      <c r="D61" s="15" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
+    </row>
+    <row r="47" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="6"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="2:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+      <c r="D48" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="16">
-        <f>SUM(F3:F60)</f>
+      <c r="E48" s="22"/>
+      <c r="F48" s="15">
+        <f>SUM(F3:F47)</f>
         <v>1567183.1</v>
       </c>
     </row>
@@ -2398,10 +2251,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:G61"/>
+  <dimension ref="B1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2409,32 +2262,32 @@
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2448,13 +2301,13 @@
       <c r="D3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>119</v>
       </c>
       <c r="F3" s="8">
         <v>11736.4</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2468,13 +2321,13 @@
       <c r="D4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>120</v>
       </c>
       <c r="F4" s="8">
         <v>22751.1</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2488,13 +2341,13 @@
       <c r="D5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="8">
         <v>70164.84</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2508,13 +2361,13 @@
       <c r="D6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="8">
         <v>20764.400000000001</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2528,13 +2381,13 @@
       <c r="D7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>123</v>
       </c>
       <c r="F7" s="8">
         <v>18512.5</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2548,13 +2401,13 @@
       <c r="D8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="8">
         <v>5100.8</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2562,19 +2415,19 @@
       <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>45220</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>132</v>
       </c>
       <c r="F9" s="8">
         <v>6076.2</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2582,19 +2435,19 @@
       <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="32">
         <v>45222</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <v>2436</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2602,19 +2455,19 @@
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>45222</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <v>9656</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2628,13 +2481,13 @@
       <c r="D12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>137</v>
       </c>
       <c r="F12" s="8">
         <v>48937.4</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2642,19 +2495,19 @@
       <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>45223</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="33">
         <v>67869.600000000006</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2668,13 +2521,13 @@
       <c r="D14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>127</v>
       </c>
       <c r="F14" s="8">
         <v>15440</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2688,13 +2541,13 @@
       <c r="D15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>141</v>
       </c>
       <c r="F15" s="8">
         <v>26845.200000000001</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2708,13 +2561,13 @@
       <c r="D16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>142</v>
       </c>
       <c r="F16" s="8">
         <v>606</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2728,14 +2581,14 @@
       <c r="D17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="34">
+      <c r="E17" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="33">
         <v>55687.5</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>190</v>
+      <c r="G17" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2745,36 +2598,36 @@
       <c r="C18" s="4">
         <v>45224</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="E18" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="13">
         <v>10019.6</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>193</v>
+      <c r="G18" s="25" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>17</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <v>45224</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="34">
+      <c r="E19" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="33">
         <v>134020.35999999999</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="40" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2782,39 +2635,39 @@
       <c r="B20" s="6">
         <v>18</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <v>45224</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" s="34">
+      <c r="E20" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="33">
         <v>6188</v>
       </c>
-      <c r="G20" s="43" t="s">
-        <v>196</v>
+      <c r="G20" s="40" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>19</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="32">
         <v>45223</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="34">
+      <c r="E21" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="33">
         <v>0</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="41" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2822,19 +2675,19 @@
       <c r="B22" s="6">
         <v>20</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="32">
         <v>45224</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="E22" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="33">
         <v>0</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="41" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2842,19 +2695,19 @@
       <c r="B23" s="6">
         <v>21</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="32">
         <v>45225</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23" s="34">
+      <c r="E23" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="33">
         <v>124407.5</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="40" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2862,39 +2715,39 @@
       <c r="B24" s="6">
         <v>22</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="32">
         <v>45225</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="34">
+      <c r="E24" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="33">
         <v>10456.44</v>
       </c>
-      <c r="G24" s="39" t="s">
-        <v>205</v>
+      <c r="G24" s="37" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>23</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="32">
         <v>45225</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" s="34">
+      <c r="E25" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="33">
         <v>345</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="40" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2902,19 +2755,19 @@
       <c r="B26" s="6">
         <v>24</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="32">
         <v>45225</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26" s="34">
+      <c r="E26" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="33">
         <v>45834.7</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="40" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2922,79 +2775,79 @@
       <c r="B27" s="6">
         <v>25</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="32">
         <v>45225</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="34">
+      <c r="E27" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="33">
         <v>7125</v>
       </c>
-      <c r="G27" s="43" t="s">
-        <v>206</v>
+      <c r="G27" s="40" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <v>26</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="32">
         <v>45225</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="34">
+      <c r="E28" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="33">
         <v>55137.9</v>
       </c>
-      <c r="G28" s="43" t="s">
-        <v>211</v>
+      <c r="G28" s="40" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>27</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="32">
         <v>45226</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F29" s="34">
+      <c r="E29" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="33">
         <v>37652.400000000001</v>
       </c>
-      <c r="G29" s="43" t="s">
-        <v>212</v>
+      <c r="G29" s="40" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>28</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="32">
         <v>45226</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="F30" s="34">
+      <c r="E30" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="33">
         <v>48202.54</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="40" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3002,51 +2855,59 @@
       <c r="B31" s="6">
         <v>29</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="32">
         <v>45226</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="34">
+      <c r="E31" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="33">
         <v>5609.2</v>
       </c>
-      <c r="G31" s="39" t="s">
-        <v>213</v>
+      <c r="G31" s="37" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="32">
+        <v>45226</v>
+      </c>
+      <c r="D32" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="42"/>
+      <c r="E32" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="33">
+        <v>43436.800000000003</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>31</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="32">
         <v>45227</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="F33" s="34">
+      <c r="E33" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="33">
         <v>199527.8</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="40" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3054,349 +2915,181 @@
       <c r="B34" s="6">
         <v>32</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="32">
         <v>45227</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="F34" s="34">
+      <c r="E34" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="33">
         <v>29534.1</v>
       </c>
-      <c r="G34" s="43" t="s">
-        <v>214</v>
+      <c r="G34" s="40" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <v>33</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="32">
         <v>45227</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E35" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="34">
+      <c r="E35" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="33">
         <v>1734.4</v>
       </c>
-      <c r="G35" s="39" t="s">
-        <v>215</v>
+      <c r="G35" s="37" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>34</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="33">
+        <v>17967.2</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
         <v>35</v>
       </c>
-      <c r="C37" s="33"/>
+      <c r="C37" s="32">
+        <v>45227</v>
+      </c>
       <c r="D37" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="42"/>
+      <c r="E37" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="33">
+        <v>640</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="38" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>36</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="39"/>
+      <c r="E38" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="33">
+        <v>7296</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="39" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>37</v>
       </c>
-      <c r="C39" s="33"/>
+      <c r="C39" s="32">
+        <v>45227</v>
+      </c>
       <c r="D39" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="39"/>
+      <c r="E39" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="33">
+        <v>17830.3</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="40" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <v>38</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="13" t="s">
+      <c r="C40" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="39"/>
+      <c r="E40" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="33">
+        <v>1211.4000000000001</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="41" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <v>39</v>
       </c>
-      <c r="C41" s="33"/>
+      <c r="C41" s="32">
+        <v>45227</v>
+      </c>
       <c r="D41" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="39"/>
-    </row>
-    <row r="42" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="33">
+        <v>20743.599999999999</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
-        <v>40</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="39"/>
-    </row>
-    <row r="43" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="6">
-        <v>41</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="39"/>
-    </row>
-    <row r="44" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="6">
-        <v>42</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="44"/>
-    </row>
-    <row r="45" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="6">
-        <v>43</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="39"/>
-    </row>
-    <row r="46" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
-        <v>44</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="39"/>
-    </row>
-    <row r="47" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
-        <v>45</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="39"/>
-    </row>
-    <row r="48" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="6">
-        <v>46</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="39"/>
-    </row>
-    <row r="49" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="6">
-        <v>47</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="39"/>
-    </row>
-    <row r="50" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="6">
-        <v>48</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="39"/>
-    </row>
-    <row r="51" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="6">
-        <v>49</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="39"/>
-    </row>
-    <row r="52" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
-        <v>50</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="39"/>
-    </row>
-    <row r="53" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="6">
-        <v>51</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="41"/>
-    </row>
-    <row r="54" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="6">
-        <v>52</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="39"/>
-    </row>
-    <row r="55" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="6">
-        <v>53</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="39"/>
-    </row>
-    <row r="56" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="6">
-        <v>54</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="39"/>
-    </row>
-    <row r="57" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="6">
-        <v>55</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="42"/>
-    </row>
-    <row r="58" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6">
-        <v>56</v>
-      </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="39"/>
-    </row>
-    <row r="59" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="6">
-        <v>57</v>
-      </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E59" s="31"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="39"/>
-    </row>
-    <row r="60" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="6">
         <v>58</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="39"/>
-    </row>
-    <row r="61" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-      <c r="D61" s="15" t="s">
+      <c r="C42" s="32"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="37"/>
+    </row>
+    <row r="43" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+      <c r="D43" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="16">
-        <f>SUM(F3:F60)</f>
-        <v>1098378.8799999999</v>
+      <c r="E43" s="22"/>
+      <c r="F43" s="15">
+        <f>SUM(F3:F42)</f>
+        <v>1207504.18</v>
       </c>
     </row>
   </sheetData>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -1319,8 +1319,8 @@
   </sheetPr>
   <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2253,8 +2253,8 @@
   </sheetPr>
   <dimension ref="B1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2262,7 +2262,7 @@
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3072,9 +3072,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="6">
-        <v>58</v>
-      </c>
+      <c r="B42" s="6"/>
       <c r="C42" s="32"/>
       <c r="D42" s="42"/>
       <c r="E42" s="43"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="230">
   <si>
     <t>FECHA</t>
   </si>
@@ -654,6 +654,69 @@
   </si>
   <si>
     <t>ARRACHERA--SUADERO</t>
+  </si>
+  <si>
+    <t>P R O D U C C I O N     16- al  21-Oct-2023</t>
+  </si>
+  <si>
+    <t>NOTA</t>
+  </si>
+  <si>
+    <t>SUCURSAL</t>
+  </si>
+  <si>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>(2)OBRADOR</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T O T A L </t>
+  </si>
+  <si>
+    <t>P R O D U C C I O N     23- al  28-Oct-2023</t>
+  </si>
+  <si>
+    <t>17/10/2023</t>
+  </si>
+  <si>
+    <t>18/10/2023</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>21/10/2023</t>
+  </si>
+  <si>
+    <t>M-238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBRADOR A CENTRAL </t>
+  </si>
+  <si>
+    <t>SEMANA DEL  16-21 OCTUBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFERENCIA QUE PAGARA  CENTRAL </t>
   </si>
 </sst>
 </file>
@@ -663,7 +726,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,8 +821,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,8 +876,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -922,12 +1032,278 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1008,11 +1384,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1025,7 +1397,152 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,6 +1554,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CCFF"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -1049,6 +1570,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4752975" y="10287000"/>
+          <a:ext cx="4562475" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1317,10 +1890,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:H48"/>
+  <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1328,20 +1901,32 @@
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="78"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="45" t="s">
+    <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -1353,11 +1938,24 @@
       <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="70"/>
+      <c r="J2" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -1376,8 +1974,21 @@
       <c r="G3" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="70"/>
+      <c r="J3" s="79">
+        <v>16</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="82">
+        <v>4293.3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -1396,8 +2007,21 @@
       <c r="G4" s="26" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="70"/>
+      <c r="J4" s="83">
+        <v>19</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="86">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -1416,8 +2040,21 @@
       <c r="G5" s="26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="70"/>
+      <c r="J5" s="83">
+        <v>20</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="86">
+        <v>14645</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -1436,8 +2073,21 @@
       <c r="G6" s="24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="70"/>
+      <c r="J6" s="87">
+        <v>26</v>
+      </c>
+      <c r="K6" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="90">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -1456,8 +2106,21 @@
       <c r="G7" s="26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="70"/>
+      <c r="J7" s="87">
+        <v>190</v>
+      </c>
+      <c r="K7" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="90">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -1476,8 +2139,21 @@
       <c r="G8" s="26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="70"/>
+      <c r="J8" s="83">
+        <v>189</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="L8" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="86">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -1496,8 +2172,21 @@
       <c r="G9" s="26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="70"/>
+      <c r="J9" s="83">
+        <v>194</v>
+      </c>
+      <c r="K9" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="L9" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="86">
+        <v>6063.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -1516,8 +2205,21 @@
       <c r="G10" s="26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="70"/>
+      <c r="J10" s="87">
+        <v>195</v>
+      </c>
+      <c r="K10" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="90">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -1536,22 +2238,54 @@
       <c r="G11" s="26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="70"/>
+      <c r="J11" s="83">
+        <v>196</v>
+      </c>
+      <c r="K11" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="86">
+        <v>70525</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>45216</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="91" t="s">
+        <v>226</v>
+      </c>
       <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79232.399999999994</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="70"/>
+      <c r="J12" s="87">
+        <v>198</v>
+      </c>
+      <c r="K12" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="L12" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="90">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -1570,8 +2304,21 @@
       <c r="G13" s="25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="70"/>
+      <c r="J13" s="87">
+        <v>200</v>
+      </c>
+      <c r="K13" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="90">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -1590,8 +2337,21 @@
       <c r="G14" s="26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="70"/>
+      <c r="J14" s="83">
+        <v>202</v>
+      </c>
+      <c r="K14" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="86">
+        <v>2943.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -1610,8 +2370,21 @@
       <c r="G15" s="26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="70"/>
+      <c r="J15" s="87">
+        <v>207</v>
+      </c>
+      <c r="K15" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="L15" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="90">
+        <v>67424</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>14</v>
       </c>
@@ -1630,8 +2403,21 @@
       <c r="G16" s="26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="70"/>
+      <c r="J16" s="87">
+        <v>209</v>
+      </c>
+      <c r="K16" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="90">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>15</v>
       </c>
@@ -1650,8 +2436,21 @@
       <c r="G17" s="26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="70"/>
+      <c r="J17" s="83">
+        <v>210</v>
+      </c>
+      <c r="K17" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="L17" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="86">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>16</v>
       </c>
@@ -1670,8 +2469,21 @@
       <c r="G18" s="26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="70"/>
+      <c r="J18" s="87">
+        <v>212</v>
+      </c>
+      <c r="K18" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="L18" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="90">
+        <v>35952</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>17</v>
       </c>
@@ -1690,8 +2502,21 @@
       <c r="G19" s="26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="70"/>
+      <c r="J19" s="83">
+        <v>214</v>
+      </c>
+      <c r="K19" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="86">
+        <v>37139.199999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>18</v>
       </c>
@@ -1710,8 +2535,21 @@
       <c r="G20" s="26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="70"/>
+      <c r="J20" s="83">
+        <v>216</v>
+      </c>
+      <c r="K20" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" s="86">
+        <v>34759.199999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>19</v>
       </c>
@@ -1730,8 +2568,21 @@
       <c r="G21" s="26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="70"/>
+      <c r="J21" s="87">
+        <v>217</v>
+      </c>
+      <c r="K21" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="90">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>20</v>
       </c>
@@ -1750,8 +2601,21 @@
       <c r="G22" s="26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="70"/>
+      <c r="J22" s="87">
+        <v>222</v>
+      </c>
+      <c r="K22" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="90">
+        <v>13956</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>21</v>
       </c>
@@ -1770,8 +2634,21 @@
       <c r="G23" s="26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="70"/>
+      <c r="J23" s="83">
+        <v>223</v>
+      </c>
+      <c r="K23" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" s="86">
+        <v>38640</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <v>22</v>
       </c>
@@ -1790,8 +2667,21 @@
       <c r="G24" s="25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="70"/>
+      <c r="J24" s="83">
+        <v>230</v>
+      </c>
+      <c r="K24" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="86">
+        <v>28201.599999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <v>23</v>
       </c>
@@ -1810,8 +2700,21 @@
       <c r="G25" s="26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="70"/>
+      <c r="J25" s="83">
+        <v>232</v>
+      </c>
+      <c r="K25" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="86">
+        <v>6568.24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <v>24</v>
       </c>
@@ -1830,8 +2733,21 @@
       <c r="G26" s="26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="70"/>
+      <c r="J26" s="83">
+        <v>235</v>
+      </c>
+      <c r="K26" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="86">
+        <v>43581.599999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <v>25</v>
       </c>
@@ -1850,8 +2766,21 @@
       <c r="G27" s="26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="70"/>
+      <c r="J27" s="87">
+        <v>236</v>
+      </c>
+      <c r="K27" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="90">
+        <v>56403.199999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <v>26</v>
       </c>
@@ -1870,8 +2799,21 @@
       <c r="G28" s="26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="70"/>
+      <c r="J28" s="83">
+        <v>238</v>
+      </c>
+      <c r="K28" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="86">
+        <v>12908</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>27</v>
       </c>
@@ -1890,8 +2832,15 @@
       <c r="G29" s="26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="70"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>28</v>
       </c>
@@ -1910,8 +2859,15 @@
       <c r="G30" s="26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="70"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6">
         <v>29</v>
       </c>
@@ -1930,8 +2886,18 @@
       <c r="G31" s="24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I31" s="70"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="M31" s="75">
+        <f>SUM(M3:M30)</f>
+        <v>608557.34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
         <v>30</v>
       </c>
@@ -1950,8 +2916,20 @@
       <c r="G32" s="27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="70"/>
+      <c r="J32" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="95"/>
+      <c r="L32" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="M32" s="96">
+        <f>F47</f>
+        <v>1646415.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <v>31</v>
       </c>
@@ -1970,8 +2948,15 @@
       <c r="G33" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="70"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <v>32</v>
       </c>
@@ -1990,8 +2975,11 @@
       <c r="G34" s="26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="70"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="92"/>
+    </row>
+    <row r="35" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6">
         <v>33</v>
       </c>
@@ -2008,8 +2996,13 @@
       <c r="G35" s="24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="70"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+    </row>
+    <row r="36" spans="2:13" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>34</v>
       </c>
@@ -2028,8 +3021,17 @@
       <c r="G36" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I36" s="70"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="117" t="s">
+        <v>229</v>
+      </c>
+      <c r="M36" s="118">
+        <f>M32-M31</f>
+        <v>1037858.16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6">
         <v>35</v>
       </c>
@@ -2045,11 +3047,15 @@
       <c r="F37" s="8">
         <v>50029.4</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="45" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="70"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="120"/>
+    </row>
+    <row r="38" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>36</v>
       </c>
@@ -2068,8 +3074,12 @@
       <c r="G38" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="70"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+    </row>
+    <row r="39" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6">
         <v>37</v>
       </c>
@@ -2088,8 +3098,12 @@
       <c r="G39" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="70"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+    </row>
+    <row r="40" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <v>38</v>
       </c>
@@ -2108,8 +3122,14 @@
       <c r="G40" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="70"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="121" t="s">
+        <v>228</v>
+      </c>
+      <c r="M40" s="122"/>
+    </row>
+    <row r="41" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
         <v>39</v>
       </c>
@@ -2128,8 +3148,11 @@
       <c r="G41" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="70"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="124"/>
+    </row>
+    <row r="42" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <v>40</v>
       </c>
@@ -2148,8 +3171,9 @@
       <c r="G42" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="70"/>
+    </row>
+    <row r="43" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>41</v>
       </c>
@@ -2168,8 +3192,9 @@
       <c r="G43" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="70"/>
+    </row>
+    <row r="44" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <v>42</v>
       </c>
@@ -2188,8 +3213,9 @@
       <c r="G44" s="35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="70"/>
+    </row>
+    <row r="45" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
         <v>43</v>
       </c>
@@ -2208,41 +3234,40 @@
       <c r="G45" s="25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="36"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="38"/>
-    </row>
-    <row r="47" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="6"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="25"/>
-    </row>
-    <row r="48" spans="2:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="D48" s="14" t="s">
+      <c r="I45" s="70"/>
+    </row>
+    <row r="46" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="6"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="25"/>
+      <c r="I46" s="70"/>
+    </row>
+    <row r="47" spans="2:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="D47" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="15">
-        <f>SUM(F3:F47)</f>
-        <v>1567183.1</v>
-      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="15">
+        <f>SUM(F3:F46)</f>
+        <v>1646415.5</v>
+      </c>
+      <c r="I47" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L40:M41"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.76" right="0.23622047244094491" top="0.27559055118110237" bottom="0.27559055118110237" header="0.3" footer="0.31496062992125984"/>
+  <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2251,30 +3276,42 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:G43"/>
+  <dimension ref="B1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="45" t="s">
+    <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="J1" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2290,8 +3327,20 @@
       <c r="G2" s="20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -2310,8 +3359,12 @@
       <c r="G3" s="25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
+    </row>
+    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -2330,8 +3383,20 @@
       <c r="G4" s="25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="54">
+        <v>240</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="56">
+        <v>7527</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -2350,8 +3415,20 @@
       <c r="G5" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="57">
+        <v>245</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -2370,8 +3447,20 @@
       <c r="G6" s="25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="60">
+        <v>246</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="62">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -2390,8 +3479,20 @@
       <c r="G7" s="25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="57">
+        <v>247</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="59">
+        <v>12558</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -2410,8 +3511,20 @@
       <c r="G8" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="60">
+        <v>250</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -2430,8 +3543,20 @@
       <c r="G9" s="25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="57">
+        <v>251</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="59">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -2450,8 +3575,20 @@
       <c r="G10" s="25" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J10" s="60">
+        <v>255</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="62">
+        <v>118812.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -2470,8 +3607,20 @@
       <c r="G11" s="34" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="63">
+        <v>253</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="65">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -2490,8 +3639,20 @@
       <c r="G12" s="25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="66">
+        <v>254</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="68">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -2510,8 +3671,20 @@
       <c r="G13" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="57">
+        <v>258</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="59">
+        <v>291869.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -2530,8 +3703,20 @@
       <c r="G14" s="25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="66">
+        <v>261</v>
+      </c>
+      <c r="K14" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="68">
+        <v>267583.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -2550,8 +3735,20 @@
       <c r="G15" s="27" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="57">
+        <v>263</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="59">
+        <v>868.25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>14</v>
       </c>
@@ -2570,8 +3767,20 @@
       <c r="G16" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="66">
+        <v>264</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>15</v>
       </c>
@@ -2590,8 +3799,20 @@
       <c r="G17" s="25" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="57">
+        <v>268</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="59">
+        <v>1487.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>16</v>
       </c>
@@ -2610,8 +3831,20 @@
       <c r="G18" s="25" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="60">
+        <v>269</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="62">
+        <v>25721.599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>17</v>
       </c>
@@ -2627,11 +3860,23 @@
       <c r="F19" s="33">
         <v>134020.35999999999</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="60">
+        <v>271</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="62">
+        <v>4330.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>18</v>
       </c>
@@ -2647,11 +3892,23 @@
       <c r="F20" s="33">
         <v>6188</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="38" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="60">
+        <v>272</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" s="62">
+        <v>14056</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>19</v>
       </c>
@@ -2667,11 +3924,23 @@
       <c r="F21" s="33">
         <v>0</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="57">
+        <v>274</v>
+      </c>
+      <c r="K21" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="59">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>20</v>
       </c>
@@ -2687,11 +3956,23 @@
       <c r="F22" s="33">
         <v>0</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="57">
+        <v>278</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="59">
+        <v>603.84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>21</v>
       </c>
@@ -2707,11 +3988,23 @@
       <c r="F23" s="33">
         <v>124407.5</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="60">
+        <v>289</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" s="62">
+        <v>7531.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <v>22</v>
       </c>
@@ -2727,11 +4020,23 @@
       <c r="F24" s="33">
         <v>10456.44</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="36" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="60">
+        <v>293</v>
+      </c>
+      <c r="K24" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <v>23</v>
       </c>
@@ -2747,11 +4052,23 @@
       <c r="F25" s="33">
         <v>345</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="57">
+        <v>296</v>
+      </c>
+      <c r="K25" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="59">
+        <v>1601.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <v>24</v>
       </c>
@@ -2767,11 +4084,23 @@
       <c r="F26" s="33">
         <v>45834.7</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="57">
+        <v>298</v>
+      </c>
+      <c r="K26" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="59">
+        <v>104685.44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <v>25</v>
       </c>
@@ -2787,11 +4116,23 @@
       <c r="F27" s="33">
         <v>7125</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="38" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="57">
+        <v>304</v>
+      </c>
+      <c r="K27" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="59">
+        <v>2008.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <v>26</v>
       </c>
@@ -2807,11 +4148,23 @@
       <c r="F28" s="33">
         <v>55137.9</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="38" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="57">
+        <v>306</v>
+      </c>
+      <c r="K28" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="59">
+        <v>8084</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <v>27</v>
       </c>
@@ -2827,11 +4180,23 @@
       <c r="F29" s="33">
         <v>37652.400000000001</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="38" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="60">
+        <v>309</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="L29" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" s="62">
+        <v>266.94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>28</v>
       </c>
@@ -2847,11 +4212,23 @@
       <c r="F30" s="33">
         <v>48202.54</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="57">
+        <v>310</v>
+      </c>
+      <c r="K30" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="L30" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" s="59">
+        <v>158.36000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <v>29</v>
       </c>
@@ -2867,18 +4244,30 @@
       <c r="F31" s="33">
         <v>5609.2</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="36" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="60">
+        <v>311</v>
+      </c>
+      <c r="K31" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M31" s="62">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
         <v>30</v>
       </c>
       <c r="C32" s="32">
         <v>45226</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="40" t="s">
         <v>161</v>
       </c>
       <c r="E32" s="30" t="s">
@@ -2887,11 +4276,23 @@
       <c r="F32" s="33">
         <v>43436.800000000003</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="57">
+        <v>312</v>
+      </c>
+      <c r="K32" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M32" s="59">
+        <v>62048</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <v>31</v>
       </c>
@@ -2907,11 +4308,23 @@
       <c r="F33" s="33">
         <v>199527.8</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="60">
+        <v>313</v>
+      </c>
+      <c r="K33" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="62">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <v>32</v>
       </c>
@@ -2927,11 +4340,23 @@
       <c r="F34" s="33">
         <v>29534.1</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="38" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="60">
+        <v>323</v>
+      </c>
+      <c r="K34" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M34" s="62">
+        <v>1267.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6">
         <v>33</v>
       </c>
@@ -2947,11 +4372,23 @@
       <c r="F35" s="33">
         <v>1734.4</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="36" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="60">
+        <v>325</v>
+      </c>
+      <c r="K35" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="L35" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M35" s="62">
+        <v>29356.799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6">
         <v>34</v>
       </c>
@@ -2967,11 +4404,23 @@
       <c r="F36" s="33">
         <v>17967.2</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="36" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="60">
+        <v>331</v>
+      </c>
+      <c r="K36" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="M36" s="101">
+        <v>3539.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6">
         <v>35</v>
       </c>
@@ -2987,11 +4436,18 @@
       <c r="F37" s="33">
         <v>640</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="37" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="M37" s="103">
+        <f>SUM(M4:M36)</f>
+        <v>982143.22999999986</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="6">
         <v>36</v>
       </c>
@@ -3007,11 +4463,15 @@
       <c r="F38" s="33">
         <v>7296</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="36" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="102"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="113"/>
+    </row>
+    <row r="39" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>37</v>
       </c>
@@ -3027,11 +4487,20 @@
       <c r="F39" s="33">
         <v>17830.3</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="G39" s="36" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="92"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="M39" s="105">
+        <f>F43-M37</f>
+        <v>225360.95000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
         <v>38</v>
       </c>
@@ -3047,11 +4516,14 @@
       <c r="F40" s="33">
         <v>1211.4000000000001</v>
       </c>
-      <c r="G40" s="37" t="s">
+      <c r="G40" s="36" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="109"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="106"/>
+    </row>
+    <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <v>39</v>
       </c>
@@ -3067,19 +4539,22 @@
       <c r="F41" s="33">
         <v>20743.599999999999</v>
       </c>
-      <c r="G41" s="37" t="s">
+      <c r="G41" s="36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="109"/>
+      <c r="L41" s="109"/>
+      <c r="M41" s="109"/>
+    </row>
+    <row r="42" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="32"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="2:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="D43" s="14" t="s">
         <v>86</v>
@@ -3091,10 +4566,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.6" right="0.15748031496062992" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="245">
   <si>
     <t>FECHA</t>
   </si>
@@ -717,6 +717,51 @@
   </si>
   <si>
     <t xml:space="preserve">DIFERENCIA QUE PAGARA  CENTRAL </t>
+  </si>
+  <si>
+    <t>0272 M</t>
+  </si>
+  <si>
+    <t>0273 M</t>
+  </si>
+  <si>
+    <t>0274 M</t>
+  </si>
+  <si>
+    <t>310 M</t>
+  </si>
+  <si>
+    <t>311 M</t>
+  </si>
+  <si>
+    <t>312 M</t>
+  </si>
+  <si>
+    <t>313 M</t>
+  </si>
+  <si>
+    <t>M-280</t>
+  </si>
+  <si>
+    <t>M-283</t>
+  </si>
+  <si>
+    <t>M-286</t>
+  </si>
+  <si>
+    <t>M-310</t>
+  </si>
+  <si>
+    <t>M-311</t>
+  </si>
+  <si>
+    <t>M-312</t>
+  </si>
+  <si>
+    <t>M-313</t>
+  </si>
+  <si>
+    <t>M-314</t>
   </si>
 </sst>
 </file>
@@ -726,7 +771,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,6 +889,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1303,7 +1356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1405,9 +1458,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1437,9 +1487,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1480,12 +1527,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1499,18 +1540,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1521,18 +1550,30 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1544,6 +1585,43 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1890,42 +1968,55 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:M47"/>
+  <dimension ref="B1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="78"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22" style="18" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="32.28515625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="76"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="26.5703125" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="46" t="s">
+    <row r="1" spans="2:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="69" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="L1" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+    </row>
+    <row r="2" spans="2:22" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
@@ -1941,1311 +2032,1866 @@
       <c r="G2" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="47" t="s">
+      <c r="L2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="68"/>
+      <c r="S2" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="T2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="U2" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="V2" s="48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="125">
+        <v>45222</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="133" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="127">
+        <v>22751.1</v>
+      </c>
+      <c r="G3" s="128"/>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
         <v>45215</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="7">
+      <c r="O3" s="7">
         <v>45282.8</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="79">
+      <c r="R3" s="68"/>
+      <c r="S3" s="77">
         <v>16</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="T3" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="L3" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="82">
+      <c r="U3" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="V3" s="80">
         <v>4293.3</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="33">
+        <v>70164.84</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
         <v>45215</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="8">
+      <c r="O4" s="8">
         <v>3418.2</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="P4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="83">
+      <c r="R4" s="68"/>
+      <c r="S4" s="81">
         <v>19</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="T4" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="L4" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="86">
+      <c r="U4" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V4" s="84">
         <v>4536</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="33">
+        <v>20764.400000000001</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
         <v>45215</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="N5" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="8">
+      <c r="O5" s="8">
         <v>7277</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="P5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="83">
+      <c r="R5" s="68"/>
+      <c r="S5" s="81">
         <v>20</v>
       </c>
-      <c r="K5" s="84" t="s">
+      <c r="T5" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="L5" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M5" s="86">
+      <c r="U5" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V5" s="84">
         <v>14645</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D6" s="129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="33">
+        <v>18512.5</v>
+      </c>
+      <c r="G6" s="130"/>
+      <c r="K6" s="6">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
         <v>45215</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="N6" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="8">
+      <c r="O6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="P6" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="87">
+      <c r="R6" s="68"/>
+      <c r="S6" s="85">
         <v>26</v>
       </c>
-      <c r="K6" s="88" t="s">
+      <c r="T6" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="L6" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="90">
+      <c r="U6" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="88">
         <v>2139</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D7" s="129" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="33">
+        <v>5100.8</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="K7" s="6">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
         <v>45215</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="N7" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="8">
+      <c r="O7" s="8">
         <v>21226.799999999999</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="P7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="87">
+      <c r="R7" s="68"/>
+      <c r="S7" s="85">
         <v>190</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="T7" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="L7" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M7" s="90">
+      <c r="U7" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="V7" s="88">
         <v>6365</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="135">
+        <v>45220</v>
+      </c>
+      <c r="D8" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="134" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="38"/>
+      <c r="K8" s="6">
+        <v>6</v>
+      </c>
+      <c r="L8" s="4">
         <v>45215</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="N8" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="8">
+      <c r="O8" s="8">
         <v>149593.20000000001</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="P8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="83">
+      <c r="R8" s="68"/>
+      <c r="S8" s="81">
         <v>189</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="T8" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="L8" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M8" s="86">
+      <c r="U8" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V8" s="84">
         <v>2691</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="32"/>
+      <c r="D9" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="38"/>
+      <c r="K9" s="6">
+        <v>7</v>
+      </c>
+      <c r="L9" s="4">
         <v>45215</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="N9" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="8">
+      <c r="O9" s="8">
         <v>78056.479999999996</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="P9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="83">
+      <c r="R9" s="68"/>
+      <c r="S9" s="81">
         <v>194</v>
       </c>
-      <c r="K9" s="84" t="s">
+      <c r="T9" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="L9" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M9" s="86">
+      <c r="U9" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V9" s="84">
         <v>6063.4</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="32"/>
+      <c r="D10" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="38"/>
+      <c r="K10" s="6">
+        <v>8</v>
+      </c>
+      <c r="L10" s="4">
         <v>45215</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="N10" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="8">
+      <c r="O10" s="8">
         <v>2783</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="P10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="87">
+      <c r="R10" s="68"/>
+      <c r="S10" s="85">
         <v>195</v>
       </c>
-      <c r="K10" s="88" t="s">
+      <c r="T10" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="L10" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="90">
+      <c r="U10" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="V10" s="88">
         <v>3842</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="32"/>
+      <c r="D11" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="38"/>
+      <c r="K11" s="6">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4">
         <v>45216</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="N11" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="8">
+      <c r="O11" s="8">
         <v>36830</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="P11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="83">
+      <c r="R11" s="68"/>
+      <c r="S11" s="81">
         <v>196</v>
       </c>
-      <c r="K11" s="84" t="s">
+      <c r="T11" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="L11" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M11" s="86">
+      <c r="U11" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V11" s="84">
         <v>70525</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="32"/>
+      <c r="D12" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="38"/>
+      <c r="K12" s="6">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
         <v>45216</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="N12" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="10">
+      <c r="O12" s="10">
         <v>79232.399999999994</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="P12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="70"/>
-      <c r="J12" s="87">
+      <c r="R12" s="68"/>
+      <c r="S12" s="85">
         <v>198</v>
       </c>
-      <c r="K12" s="88" t="s">
+      <c r="T12" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="L12" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M12" s="90">
+      <c r="U12" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="V12" s="88">
         <v>6720</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="32"/>
+      <c r="D13" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="36"/>
+      <c r="K13" s="6">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4">
         <v>45216</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="N13" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="8">
+      <c r="O13" s="8">
         <v>4140</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="P13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="87">
+      <c r="R13" s="68"/>
+      <c r="S13" s="85">
         <v>200</v>
       </c>
-      <c r="K13" s="88" t="s">
+      <c r="T13" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="L13" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M13" s="90">
+      <c r="U13" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="V13" s="88">
         <v>1501</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="32"/>
+      <c r="D14" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+      <c r="K14" s="6">
+        <v>12</v>
+      </c>
+      <c r="L14" s="4">
         <v>45216</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="N14" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="8">
+      <c r="O14" s="8">
         <v>6612</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="P14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="83">
+      <c r="R14" s="68"/>
+      <c r="S14" s="81">
         <v>202</v>
       </c>
-      <c r="K14" s="84" t="s">
+      <c r="T14" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="L14" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M14" s="86">
+      <c r="U14" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V14" s="84">
         <v>2943.6</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="32"/>
+      <c r="D15" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+      <c r="K15" s="6">
+        <v>13</v>
+      </c>
+      <c r="L15" s="4">
         <v>45216</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="N15" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="8">
+      <c r="O15" s="8">
         <v>600</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="P15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="87">
+      <c r="R15" s="68"/>
+      <c r="S15" s="85">
         <v>207</v>
       </c>
-      <c r="K15" s="88" t="s">
+      <c r="T15" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M15" s="90">
+      <c r="U15" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="V15" s="88">
         <v>67424</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>14</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="32"/>
+      <c r="D16" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="38"/>
+      <c r="K16" s="6">
+        <v>14</v>
+      </c>
+      <c r="L16" s="4">
         <v>45216</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="N16" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="8">
+      <c r="O16" s="8">
         <v>136.32</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="P16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="87">
+      <c r="R16" s="68"/>
+      <c r="S16" s="85">
         <v>209</v>
       </c>
-      <c r="K16" s="88" t="s">
+      <c r="T16" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="L16" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M16" s="90">
+      <c r="U16" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="V16" s="88">
         <v>13800</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="32"/>
+      <c r="D17" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="38"/>
+      <c r="K17" s="6">
+        <v>15</v>
+      </c>
+      <c r="L17" s="4">
         <v>45216</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="N17" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="8">
+      <c r="O17" s="8">
         <v>48332.6</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="P17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="83">
+      <c r="R17" s="68"/>
+      <c r="S17" s="81">
         <v>210</v>
       </c>
-      <c r="K17" s="84" t="s">
+      <c r="T17" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="L17" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M17" s="86">
+      <c r="U17" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V17" s="84">
         <v>90000</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="32"/>
+      <c r="D18" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+      <c r="K18" s="6">
+        <v>16</v>
+      </c>
+      <c r="L18" s="4">
         <v>45216</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="N18" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="8">
+      <c r="O18" s="8">
         <v>660</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="P18" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="70"/>
-      <c r="J18" s="87">
+      <c r="R18" s="68"/>
+      <c r="S18" s="85">
         <v>212</v>
       </c>
-      <c r="K18" s="88" t="s">
+      <c r="T18" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="L18" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M18" s="90">
+      <c r="U18" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="V18" s="88">
         <v>35952</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>17</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="32"/>
+      <c r="D19" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38"/>
+      <c r="K19" s="6">
+        <v>17</v>
+      </c>
+      <c r="L19" s="4">
         <v>45216</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="N19" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="8">
+      <c r="O19" s="8">
         <v>8616</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="P19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="83">
+      <c r="R19" s="68"/>
+      <c r="S19" s="81">
         <v>214</v>
       </c>
-      <c r="K19" s="84" t="s">
+      <c r="T19" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M19" s="86">
+      <c r="U19" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V19" s="84">
         <v>37139.199999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>18</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="32"/>
+      <c r="D20" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38"/>
+      <c r="K20" s="6">
+        <v>18</v>
+      </c>
+      <c r="L20" s="4">
         <v>45217</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="N20" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="8">
+      <c r="O20" s="8">
         <v>5686.8</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="P20" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="83">
+      <c r="R20" s="68"/>
+      <c r="S20" s="81">
         <v>216</v>
       </c>
-      <c r="K20" s="84" t="s">
+      <c r="T20" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="L20" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M20" s="86">
+      <c r="U20" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V20" s="84">
         <v>34759.199999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="32"/>
+      <c r="D21" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38"/>
+      <c r="K21" s="6">
+        <v>19</v>
+      </c>
+      <c r="L21" s="4">
         <v>45217</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="M21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="N21" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="8">
+      <c r="O21" s="8">
         <v>33583.4</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="70"/>
-      <c r="J21" s="87">
+      <c r="R21" s="68"/>
+      <c r="S21" s="85">
         <v>217</v>
       </c>
-      <c r="K21" s="88" t="s">
+      <c r="T21" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="L21" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M21" s="90">
+      <c r="U21" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="V21" s="88">
         <v>2960</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>20</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="32"/>
+      <c r="D22" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="38"/>
+      <c r="K22" s="6">
+        <v>20</v>
+      </c>
+      <c r="L22" s="4">
         <v>45217</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="M22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="N22" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="8">
+      <c r="O22" s="8">
         <v>25746.9</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="P22" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="70"/>
-      <c r="J22" s="87">
+      <c r="R22" s="68"/>
+      <c r="S22" s="85">
         <v>222</v>
       </c>
-      <c r="K22" s="88" t="s">
+      <c r="T22" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="L22" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M22" s="90">
+      <c r="U22" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="V22" s="88">
         <v>13956</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>21</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="32"/>
+      <c r="D23" s="129" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="38"/>
+      <c r="K23" s="6">
+        <v>21</v>
+      </c>
+      <c r="L23" s="4">
         <v>45217</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="N23" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="8">
+      <c r="O23" s="8">
         <v>8921.6</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="P23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="83">
+      <c r="R23" s="68"/>
+      <c r="S23" s="81">
         <v>223</v>
       </c>
-      <c r="K23" s="84" t="s">
+      <c r="T23" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="L23" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M23" s="86">
+      <c r="U23" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V23" s="84">
         <v>38640</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <v>22</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="32"/>
+      <c r="D24" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="36"/>
+      <c r="K24" s="6">
+        <v>22</v>
+      </c>
+      <c r="L24" s="4">
         <v>45218</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="M24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="N24" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="8">
+      <c r="O24" s="8">
         <v>61442.36</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="P24" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="70"/>
-      <c r="J24" s="83">
+      <c r="R24" s="68"/>
+      <c r="S24" s="81">
         <v>230</v>
       </c>
-      <c r="K24" s="84" t="s">
+      <c r="T24" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="L24" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M24" s="86">
+      <c r="U24" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V24" s="84">
         <v>28201.599999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <v>23</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="32"/>
+      <c r="D25" s="129" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+      <c r="K25" s="6">
+        <v>23</v>
+      </c>
+      <c r="L25" s="4">
         <v>45218</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="M25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="N25" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="8">
+      <c r="O25" s="8">
         <v>15890.6</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="P25" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="70"/>
-      <c r="J25" s="83">
+      <c r="R25" s="68"/>
+      <c r="S25" s="81">
         <v>232</v>
       </c>
-      <c r="K25" s="84" t="s">
+      <c r="T25" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="L25" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M25" s="86">
+      <c r="U25" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V25" s="84">
         <v>6568.24</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <v>24</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="32"/>
+      <c r="D26" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="38"/>
+      <c r="K26" s="6">
+        <v>24</v>
+      </c>
+      <c r="L26" s="4">
         <v>45218</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="M26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="N26" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="8">
+      <c r="O26" s="8">
         <v>139218.4</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="P26" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="83">
+      <c r="R26" s="68"/>
+      <c r="S26" s="81">
         <v>235</v>
       </c>
-      <c r="K26" s="84" t="s">
+      <c r="T26" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="L26" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M26" s="86">
+      <c r="U26" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V26" s="84">
         <v>43581.599999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <v>25</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="32"/>
+      <c r="D27" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="38"/>
+      <c r="K27" s="6">
+        <v>25</v>
+      </c>
+      <c r="L27" s="4">
         <v>45218</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="N27" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="8">
+      <c r="O27" s="8">
         <v>50607.12</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="P27" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="87">
+      <c r="R27" s="68"/>
+      <c r="S27" s="85">
         <v>236</v>
       </c>
-      <c r="K27" s="88" t="s">
+      <c r="T27" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="M27" s="90">
+      <c r="U27" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="V27" s="88">
         <v>56403.199999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <v>26</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="32"/>
+      <c r="D28" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="38"/>
+      <c r="K28" s="6">
+        <v>26</v>
+      </c>
+      <c r="L28" s="4">
         <v>45218</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="M28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="N28" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="8">
+      <c r="O28" s="8">
         <v>1098.9000000000001</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="P28" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="70"/>
-      <c r="J28" s="83">
+      <c r="R28" s="68"/>
+      <c r="S28" s="81">
         <v>238</v>
       </c>
-      <c r="K28" s="84" t="s">
+      <c r="T28" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M28" s="86">
+      <c r="U28" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="V28" s="84">
         <v>12908</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>27</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="32"/>
+      <c r="D29" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="38"/>
+      <c r="K29" s="6">
+        <v>27</v>
+      </c>
+      <c r="L29" s="4">
         <v>45218</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="M29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="N29" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="8">
+      <c r="O29" s="8">
         <v>14898.4</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="P29" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="70"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="72">
+      <c r="R29" s="68"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>28</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="32"/>
+      <c r="D30" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="38"/>
+      <c r="K30" s="6">
+        <v>28</v>
+      </c>
+      <c r="L30" s="4">
         <v>45219</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="M30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="N30" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="8">
+      <c r="O30" s="8">
         <v>60156.800000000003</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="P30" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="70"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="72">
+      <c r="R30" s="68"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6">
         <v>29</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="32"/>
+      <c r="D31" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="130"/>
+      <c r="K31" s="6">
+        <v>29</v>
+      </c>
+      <c r="L31" s="4">
         <v>45219</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="M31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="N31" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="8">
+      <c r="O31" s="8">
         <v>0</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="P31" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="70"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74" t="s">
+      <c r="R31" s="68"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="M31" s="75">
-        <f>SUM(M3:M30)</f>
+      <c r="V31" s="73">
+        <f>SUM(V3:V30)</f>
         <v>608557.34</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="32"/>
+      <c r="D32" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="37"/>
+      <c r="K32" s="6">
+        <v>30</v>
+      </c>
+      <c r="L32" s="4">
         <v>45219</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="M32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="N32" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="8">
+      <c r="O32" s="8">
         <v>6380.4</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="P32" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="70"/>
-      <c r="J32" s="94" t="s">
+      <c r="R32" s="68"/>
+      <c r="S32" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="K32" s="95"/>
-      <c r="L32" s="74" t="s">
+      <c r="T32" s="112"/>
+      <c r="U32" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="M32" s="96">
-        <f>F47</f>
+      <c r="V32" s="92">
+        <f>O47</f>
         <v>1646415.5</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <v>31</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="32"/>
+      <c r="D33" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="131"/>
+      <c r="K33" s="6">
+        <v>31</v>
+      </c>
+      <c r="L33" s="4">
         <v>45219</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="M33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="N33" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="8">
+      <c r="O33" s="8">
         <v>32379.200000000001</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="P33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="70"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="98">
+      <c r="R33" s="68"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="94">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <v>32</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="32"/>
+      <c r="D34" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
+      <c r="K34" s="6">
+        <v>32</v>
+      </c>
+      <c r="L34" s="4">
         <v>45219</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="M34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="N34" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="8">
+      <c r="O34" s="8">
         <v>40231.519999999997</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="P34" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="70"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="92"/>
-    </row>
-    <row r="35" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R34" s="68"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="90"/>
+    </row>
+    <row r="35" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6">
         <v>33</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="32"/>
+      <c r="D35" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="130"/>
+      <c r="K35" s="6">
+        <v>33</v>
+      </c>
+      <c r="L35" s="4">
         <v>45219</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="M35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="8">
+      <c r="N35" s="28"/>
+      <c r="O35" s="8">
         <v>0</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="P35" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="70"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-    </row>
-    <row r="36" spans="2:13" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="68"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="106"/>
+      <c r="U35" s="107"/>
+      <c r="V35" s="107"/>
+    </row>
+    <row r="36" spans="2:22" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>34</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="32"/>
+      <c r="D36" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="36"/>
+      <c r="K36" s="6">
+        <v>34</v>
+      </c>
+      <c r="L36" s="4">
         <v>45219</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="M36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="N36" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="8">
+      <c r="O36" s="8">
         <v>139881.26</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="P36" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I36" s="70"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="117" t="s">
+      <c r="R36" s="68"/>
+      <c r="T36" s="106"/>
+      <c r="U36" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="M36" s="118">
-        <f>M32-M31</f>
+      <c r="V36" s="113">
+        <f>V32-V31</f>
         <v>1037858.16</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6">
         <v>35</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="32"/>
+      <c r="D37" s="129" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="132"/>
+      <c r="K37" s="6">
+        <v>35</v>
+      </c>
+      <c r="L37" s="4">
         <v>45220</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="M37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="N37" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="8">
+      <c r="O37" s="8">
         <v>50029.4</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="P37" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="I37" s="70"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="120"/>
-    </row>
-    <row r="38" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="68"/>
+      <c r="T37" s="106"/>
+      <c r="U37" s="116"/>
+      <c r="V37" s="114"/>
+    </row>
+    <row r="38" spans="2:22" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>36</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="32"/>
+      <c r="D38" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="36"/>
+      <c r="K38" s="6">
+        <v>36</v>
+      </c>
+      <c r="L38" s="32">
         <v>45220</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="M38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="N38" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="33">
+      <c r="O38" s="33">
         <v>132575.82</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="P38" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="70"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-    </row>
-    <row r="39" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="68"/>
+      <c r="T38" s="106"/>
+      <c r="U38" s="108"/>
+      <c r="V38" s="108"/>
+    </row>
+    <row r="39" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6">
         <v>37</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="32"/>
+      <c r="D39" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="36"/>
+      <c r="K39" s="6">
+        <v>37</v>
+      </c>
+      <c r="L39" s="4">
         <v>45220</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="M39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="N39" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="8">
+      <c r="O39" s="8">
         <v>2100.6</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="P39" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="70"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-    </row>
-    <row r="40" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="68"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="91"/>
+    </row>
+    <row r="40" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <v>38</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="32"/>
+      <c r="D40" s="129" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="36"/>
+      <c r="K40" s="6">
+        <v>38</v>
+      </c>
+      <c r="L40" s="4">
         <v>45220</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="M40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="N40" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="8">
+      <c r="O40" s="8">
         <v>82278.960000000006</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="P40" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="70"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="121" t="s">
+      <c r="R40" s="68"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="M40" s="122"/>
-    </row>
-    <row r="41" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V40" s="118"/>
+    </row>
+    <row r="41" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
         <v>39</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="32"/>
+      <c r="D41" s="129" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="36"/>
+      <c r="K41" s="6">
+        <v>39</v>
+      </c>
+      <c r="L41" s="4">
         <v>45220</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="M41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="N41" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="8">
+      <c r="O41" s="8">
         <v>92378.5</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="P41" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I41" s="70"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="124"/>
-    </row>
-    <row r="42" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="68"/>
+      <c r="U41" s="119"/>
+      <c r="V41" s="120"/>
+    </row>
+    <row r="42" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <v>40</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="32"/>
+      <c r="D42" s="129" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="36"/>
+      <c r="K42" s="6">
+        <v>40</v>
+      </c>
+      <c r="L42" s="4">
         <v>45220</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="M42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="N42" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F42" s="8">
+      <c r="O42" s="8">
         <v>26978</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="P42" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="70"/>
-    </row>
-    <row r="43" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="68"/>
+    </row>
+    <row r="43" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>41</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="32"/>
+      <c r="D43" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="36"/>
+      <c r="K43" s="6">
+        <v>41</v>
+      </c>
+      <c r="L43" s="4">
         <v>45220</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="M43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="N43" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="8">
+      <c r="O43" s="8">
         <v>119417.36</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="P43" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I43" s="70"/>
-    </row>
-    <row r="44" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="68"/>
+    </row>
+    <row r="44" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <v>42</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="32"/>
+      <c r="D44" s="129" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="33"/>
+      <c r="G44" s="39"/>
+      <c r="K44" s="6">
+        <v>42</v>
+      </c>
+      <c r="L44" s="32">
         <v>45220</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="M44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="N44" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="33">
+      <c r="O44" s="33">
         <v>0</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="P44" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I44" s="70"/>
-    </row>
-    <row r="45" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="68"/>
+    </row>
+    <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
         <v>43</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="32"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="36"/>
+      <c r="K45" s="6">
+        <v>43</v>
+      </c>
+      <c r="L45" s="4">
         <v>45220</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="M45" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="N45" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="8">
+      <c r="O45" s="8">
         <v>11736.4</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="P45" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I45" s="70"/>
-    </row>
-    <row r="46" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R45" s="68"/>
+    </row>
+    <row r="46" spans="2:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="12"/>
       <c r="E46" s="29"/>
       <c r="F46" s="13"/>
       <c r="G46" s="25"/>
-      <c r="I46" s="70"/>
-    </row>
-    <row r="47" spans="2:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K46" s="6"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="25"/>
+      <c r="R46" s="68"/>
+    </row>
+    <row r="47" spans="2:22" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="D47" s="14" t="s">
         <v>86</v>
@@ -3253,18 +3899,28 @@
       <c r="E47" s="22"/>
       <c r="F47" s="15">
         <f>SUM(F3:F46)</f>
+        <v>137293.63999999998</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="M47" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N47" s="22"/>
+      <c r="O47" s="15">
+        <f>SUM(O3:O46)</f>
         <v>1646415.5</v>
       </c>
-      <c r="I47" s="70"/>
+      <c r="R47" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="U40:V41"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L40:M41"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="U36:U37"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23622047244094491" top="0.27559055118110237" bottom="0.27559055118110237" header="0.3" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3297,19 +3953,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="J1" s="69" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="J1" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -3327,16 +3983,16 @@
       <c r="G2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="48" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3359,10 +4015,10 @@
       <c r="G3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
@@ -3383,16 +4039,16 @@
       <c r="G4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="53">
         <v>240</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="56">
+      <c r="L4" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="55">
         <v>7527</v>
       </c>
     </row>
@@ -3415,16 +4071,16 @@
       <c r="G5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="56">
         <v>245</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M5" s="59">
+      <c r="L5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="58">
         <v>0</v>
       </c>
     </row>
@@ -3447,16 +4103,16 @@
       <c r="G6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="59">
         <v>246</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="L6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="62">
+      <c r="L6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="61">
         <v>1734</v>
       </c>
     </row>
@@ -3479,16 +4135,16 @@
       <c r="G7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="56">
         <v>247</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="K7" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="L7" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M7" s="59">
+      <c r="L7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="58">
         <v>12558</v>
       </c>
     </row>
@@ -3511,16 +4167,16 @@
       <c r="G8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="59">
         <v>250</v>
       </c>
-      <c r="K8" s="61" t="s">
+      <c r="K8" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="L8" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M8" s="62">
+      <c r="L8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3543,16 +4199,16 @@
       <c r="G9" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="56">
         <v>251</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="L9" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M9" s="59">
+      <c r="L9" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="58">
         <v>4563</v>
       </c>
     </row>
@@ -3575,16 +4231,16 @@
       <c r="G10" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="59">
         <v>255</v>
       </c>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="L10" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="62">
+      <c r="L10" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="61">
         <v>118812.3</v>
       </c>
     </row>
@@ -3607,16 +4263,16 @@
       <c r="G11" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="62">
         <v>253</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="L11" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="M11" s="65">
+      <c r="L11" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="64">
         <v>333</v>
       </c>
     </row>
@@ -3639,16 +4295,16 @@
       <c r="G12" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="65">
         <v>254</v>
       </c>
-      <c r="K12" s="67" t="s">
+      <c r="K12" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="M12" s="68">
+      <c r="L12" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="67">
         <v>3861</v>
       </c>
     </row>
@@ -3671,16 +4327,16 @@
       <c r="G13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="56">
         <v>258</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="L13" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M13" s="59">
+      <c r="L13" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="58">
         <v>291869.5</v>
       </c>
     </row>
@@ -3703,16 +4359,16 @@
       <c r="G14" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="65">
         <v>261</v>
       </c>
-      <c r="K14" s="67" t="s">
+      <c r="K14" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="L14" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="M14" s="68">
+      <c r="L14" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="67">
         <v>267583.5</v>
       </c>
     </row>
@@ -3735,16 +4391,16 @@
       <c r="G15" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="56">
         <v>263</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="L15" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M15" s="59">
+      <c r="L15" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="58">
         <v>868.25</v>
       </c>
     </row>
@@ -3767,16 +4423,16 @@
       <c r="G16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="65">
         <v>264</v>
       </c>
-      <c r="K16" s="67" t="s">
+      <c r="K16" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="L16" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="M16" s="68">
+      <c r="L16" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="67">
         <v>0</v>
       </c>
     </row>
@@ -3799,16 +4455,16 @@
       <c r="G17" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="56">
         <v>268</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="L17" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M17" s="59">
+      <c r="L17" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="58">
         <v>1487.4</v>
       </c>
     </row>
@@ -3831,16 +4487,16 @@
       <c r="G18" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="59">
         <v>269</v>
       </c>
-      <c r="K18" s="61" t="s">
+      <c r="K18" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="L18" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M18" s="62">
+      <c r="L18" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="61">
         <v>25721.599999999999</v>
       </c>
     </row>
@@ -3863,16 +4519,16 @@
       <c r="G19" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="59">
         <v>271</v>
       </c>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="L19" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M19" s="62">
+      <c r="L19" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="61">
         <v>4330.5</v>
       </c>
     </row>
@@ -3895,16 +4551,16 @@
       <c r="G20" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="59">
         <v>272</v>
       </c>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="L20" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M20" s="62">
+      <c r="L20" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" s="61">
         <v>14056</v>
       </c>
     </row>
@@ -3927,16 +4583,16 @@
       <c r="G21" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="57">
+      <c r="J21" s="56">
         <v>274</v>
       </c>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="L21" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M21" s="59">
+      <c r="L21" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="58">
         <v>2831</v>
       </c>
     </row>
@@ -3959,16 +4615,16 @@
       <c r="G22" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="56">
         <v>278</v>
       </c>
-      <c r="K22" s="58" t="s">
+      <c r="K22" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="L22" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M22" s="59">
+      <c r="L22" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="58">
         <v>603.84</v>
       </c>
     </row>
@@ -3991,16 +4647,16 @@
       <c r="G23" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="59">
         <v>289</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="L23" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M23" s="62">
+      <c r="L23" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" s="61">
         <v>7531.5</v>
       </c>
     </row>
@@ -4023,16 +4679,16 @@
       <c r="G24" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="J24" s="60">
+      <c r="J24" s="59">
         <v>293</v>
       </c>
-      <c r="K24" s="61" t="s">
+      <c r="K24" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="L24" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M24" s="62">
+      <c r="L24" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4055,16 +4711,16 @@
       <c r="G25" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="57">
+      <c r="J25" s="56">
         <v>296</v>
       </c>
-      <c r="K25" s="58" t="s">
+      <c r="K25" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="L25" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M25" s="59">
+      <c r="L25" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="58">
         <v>1601.1</v>
       </c>
     </row>
@@ -4087,16 +4743,16 @@
       <c r="G26" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="56">
         <v>298</v>
       </c>
-      <c r="K26" s="58" t="s">
+      <c r="K26" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="L26" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M26" s="59">
+      <c r="L26" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="58">
         <v>104685.44</v>
       </c>
     </row>
@@ -4119,16 +4775,16 @@
       <c r="G27" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="56">
         <v>304</v>
       </c>
-      <c r="K27" s="58" t="s">
+      <c r="K27" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="L27" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M27" s="59">
+      <c r="L27" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="58">
         <v>2008.5</v>
       </c>
     </row>
@@ -4151,16 +4807,16 @@
       <c r="G28" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="J28" s="57">
+      <c r="J28" s="56">
         <v>306</v>
       </c>
-      <c r="K28" s="58" t="s">
+      <c r="K28" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="L28" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M28" s="59">
+      <c r="L28" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="58">
         <v>8084</v>
       </c>
     </row>
@@ -4183,16 +4839,16 @@
       <c r="G29" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="J29" s="60">
+      <c r="J29" s="59">
         <v>309</v>
       </c>
-      <c r="K29" s="61" t="s">
+      <c r="K29" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="L29" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M29" s="62">
+      <c r="L29" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" s="61">
         <v>266.94</v>
       </c>
     </row>
@@ -4215,16 +4871,16 @@
       <c r="G30" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="57">
+      <c r="J30" s="56">
         <v>310</v>
       </c>
-      <c r="K30" s="58" t="s">
+      <c r="K30" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="L30" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M30" s="59">
+      <c r="L30" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" s="58">
         <v>158.36000000000001</v>
       </c>
     </row>
@@ -4247,16 +4903,16 @@
       <c r="G31" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="J31" s="60">
+      <c r="J31" s="59">
         <v>311</v>
       </c>
-      <c r="K31" s="61" t="s">
+      <c r="K31" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="L31" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M31" s="62">
+      <c r="L31" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M31" s="61">
         <v>1482</v>
       </c>
     </row>
@@ -4279,16 +4935,16 @@
       <c r="G32" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="56">
         <v>312</v>
       </c>
-      <c r="K32" s="58" t="s">
+      <c r="K32" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="L32" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="M32" s="59">
+      <c r="L32" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M32" s="58">
         <v>62048</v>
       </c>
     </row>
@@ -4311,16 +4967,16 @@
       <c r="G33" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="60">
+      <c r="J33" s="59">
         <v>313</v>
       </c>
-      <c r="K33" s="61" t="s">
+      <c r="K33" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="L33" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M33" s="62">
+      <c r="L33" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="61">
         <v>1374</v>
       </c>
     </row>
@@ -4343,16 +4999,16 @@
       <c r="G34" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="J34" s="60">
+      <c r="J34" s="59">
         <v>323</v>
       </c>
-      <c r="K34" s="61" t="s">
+      <c r="K34" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="L34" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M34" s="62">
+      <c r="L34" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M34" s="61">
         <v>1267.5</v>
       </c>
     </row>
@@ -4375,16 +5031,16 @@
       <c r="G35" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="J35" s="60">
+      <c r="J35" s="59">
         <v>325</v>
       </c>
-      <c r="K35" s="61" t="s">
+      <c r="K35" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="L35" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M35" s="62">
+      <c r="L35" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M35" s="61">
         <v>29356.799999999999</v>
       </c>
     </row>
@@ -4407,16 +5063,16 @@
       <c r="G36" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="59">
         <v>331</v>
       </c>
-      <c r="K36" s="61" t="s">
+      <c r="K36" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="L36" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="M36" s="101">
+      <c r="L36" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="M36" s="97">
         <v>3539.2</v>
       </c>
     </row>
@@ -4439,10 +5095,10 @@
       <c r="G37" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="L37" s="104" t="s">
+      <c r="L37" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="M37" s="103">
+      <c r="M37" s="99">
         <f>SUM(M4:M36)</f>
         <v>982143.22999999986</v>
       </c>
@@ -4466,10 +5122,10 @@
       <c r="G38" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="J38" s="102"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="113"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="105"/>
     </row>
     <row r="39" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
@@ -4490,12 +5146,12 @@
       <c r="G39" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="J39" s="92"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="107" t="s">
+      <c r="J39" s="90"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="M39" s="105">
+      <c r="M39" s="123">
         <f>F43-M37</f>
         <v>225360.95000000007</v>
       </c>
@@ -4519,9 +5175,9 @@
       <c r="G40" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="K40" s="109"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="106"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="124"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -4542,9 +5198,9 @@
       <c r="G41" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
     </row>
     <row r="42" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
     <sheet name="NOTAS CENTRAL  23  AL 28  Oct" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
+    <sheet name="OBRADOR  &amp; CENTRAL  23-28-Oct" sheetId="3" r:id="rId3"/>
+    <sheet name="OBRADOR &amp; CENTRAL 30-04-Nov" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="271">
   <si>
     <t>FECHA</t>
   </si>
@@ -131,51 +131,12 @@
     <t>259 M</t>
   </si>
   <si>
-    <t>CAÑAS</t>
-  </si>
-  <si>
-    <t>Tocino salado</t>
-  </si>
-  <si>
     <t>Carne abierta</t>
   </si>
   <si>
     <t>varios</t>
   </si>
   <si>
-    <t>recorte tocino</t>
-  </si>
-  <si>
-    <t>Carne enchilada</t>
-  </si>
-  <si>
-    <t>Arrachera</t>
-  </si>
-  <si>
-    <t>Capotes</t>
-  </si>
-  <si>
-    <t>Suadero</t>
-  </si>
-  <si>
-    <t>Res</t>
-  </si>
-  <si>
-    <t>Retazo C/H</t>
-  </si>
-  <si>
-    <t>Pulpa Res</t>
-  </si>
-  <si>
-    <t>Capote-Canal C/C C/P</t>
-  </si>
-  <si>
-    <t>Chuleta Natural</t>
-  </si>
-  <si>
-    <t>Capote-Canal--Cuero</t>
-  </si>
-  <si>
     <t>260 M</t>
   </si>
   <si>
@@ -233,21 +194,9 @@
     <t>278 M</t>
   </si>
   <si>
-    <t>Arrachera--Suadero</t>
-  </si>
-  <si>
-    <t>Capote--Canal</t>
-  </si>
-  <si>
     <t>CANCELADA</t>
   </si>
   <si>
-    <t>Condimentos arrachera</t>
-  </si>
-  <si>
-    <t>Vaciada</t>
-  </si>
-  <si>
     <t>Canal C/C/ C/P</t>
   </si>
   <si>
@@ -437,9 +386,6 @@
     <t>M-277</t>
   </si>
   <si>
-    <t>Canal C/C/ C/P--Sesos-Capote</t>
-  </si>
-  <si>
     <t>XXXXX</t>
   </si>
   <si>
@@ -710,9 +656,6 @@
     <t>M-238</t>
   </si>
   <si>
-    <t xml:space="preserve">OBRADOR A CENTRAL </t>
-  </si>
-  <si>
     <t>SEMANA DEL  16-21 OCTUBRE</t>
   </si>
   <si>
@@ -728,27 +671,12 @@
     <t>0274 M</t>
   </si>
   <si>
-    <t>310 M</t>
-  </si>
-  <si>
-    <t>311 M</t>
-  </si>
-  <si>
-    <t>312 M</t>
-  </si>
-  <si>
     <t>313 M</t>
   </si>
   <si>
     <t>M-280</t>
   </si>
   <si>
-    <t>M-283</t>
-  </si>
-  <si>
-    <t>M-286</t>
-  </si>
-  <si>
     <t>M-310</t>
   </si>
   <si>
@@ -762,6 +690,156 @@
   </si>
   <si>
     <t>M-314</t>
+  </si>
+  <si>
+    <t>SEMANA DEL  23-28 OCTUBRE</t>
+  </si>
+  <si>
+    <t>0310 M</t>
+  </si>
+  <si>
+    <t>0311 M</t>
+  </si>
+  <si>
+    <t>0312 M</t>
+  </si>
+  <si>
+    <t>314 M</t>
+  </si>
+  <si>
+    <t>315 M</t>
+  </si>
+  <si>
+    <t>316 M</t>
+  </si>
+  <si>
+    <t>317 M</t>
+  </si>
+  <si>
+    <t>318 M</t>
+  </si>
+  <si>
+    <t>319 M</t>
+  </si>
+  <si>
+    <t>320 M</t>
+  </si>
+  <si>
+    <t>321 M</t>
+  </si>
+  <si>
+    <t>322 M</t>
+  </si>
+  <si>
+    <t>323 M</t>
+  </si>
+  <si>
+    <t>324 M</t>
+  </si>
+  <si>
+    <t>325 M</t>
+  </si>
+  <si>
+    <t>326 M</t>
+  </si>
+  <si>
+    <t>327 M</t>
+  </si>
+  <si>
+    <t>328 M</t>
+  </si>
+  <si>
+    <t>329 M</t>
+  </si>
+  <si>
+    <t>330 M</t>
+  </si>
+  <si>
+    <t>331 M</t>
+  </si>
+  <si>
+    <t>332 M</t>
+  </si>
+  <si>
+    <t>333 M</t>
+  </si>
+  <si>
+    <t>334 M</t>
+  </si>
+  <si>
+    <t>335 M</t>
+  </si>
+  <si>
+    <t>336 M</t>
+  </si>
+  <si>
+    <t>M-315</t>
+  </si>
+  <si>
+    <t>M-316</t>
+  </si>
+  <si>
+    <t>M-317</t>
+  </si>
+  <si>
+    <t>M-318</t>
+  </si>
+  <si>
+    <t>M-319</t>
+  </si>
+  <si>
+    <t>M-320</t>
+  </si>
+  <si>
+    <t>M-321</t>
+  </si>
+  <si>
+    <t>M-322</t>
+  </si>
+  <si>
+    <t>M-323</t>
+  </si>
+  <si>
+    <t>M-324</t>
+  </si>
+  <si>
+    <t>M-325</t>
+  </si>
+  <si>
+    <t>M-326</t>
+  </si>
+  <si>
+    <t>M-327</t>
+  </si>
+  <si>
+    <t>M-328</t>
+  </si>
+  <si>
+    <t>M-329</t>
+  </si>
+  <si>
+    <t>M-330</t>
+  </si>
+  <si>
+    <t>M-331</t>
+  </si>
+  <si>
+    <t>M-332</t>
+  </si>
+  <si>
+    <t>M-334</t>
+  </si>
+  <si>
+    <t>M-335</t>
+  </si>
+  <si>
+    <t>M-336</t>
+  </si>
+  <si>
+    <t>M-</t>
+  </si>
+  <si>
+    <t>SEMANA DEL  30-04-Nov-23</t>
   </si>
 </sst>
 </file>
@@ -898,7 +976,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,8 +1031,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1197,19 +1287,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1249,21 +1326,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1351,12 +1413,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1490,15 +1679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1527,14 +1708,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1550,77 +1728,203 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1632,10 +1936,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FF99"/>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FFCCFFCC"/>
-      <color rgb="FF99CCFF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -1697,6 +2002,106 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360831</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>55685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\ROUSS\Pictures\2023-11-09 ESCANEO\OBRADOR &amp; PRODUCCION         23-28 Oct-23.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="11661"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5524500" y="38100"/>
+          <a:ext cx="6171081" cy="9275885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6" descr="C:\Users\ROUSS\Pictures\2023-11-09 ESCANEO\OBRADOR &amp; PRODUCCION          30--04 Nov-23.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="10011"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="0"/>
+          <a:ext cx="5353050" cy="7810500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1968,1962 +2373,1289 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:V47"/>
+  <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22" style="18" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="13" max="14" width="11.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="32.28515625" style="18" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="76"/>
-    <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="26.5703125" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="72"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="109" t="s">
+    <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C1" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="L1" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="110" t="s">
-        <v>209</v>
-      </c>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-    </row>
-    <row r="2" spans="2:22" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="159" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+    </row>
+    <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="43" t="s">
+      <c r="G2" s="44"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="19" t="s">
+      <c r="L2" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" s="68"/>
-      <c r="S2" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="V2" s="48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="125">
-        <v>45222</v>
-      </c>
-      <c r="D3" s="126" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="133" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="127">
-        <v>22751.1</v>
-      </c>
-      <c r="G3" s="128"/>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="C3" s="3">
         <v>45215</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="7">
+      <c r="E3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="7">
         <v>45282.8</v>
       </c>
-      <c r="P3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="68"/>
-      <c r="S3" s="77">
+      <c r="G3" s="16"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="73">
         <v>16</v>
       </c>
-      <c r="T3" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="U3" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="V3" s="80">
+      <c r="K3" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="76">
         <v>4293.3</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="32">
-        <v>45222</v>
-      </c>
-      <c r="D4" s="129" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="33">
-        <v>70164.84</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="K4" s="6">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="C4" s="4">
         <v>45215</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="8">
+      <c r="E4" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="8">
         <v>3418.2</v>
       </c>
-      <c r="P4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="81">
+      <c r="G4" s="26"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="77">
         <v>19</v>
       </c>
-      <c r="T4" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="U4" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V4" s="84">
+      <c r="K4" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" s="80">
         <v>4536</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="32">
-        <v>45222</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>232</v>
+      <c r="C5" s="4">
+        <v>45215</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="33">
-        <v>20764.400000000001</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="K5" s="6">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4">
-        <v>45215</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" s="8">
+        <v>74</v>
+      </c>
+      <c r="F5" s="8">
         <v>7277</v>
       </c>
-      <c r="P5" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="68"/>
-      <c r="S5" s="81">
+      <c r="G5" s="26"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="77">
         <v>20</v>
       </c>
-      <c r="T5" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="U5" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V5" s="84">
+      <c r="K5" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="L5" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="80">
         <v>14645</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="32">
-        <v>45222</v>
-      </c>
-      <c r="D6" s="129" t="s">
-        <v>64</v>
+      <c r="C6" s="4">
+        <v>45215</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="33">
-        <v>18512.5</v>
-      </c>
-      <c r="G6" s="130"/>
-      <c r="K6" s="6">
-        <v>4</v>
-      </c>
-      <c r="L6" s="4">
-        <v>45215</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" s="8">
+        <v>76</v>
+      </c>
+      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="85">
+      <c r="G6" s="24"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="81">
         <v>26</v>
       </c>
-      <c r="T6" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="U6" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="V6" s="88">
+      <c r="K6" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="L6" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="84">
         <v>2139</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="32">
-        <v>45222</v>
-      </c>
-      <c r="D7" s="129" t="s">
-        <v>65</v>
+      <c r="C7" s="4">
+        <v>45215</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="33">
-        <v>5100.8</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="K7" s="6">
-        <v>5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>45215</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" s="8">
+        <v>77</v>
+      </c>
+      <c r="F7" s="8">
         <v>21226.799999999999</v>
       </c>
-      <c r="P7" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="68"/>
-      <c r="S7" s="85">
+      <c r="G7" s="26"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="81">
         <v>190</v>
       </c>
-      <c r="T7" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="U7" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="V7" s="88">
+      <c r="K7" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="84">
         <v>6365</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="135">
-        <v>45220</v>
-      </c>
-      <c r="D8" s="129" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="134" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="38"/>
-      <c r="K8" s="6">
-        <v>6</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="C8" s="4">
         <v>45215</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" s="8">
+      <c r="E8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="8">
         <v>149593.20000000001</v>
       </c>
-      <c r="P8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="68"/>
-      <c r="S8" s="81">
+      <c r="G8" s="26"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="77">
         <v>189</v>
       </c>
-      <c r="T8" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="U8" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V8" s="84">
+      <c r="K8" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M8" s="80">
         <v>2691</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="129" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="38"/>
-      <c r="K9" s="6">
-        <v>7</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="C9" s="4">
         <v>45215</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" s="8">
+      <c r="E9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="8">
         <v>78056.479999999996</v>
       </c>
-      <c r="P9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="68"/>
-      <c r="S9" s="81">
+      <c r="G9" s="26"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="77">
         <v>194</v>
       </c>
-      <c r="T9" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="U9" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V9" s="84">
+      <c r="K9" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M9" s="80">
         <v>6063.4</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="129" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="38"/>
-      <c r="K10" s="6">
-        <v>8</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="C10" s="4">
         <v>45215</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" s="8">
+      <c r="E10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="8">
         <v>2783</v>
       </c>
-      <c r="P10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="68"/>
-      <c r="S10" s="85">
+      <c r="G10" s="26"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="81">
         <v>195</v>
       </c>
-      <c r="T10" s="86" t="s">
-        <v>223</v>
-      </c>
-      <c r="U10" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="V10" s="88">
+      <c r="K10" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M10" s="84">
         <v>3842</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="129" t="s">
-        <v>78</v>
+      <c r="C11" s="4">
+        <v>45216</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="38"/>
-      <c r="K11" s="6">
-        <v>9</v>
-      </c>
-      <c r="L11" s="4">
-        <v>45216</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" s="8">
+        <v>79</v>
+      </c>
+      <c r="F11" s="8">
         <v>36830</v>
       </c>
-      <c r="P11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="68"/>
-      <c r="S11" s="81">
+      <c r="G11" s="26"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="77">
         <v>196</v>
       </c>
-      <c r="T11" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="U11" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V11" s="84">
+      <c r="K11" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M11" s="80">
         <v>70525</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="38"/>
-      <c r="K12" s="6">
-        <v>10</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="C12" s="4">
         <v>45216</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="89" t="s">
-        <v>226</v>
-      </c>
-      <c r="O12" s="10">
+      <c r="E12" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="10">
         <v>79232.399999999994</v>
       </c>
-      <c r="P12" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="68"/>
-      <c r="S12" s="85">
+      <c r="G12" s="26"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="81">
         <v>198</v>
       </c>
-      <c r="T12" s="86" t="s">
-        <v>223</v>
-      </c>
-      <c r="U12" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="V12" s="88">
+      <c r="K12" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M12" s="84">
         <v>6720</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="129" t="s">
+      <c r="C13" s="4">
+        <v>45216</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="36"/>
-      <c r="K13" s="6">
-        <v>11</v>
-      </c>
-      <c r="L13" s="4">
-        <v>45216</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" s="8">
+      <c r="F13" s="8">
         <v>4140</v>
       </c>
-      <c r="P13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13" s="68"/>
-      <c r="S13" s="85">
+      <c r="G13" s="25"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="81">
         <v>200</v>
       </c>
-      <c r="T13" s="86" t="s">
-        <v>223</v>
-      </c>
-      <c r="U13" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="V13" s="88">
+      <c r="K13" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M13" s="84">
         <v>1501</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="129" t="s">
-        <v>81</v>
+      <c r="C14" s="4">
+        <v>45216</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="38"/>
-      <c r="K14" s="6">
-        <v>12</v>
-      </c>
-      <c r="L14" s="4">
-        <v>45216</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" s="8">
+        <v>88</v>
+      </c>
+      <c r="F14" s="8">
         <v>6612</v>
       </c>
-      <c r="P14" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="68"/>
-      <c r="S14" s="81">
+      <c r="G14" s="26"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="77">
         <v>202</v>
       </c>
-      <c r="T14" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="U14" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V14" s="84">
+      <c r="K14" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M14" s="80">
         <v>2943.6</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="129" t="s">
-        <v>82</v>
+      <c r="C15" s="4">
+        <v>45216</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="38"/>
-      <c r="K15" s="6">
-        <v>13</v>
-      </c>
-      <c r="L15" s="4">
-        <v>45216</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="O15" s="8">
+        <v>89</v>
+      </c>
+      <c r="F15" s="8">
         <v>600</v>
       </c>
-      <c r="P15" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="68"/>
-      <c r="S15" s="85">
+      <c r="G15" s="26"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="81">
         <v>207</v>
       </c>
-      <c r="T15" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="U15" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="V15" s="88">
+      <c r="K15" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M15" s="84">
         <v>67424</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>14</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="129" t="s">
-        <v>83</v>
+      <c r="C16" s="4">
+        <v>45216</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="38"/>
-      <c r="K16" s="6">
-        <v>14</v>
-      </c>
-      <c r="L16" s="4">
-        <v>45216</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="O16" s="8">
+        <v>82</v>
+      </c>
+      <c r="F16" s="8">
         <v>136.32</v>
       </c>
-      <c r="P16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" s="68"/>
-      <c r="S16" s="85">
+      <c r="G16" s="26"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="81">
         <v>209</v>
       </c>
-      <c r="T16" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="U16" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="V16" s="88">
+      <c r="K16" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="L16" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M16" s="84">
         <v>13800</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>15</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="129" t="s">
-        <v>84</v>
+      <c r="C17" s="4">
+        <v>45216</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="38"/>
-      <c r="K17" s="6">
-        <v>15</v>
-      </c>
-      <c r="L17" s="4">
-        <v>45216</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="O17" s="8">
+        <v>83</v>
+      </c>
+      <c r="F17" s="8">
         <v>48332.6</v>
       </c>
-      <c r="P17" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" s="68"/>
-      <c r="S17" s="81">
+      <c r="G17" s="26"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="77">
         <v>210</v>
       </c>
-      <c r="T17" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="U17" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V17" s="84">
+      <c r="K17" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M17" s="80">
         <v>90000</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>16</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="129" t="s">
-        <v>148</v>
+      <c r="C18" s="4">
+        <v>45216</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="38"/>
-      <c r="K18" s="6">
-        <v>16</v>
-      </c>
-      <c r="L18" s="4">
-        <v>45216</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" s="8">
+        <v>90</v>
+      </c>
+      <c r="F18" s="8">
         <v>660</v>
       </c>
-      <c r="P18" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" s="68"/>
-      <c r="S18" s="85">
+      <c r="G18" s="26"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="81">
         <v>212</v>
       </c>
-      <c r="T18" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="U18" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="V18" s="88">
+      <c r="K18" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M18" s="84">
         <v>35952</v>
       </c>
     </row>
-    <row r="19" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>17</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="129" t="s">
-        <v>149</v>
+      <c r="C19" s="4">
+        <v>45216</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="38"/>
-      <c r="K19" s="6">
-        <v>17</v>
-      </c>
-      <c r="L19" s="4">
-        <v>45216</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" s="8">
+        <v>91</v>
+      </c>
+      <c r="F19" s="8">
         <v>8616</v>
       </c>
-      <c r="P19" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="68"/>
-      <c r="S19" s="81">
+      <c r="G19" s="26"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="77">
         <v>214</v>
       </c>
-      <c r="T19" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="U19" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V19" s="84">
+      <c r="K19" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" s="80">
         <v>37139.199999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>18</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="129" t="s">
-        <v>150</v>
+      <c r="C20" s="4">
+        <v>45217</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="38"/>
-      <c r="K20" s="6">
-        <v>18</v>
-      </c>
-      <c r="L20" s="4">
-        <v>45217</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="O20" s="8">
+        <v>92</v>
+      </c>
+      <c r="F20" s="8">
         <v>5686.8</v>
       </c>
-      <c r="P20" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="68"/>
-      <c r="S20" s="81">
+      <c r="G20" s="26"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="77">
         <v>216</v>
       </c>
-      <c r="T20" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="U20" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V20" s="84">
+      <c r="K20" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" s="80">
         <v>34759.199999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>19</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="129" t="s">
-        <v>151</v>
+      <c r="C21" s="4">
+        <v>45217</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="38"/>
-      <c r="K21" s="6">
-        <v>19</v>
-      </c>
-      <c r="L21" s="4">
-        <v>45217</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="O21" s="8">
+        <v>84</v>
+      </c>
+      <c r="F21" s="8">
         <v>33583.4</v>
       </c>
-      <c r="P21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R21" s="68"/>
-      <c r="S21" s="85">
+      <c r="G21" s="26"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="81">
         <v>217</v>
       </c>
-      <c r="T21" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="U21" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="V21" s="88">
+      <c r="K21" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" s="84">
         <v>2960</v>
       </c>
     </row>
-    <row r="22" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>20</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="129" t="s">
-        <v>152</v>
+      <c r="C22" s="4">
+        <v>45217</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="38"/>
-      <c r="K22" s="6">
-        <v>20</v>
-      </c>
-      <c r="L22" s="4">
-        <v>45217</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="O22" s="8">
+        <v>85</v>
+      </c>
+      <c r="F22" s="8">
         <v>25746.9</v>
       </c>
-      <c r="P22" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R22" s="68"/>
-      <c r="S22" s="85">
+      <c r="G22" s="26"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="81">
         <v>222</v>
       </c>
-      <c r="T22" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="U22" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="V22" s="88">
+      <c r="K22" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" s="84">
         <v>13956</v>
       </c>
     </row>
-    <row r="23" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>21</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="129" t="s">
-        <v>153</v>
+      <c r="C23" s="4">
+        <v>45217</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="38"/>
-      <c r="K23" s="6">
-        <v>21</v>
-      </c>
-      <c r="L23" s="4">
-        <v>45217</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="O23" s="8">
+        <v>86</v>
+      </c>
+      <c r="F23" s="8">
         <v>8921.6</v>
       </c>
-      <c r="P23" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" s="68"/>
-      <c r="S23" s="81">
+      <c r="G23" s="26"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="77">
         <v>223</v>
       </c>
-      <c r="T23" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="U23" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V23" s="84">
+      <c r="K23" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" s="80">
         <v>38640</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <v>22</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="129" t="s">
-        <v>154</v>
+      <c r="C24" s="4">
+        <v>45218</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="36"/>
-      <c r="K24" s="6">
-        <v>22</v>
-      </c>
-      <c r="L24" s="4">
-        <v>45218</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="O24" s="8">
+        <v>93</v>
+      </c>
+      <c r="F24" s="8">
         <v>61442.36</v>
       </c>
-      <c r="P24" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="R24" s="68"/>
-      <c r="S24" s="81">
+      <c r="G24" s="25"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="77">
         <v>230</v>
       </c>
-      <c r="T24" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="U24" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V24" s="84">
+      <c r="K24" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" s="80">
         <v>28201.599999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <v>23</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="129" t="s">
-        <v>155</v>
+      <c r="C25" s="4">
+        <v>45218</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="38"/>
-      <c r="K25" s="6">
-        <v>23</v>
-      </c>
-      <c r="L25" s="4">
-        <v>45218</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="O25" s="8">
+        <v>94</v>
+      </c>
+      <c r="F25" s="8">
         <v>15890.6</v>
       </c>
-      <c r="P25" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R25" s="68"/>
-      <c r="S25" s="81">
+      <c r="G25" s="26"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="77">
         <v>232</v>
       </c>
-      <c r="T25" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="U25" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V25" s="84">
+      <c r="K25" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="80">
         <v>6568.24</v>
       </c>
     </row>
-    <row r="26" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <v>24</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="129" t="s">
-        <v>156</v>
+      <c r="C26" s="4">
+        <v>45218</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="38"/>
-      <c r="K26" s="6">
-        <v>24</v>
-      </c>
-      <c r="L26" s="4">
-        <v>45218</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="O26" s="8">
+        <v>95</v>
+      </c>
+      <c r="F26" s="8">
         <v>139218.4</v>
       </c>
-      <c r="P26" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R26" s="68"/>
-      <c r="S26" s="81">
+      <c r="G26" s="26"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="77">
         <v>235</v>
       </c>
-      <c r="T26" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="U26" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V26" s="84">
+      <c r="K26" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M26" s="80">
         <v>43581.599999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <v>25</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="129" t="s">
-        <v>157</v>
+      <c r="C27" s="4">
+        <v>45218</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="38"/>
-      <c r="K27" s="6">
-        <v>25</v>
-      </c>
-      <c r="L27" s="4">
-        <v>45218</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="O27" s="8">
+        <v>96</v>
+      </c>
+      <c r="F27" s="8">
         <v>50607.12</v>
       </c>
-      <c r="P27" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27" s="68"/>
-      <c r="S27" s="85">
+      <c r="G27" s="26"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="81">
         <v>236</v>
       </c>
-      <c r="T27" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="U27" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="V27" s="88">
+      <c r="K27" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M27" s="84">
         <v>56403.199999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <v>26</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="129" t="s">
-        <v>158</v>
+      <c r="C28" s="4">
+        <v>45218</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="38"/>
-      <c r="K28" s="6">
-        <v>26</v>
-      </c>
-      <c r="L28" s="4">
-        <v>45218</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="O28" s="8">
+        <v>97</v>
+      </c>
+      <c r="F28" s="8">
         <v>1098.9000000000001</v>
       </c>
-      <c r="P28" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="R28" s="68"/>
-      <c r="S28" s="81">
+      <c r="G28" s="26"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="77">
         <v>238</v>
       </c>
-      <c r="T28" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="U28" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="V28" s="84">
+      <c r="K28" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="M28" s="80">
         <v>12908</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>27</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="129" t="s">
-        <v>159</v>
+      <c r="C29" s="4">
+        <v>45218</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="38"/>
-      <c r="K29" s="6">
-        <v>27</v>
-      </c>
-      <c r="L29" s="4">
-        <v>45218</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="O29" s="8">
+        <v>98</v>
+      </c>
+      <c r="F29" s="8">
         <v>14898.4</v>
       </c>
-      <c r="P29" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R29" s="68"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="70">
+      <c r="G29" s="26"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>28</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="129" t="s">
-        <v>160</v>
+      <c r="C30" s="4">
+        <v>45219</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="38"/>
-      <c r="K30" s="6">
-        <v>28</v>
-      </c>
-      <c r="L30" s="4">
-        <v>45219</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="O30" s="8">
+        <v>99</v>
+      </c>
+      <c r="F30" s="8">
         <v>60156.800000000003</v>
       </c>
-      <c r="P30" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="R30" s="68"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="70">
+      <c r="G30" s="26"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6">
         <v>29</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="129" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="130"/>
-      <c r="K31" s="6">
-        <v>29</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="C31" s="4">
         <v>45219</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="O31" s="8">
+      <c r="E31" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="P31" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R31" s="68"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="V31" s="73">
-        <f>SUM(V3:V30)</f>
+      <c r="G31" s="24"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="M31" s="149">
+        <f>SUM(M3:M30)</f>
         <v>608557.34</v>
       </c>
     </row>
-    <row r="32" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="129" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="37"/>
-      <c r="K32" s="6">
-        <v>30</v>
-      </c>
-      <c r="L32" s="4">
+      <c r="C32" s="4">
         <v>45219</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N32" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="O32" s="8">
+      <c r="E32" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="8">
         <v>6380.4</v>
       </c>
-      <c r="P32" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R32" s="68"/>
-      <c r="S32" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="T32" s="112"/>
-      <c r="U32" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="V32" s="92">
-        <f>O47</f>
-        <v>1646415.5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="27"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="151"/>
+    </row>
+    <row r="33" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>31</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="129" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="131"/>
-      <c r="K33" s="6">
-        <v>31</v>
-      </c>
-      <c r="L33" s="4">
+      <c r="C33" s="4">
         <v>45219</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N33" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="O33" s="8">
+      <c r="E33" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="8">
         <v>32379.200000000001</v>
       </c>
-      <c r="P33" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="R33" s="68"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="17"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="153"/>
+    </row>
+    <row r="34" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <v>32</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="38"/>
-      <c r="K34" s="6">
-        <v>32</v>
-      </c>
-      <c r="L34" s="4">
+      <c r="C34" s="4">
         <v>45219</v>
       </c>
-      <c r="M34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N34" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="O34" s="8">
+      <c r="D34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="8">
         <v>40231.519999999997</v>
       </c>
-      <c r="P34" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R34" s="68"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="90"/>
-    </row>
-    <row r="35" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="26"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="86"/>
+    </row>
+    <row r="35" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6">
         <v>33</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="130"/>
-      <c r="K35" s="6">
-        <v>33</v>
-      </c>
-      <c r="L35" s="4">
+      <c r="C35" s="4">
         <v>45219</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N35" s="28"/>
-      <c r="O35" s="8">
+      <c r="D35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="8">
         <v>0</v>
       </c>
-      <c r="P35" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R35" s="68"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="106"/>
-      <c r="U35" s="107"/>
-      <c r="V35" s="107"/>
-    </row>
-    <row r="36" spans="2:22" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="24"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+    </row>
+    <row r="36" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>34</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="129" t="s">
-        <v>166</v>
+      <c r="C36" s="4">
+        <v>45219</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="36"/>
-      <c r="K36" s="6">
-        <v>34</v>
-      </c>
-      <c r="L36" s="4">
-        <v>45219</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N36" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="O36" s="8">
+        <v>111</v>
+      </c>
+      <c r="F36" s="8">
         <v>139881.26</v>
       </c>
-      <c r="P36" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R36" s="68"/>
-      <c r="T36" s="106"/>
-      <c r="U36" s="115" t="s">
-        <v>229</v>
-      </c>
-      <c r="V36" s="113">
-        <f>V32-V31</f>
+      <c r="G36" s="25"/>
+      <c r="I36" s="68"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="163" t="s">
+        <v>210</v>
+      </c>
+      <c r="M36" s="161">
+        <f>F47-M31</f>
         <v>1037858.16</v>
       </c>
     </row>
-    <row r="37" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6">
         <v>35</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="129" t="s">
-        <v>167</v>
+      <c r="C37" s="4">
+        <v>45220</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="132"/>
-      <c r="K37" s="6">
-        <v>35</v>
-      </c>
-      <c r="L37" s="4">
-        <v>45220</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N37" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="O37" s="8">
+        <v>112</v>
+      </c>
+      <c r="F37" s="8">
         <v>50029.4</v>
       </c>
-      <c r="P37" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="R37" s="68"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="116"/>
-      <c r="V37" s="114"/>
-    </row>
-    <row r="38" spans="2:22" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="I37" s="68"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="164"/>
+      <c r="M37" s="162"/>
+    </row>
+    <row r="38" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>36</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="129" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="36"/>
-      <c r="K38" s="6">
-        <v>36</v>
-      </c>
-      <c r="L38" s="32">
+      <c r="C38" s="32">
         <v>45220</v>
       </c>
-      <c r="M38" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N38" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="O38" s="33">
+      <c r="D38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="33">
         <v>132575.82</v>
       </c>
-      <c r="P38" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R38" s="68"/>
-      <c r="T38" s="106"/>
-      <c r="U38" s="108"/>
-      <c r="V38" s="108"/>
-    </row>
-    <row r="39" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="25"/>
+      <c r="I38" s="68"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+    </row>
+    <row r="39" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6">
         <v>37</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="129" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="36"/>
-      <c r="K39" s="6">
-        <v>37</v>
-      </c>
-      <c r="L39" s="4">
+      <c r="C39" s="4">
         <v>45220</v>
       </c>
-      <c r="M39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N39" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="O39" s="8">
+      <c r="D39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="8">
         <v>2100.6</v>
       </c>
-      <c r="P39" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="R39" s="68"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="91"/>
-    </row>
-    <row r="40" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="25"/>
+      <c r="I39" s="68"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+    </row>
+    <row r="40" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <v>38</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="129" t="s">
-        <v>170</v>
+      <c r="C40" s="4">
+        <v>45220</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="36"/>
-      <c r="K40" s="6">
-        <v>38</v>
-      </c>
-      <c r="L40" s="4">
-        <v>45220</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N40" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="O40" s="8">
+        <v>114</v>
+      </c>
+      <c r="F40" s="8">
         <v>82278.960000000006</v>
       </c>
-      <c r="P40" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R40" s="68"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="V40" s="118"/>
-    </row>
-    <row r="41" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="25"/>
+      <c r="I40" s="68"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="M40" s="155"/>
+    </row>
+    <row r="41" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
         <v>39</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="129" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="36"/>
-      <c r="K41" s="6">
-        <v>39</v>
-      </c>
-      <c r="L41" s="4">
+      <c r="C41" s="4">
         <v>45220</v>
       </c>
-      <c r="M41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="O41" s="8">
+      <c r="D41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="8">
         <v>92378.5</v>
       </c>
-      <c r="P41" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R41" s="68"/>
-      <c r="U41" s="119"/>
-      <c r="V41" s="120"/>
-    </row>
-    <row r="42" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="25"/>
+      <c r="I41" s="68"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="157"/>
+    </row>
+    <row r="42" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <v>40</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="129" t="s">
-        <v>234</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="36"/>
-      <c r="K42" s="6">
-        <v>40</v>
-      </c>
-      <c r="L42" s="4">
+      <c r="C42" s="4">
         <v>45220</v>
       </c>
-      <c r="M42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N42" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="O42" s="8">
+      <c r="D42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="8">
         <v>26978</v>
       </c>
-      <c r="P42" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="R42" s="68"/>
-    </row>
-    <row r="43" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="25"/>
+      <c r="I42" s="68"/>
+    </row>
+    <row r="43" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>41</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="36"/>
-      <c r="K43" s="6">
-        <v>41</v>
-      </c>
-      <c r="L43" s="4">
+      <c r="C43" s="4">
         <v>45220</v>
       </c>
-      <c r="M43" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N43" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="O43" s="8">
+      <c r="D43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="8">
         <v>119417.36</v>
       </c>
-      <c r="P43" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R43" s="68"/>
-    </row>
-    <row r="44" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="25"/>
+      <c r="I43" s="68"/>
+    </row>
+    <row r="44" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <v>42</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="129" t="s">
-        <v>236</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="39"/>
-      <c r="K44" s="6">
-        <v>42</v>
-      </c>
-      <c r="L44" s="32">
+      <c r="C44" s="32">
         <v>45220</v>
       </c>
-      <c r="M44" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N44" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="O44" s="33">
+      <c r="D44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="33">
         <v>0</v>
       </c>
-      <c r="P44" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="R44" s="68"/>
-    </row>
-    <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="35"/>
+      <c r="I44" s="68"/>
+    </row>
+    <row r="45" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
         <v>43</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="36"/>
-      <c r="K45" s="6">
-        <v>43</v>
-      </c>
-      <c r="L45" s="4">
+      <c r="C45" s="4">
         <v>45220</v>
       </c>
-      <c r="M45" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N45" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="O45" s="8">
+      <c r="D45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="8">
         <v>11736.4</v>
       </c>
-      <c r="P45" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="R45" s="68"/>
-    </row>
-    <row r="46" spans="2:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="25"/>
+      <c r="I45" s="68"/>
+    </row>
+    <row r="46" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="12"/>
       <c r="E46" s="29"/>
       <c r="F46" s="13"/>
       <c r="G46" s="25"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="25"/>
-      <c r="R46" s="68"/>
-    </row>
-    <row r="47" spans="2:22" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="68"/>
+    </row>
+    <row r="47" spans="2:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="D47" s="14" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="15">
         <f>SUM(F3:F46)</f>
-        <v>137293.63999999998</v>
-      </c>
-      <c r="K47" s="2"/>
-      <c r="M47" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N47" s="22"/>
-      <c r="O47" s="15">
-        <f>SUM(O3:O46)</f>
         <v>1646415.5</v>
       </c>
-      <c r="R47" s="68"/>
+      <c r="I47" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="U40:V41"/>
+  <mergeCells count="6">
+    <mergeCell ref="L40:M41"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="L36:L37"/>
   </mergeCells>
-  <pageMargins left="0.76" right="0.23622047244094491" top="0.27559055118110237" bottom="0.27559055118110237" header="0.3" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.37" right="0.23622047244094491" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3934,8 +3666,8 @@
   </sheetPr>
   <dimension ref="B1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3953,44 +3685,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="J1" s="110" t="s">
-        <v>220</v>
-      </c>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="J1" s="159" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="K2" s="47" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="M2" s="48" t="s">
         <v>1</v>
@@ -4004,16 +3736,16 @@
         <v>45220</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F3" s="8">
         <v>11736.4</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="J3" s="49"/>
       <c r="K3" s="50"/>
@@ -4028,25 +3760,25 @@
         <v>45222</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F4" s="8">
         <v>22751.1</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="J4" s="53">
         <v>240</v>
       </c>
       <c r="K4" s="54" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M4" s="55">
         <v>7527</v>
@@ -4060,25 +3792,25 @@
         <v>45222</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F5" s="8">
         <v>70164.84</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J5" s="56">
         <v>245</v>
       </c>
       <c r="K5" s="57" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L5" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M5" s="58">
         <v>0</v>
@@ -4092,25 +3824,25 @@
         <v>45222</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F6" s="8">
         <v>20764.400000000001</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="J6" s="59">
         <v>246</v>
       </c>
       <c r="K6" s="60" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L6" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M6" s="61">
         <v>1734</v>
@@ -4124,25 +3856,25 @@
         <v>45222</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F7" s="8">
         <v>18512.5</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="J7" s="56">
         <v>247</v>
       </c>
       <c r="K7" s="57" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L7" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M7" s="58">
         <v>12558</v>
@@ -4156,25 +3888,25 @@
         <v>45222</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F8" s="8">
         <v>5100.8</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="59">
         <v>250</v>
       </c>
       <c r="K8" s="60" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L8" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M8" s="61">
         <v>0</v>
@@ -4188,25 +3920,25 @@
         <v>45220</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F9" s="8">
         <v>6076.2</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="J9" s="56">
         <v>251</v>
       </c>
       <c r="K9" s="57" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M9" s="58">
         <v>4563</v>
@@ -4220,25 +3952,25 @@
         <v>45222</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F10" s="33">
         <v>2436</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="J10" s="59">
         <v>255</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L10" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M10" s="61">
         <v>118812.3</v>
@@ -4252,25 +3984,25 @@
         <v>45222</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F11" s="33">
         <v>9656</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="J11" s="62">
         <v>253</v>
       </c>
       <c r="K11" s="63" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L11" s="63" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M11" s="64">
         <v>333</v>
@@ -4284,25 +4016,25 @@
         <v>45222</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="F12" s="8">
         <v>48937.4</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="J12" s="65">
         <v>254</v>
       </c>
       <c r="K12" s="66" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L12" s="66" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M12" s="67">
         <v>3861</v>
@@ -4316,25 +4048,25 @@
         <v>45223</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F13" s="33">
         <v>67869.600000000006</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J13" s="56">
         <v>258</v>
       </c>
       <c r="K13" s="57" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L13" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M13" s="58">
         <v>291869.5</v>
@@ -4348,25 +4080,25 @@
         <v>45223</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F14" s="8">
         <v>15440</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="J14" s="65">
         <v>261</v>
       </c>
       <c r="K14" s="66" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L14" s="66" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M14" s="67">
         <v>267583.5</v>
@@ -4380,25 +4112,25 @@
         <v>45223</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F15" s="8">
         <v>26845.200000000001</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="J15" s="56">
         <v>263</v>
       </c>
       <c r="K15" s="57" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L15" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M15" s="58">
         <v>868.25</v>
@@ -4412,25 +4144,25 @@
         <v>45223</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F16" s="8">
         <v>606</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J16" s="65">
         <v>264</v>
       </c>
       <c r="K16" s="66" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L16" s="66" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M16" s="67">
         <v>0</v>
@@ -4444,25 +4176,25 @@
         <v>45224</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="F17" s="33">
         <v>55687.5</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J17" s="56">
         <v>268</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="L17" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M17" s="58">
         <v>1487.4</v>
@@ -4476,25 +4208,25 @@
         <v>45224</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F18" s="13">
         <v>10019.6</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="J18" s="59">
         <v>269</v>
       </c>
       <c r="K18" s="60" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="L18" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M18" s="61">
         <v>25721.599999999999</v>
@@ -4508,25 +4240,25 @@
         <v>45224</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F19" s="33">
         <v>134020.35999999999</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J19" s="59">
         <v>271</v>
       </c>
       <c r="K19" s="60" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="L19" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M19" s="61">
         <v>4330.5</v>
@@ -4540,25 +4272,25 @@
         <v>45224</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F20" s="33">
         <v>6188</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="J20" s="59">
         <v>272</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="L20" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M20" s="61">
         <v>14056</v>
@@ -4572,25 +4304,25 @@
         <v>45223</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F21" s="33">
         <v>0</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J21" s="56">
         <v>274</v>
       </c>
       <c r="K21" s="57" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="L21" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M21" s="58">
         <v>2831</v>
@@ -4604,25 +4336,25 @@
         <v>45224</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F22" s="33">
         <v>0</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J22" s="56">
         <v>278</v>
       </c>
       <c r="K22" s="57" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="L22" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M22" s="58">
         <v>603.84</v>
@@ -4636,25 +4368,25 @@
         <v>45225</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="F23" s="33">
         <v>124407.5</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J23" s="59">
         <v>289</v>
       </c>
       <c r="K23" s="60" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="L23" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M23" s="61">
         <v>7531.5</v>
@@ -4668,25 +4400,25 @@
         <v>45225</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F24" s="33">
         <v>10456.44</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="J24" s="59">
         <v>293</v>
       </c>
       <c r="K24" s="60" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="L24" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M24" s="61">
         <v>0</v>
@@ -4700,25 +4432,25 @@
         <v>45225</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="F25" s="33">
         <v>345</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J25" s="56">
         <v>296</v>
       </c>
       <c r="K25" s="57" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="L25" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M25" s="58">
         <v>1601.1</v>
@@ -4732,25 +4464,25 @@
         <v>45225</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="F26" s="33">
         <v>45834.7</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J26" s="56">
         <v>298</v>
       </c>
       <c r="K26" s="57" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="L26" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M26" s="58">
         <v>104685.44</v>
@@ -4764,25 +4496,25 @@
         <v>45225</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F27" s="33">
         <v>7125</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="J27" s="56">
         <v>304</v>
       </c>
       <c r="K27" s="57" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L27" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M27" s="58">
         <v>2008.5</v>
@@ -4796,25 +4528,25 @@
         <v>45225</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="F28" s="33">
         <v>55137.9</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J28" s="56">
         <v>306</v>
       </c>
       <c r="K28" s="57" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L28" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M28" s="58">
         <v>8084</v>
@@ -4828,25 +4560,25 @@
         <v>45226</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F29" s="33">
         <v>37652.400000000001</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="J29" s="59">
         <v>309</v>
       </c>
       <c r="K29" s="60" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L29" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M29" s="61">
         <v>266.94</v>
@@ -4860,25 +4592,25 @@
         <v>45226</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F30" s="33">
         <v>48202.54</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J30" s="56">
         <v>310</v>
       </c>
       <c r="K30" s="57" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L30" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M30" s="58">
         <v>158.36000000000001</v>
@@ -4892,25 +4624,25 @@
         <v>45226</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F31" s="33">
         <v>5609.2</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="J31" s="59">
         <v>311</v>
       </c>
       <c r="K31" s="60" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L31" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M31" s="61">
         <v>1482</v>
@@ -4924,25 +4656,25 @@
         <v>45226</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F32" s="33">
         <v>43436.800000000003</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J32" s="56">
         <v>312</v>
       </c>
       <c r="K32" s="57" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L32" s="57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M32" s="58">
         <v>62048</v>
@@ -4956,25 +4688,25 @@
         <v>45227</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F33" s="33">
         <v>199527.8</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J33" s="59">
         <v>313</v>
       </c>
       <c r="K33" s="60" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L33" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M33" s="61">
         <v>1374</v>
@@ -4988,25 +4720,25 @@
         <v>45227</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="F34" s="33">
         <v>29534.1</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="J34" s="59">
         <v>323</v>
       </c>
       <c r="K34" s="60" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="L34" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M34" s="61">
         <v>1267.5</v>
@@ -5020,25 +4752,25 @@
         <v>45227</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F35" s="33">
         <v>1734.4</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="J35" s="59">
         <v>325</v>
       </c>
       <c r="K35" s="60" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="L35" s="60" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M35" s="61">
         <v>29356.799999999999</v>
@@ -5052,27 +4784,27 @@
         <v>45227</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F36" s="33">
         <v>17967.2</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="J36" s="59">
         <v>331</v>
       </c>
       <c r="K36" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="L36" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="M36" s="97">
+        <v>200</v>
+      </c>
+      <c r="L36" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="M36" s="90">
         <v>3539.2</v>
       </c>
     </row>
@@ -5084,21 +4816,21 @@
         <v>45227</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F37" s="33">
         <v>640</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="L37" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="M37" s="99">
+        <v>188</v>
+      </c>
+      <c r="L37" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="M37" s="92">
         <f>SUM(M4:M36)</f>
         <v>982143.22999999986</v>
       </c>
@@ -5111,21 +4843,21 @@
         <v>45227</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F38" s="33">
         <v>7296</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="J38" s="98"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="105"/>
+        <v>189</v>
+      </c>
+      <c r="J38" s="91"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="98"/>
     </row>
     <row r="39" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
@@ -5135,23 +4867,23 @@
         <v>45227</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F39" s="33">
         <v>17830.3</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="J39" s="90"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="121" t="s">
-        <v>229</v>
-      </c>
-      <c r="M39" s="123">
+        <v>175</v>
+      </c>
+      <c r="J39" s="86"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="165" t="s">
+        <v>210</v>
+      </c>
+      <c r="M39" s="167">
         <f>F43-M37</f>
         <v>225360.95000000007</v>
       </c>
@@ -5164,20 +4896,20 @@
         <v>45227</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="F40" s="33">
         <v>1211.4000000000001</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="K40" s="101"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="124"/>
+        <v>190</v>
+      </c>
+      <c r="K40" s="94"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="168"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -5187,20 +4919,20 @@
         <v>45227</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F41" s="33">
         <v>20743.599999999999</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
+        <v>35</v>
+      </c>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
     </row>
     <row r="42" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
@@ -5213,7 +4945,7 @@
     <row r="43" spans="2:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="D43" s="14" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="15">
@@ -5236,24 +4968,1558 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFCCFFCC"/>
+  </sheetPr>
+  <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+    </row>
+    <row r="2" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="129"/>
+      <c r="H2" s="68"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="102">
+        <v>45222</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="104">
+        <v>22751.1</v>
+      </c>
+      <c r="G3" s="130"/>
+      <c r="H3" s="68"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="33">
+        <v>70164.84</v>
+      </c>
+      <c r="G4" s="131"/>
+      <c r="H4" s="68"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="33">
+        <v>20764.400000000001</v>
+      </c>
+      <c r="G5" s="131"/>
+      <c r="H5" s="68"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="33">
+        <v>18512.5</v>
+      </c>
+      <c r="G6" s="132"/>
+      <c r="H6" s="68"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="33">
+        <v>5100.8</v>
+      </c>
+      <c r="G7" s="131"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="184">
+        <v>45220</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="33">
+        <v>6076.2</v>
+      </c>
+      <c r="G8" s="131"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="33">
+        <v>2436</v>
+      </c>
+      <c r="G9" s="131"/>
+      <c r="H9" s="68"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="33">
+        <v>9656</v>
+      </c>
+      <c r="G10" s="131"/>
+      <c r="H10" s="68"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="33">
+        <v>48937.4</v>
+      </c>
+      <c r="G11" s="131"/>
+      <c r="H11" s="68"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="32">
+        <v>45223</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="33">
+        <v>67869.600000000006</v>
+      </c>
+      <c r="G12" s="131"/>
+      <c r="H12" s="68"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="32">
+        <v>45223</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="33">
+        <v>15440</v>
+      </c>
+      <c r="G13" s="133"/>
+      <c r="H13" s="68"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="32">
+        <v>45223</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="33">
+        <v>26845.200000000001</v>
+      </c>
+      <c r="G14" s="131"/>
+      <c r="H14" s="68"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
+      <c r="C15" s="32">
+        <v>45223</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="33">
+        <v>606</v>
+      </c>
+      <c r="G15" s="131"/>
+      <c r="H15" s="68"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="32">
+        <v>45224</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="33">
+        <v>55687.5</v>
+      </c>
+      <c r="G16" s="131"/>
+      <c r="H16" s="68"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="32">
+        <v>45224</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="33">
+        <v>10019.6</v>
+      </c>
+      <c r="G17" s="131"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+      <c r="C18" s="32">
+        <v>45224</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="33">
+        <v>134020.35999999999</v>
+      </c>
+      <c r="G18" s="131"/>
+      <c r="H18" s="68"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>17</v>
+      </c>
+      <c r="C19" s="32">
+        <v>45224</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="33">
+        <v>6188</v>
+      </c>
+      <c r="G19" s="131"/>
+      <c r="H19" s="68"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>18</v>
+      </c>
+      <c r="C20" s="32">
+        <v>45223</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="33">
+        <v>0</v>
+      </c>
+      <c r="G20" s="131"/>
+      <c r="H20" s="68"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>19</v>
+      </c>
+      <c r="C21" s="32">
+        <v>45224</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="33">
+        <v>0</v>
+      </c>
+      <c r="G21" s="131"/>
+      <c r="H21" s="68"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>20</v>
+      </c>
+      <c r="C22" s="32">
+        <v>45225</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="33">
+        <v>124407.5</v>
+      </c>
+      <c r="G22" s="131"/>
+      <c r="H22" s="68"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>21</v>
+      </c>
+      <c r="C23" s="32">
+        <v>45225</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="33">
+        <v>10456.44</v>
+      </c>
+      <c r="G23" s="131"/>
+      <c r="H23" s="68"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>22</v>
+      </c>
+      <c r="C24" s="32">
+        <v>45225</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="33">
+        <v>345</v>
+      </c>
+      <c r="G24" s="133"/>
+      <c r="H24" s="68"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>23</v>
+      </c>
+      <c r="C25" s="32">
+        <v>45225</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="33">
+        <v>45834.7</v>
+      </c>
+      <c r="G25" s="131"/>
+      <c r="H25" s="68"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>24</v>
+      </c>
+      <c r="C26" s="32">
+        <v>45225</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="33">
+        <v>7125</v>
+      </c>
+      <c r="G26" s="131"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>25</v>
+      </c>
+      <c r="C27" s="32">
+        <v>45225</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="33">
+        <v>55137.9</v>
+      </c>
+      <c r="G27" s="131"/>
+      <c r="H27" s="68"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>26</v>
+      </c>
+      <c r="C28" s="32">
+        <v>45226</v>
+      </c>
+      <c r="D28" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="33">
+        <v>37652.400000000001</v>
+      </c>
+      <c r="G28" s="131"/>
+      <c r="H28" s="68"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>27</v>
+      </c>
+      <c r="C29" s="32">
+        <v>45226</v>
+      </c>
+      <c r="D29" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="33">
+        <v>48202.54</v>
+      </c>
+      <c r="G29" s="131"/>
+      <c r="H29" s="68"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>28</v>
+      </c>
+      <c r="C30" s="32">
+        <v>45226</v>
+      </c>
+      <c r="D30" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="33">
+        <v>5609.2</v>
+      </c>
+      <c r="G30" s="131"/>
+      <c r="H30" s="68"/>
+    </row>
+    <row r="31" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
+        <v>29</v>
+      </c>
+      <c r="C31" s="32">
+        <v>45226</v>
+      </c>
+      <c r="D31" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="33">
+        <v>43436.800000000003</v>
+      </c>
+      <c r="G31" s="132"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>30</v>
+      </c>
+      <c r="C32" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="33">
+        <v>199527.8</v>
+      </c>
+      <c r="G32" s="134"/>
+      <c r="H32" s="68"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>31</v>
+      </c>
+      <c r="C33" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="33">
+        <v>29534.1</v>
+      </c>
+      <c r="G33" s="135"/>
+      <c r="H33" s="68"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>32</v>
+      </c>
+      <c r="C34" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D34" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="33">
+        <v>1734.4</v>
+      </c>
+      <c r="G34" s="131"/>
+      <c r="H34" s="68"/>
+    </row>
+    <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
+        <v>33</v>
+      </c>
+      <c r="C35" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D35" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="33">
+        <v>17967.2</v>
+      </c>
+      <c r="G35" s="132"/>
+      <c r="H35" s="68"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>34</v>
+      </c>
+      <c r="C36" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D36" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="33">
+        <v>640</v>
+      </c>
+      <c r="G36" s="133"/>
+      <c r="H36" s="68"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>35</v>
+      </c>
+      <c r="C37" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D37" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="33">
+        <v>7296</v>
+      </c>
+      <c r="G37" s="136"/>
+      <c r="H37" s="68"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>36</v>
+      </c>
+      <c r="C38" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D38" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="33">
+        <v>17830.3</v>
+      </c>
+      <c r="G38" s="133"/>
+      <c r="H38" s="68"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>37</v>
+      </c>
+      <c r="C39" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D39" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="33">
+        <v>1211.4000000000001</v>
+      </c>
+      <c r="G39" s="133"/>
+      <c r="H39" s="68"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>38</v>
+      </c>
+      <c r="C40" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D40" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="33">
+        <v>20743.599999999999</v>
+      </c>
+      <c r="G40" s="133"/>
+      <c r="H40" s="68"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="68"/>
+    </row>
+    <row r="42" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="114"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="125"/>
+      <c r="F42" s="126">
+        <f>SUM(F3:F41)</f>
+        <v>1195767.78</v>
+      </c>
+      <c r="H42" s="137"/>
+    </row>
+    <row r="43" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="114"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="110"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+    </row>
+    <row r="44" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="F44" s="171" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="172"/>
+      <c r="H44" s="173"/>
+      <c r="J44" s="169" t="s">
+        <v>210</v>
+      </c>
+      <c r="K44" s="170"/>
+      <c r="L44" s="177">
+        <f>F42-982143.23</f>
+        <v>213624.55000000005</v>
+      </c>
+      <c r="M44" s="178"/>
+      <c r="N44" s="178"/>
+    </row>
+    <row r="45" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="174"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="176"/>
+      <c r="J45" s="169"/>
+      <c r="K45" s="170"/>
+      <c r="L45" s="177"/>
+      <c r="M45" s="178"/>
+      <c r="N45" s="178"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J46" s="99"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J47" s="86"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J48" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="J44:K45"/>
+    <mergeCell ref="F44:H45"/>
+    <mergeCell ref="L44:N45"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="73" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF99CCFF"/>
+  </sheetPr>
+  <dimension ref="B1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+    </row>
+    <row r="2" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="102">
+        <v>45229</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="104">
+        <v>33725.300000000003</v>
+      </c>
+      <c r="G3" s="139"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32">
+        <v>45229</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="33">
+        <v>103996.16</v>
+      </c>
+      <c r="G4" s="140"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="32">
+        <v>45229</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="33">
+        <v>24177</v>
+      </c>
+      <c r="G5" s="140"/>
+    </row>
+    <row r="6" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="32">
+        <v>45230</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="33">
+        <v>55618.559999999998</v>
+      </c>
+      <c r="G6" s="141"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32">
+        <v>45230</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="33">
+        <v>108098.9</v>
+      </c>
+      <c r="G7" s="140"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="32">
+        <v>45230</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="33">
+        <v>15515</v>
+      </c>
+      <c r="G8" s="140"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="32">
+        <v>45230</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="33">
+        <v>17370.599999999999</v>
+      </c>
+      <c r="G9" s="140"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="32">
+        <v>45230</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="33">
+        <v>11387.2</v>
+      </c>
+      <c r="G10" s="140"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="32">
+        <v>45230</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="33">
+        <v>7097</v>
+      </c>
+      <c r="G11" s="140"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="32">
+        <v>45231</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="33">
+        <v>46395.199999999997</v>
+      </c>
+      <c r="G12" s="140"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="32">
+        <v>45231</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1867.6</v>
+      </c>
+      <c r="G13" s="142"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="32">
+        <v>45231</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="33">
+        <v>141032.62</v>
+      </c>
+      <c r="G14" s="140"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
+      <c r="C15" s="32">
+        <v>45231</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="33">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="140"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="32">
+        <v>45232</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="33">
+        <v>79415.02</v>
+      </c>
+      <c r="G16" s="140"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="32">
+        <v>45232</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="33">
+        <v>72876.5</v>
+      </c>
+      <c r="G17" s="140"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+      <c r="C18" s="32">
+        <v>45233</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="33">
+        <v>129722.2</v>
+      </c>
+      <c r="G18" s="140"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>17</v>
+      </c>
+      <c r="C19" s="109">
+        <v>45232</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" s="33">
+        <v>64064</v>
+      </c>
+      <c r="G19" s="140"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>18</v>
+      </c>
+      <c r="C20" s="32">
+        <v>45233</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="33">
+        <v>173767</v>
+      </c>
+      <c r="G20" s="140"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>19</v>
+      </c>
+      <c r="C21" s="32">
+        <v>45233</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="33">
+        <v>79922.8</v>
+      </c>
+      <c r="G21" s="140"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>20</v>
+      </c>
+      <c r="C22" s="32">
+        <v>45233</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" s="33">
+        <v>18180</v>
+      </c>
+      <c r="G22" s="140"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>21</v>
+      </c>
+      <c r="C23" s="32">
+        <v>45233</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" s="33">
+        <v>11479</v>
+      </c>
+      <c r="G23" s="140"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>22</v>
+      </c>
+      <c r="C24" s="32">
+        <v>45234</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" s="33">
+        <v>55286.6</v>
+      </c>
+      <c r="G24" s="142"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>23</v>
+      </c>
+      <c r="C25" s="32">
+        <v>45234</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" s="33">
+        <v>112312</v>
+      </c>
+      <c r="G25" s="140"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>24</v>
+      </c>
+      <c r="C26" s="32">
+        <v>45234</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="108" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" s="33">
+        <v>11050.7</v>
+      </c>
+      <c r="G26" s="140"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>25</v>
+      </c>
+      <c r="C27" s="32">
+        <v>45234</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="33">
+        <v>59975.6</v>
+      </c>
+      <c r="G27" s="140"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>26</v>
+      </c>
+      <c r="C28" s="32">
+        <v>45234</v>
+      </c>
+      <c r="D28" s="105" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="33">
+        <v>56109.9</v>
+      </c>
+      <c r="G28" s="140"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>27</v>
+      </c>
+      <c r="C29" s="111">
+        <v>45234</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" s="42">
+        <v>8075</v>
+      </c>
+      <c r="G29" s="143"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="33">
+        <v>0</v>
+      </c>
+      <c r="G30" s="140"/>
+    </row>
+    <row r="31" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="112"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="125"/>
+      <c r="F31" s="126">
+        <f>SUM(F3:F30)</f>
+        <v>1500517.46</v>
+      </c>
+      <c r="G31" s="144"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="112"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="119"/>
+    </row>
+    <row r="33" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="112"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="G33" s="120"/>
+    </row>
+    <row r="34" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="112"/>
+      <c r="C34" s="183" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="183"/>
+      <c r="E34" s="179">
+        <f>F31-782498.42</f>
+        <v>718019.03999999992</v>
+      </c>
+      <c r="F34" s="180"/>
+      <c r="G34" s="117"/>
+    </row>
+    <row r="35" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="112"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="118"/>
+    </row>
+    <row r="36" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="112"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="145" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" s="145"/>
+      <c r="G36" s="121"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="112"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="G37" s="122"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="112"/>
+      <c r="G38" s="121"/>
+    </row>
+    <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="112"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="G39" s="121"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="112"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="121"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="112"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="121"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="112"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="121"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="112"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="121"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="112"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="123"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="114"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="121"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="114"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="121"/>
+    </row>
+    <row r="47" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="128"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="C34:D35"/>
+  </mergeCells>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
@@ -1834,6 +1834,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1923,9 +1926,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1936,11 +1936,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CCFF"/>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FF33CCFF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -2012,15 +2012,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>360831</xdr:colOff>
+      <xdr:colOff>741831</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>55685</xdr:rowOff>
+      <xdr:rowOff>93785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2040,7 +2040,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5524500" y="38100"/>
+          <a:off x="5972175" y="333375"/>
           <a:ext cx="6171081" cy="9275885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2375,8 +2375,8 @@
   </sheetPr>
   <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2395,20 +2395,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
       <c r="I1" s="68"/>
-      <c r="J1" s="159" t="s">
+      <c r="J1" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
     </row>
     <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -3340,8 +3340,8 @@
       </c>
       <c r="G32" s="27"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="160"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
       <c r="L32" s="150"/>
       <c r="M32" s="151"/>
     </row>
@@ -3429,10 +3429,10 @@
       <c r="G36" s="25"/>
       <c r="I36" s="68"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="163" t="s">
+      <c r="L36" s="164" t="s">
         <v>210</v>
       </c>
-      <c r="M36" s="161">
+      <c r="M36" s="162">
         <f>F47-M31</f>
         <v>1037858.16</v>
       </c>
@@ -3456,8 +3456,8 @@
       <c r="G37" s="45"/>
       <c r="I37" s="68"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="162"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="163"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -3522,10 +3522,10 @@
       <c r="G40" s="25"/>
       <c r="I40" s="68"/>
       <c r="K40" s="86"/>
-      <c r="L40" s="154" t="s">
+      <c r="L40" s="155" t="s">
         <v>209</v>
       </c>
-      <c r="M40" s="155"/>
+      <c r="M40" s="156"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
@@ -3545,8 +3545,8 @@
       </c>
       <c r="G41" s="25"/>
       <c r="I41" s="68"/>
-      <c r="L41" s="156"/>
-      <c r="M41" s="157"/>
+      <c r="L41" s="157"/>
+      <c r="M41" s="158"/>
     </row>
     <row r="42" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
@@ -3685,19 +3685,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="J1" s="159" t="s">
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="J1" s="160" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -4880,10 +4880,10 @@
       </c>
       <c r="J39" s="86"/>
       <c r="K39" s="95"/>
-      <c r="L39" s="165" t="s">
+      <c r="L39" s="166" t="s">
         <v>210</v>
       </c>
-      <c r="M39" s="167">
+      <c r="M39" s="168">
         <f>F43-M37</f>
         <v>225360.95000000007</v>
       </c>
@@ -4908,8 +4908,8 @@
         <v>190</v>
       </c>
       <c r="K40" s="94"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="168"/>
+      <c r="L40" s="167"/>
+      <c r="M40" s="169"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -4971,15 +4971,15 @@
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="B1:N48"/>
+  <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
@@ -4991,385 +4991,367 @@
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="158" t="s">
+    <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-    </row>
-    <row r="2" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+    </row>
+    <row r="3" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="129"/>
-      <c r="H2" s="68"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="102">
-        <v>45222</v>
-      </c>
-      <c r="D3" s="103" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="104">
-        <v>22751.1</v>
-      </c>
-      <c r="G3" s="130"/>
+      <c r="G3" s="129"/>
       <c r="H3" s="68"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="102">
         <v>45222</v>
       </c>
-      <c r="D4" s="105" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="33">
-        <v>70164.84</v>
-      </c>
-      <c r="G4" s="131"/>
+      <c r="D4" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="104">
+        <v>22751.1</v>
+      </c>
+      <c r="G4" s="130"/>
       <c r="H4" s="68"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="32">
         <v>45222</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="33">
-        <v>20764.400000000001</v>
+        <v>70164.84</v>
       </c>
       <c r="G5" s="131"/>
       <c r="H5" s="68"/>
     </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="32">
         <v>45222</v>
       </c>
       <c r="D6" s="105" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="33">
-        <v>18512.5</v>
-      </c>
-      <c r="G6" s="132"/>
+        <v>20764.400000000001</v>
+      </c>
+      <c r="G6" s="131"/>
       <c r="H6" s="68"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="32">
         <v>45222</v>
       </c>
       <c r="D7" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="33">
+        <v>18512.5</v>
+      </c>
+      <c r="G7" s="132"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="32">
+        <v>45222</v>
+      </c>
+      <c r="D8" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E8" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F8" s="33">
         <v>5100.8</v>
-      </c>
-      <c r="G7" s="131"/>
-      <c r="H7" s="68"/>
-    </row>
-    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="184">
-        <v>45220</v>
-      </c>
-      <c r="D8" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="33">
-        <v>6076.2</v>
       </c>
       <c r="G8" s="131"/>
       <c r="H8" s="68"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
-        <v>7</v>
-      </c>
-      <c r="C9" s="32">
-        <v>45222</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="154">
+        <v>45220</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>120</v>
+        <v>53</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="33">
-        <v>2436</v>
+        <v>6076.2</v>
       </c>
       <c r="G9" s="131"/>
       <c r="H9" s="68"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="32">
         <v>45222</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F10" s="33">
-        <v>9656</v>
+        <v>2436</v>
       </c>
       <c r="G10" s="131"/>
       <c r="H10" s="68"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="32">
         <v>45222</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="F11" s="33">
-        <v>48937.4</v>
+        <v>9656</v>
       </c>
       <c r="G11" s="131"/>
       <c r="H11" s="68"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="32">
-        <v>45223</v>
+        <v>45222</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="F12" s="33">
-        <v>67869.600000000006</v>
+        <v>48937.4</v>
       </c>
       <c r="G12" s="131"/>
       <c r="H12" s="68"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="32">
         <v>45223</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F13" s="33">
-        <v>15440</v>
-      </c>
-      <c r="G13" s="133"/>
+        <v>67869.600000000006</v>
+      </c>
+      <c r="G13" s="131"/>
       <c r="H13" s="68"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="32">
         <v>45223</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>123</v>
+        <v>63</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>110</v>
       </c>
       <c r="F14" s="33">
-        <v>26845.200000000001</v>
-      </c>
-      <c r="G14" s="131"/>
+        <v>15440</v>
+      </c>
+      <c r="G14" s="133"/>
       <c r="H14" s="68"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="32">
         <v>45223</v>
       </c>
       <c r="D15" s="105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" s="33">
-        <v>606</v>
+        <v>26845.200000000001</v>
       </c>
       <c r="G15" s="131"/>
       <c r="H15" s="68"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="32">
-        <v>45224</v>
+        <v>45223</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="F16" s="33">
-        <v>55687.5</v>
+        <v>606</v>
       </c>
       <c r="G16" s="131"/>
       <c r="H16" s="68"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="32">
         <v>45224</v>
       </c>
       <c r="D17" s="105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F17" s="33">
-        <v>10019.6</v>
+        <v>55687.5</v>
       </c>
       <c r="G17" s="131"/>
       <c r="H17" s="68"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="32">
         <v>45224</v>
       </c>
       <c r="D18" s="105" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F18" s="33">
-        <v>134020.35999999999</v>
+        <v>10019.6</v>
       </c>
       <c r="G18" s="131"/>
       <c r="H18" s="68"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="32">
         <v>45224</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>159</v>
+        <v>130</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="F19" s="33">
-        <v>6188</v>
+        <v>134020.35999999999</v>
       </c>
       <c r="G19" s="131"/>
       <c r="H19" s="68"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="32">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F20" s="33">
-        <v>0</v>
+        <v>6188</v>
       </c>
       <c r="G20" s="131"/>
       <c r="H20" s="68"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="32">
-        <v>45224</v>
+        <v>45223</v>
       </c>
       <c r="D21" s="105" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" s="33">
         <v>0</v>
@@ -5379,450 +5361,477 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="32">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="D22" s="105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F22" s="33">
-        <v>124407.5</v>
+        <v>0</v>
       </c>
       <c r="G22" s="131"/>
       <c r="H22" s="68"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="32">
         <v>45225</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F23" s="33">
-        <v>10456.44</v>
+        <v>124407.5</v>
       </c>
       <c r="G23" s="131"/>
       <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="32">
         <v>45225</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="33">
-        <v>345</v>
-      </c>
-      <c r="G24" s="133"/>
+        <v>10456.44</v>
+      </c>
+      <c r="G24" s="131"/>
       <c r="H24" s="68"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="32">
         <v>45225</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F25" s="33">
-        <v>45834.7</v>
-      </c>
-      <c r="G25" s="131"/>
+        <v>345</v>
+      </c>
+      <c r="G25" s="133"/>
       <c r="H25" s="68"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="32">
         <v>45225</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>167</v>
+        <v>137</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="F26" s="33">
-        <v>7125</v>
+        <v>45834.7</v>
       </c>
       <c r="G26" s="131"/>
       <c r="H26" s="68"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="32">
         <v>45225</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F27" s="33">
-        <v>55137.9</v>
+        <v>7125</v>
       </c>
       <c r="G27" s="131"/>
       <c r="H27" s="68"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="32">
-        <v>45226</v>
+        <v>45225</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>168</v>
+        <v>139</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="F28" s="33">
-        <v>37652.400000000001</v>
+        <v>55137.9</v>
       </c>
       <c r="G28" s="131"/>
       <c r="H28" s="68"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="32">
         <v>45226</v>
       </c>
       <c r="D29" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F29" s="33">
-        <v>48202.54</v>
+        <v>37652.400000000001</v>
       </c>
       <c r="G29" s="131"/>
       <c r="H29" s="68"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="32">
         <v>45226</v>
       </c>
       <c r="D30" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F30" s="33">
-        <v>5609.2</v>
+        <v>48202.54</v>
       </c>
       <c r="G30" s="131"/>
       <c r="H30" s="68"/>
     </row>
-    <row r="31" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="32">
         <v>45226</v>
       </c>
       <c r="D31" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="33">
+        <v>5609.2</v>
+      </c>
+      <c r="G31" s="131"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <v>29</v>
+      </c>
+      <c r="C32" s="32">
+        <v>45226</v>
+      </c>
+      <c r="D32" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E32" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F32" s="33">
         <v>43436.800000000003</v>
       </c>
-      <c r="G31" s="132"/>
-      <c r="H31" s="68"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
+      <c r="G32" s="132"/>
+      <c r="H32" s="68"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
         <v>30</v>
-      </c>
-      <c r="C32" s="32">
-        <v>45227</v>
-      </c>
-      <c r="D32" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" s="33">
-        <v>199527.8</v>
-      </c>
-      <c r="G32" s="134"/>
-      <c r="H32" s="68"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
-        <v>31</v>
       </c>
       <c r="C33" s="32">
         <v>45227</v>
       </c>
       <c r="D33" s="105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" s="33">
-        <v>29534.1</v>
-      </c>
-      <c r="G33" s="135"/>
+        <v>199527.8</v>
+      </c>
+      <c r="G33" s="134"/>
       <c r="H33" s="68"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="32">
         <v>45227</v>
       </c>
       <c r="D34" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="33">
-        <v>1734.4</v>
-      </c>
-      <c r="G34" s="131"/>
+        <v>29534.1</v>
+      </c>
+      <c r="G34" s="135"/>
       <c r="H34" s="68"/>
     </row>
-    <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="32">
         <v>45227</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F35" s="33">
-        <v>17967.2</v>
-      </c>
-      <c r="G35" s="132"/>
+        <v>1734.4</v>
+      </c>
+      <c r="G35" s="131"/>
       <c r="H35" s="68"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="32">
         <v>45227</v>
       </c>
       <c r="D36" s="105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" s="33">
-        <v>640</v>
-      </c>
-      <c r="G36" s="133"/>
+        <v>17967.2</v>
+      </c>
+      <c r="G36" s="132"/>
       <c r="H36" s="68"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="32">
         <v>45227</v>
       </c>
       <c r="D37" s="105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F37" s="33">
-        <v>7296</v>
-      </c>
-      <c r="G37" s="136"/>
+        <v>640</v>
+      </c>
+      <c r="G37" s="133"/>
       <c r="H37" s="68"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="32">
         <v>45227</v>
       </c>
       <c r="D38" s="105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F38" s="33">
-        <v>17830.3</v>
-      </c>
-      <c r="G38" s="133"/>
+        <v>7296</v>
+      </c>
+      <c r="G38" s="136"/>
       <c r="H38" s="68"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="32">
         <v>45227</v>
       </c>
       <c r="D39" s="105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F39" s="33">
-        <v>1211.4000000000001</v>
+        <v>17830.3</v>
       </c>
       <c r="G39" s="133"/>
       <c r="H39" s="68"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="32">
         <v>45227</v>
       </c>
       <c r="D40" s="105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F40" s="33">
-        <v>20743.599999999999</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="G40" s="133"/>
       <c r="H40" s="68"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="138"/>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>38</v>
+      </c>
+      <c r="C41" s="32">
+        <v>45227</v>
+      </c>
+      <c r="D41" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="33">
+        <v>20743.599999999999</v>
+      </c>
+      <c r="G41" s="133"/>
       <c r="H41" s="68"/>
     </row>
-    <row r="42" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="114"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="124" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="125"/>
-      <c r="F42" s="126">
-        <f>SUM(F3:F41)</f>
-        <v>1195767.78</v>
-      </c>
-      <c r="H42" s="137"/>
-    </row>
-    <row r="43" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="68"/>
+    </row>
+    <row r="43" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="114"/>
       <c r="C43" s="113"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="110"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
-    </row>
-    <row r="44" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="F44" s="171" t="s">
+      <c r="D43" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="125"/>
+      <c r="F43" s="126">
+        <f>SUM(F4:F42)</f>
+        <v>1195767.78</v>
+      </c>
+      <c r="H43" s="137"/>
+    </row>
+    <row r="44" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="114"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+    </row>
+    <row r="45" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="F45" s="172" t="s">
         <v>221</v>
       </c>
-      <c r="G44" s="172"/>
-      <c r="H44" s="173"/>
-      <c r="J44" s="169" t="s">
+      <c r="G45" s="173"/>
+      <c r="H45" s="174"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="170" t="s">
         <v>210</v>
       </c>
-      <c r="K44" s="170"/>
-      <c r="L44" s="177">
-        <f>F42-982143.23</f>
+      <c r="K45" s="171"/>
+      <c r="L45" s="178">
+        <f>F43-982143.23</f>
         <v>213624.55000000005</v>
       </c>
-      <c r="M44" s="178"/>
-      <c r="N44" s="178"/>
-    </row>
-    <row r="45" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="174"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="176"/>
-      <c r="J45" s="169"/>
-      <c r="K45" s="170"/>
-      <c r="L45" s="177"/>
-      <c r="M45" s="178"/>
-      <c r="N45" s="178"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J46" s="99"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J47" s="86"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M45" s="179"/>
+      <c r="N45" s="179"/>
+      <c r="O45" s="100"/>
+    </row>
+    <row r="46" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="175"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="171"/>
+      <c r="L46" s="178"/>
+      <c r="M46" s="179"/>
+      <c r="N46" s="179"/>
+      <c r="O46" s="100"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I47" s="100"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="100"/>
+      <c r="O47" s="100"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J48" s="86"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="J44:K45"/>
-    <mergeCell ref="F44:H45"/>
-    <mergeCell ref="L44:N45"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="J45:K46"/>
+    <mergeCell ref="F45:H46"/>
+    <mergeCell ref="L45:N46"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="73" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5837,7 +5846,7 @@
   </sheetPr>
   <dimension ref="B1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -5855,13 +5864,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
     </row>
     <row r="2" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -6404,23 +6413,23 @@
     </row>
     <row r="34" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="112"/>
-      <c r="C34" s="183" t="s">
+      <c r="C34" s="184" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="183"/>
-      <c r="E34" s="179">
+      <c r="D34" s="184"/>
+      <c r="E34" s="180">
         <f>F31-782498.42</f>
         <v>718019.03999999992</v>
       </c>
-      <c r="F34" s="180"/>
+      <c r="F34" s="181"/>
       <c r="G34" s="117"/>
     </row>
     <row r="35" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="112"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="182"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="183"/>
       <c r="G35" s="118"/>
     </row>
     <row r="36" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="281">
   <si>
     <t>FECHA</t>
   </si>
@@ -840,6 +840,36 @@
   </si>
   <si>
     <t>SEMANA DEL  30-04-Nov-23</t>
+  </si>
+  <si>
+    <t># 8424</t>
+  </si>
+  <si>
+    <t># 8421</t>
+  </si>
+  <si>
+    <t># 8420</t>
+  </si>
+  <si>
+    <t># 8423</t>
+  </si>
+  <si>
+    <t># 8422</t>
+  </si>
+  <si>
+    <t># 12762015</t>
+  </si>
+  <si>
+    <t># 12762016</t>
+  </si>
+  <si>
+    <t># 12762012</t>
+  </si>
+  <si>
+    <t>PAGOS</t>
+  </si>
+  <si>
+    <t>PAGADO</t>
   </si>
 </sst>
 </file>
@@ -849,7 +879,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,6 +1005,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1044,7 +1081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1540,12 +1577,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1837,13 +2012,46 @@
     <xf numFmtId="15" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1926,6 +2134,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="34"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1936,12 +2153,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1956,6 +2173,109 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>293077</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7737231" y="8162192"/>
+          <a:ext cx="1494692" cy="2557096"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139211</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44644</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>128269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="C:\Users\ROUSS\Pictures\2023-11-07 ESCANEO\WhatsApp Image 2023-11-11 at 11.42.30 AM.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="4229" r="8575"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9078057" y="9275885"/>
+          <a:ext cx="1722510" cy="1762172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2007,20 +2327,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>741831</xdr:colOff>
+      <xdr:colOff>703731</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>93785</xdr:rowOff>
+      <xdr:rowOff>46160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2040,7 +2360,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5972175" y="333375"/>
+          <a:off x="5934075" y="285750"/>
           <a:ext cx="6171081" cy="9275885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2057,7 +2377,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2373,10 +2693,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:M47"/>
+  <dimension ref="B1:M51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:N48"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2389,26 +2709,26 @@
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="72"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="68"/>
-      <c r="J1" s="160" t="s">
+      <c r="J1" s="177" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
     </row>
     <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -3340,8 +3660,8 @@
       </c>
       <c r="G32" s="27"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="178"/>
       <c r="L32" s="150"/>
       <c r="M32" s="151"/>
     </row>
@@ -3429,10 +3749,10 @@
       <c r="G36" s="25"/>
       <c r="I36" s="68"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="164" t="s">
+      <c r="L36" s="181" t="s">
         <v>210</v>
       </c>
-      <c r="M36" s="162">
+      <c r="M36" s="179">
         <f>F47-M31</f>
         <v>1037858.16</v>
       </c>
@@ -3456,8 +3776,8 @@
       <c r="G37" s="45"/>
       <c r="I37" s="68"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="165"/>
-      <c r="M37" s="163"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="180"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -3520,12 +3840,19 @@
         <v>82278.960000000006</v>
       </c>
       <c r="G40" s="25"/>
-      <c r="I40" s="68"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="155" t="s">
+      <c r="I40" s="158" t="s">
+        <v>271</v>
+      </c>
+      <c r="J40" s="159">
+        <v>45240</v>
+      </c>
+      <c r="K40" s="160">
+        <v>220000</v>
+      </c>
+      <c r="L40" s="172" t="s">
         <v>209</v>
       </c>
-      <c r="M40" s="156"/>
+      <c r="M40" s="173"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
@@ -3544,11 +3871,19 @@
         <v>92378.5</v>
       </c>
       <c r="G41" s="25"/>
-      <c r="I41" s="68"/>
-      <c r="L41" s="157"/>
-      <c r="M41" s="158"/>
-    </row>
-    <row r="42" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="161" t="s">
+        <v>272</v>
+      </c>
+      <c r="J41" s="157">
+        <v>45240</v>
+      </c>
+      <c r="K41" s="162">
+        <v>25000</v>
+      </c>
+      <c r="L41" s="174"/>
+      <c r="M41" s="175"/>
+    </row>
+    <row r="42" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
         <v>40</v>
       </c>
@@ -3565,7 +3900,15 @@
         <v>26978</v>
       </c>
       <c r="G42" s="25"/>
-      <c r="I42" s="68"/>
+      <c r="I42" s="161" t="s">
+        <v>273</v>
+      </c>
+      <c r="J42" s="157">
+        <v>45240</v>
+      </c>
+      <c r="K42" s="162">
+        <v>94000</v>
+      </c>
     </row>
     <row r="43" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
@@ -3584,7 +3927,19 @@
         <v>119417.36</v>
       </c>
       <c r="G43" s="25"/>
-      <c r="I43" s="68"/>
+      <c r="I43" s="161" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" s="157">
+        <v>45240</v>
+      </c>
+      <c r="K43" s="162">
+        <v>170000</v>
+      </c>
+      <c r="L43" s="169" t="s">
+        <v>280</v>
+      </c>
+      <c r="M43" s="202"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
@@ -3603,7 +3958,17 @@
         <v>0</v>
       </c>
       <c r="G44" s="35"/>
-      <c r="I44" s="68"/>
+      <c r="I44" s="161" t="s">
+        <v>275</v>
+      </c>
+      <c r="J44" s="157">
+        <v>45240</v>
+      </c>
+      <c r="K44" s="162">
+        <v>180000</v>
+      </c>
+      <c r="L44" s="170"/>
+      <c r="M44" s="203"/>
     </row>
     <row r="45" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
@@ -3622,7 +3987,17 @@
         <v>11736.4</v>
       </c>
       <c r="G45" s="25"/>
-      <c r="I45" s="68"/>
+      <c r="I45" s="163" t="s">
+        <v>276</v>
+      </c>
+      <c r="J45" s="157">
+        <v>45240</v>
+      </c>
+      <c r="K45" s="162">
+        <v>60000</v>
+      </c>
+      <c r="L45" s="170"/>
+      <c r="M45" s="203"/>
     </row>
     <row r="46" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
@@ -3631,9 +4006,19 @@
       <c r="E46" s="29"/>
       <c r="F46" s="13"/>
       <c r="G46" s="25"/>
-      <c r="I46" s="68"/>
-    </row>
-    <row r="47" spans="2:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="163" t="s">
+        <v>277</v>
+      </c>
+      <c r="J46" s="157">
+        <v>45240</v>
+      </c>
+      <c r="K46" s="162">
+        <v>98858</v>
+      </c>
+      <c r="L46" s="170"/>
+      <c r="M46" s="203"/>
+    </row>
+    <row r="47" spans="2:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="D47" s="14" t="s">
         <v>69</v>
@@ -3643,19 +4028,50 @@
         <f>SUM(F3:F46)</f>
         <v>1646415.5</v>
       </c>
-      <c r="I47" s="68"/>
+      <c r="I47" s="164" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" s="165">
+        <v>45240</v>
+      </c>
+      <c r="K47" s="166">
+        <v>190000</v>
+      </c>
+      <c r="L47" s="171"/>
+      <c r="M47" s="204"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J48" s="167" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" s="168">
+        <f>SUM(K40:K47)</f>
+        <v>1037858</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J49" s="156"/>
+      <c r="K49" s="155"/>
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J50" s="156"/>
+    </row>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J51" s="156"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="L40:M41"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L43:L47"/>
   </mergeCells>
-  <pageMargins left="0.37" right="0.23622047244094491" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="2.23" right="0.23622047244094491" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3685,19 +4101,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="J1" s="160" t="s">
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="J1" s="177" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -4880,10 +5296,10 @@
       </c>
       <c r="J39" s="86"/>
       <c r="K39" s="95"/>
-      <c r="L39" s="166" t="s">
+      <c r="L39" s="183" t="s">
         <v>210</v>
       </c>
-      <c r="M39" s="168">
+      <c r="M39" s="185">
         <f>F43-M37</f>
         <v>225360.95000000007</v>
       </c>
@@ -4908,8 +5324,8 @@
         <v>190</v>
       </c>
       <c r="K40" s="94"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="169"/>
+      <c r="L40" s="184"/>
+      <c r="M40" s="186"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -4973,8 +5389,8 @@
   </sheetPr>
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4993,13 +5409,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
     </row>
     <row r="3" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -5779,34 +6195,34 @@
     </row>
     <row r="45" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="F45" s="172" t="s">
+      <c r="F45" s="189" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="173"/>
-      <c r="H45" s="174"/>
+      <c r="G45" s="190"/>
+      <c r="H45" s="191"/>
       <c r="I45" s="100"/>
-      <c r="J45" s="170" t="s">
+      <c r="J45" s="187" t="s">
         <v>210</v>
       </c>
-      <c r="K45" s="171"/>
-      <c r="L45" s="178">
+      <c r="K45" s="188"/>
+      <c r="L45" s="195">
         <f>F43-982143.23</f>
         <v>213624.55000000005</v>
       </c>
-      <c r="M45" s="179"/>
-      <c r="N45" s="179"/>
+      <c r="M45" s="196"/>
+      <c r="N45" s="196"/>
       <c r="O45" s="100"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
-      <c r="H46" s="177"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="193"/>
+      <c r="H46" s="194"/>
       <c r="I46" s="100"/>
-      <c r="J46" s="170"/>
-      <c r="K46" s="171"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="179"/>
-      <c r="N46" s="179"/>
+      <c r="J46" s="187"/>
+      <c r="K46" s="188"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="196"/>
+      <c r="N46" s="196"/>
       <c r="O46" s="100"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -5864,13 +6280,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
     </row>
     <row r="2" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -6413,23 +6829,23 @@
     </row>
     <row r="34" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="112"/>
-      <c r="C34" s="184" t="s">
+      <c r="C34" s="201" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="184"/>
-      <c r="E34" s="180">
+      <c r="D34" s="201"/>
+      <c r="E34" s="197">
         <f>F31-782498.42</f>
         <v>718019.03999999992</v>
       </c>
-      <c r="F34" s="181"/>
+      <c r="F34" s="198"/>
       <c r="G34" s="117"/>
     </row>
     <row r="35" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="112"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="183"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="200"/>
       <c r="G35" s="118"/>
     </row>
     <row r="36" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
@@ -1720,7 +1720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1942,12 +1942,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2036,6 +2033,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="34"/>
     </xf>
@@ -2045,39 +2084,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="34"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2132,17 +2138,15 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="34"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2153,8 +2157,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CCFF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF33CCFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF99CCFF"/>
@@ -2227,13 +2231,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>139211</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>102577</xdr:rowOff>
+      <xdr:rowOff>102576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>44644</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>128269</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556846</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2253,8 +2257,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9078057" y="9275885"/>
-          <a:ext cx="1722510" cy="1762172"/>
+          <a:off x="9078057" y="9275884"/>
+          <a:ext cx="2996712" cy="2410557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2695,8 +2699,8 @@
   </sheetPr>
   <dimension ref="B1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView topLeftCell="D40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2715,20 +2719,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="176" t="s">
+      <c r="C1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
       <c r="I1" s="68"/>
-      <c r="J1" s="177" t="s">
+      <c r="J1" s="174" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
     </row>
     <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -3632,12 +3636,12 @@
       </c>
       <c r="G31" s="24"/>
       <c r="I31" s="68"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="148" t="s">
+      <c r="J31" s="143"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="M31" s="149">
+      <c r="M31" s="146">
         <f>SUM(M3:M30)</f>
         <v>608557.34</v>
       </c>
@@ -3660,10 +3664,10 @@
       </c>
       <c r="G32" s="27"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="151"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="148"/>
     </row>
     <row r="33" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
@@ -3683,10 +3687,10 @@
       </c>
       <c r="G33" s="17"/>
       <c r="I33" s="68"/>
-      <c r="J33" s="152"/>
+      <c r="J33" s="149"/>
       <c r="K33" s="110"/>
       <c r="L33" s="110"/>
-      <c r="M33" s="153"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
@@ -3749,10 +3753,10 @@
       <c r="G36" s="25"/>
       <c r="I36" s="68"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="181" t="s">
+      <c r="L36" s="178" t="s">
         <v>210</v>
       </c>
-      <c r="M36" s="179">
+      <c r="M36" s="176">
         <f>F47-M31</f>
         <v>1037858.16</v>
       </c>
@@ -3776,8 +3780,8 @@
       <c r="G37" s="45"/>
       <c r="I37" s="68"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="180"/>
+      <c r="L37" s="179"/>
+      <c r="M37" s="177"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -3840,19 +3844,19 @@
         <v>82278.960000000006</v>
       </c>
       <c r="G40" s="25"/>
-      <c r="I40" s="158" t="s">
+      <c r="I40" s="155" t="s">
         <v>271</v>
       </c>
-      <c r="J40" s="159">
+      <c r="J40" s="156">
         <v>45240</v>
       </c>
-      <c r="K40" s="160">
+      <c r="K40" s="157">
         <v>220000</v>
       </c>
-      <c r="L40" s="172" t="s">
+      <c r="L40" s="169" t="s">
         <v>209</v>
       </c>
-      <c r="M40" s="173"/>
+      <c r="M40" s="170"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
@@ -3871,17 +3875,17 @@
         <v>92378.5</v>
       </c>
       <c r="G41" s="25"/>
-      <c r="I41" s="161" t="s">
+      <c r="I41" s="158" t="s">
         <v>272</v>
       </c>
-      <c r="J41" s="157">
+      <c r="J41" s="154">
         <v>45240</v>
       </c>
-      <c r="K41" s="162">
+      <c r="K41" s="159">
         <v>25000</v>
       </c>
-      <c r="L41" s="174"/>
-      <c r="M41" s="175"/>
+      <c r="L41" s="171"/>
+      <c r="M41" s="172"/>
     </row>
     <row r="42" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
@@ -3900,13 +3904,13 @@
         <v>26978</v>
       </c>
       <c r="G42" s="25"/>
-      <c r="I42" s="161" t="s">
+      <c r="I42" s="158" t="s">
         <v>273</v>
       </c>
-      <c r="J42" s="157">
+      <c r="J42" s="154">
         <v>45240</v>
       </c>
-      <c r="K42" s="162">
+      <c r="K42" s="159">
         <v>94000</v>
       </c>
     </row>
@@ -3927,19 +3931,19 @@
         <v>119417.36</v>
       </c>
       <c r="G43" s="25"/>
-      <c r="I43" s="161" t="s">
+      <c r="I43" s="158" t="s">
         <v>274</v>
       </c>
-      <c r="J43" s="157">
+      <c r="J43" s="154">
         <v>45240</v>
       </c>
-      <c r="K43" s="162">
+      <c r="K43" s="159">
         <v>170000</v>
       </c>
-      <c r="L43" s="169" t="s">
+      <c r="L43" s="180" t="s">
         <v>280</v>
       </c>
-      <c r="M43" s="202"/>
+      <c r="M43" s="166"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
@@ -3958,17 +3962,17 @@
         <v>0</v>
       </c>
       <c r="G44" s="35"/>
-      <c r="I44" s="161" t="s">
+      <c r="I44" s="158" t="s">
         <v>275</v>
       </c>
-      <c r="J44" s="157">
+      <c r="J44" s="154">
         <v>45240</v>
       </c>
-      <c r="K44" s="162">
+      <c r="K44" s="159">
         <v>180000</v>
       </c>
-      <c r="L44" s="170"/>
-      <c r="M44" s="203"/>
+      <c r="L44" s="181"/>
+      <c r="M44" s="167"/>
     </row>
     <row r="45" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
@@ -3987,17 +3991,17 @@
         <v>11736.4</v>
       </c>
       <c r="G45" s="25"/>
-      <c r="I45" s="163" t="s">
+      <c r="I45" s="160" t="s">
         <v>276</v>
       </c>
-      <c r="J45" s="157">
+      <c r="J45" s="154">
         <v>45240</v>
       </c>
-      <c r="K45" s="162">
+      <c r="K45" s="159">
         <v>60000</v>
       </c>
-      <c r="L45" s="170"/>
-      <c r="M45" s="203"/>
+      <c r="L45" s="181"/>
+      <c r="M45" s="167"/>
     </row>
     <row r="46" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
@@ -4006,17 +4010,17 @@
       <c r="E46" s="29"/>
       <c r="F46" s="13"/>
       <c r="G46" s="25"/>
-      <c r="I46" s="163" t="s">
+      <c r="I46" s="160" t="s">
         <v>277</v>
       </c>
-      <c r="J46" s="157">
+      <c r="J46" s="154">
         <v>45240</v>
       </c>
-      <c r="K46" s="162">
+      <c r="K46" s="159">
         <v>98858</v>
       </c>
-      <c r="L46" s="170"/>
-      <c r="M46" s="203"/>
+      <c r="L46" s="181"/>
+      <c r="M46" s="167"/>
     </row>
     <row r="47" spans="2:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
@@ -4028,46 +4032,46 @@
         <f>SUM(F3:F46)</f>
         <v>1646415.5</v>
       </c>
-      <c r="I47" s="164" t="s">
+      <c r="I47" s="161" t="s">
         <v>278</v>
       </c>
-      <c r="J47" s="165">
+      <c r="J47" s="162">
         <v>45240</v>
       </c>
-      <c r="K47" s="166">
+      <c r="K47" s="163">
         <v>190000</v>
       </c>
-      <c r="L47" s="171"/>
-      <c r="M47" s="204"/>
+      <c r="L47" s="182"/>
+      <c r="M47" s="168"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J48" s="167" t="s">
+      <c r="J48" s="164" t="s">
         <v>279</v>
       </c>
-      <c r="K48" s="168">
+      <c r="K48" s="165">
         <f>SUM(K40:K47)</f>
         <v>1037858</v>
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="156"/>
-      <c r="K49" s="155"/>
+      <c r="J49" s="153"/>
+      <c r="K49" s="152"/>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="156"/>
+      <c r="J50" s="153"/>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="156"/>
+      <c r="J51" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L43:L47"/>
     <mergeCell ref="L40:M41"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L43:L47"/>
   </mergeCells>
   <pageMargins left="2.23" right="0.23622047244094491" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4101,19 +4105,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="176" t="s">
+      <c r="C1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="J1" s="177" t="s">
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="J1" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -5389,8 +5393,8 @@
   </sheetPr>
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5409,13 +5413,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
     </row>
     <row r="3" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -5430,7 +5434,7 @@
       <c r="F3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="129"/>
+      <c r="G3" s="126"/>
       <c r="H3" s="68"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -5449,7 +5453,7 @@
       <c r="F4" s="104">
         <v>22751.1</v>
       </c>
-      <c r="G4" s="130"/>
+      <c r="G4" s="127"/>
       <c r="H4" s="68"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -5468,7 +5472,7 @@
       <c r="F5" s="33">
         <v>70164.84</v>
       </c>
-      <c r="G5" s="131"/>
+      <c r="G5" s="128"/>
       <c r="H5" s="68"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -5487,7 +5491,7 @@
       <c r="F6" s="33">
         <v>20764.400000000001</v>
       </c>
-      <c r="G6" s="131"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="68"/>
     </row>
     <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -5506,7 +5510,7 @@
       <c r="F7" s="33">
         <v>18512.5</v>
       </c>
-      <c r="G7" s="132"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="68"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -5525,14 +5529,14 @@
       <c r="F8" s="33">
         <v>5100.8</v>
       </c>
-      <c r="G8" s="131"/>
+      <c r="G8" s="128"/>
       <c r="H8" s="68"/>
     </row>
     <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="154">
+      <c r="C9" s="151">
         <v>45220</v>
       </c>
       <c r="D9" s="105" t="s">
@@ -5544,7 +5548,7 @@
       <c r="F9" s="33">
         <v>6076.2</v>
       </c>
-      <c r="G9" s="131"/>
+      <c r="G9" s="128"/>
       <c r="H9" s="68"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -5563,7 +5567,7 @@
       <c r="F10" s="33">
         <v>2436</v>
       </c>
-      <c r="G10" s="131"/>
+      <c r="G10" s="128"/>
       <c r="H10" s="68"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -5582,7 +5586,7 @@
       <c r="F11" s="33">
         <v>9656</v>
       </c>
-      <c r="G11" s="131"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="68"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -5601,7 +5605,7 @@
       <c r="F12" s="33">
         <v>48937.4</v>
       </c>
-      <c r="G12" s="131"/>
+      <c r="G12" s="128"/>
       <c r="H12" s="68"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -5620,7 +5624,7 @@
       <c r="F13" s="33">
         <v>67869.600000000006</v>
       </c>
-      <c r="G13" s="131"/>
+      <c r="G13" s="128"/>
       <c r="H13" s="68"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -5639,7 +5643,7 @@
       <c r="F14" s="33">
         <v>15440</v>
       </c>
-      <c r="G14" s="133"/>
+      <c r="G14" s="130"/>
       <c r="H14" s="68"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -5658,7 +5662,7 @@
       <c r="F15" s="33">
         <v>26845.200000000001</v>
       </c>
-      <c r="G15" s="131"/>
+      <c r="G15" s="128"/>
       <c r="H15" s="68"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -5677,7 +5681,7 @@
       <c r="F16" s="33">
         <v>606</v>
       </c>
-      <c r="G16" s="131"/>
+      <c r="G16" s="128"/>
       <c r="H16" s="68"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -5696,7 +5700,7 @@
       <c r="F17" s="33">
         <v>55687.5</v>
       </c>
-      <c r="G17" s="131"/>
+      <c r="G17" s="128"/>
       <c r="H17" s="68"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -5715,7 +5719,7 @@
       <c r="F18" s="33">
         <v>10019.6</v>
       </c>
-      <c r="G18" s="131"/>
+      <c r="G18" s="128"/>
       <c r="H18" s="68"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -5734,7 +5738,7 @@
       <c r="F19" s="33">
         <v>134020.35999999999</v>
       </c>
-      <c r="G19" s="131"/>
+      <c r="G19" s="128"/>
       <c r="H19" s="68"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -5753,7 +5757,7 @@
       <c r="F20" s="33">
         <v>6188</v>
       </c>
-      <c r="G20" s="131"/>
+      <c r="G20" s="128"/>
       <c r="H20" s="68"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -5772,7 +5776,7 @@
       <c r="F21" s="33">
         <v>0</v>
       </c>
-      <c r="G21" s="131"/>
+      <c r="G21" s="128"/>
       <c r="H21" s="68"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -5791,7 +5795,7 @@
       <c r="F22" s="33">
         <v>0</v>
       </c>
-      <c r="G22" s="131"/>
+      <c r="G22" s="128"/>
       <c r="H22" s="68"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -5810,7 +5814,7 @@
       <c r="F23" s="33">
         <v>124407.5</v>
       </c>
-      <c r="G23" s="131"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -5829,7 +5833,7 @@
       <c r="F24" s="33">
         <v>10456.44</v>
       </c>
-      <c r="G24" s="131"/>
+      <c r="G24" s="128"/>
       <c r="H24" s="68"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -5848,7 +5852,7 @@
       <c r="F25" s="33">
         <v>345</v>
       </c>
-      <c r="G25" s="133"/>
+      <c r="G25" s="130"/>
       <c r="H25" s="68"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -5867,7 +5871,7 @@
       <c r="F26" s="33">
         <v>45834.7</v>
       </c>
-      <c r="G26" s="131"/>
+      <c r="G26" s="128"/>
       <c r="H26" s="68"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -5886,7 +5890,7 @@
       <c r="F27" s="33">
         <v>7125</v>
       </c>
-      <c r="G27" s="131"/>
+      <c r="G27" s="128"/>
       <c r="H27" s="68"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -5905,7 +5909,7 @@
       <c r="F28" s="33">
         <v>55137.9</v>
       </c>
-      <c r="G28" s="131"/>
+      <c r="G28" s="128"/>
       <c r="H28" s="68"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -5924,7 +5928,7 @@
       <c r="F29" s="33">
         <v>37652.400000000001</v>
       </c>
-      <c r="G29" s="131"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="68"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -5943,7 +5947,7 @@
       <c r="F30" s="33">
         <v>48202.54</v>
       </c>
-      <c r="G30" s="131"/>
+      <c r="G30" s="128"/>
       <c r="H30" s="68"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -5962,7 +5966,7 @@
       <c r="F31" s="33">
         <v>5609.2</v>
       </c>
-      <c r="G31" s="131"/>
+      <c r="G31" s="128"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -5981,7 +5985,7 @@
       <c r="F32" s="33">
         <v>43436.800000000003</v>
       </c>
-      <c r="G32" s="132"/>
+      <c r="G32" s="129"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -6000,7 +6004,7 @@
       <c r="F33" s="33">
         <v>199527.8</v>
       </c>
-      <c r="G33" s="134"/>
+      <c r="G33" s="131"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -6019,7 +6023,7 @@
       <c r="F34" s="33">
         <v>29534.1</v>
       </c>
-      <c r="G34" s="135"/>
+      <c r="G34" s="132"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -6038,7 +6042,7 @@
       <c r="F35" s="33">
         <v>1734.4</v>
       </c>
-      <c r="G35" s="131"/>
+      <c r="G35" s="128"/>
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -6057,7 +6061,7 @@
       <c r="F36" s="33">
         <v>17967.2</v>
       </c>
-      <c r="G36" s="132"/>
+      <c r="G36" s="129"/>
       <c r="H36" s="68"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -6076,7 +6080,7 @@
       <c r="F37" s="33">
         <v>640</v>
       </c>
-      <c r="G37" s="133"/>
+      <c r="G37" s="130"/>
       <c r="H37" s="68"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -6095,7 +6099,7 @@
       <c r="F38" s="33">
         <v>7296</v>
       </c>
-      <c r="G38" s="136"/>
+      <c r="G38" s="133"/>
       <c r="H38" s="68"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -6114,7 +6118,7 @@
       <c r="F39" s="33">
         <v>17830.3</v>
       </c>
-      <c r="G39" s="133"/>
+      <c r="G39" s="130"/>
       <c r="H39" s="68"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -6133,7 +6137,7 @@
       <c r="F40" s="33">
         <v>1211.4000000000001</v>
       </c>
-      <c r="G40" s="133"/>
+      <c r="G40" s="130"/>
       <c r="H40" s="68"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
@@ -6152,7 +6156,7 @@
       <c r="F41" s="33">
         <v>20743.599999999999</v>
       </c>
-      <c r="G41" s="133"/>
+      <c r="G41" s="130"/>
       <c r="H41" s="68"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -6161,21 +6165,21 @@
       <c r="D42" s="40"/>
       <c r="E42" s="41"/>
       <c r="F42" s="42"/>
-      <c r="G42" s="138"/>
+      <c r="G42" s="135"/>
       <c r="H42" s="68"/>
     </row>
     <row r="43" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="114"/>
       <c r="C43" s="113"/>
-      <c r="D43" s="124" t="s">
+      <c r="D43" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="125"/>
-      <c r="F43" s="126">
+      <c r="E43" s="122"/>
+      <c r="F43" s="123">
         <f>SUM(F4:F42)</f>
         <v>1195767.78</v>
       </c>
-      <c r="H43" s="137"/>
+      <c r="H43" s="134"/>
     </row>
     <row r="44" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="114"/>
@@ -6183,7 +6187,7 @@
       <c r="D44" s="114"/>
       <c r="E44" s="115"/>
       <c r="F44" s="116"/>
-      <c r="G44" s="121"/>
+      <c r="G44" s="118"/>
       <c r="H44" s="110"/>
       <c r="I44" s="100"/>
       <c r="J44" s="99"/>
@@ -6262,13 +6266,13 @@
   </sheetPr>
   <dimension ref="B1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
@@ -6280,13 +6284,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="176" t="s">
+      <c r="C1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
     </row>
     <row r="2" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -6319,7 +6323,7 @@
       <c r="F3" s="104">
         <v>33725.300000000003</v>
       </c>
-      <c r="G3" s="139"/>
+      <c r="G3" s="136"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
@@ -6337,7 +6341,7 @@
       <c r="F4" s="33">
         <v>103996.16</v>
       </c>
-      <c r="G4" s="140"/>
+      <c r="G4" s="137"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
@@ -6355,7 +6359,7 @@
       <c r="F5" s="33">
         <v>24177</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="137"/>
     </row>
     <row r="6" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
@@ -6373,7 +6377,7 @@
       <c r="F6" s="33">
         <v>55618.559999999998</v>
       </c>
-      <c r="G6" s="141"/>
+      <c r="G6" s="138"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
@@ -6391,7 +6395,7 @@
       <c r="F7" s="33">
         <v>108098.9</v>
       </c>
-      <c r="G7" s="140"/>
+      <c r="G7" s="137"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
@@ -6409,7 +6413,7 @@
       <c r="F8" s="33">
         <v>15515</v>
       </c>
-      <c r="G8" s="140"/>
+      <c r="G8" s="137"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
@@ -6427,7 +6431,7 @@
       <c r="F9" s="33">
         <v>17370.599999999999</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="137"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
@@ -6445,7 +6449,7 @@
       <c r="F10" s="33">
         <v>11387.2</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="137"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -6463,7 +6467,7 @@
       <c r="F11" s="33">
         <v>7097</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="137"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
@@ -6481,7 +6485,7 @@
       <c r="F12" s="33">
         <v>46395.199999999997</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="137"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
@@ -6499,7 +6503,7 @@
       <c r="F13" s="33">
         <v>1867.6</v>
       </c>
-      <c r="G13" s="142"/>
+      <c r="G13" s="139"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
@@ -6517,7 +6521,7 @@
       <c r="F14" s="33">
         <v>141032.62</v>
       </c>
-      <c r="G14" s="140"/>
+      <c r="G14" s="137"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
@@ -6535,7 +6539,7 @@
       <c r="F15" s="33">
         <v>2000</v>
       </c>
-      <c r="G15" s="140"/>
+      <c r="G15" s="137"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
@@ -6553,7 +6557,7 @@
       <c r="F16" s="33">
         <v>79415.02</v>
       </c>
-      <c r="G16" s="140"/>
+      <c r="G16" s="137"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
@@ -6571,7 +6575,7 @@
       <c r="F17" s="33">
         <v>72876.5</v>
       </c>
-      <c r="G17" s="140"/>
+      <c r="G17" s="137"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
@@ -6589,7 +6593,7 @@
       <c r="F18" s="33">
         <v>129722.2</v>
       </c>
-      <c r="G18" s="140"/>
+      <c r="G18" s="137"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
@@ -6607,7 +6611,7 @@
       <c r="F19" s="33">
         <v>64064</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="137"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
@@ -6625,7 +6629,7 @@
       <c r="F20" s="33">
         <v>173767</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="137"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
@@ -6643,7 +6647,7 @@
       <c r="F21" s="33">
         <v>79922.8</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="137"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
@@ -6661,7 +6665,7 @@
       <c r="F22" s="33">
         <v>18180</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="137"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
@@ -6679,7 +6683,7 @@
       <c r="F23" s="33">
         <v>11479</v>
       </c>
-      <c r="G23" s="140"/>
+      <c r="G23" s="137"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
@@ -6697,7 +6701,7 @@
       <c r="F24" s="33">
         <v>55286.6</v>
       </c>
-      <c r="G24" s="142"/>
+      <c r="G24" s="139"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
@@ -6715,7 +6719,7 @@
       <c r="F25" s="33">
         <v>112312</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="137"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
@@ -6733,7 +6737,7 @@
       <c r="F26" s="33">
         <v>11050.7</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="137"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
@@ -6751,7 +6755,7 @@
       <c r="F27" s="33">
         <v>59975.6</v>
       </c>
-      <c r="G27" s="140"/>
+      <c r="G27" s="137"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
@@ -6769,7 +6773,7 @@
       <c r="F28" s="33">
         <v>56109.9</v>
       </c>
-      <c r="G28" s="140"/>
+      <c r="G28" s="137"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -6787,7 +6791,7 @@
       <c r="F29" s="42">
         <v>8075</v>
       </c>
-      <c r="G29" s="143"/>
+      <c r="G29" s="140"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
@@ -6797,20 +6801,20 @@
       <c r="F30" s="33">
         <v>0</v>
       </c>
-      <c r="G30" s="140"/>
+      <c r="G30" s="137"/>
     </row>
     <row r="31" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="112"/>
       <c r="C31" s="113"/>
-      <c r="D31" s="124" t="s">
+      <c r="D31" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="125"/>
-      <c r="F31" s="126">
+      <c r="E31" s="122"/>
+      <c r="F31" s="123">
         <f>SUM(F3:F30)</f>
         <v>1500517.46</v>
       </c>
-      <c r="G31" s="144"/>
+      <c r="G31" s="141"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="112"/>
@@ -6818,14 +6822,15 @@
       <c r="D32" s="114"/>
       <c r="E32" s="115"/>
       <c r="F32" s="116"/>
-      <c r="G32" s="119"/>
+      <c r="G32" s="117"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="112"/>
       <c r="C33" s="99"/>
       <c r="D33" s="100"/>
       <c r="E33" s="100"/>
-      <c r="G33" s="120"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="202"/>
     </row>
     <row r="34" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="112"/>
@@ -6838,7 +6843,7 @@
         <v>718019.03999999992</v>
       </c>
       <c r="F34" s="198"/>
-      <c r="G34" s="117"/>
+      <c r="G34" s="203"/>
     </row>
     <row r="35" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="112"/>
@@ -6846,34 +6851,34 @@
       <c r="D35" s="201"/>
       <c r="E35" s="199"/>
       <c r="F35" s="200"/>
-      <c r="G35" s="118"/>
+      <c r="G35" s="204"/>
     </row>
     <row r="36" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B36" s="112"/>
       <c r="C36" s="99"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="145" t="s">
+      <c r="D36" s="99"/>
+      <c r="E36" s="206" t="s">
         <v>270</v>
       </c>
-      <c r="F36" s="145"/>
-      <c r="G36" s="121"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="205"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="112"/>
       <c r="C37" s="86"/>
       <c r="D37" s="87"/>
       <c r="E37" s="87"/>
-      <c r="G37" s="122"/>
+      <c r="G37" s="119"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="112"/>
-      <c r="G38" s="121"/>
+      <c r="G38" s="118"/>
     </row>
     <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="112"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="G39" s="121"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="G39" s="118"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="112"/>
@@ -6881,7 +6886,7 @@
       <c r="D40" s="114"/>
       <c r="E40" s="115"/>
       <c r="F40" s="116"/>
-      <c r="G40" s="121"/>
+      <c r="G40" s="118"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="112"/>
@@ -6889,7 +6894,7 @@
       <c r="D41" s="114"/>
       <c r="E41" s="115"/>
       <c r="F41" s="116"/>
-      <c r="G41" s="121"/>
+      <c r="G41" s="118"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="112"/>
@@ -6897,7 +6902,7 @@
       <c r="D42" s="114"/>
       <c r="E42" s="115"/>
       <c r="F42" s="116"/>
-      <c r="G42" s="121"/>
+      <c r="G42" s="118"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="112"/>
@@ -6905,7 +6910,7 @@
       <c r="D43" s="114"/>
       <c r="E43" s="115"/>
       <c r="F43" s="116"/>
-      <c r="G43" s="121"/>
+      <c r="G43" s="118"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="112"/>
@@ -6913,7 +6918,7 @@
       <c r="D44" s="114"/>
       <c r="E44" s="115"/>
       <c r="F44" s="116"/>
-      <c r="G44" s="123"/>
+      <c r="G44" s="120"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="114"/>
@@ -6921,7 +6926,7 @@
       <c r="D45" s="114"/>
       <c r="E45" s="115"/>
       <c r="F45" s="116"/>
-      <c r="G45" s="121"/>
+      <c r="G45" s="118"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="114"/>
@@ -6929,13 +6934,13 @@
       <c r="D46" s="114"/>
       <c r="E46" s="115"/>
       <c r="F46" s="116"/>
-      <c r="G46" s="121"/>
+      <c r="G46" s="118"/>
     </row>
     <row r="47" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="128"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
     <sheet name="NOTAS CENTRAL  23  AL 28  Oct" sheetId="2" r:id="rId2"/>
     <sheet name="OBRADOR  &amp; CENTRAL  23-28-Oct" sheetId="3" r:id="rId3"/>
     <sheet name="OBRADOR &amp; CENTRAL 30-04-Nov" sheetId="4" r:id="rId4"/>
+    <sheet name="OBRADOR &amp; CENTRAL 6-11 Nov-23" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="419">
   <si>
     <t>FECHA</t>
   </si>
@@ -870,6 +873,420 @@
   </si>
   <si>
     <t>PAGADO</t>
+  </si>
+  <si>
+    <t>SEMANA DEL  06-11-Nov-23</t>
+  </si>
+  <si>
+    <t>337 M</t>
+  </si>
+  <si>
+    <t>M-337</t>
+  </si>
+  <si>
+    <t>338 M</t>
+  </si>
+  <si>
+    <t>M-339</t>
+  </si>
+  <si>
+    <t>339 M</t>
+  </si>
+  <si>
+    <t>340 M</t>
+  </si>
+  <si>
+    <t>350 M</t>
+  </si>
+  <si>
+    <t>360 M</t>
+  </si>
+  <si>
+    <t>M-340</t>
+  </si>
+  <si>
+    <t>341 M</t>
+  </si>
+  <si>
+    <t>M-341</t>
+  </si>
+  <si>
+    <t>342 M</t>
+  </si>
+  <si>
+    <t>M-342</t>
+  </si>
+  <si>
+    <t>343 M</t>
+  </si>
+  <si>
+    <t>M-343</t>
+  </si>
+  <si>
+    <t>344 M</t>
+  </si>
+  <si>
+    <t>M-344</t>
+  </si>
+  <si>
+    <t>345 M</t>
+  </si>
+  <si>
+    <t>M-345</t>
+  </si>
+  <si>
+    <t>346 M</t>
+  </si>
+  <si>
+    <t>M-346</t>
+  </si>
+  <si>
+    <t>347 M</t>
+  </si>
+  <si>
+    <t>M-347</t>
+  </si>
+  <si>
+    <t>348 M</t>
+  </si>
+  <si>
+    <t>M-348</t>
+  </si>
+  <si>
+    <t>349 M</t>
+  </si>
+  <si>
+    <t>M-349</t>
+  </si>
+  <si>
+    <t>M-350</t>
+  </si>
+  <si>
+    <t>351 M</t>
+  </si>
+  <si>
+    <t>M-351</t>
+  </si>
+  <si>
+    <t>352 M</t>
+  </si>
+  <si>
+    <t>M-352</t>
+  </si>
+  <si>
+    <t>353 M</t>
+  </si>
+  <si>
+    <t>M-353</t>
+  </si>
+  <si>
+    <t>354 M</t>
+  </si>
+  <si>
+    <t>355 M</t>
+  </si>
+  <si>
+    <t>M-355</t>
+  </si>
+  <si>
+    <t>356 M</t>
+  </si>
+  <si>
+    <t>357 M</t>
+  </si>
+  <si>
+    <t>M-356</t>
+  </si>
+  <si>
+    <t>358 M</t>
+  </si>
+  <si>
+    <t>M-357</t>
+  </si>
+  <si>
+    <t>359 M</t>
+  </si>
+  <si>
+    <t>M-358</t>
+  </si>
+  <si>
+    <t>M-360</t>
+  </si>
+  <si>
+    <t>361 M</t>
+  </si>
+  <si>
+    <t>M-359</t>
+  </si>
+  <si>
+    <t>362 M</t>
+  </si>
+  <si>
+    <t>M362</t>
+  </si>
+  <si>
+    <t>SALIDA    PRODUCCION    A   OBRADOR</t>
+  </si>
+  <si>
+    <t>#  Traspaso</t>
+  </si>
+  <si>
+    <t>276 E1</t>
+  </si>
+  <si>
+    <t>277 E1</t>
+  </si>
+  <si>
+    <t>278 E1</t>
+  </si>
+  <si>
+    <t>281 E1</t>
+  </si>
+  <si>
+    <t>282 E1</t>
+  </si>
+  <si>
+    <t>284 E1</t>
+  </si>
+  <si>
+    <t>286 E1</t>
+  </si>
+  <si>
+    <t>290 E1</t>
+  </si>
+  <si>
+    <t>293 E1</t>
+  </si>
+  <si>
+    <t>294 E1</t>
+  </si>
+  <si>
+    <t>295 E1</t>
+  </si>
+  <si>
+    <t>300 E1</t>
+  </si>
+  <si>
+    <t>302 E1</t>
+  </si>
+  <si>
+    <t>303 E1</t>
+  </si>
+  <si>
+    <t>311 E1</t>
+  </si>
+  <si>
+    <t>316 E1</t>
+  </si>
+  <si>
+    <t>318 E1</t>
+  </si>
+  <si>
+    <t>319 E1</t>
+  </si>
+  <si>
+    <t>320 E1</t>
+  </si>
+  <si>
+    <t>325 E1</t>
+  </si>
+  <si>
+    <t>327 E1</t>
+  </si>
+  <si>
+    <t>328 E1</t>
+  </si>
+  <si>
+    <t>339 E1</t>
+  </si>
+  <si>
+    <t>342 E1</t>
+  </si>
+  <si>
+    <t>343 E1</t>
+  </si>
+  <si>
+    <t>348 E1</t>
+  </si>
+  <si>
+    <t>350 E1</t>
+  </si>
+  <si>
+    <t>352 E1</t>
+  </si>
+  <si>
+    <t>353 E1</t>
+  </si>
+  <si>
+    <t>361 E1</t>
+  </si>
+  <si>
+    <t>363 E1</t>
+  </si>
+  <si>
+    <t>366 E1</t>
+  </si>
+  <si>
+    <t>367 E1</t>
+  </si>
+  <si>
+    <t>368 E1</t>
+  </si>
+  <si>
+    <t>371 E1</t>
+  </si>
+  <si>
+    <t>373 E1</t>
+  </si>
+  <si>
+    <t>383 E1</t>
+  </si>
+  <si>
+    <t>413 E1</t>
+  </si>
+  <si>
+    <t>423 E1</t>
+  </si>
+  <si>
+    <t>443 E1</t>
+  </si>
+  <si>
+    <t>463 E1</t>
+  </si>
+  <si>
+    <t>473 E1</t>
+  </si>
+  <si>
+    <t>375 E1</t>
+  </si>
+  <si>
+    <t>376 E1</t>
+  </si>
+  <si>
+    <t>378 E1</t>
+  </si>
+  <si>
+    <t>379 E1</t>
+  </si>
+  <si>
+    <t>382 E1</t>
+  </si>
+  <si>
+    <t>384 E1</t>
+  </si>
+  <si>
+    <t>387 E1</t>
+  </si>
+  <si>
+    <t>389 E1</t>
+  </si>
+  <si>
+    <t>390 E1</t>
+  </si>
+  <si>
+    <t>392 E1</t>
+  </si>
+  <si>
+    <t>395 E1</t>
+  </si>
+  <si>
+    <t>399 E1</t>
+  </si>
+  <si>
+    <t>401 E1</t>
+  </si>
+  <si>
+    <t>408 E1</t>
+  </si>
+  <si>
+    <t>410 E1</t>
+  </si>
+  <si>
+    <t>412 E1</t>
+  </si>
+  <si>
+    <t>414 E1</t>
+  </si>
+  <si>
+    <t>415 E1</t>
+  </si>
+  <si>
+    <t>417 E1</t>
+  </si>
+  <si>
+    <t>418 E1</t>
+  </si>
+  <si>
+    <t>419 E1</t>
+  </si>
+  <si>
+    <t>428 E1</t>
+  </si>
+  <si>
+    <t>429 E1</t>
+  </si>
+  <si>
+    <t>432 E1</t>
+  </si>
+  <si>
+    <t>434 E1</t>
+  </si>
+  <si>
+    <t>444 E1</t>
+  </si>
+  <si>
+    <t>446 E1</t>
+  </si>
+  <si>
+    <t>447 E1</t>
+  </si>
+  <si>
+    <t>448 E1</t>
+  </si>
+  <si>
+    <t>450 E1</t>
+  </si>
+  <si>
+    <t>451 E1</t>
+  </si>
+  <si>
+    <t>458 E1</t>
+  </si>
+  <si>
+    <t>461 E1</t>
+  </si>
+  <si>
+    <t>467 E1</t>
+  </si>
+  <si>
+    <t>468 E1</t>
+  </si>
+  <si>
+    <t>469 E1</t>
+  </si>
+  <si>
+    <t>470 E1</t>
+  </si>
+  <si>
+    <t>471 E1</t>
+  </si>
+  <si>
+    <t>SUB TOTAL   1</t>
+  </si>
+  <si>
+    <t>SUB TOTAL  1</t>
+  </si>
+  <si>
+    <t>SUB TOTAL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAN TOTAL </t>
+  </si>
+  <si>
+    <t>285 E1</t>
+  </si>
+  <si>
+    <t>DEPOSITO</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1080,8 +1497,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1715,12 +2144,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2042,105 +2573,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="34"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2148,6 +2580,252 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2157,10 +2835,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FF66FF99"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF99FF66"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF33CCFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF66FF99"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
@@ -2378,6 +3059,53 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>341587</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>39413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>367863</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\ROUSS\Pictures\2023-11-09 ESCANEO\WhatsApp Image 2023-11-13 at 11.00.25 AM.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5859518" y="10549758"/>
+          <a:ext cx="3619500" cy="2757586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2386,14 +3114,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2414,8 +3142,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5181600" y="0"/>
-          <a:ext cx="5353050" cy="7810500"/>
+          <a:off x="5600700" y="0"/>
+          <a:ext cx="4962525" cy="7286625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,8 +3427,8 @@
   </sheetPr>
   <dimension ref="B1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView topLeftCell="D37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2719,20 +3447,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
       <c r="I1" s="68"/>
-      <c r="J1" s="174" t="s">
+      <c r="J1" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
     </row>
     <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -3664,8 +4392,8 @@
       </c>
       <c r="G32" s="27"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="189"/>
       <c r="L32" s="147"/>
       <c r="M32" s="148"/>
     </row>
@@ -3753,10 +4481,10 @@
       <c r="G36" s="25"/>
       <c r="I36" s="68"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="178" t="s">
+      <c r="L36" s="192" t="s">
         <v>210</v>
       </c>
-      <c r="M36" s="176">
+      <c r="M36" s="190">
         <f>F47-M31</f>
         <v>1037858.16</v>
       </c>
@@ -3780,8 +4508,8 @@
       <c r="G37" s="45"/>
       <c r="I37" s="68"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="179"/>
-      <c r="M37" s="177"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="191"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -3853,10 +4581,10 @@
       <c r="K40" s="157">
         <v>220000</v>
       </c>
-      <c r="L40" s="169" t="s">
+      <c r="L40" s="183" t="s">
         <v>209</v>
       </c>
-      <c r="M40" s="170"/>
+      <c r="M40" s="184"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
@@ -3884,8 +4612,8 @@
       <c r="K41" s="159">
         <v>25000</v>
       </c>
-      <c r="L41" s="171"/>
-      <c r="M41" s="172"/>
+      <c r="L41" s="185"/>
+      <c r="M41" s="186"/>
     </row>
     <row r="42" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
@@ -4105,19 +4833,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="J1" s="174" t="s">
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="J1" s="188" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -5300,10 +6028,10 @@
       </c>
       <c r="J39" s="86"/>
       <c r="K39" s="95"/>
-      <c r="L39" s="183" t="s">
+      <c r="L39" s="194" t="s">
         <v>210</v>
       </c>
-      <c r="M39" s="185">
+      <c r="M39" s="196">
         <f>F43-M37</f>
         <v>225360.95000000007</v>
       </c>
@@ -5328,8 +6056,8 @@
         <v>190</v>
       </c>
       <c r="K40" s="94"/>
-      <c r="L40" s="184"/>
-      <c r="M40" s="186"/>
+      <c r="L40" s="195"/>
+      <c r="M40" s="197"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -5393,8 +6121,8 @@
   </sheetPr>
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5413,13 +6141,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -6199,34 +6927,34 @@
     </row>
     <row r="45" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="F45" s="189" t="s">
+      <c r="F45" s="200" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="190"/>
-      <c r="H45" s="191"/>
+      <c r="G45" s="201"/>
+      <c r="H45" s="202"/>
       <c r="I45" s="100"/>
-      <c r="J45" s="187" t="s">
+      <c r="J45" s="198" t="s">
         <v>210</v>
       </c>
-      <c r="K45" s="188"/>
-      <c r="L45" s="195">
+      <c r="K45" s="199"/>
+      <c r="L45" s="206">
         <f>F43-982143.23</f>
         <v>213624.55000000005</v>
       </c>
-      <c r="M45" s="196"/>
-      <c r="N45" s="196"/>
+      <c r="M45" s="207"/>
+      <c r="N45" s="207"/>
       <c r="O45" s="100"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="192"/>
-      <c r="G46" s="193"/>
-      <c r="H46" s="194"/>
+      <c r="F46" s="203"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="205"/>
       <c r="I46" s="100"/>
-      <c r="J46" s="187"/>
-      <c r="K46" s="188"/>
-      <c r="L46" s="195"/>
-      <c r="M46" s="196"/>
-      <c r="N46" s="196"/>
+      <c r="J46" s="198"/>
+      <c r="K46" s="199"/>
+      <c r="L46" s="206"/>
+      <c r="M46" s="207"/>
+      <c r="N46" s="207"/>
       <c r="O46" s="100"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -6264,10 +6992,10 @@
   <sheetPr>
     <tabColor rgb="FF99CCFF"/>
   </sheetPr>
-  <dimension ref="B1:G47"/>
+  <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H16:H17"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6279,18 +7007,20 @@
     <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="18" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.42578125" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
     </row>
     <row r="2" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -6824,111 +7554,182 @@
       <c r="F32" s="116"/>
       <c r="G32" s="117"/>
     </row>
-    <row r="33" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="112"/>
       <c r="C33" s="99"/>
       <c r="D33" s="100"/>
       <c r="E33" s="100"/>
       <c r="F33" s="165"/>
-      <c r="G33" s="202"/>
-    </row>
-    <row r="34" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="169"/>
+    </row>
+    <row r="34" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="112"/>
-      <c r="C34" s="201" t="s">
+      <c r="C34" s="212" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="201"/>
-      <c r="E34" s="197">
+      <c r="D34" s="212"/>
+      <c r="E34" s="208">
         <f>F31-782498.42</f>
         <v>718019.03999999992</v>
       </c>
-      <c r="F34" s="198"/>
-      <c r="G34" s="203"/>
-    </row>
-    <row r="35" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="209"/>
+      <c r="G34" s="170"/>
+    </row>
+    <row r="35" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="112"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="200"/>
-      <c r="G35" s="204"/>
-    </row>
-    <row r="36" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="212"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="171"/>
+    </row>
+    <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B36" s="112"/>
       <c r="C36" s="99"/>
       <c r="D36" s="99"/>
-      <c r="E36" s="206" t="s">
+      <c r="E36" s="173" t="s">
         <v>270</v>
       </c>
-      <c r="F36" s="206"/>
-      <c r="G36" s="205"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="173"/>
+      <c r="G36" s="172"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="174"/>
+      <c r="L36" s="174"/>
+      <c r="M36" s="174"/>
+    </row>
+    <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="112"/>
       <c r="C37" s="86"/>
       <c r="D37" s="87"/>
       <c r="E37" s="87"/>
       <c r="G37" s="119"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="175">
+        <v>45243</v>
+      </c>
+      <c r="J37" s="176"/>
+      <c r="K37" s="177">
+        <v>235000</v>
+      </c>
+      <c r="L37" s="174"/>
+      <c r="M37" s="174"/>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="112"/>
       <c r="G38" s="118"/>
-    </row>
-    <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="175">
+        <v>45243</v>
+      </c>
+      <c r="J38" s="176"/>
+      <c r="K38" s="177">
+        <v>100000</v>
+      </c>
+      <c r="L38" s="174"/>
+      <c r="M38" s="174"/>
+    </row>
+    <row r="39" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="112"/>
       <c r="D39" s="142"/>
       <c r="E39" s="142"/>
       <c r="G39" s="118"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="175">
+        <v>45243</v>
+      </c>
+      <c r="J39" s="176"/>
+      <c r="K39" s="177">
+        <v>140000</v>
+      </c>
+      <c r="L39" s="174"/>
+      <c r="M39" s="174"/>
+    </row>
+    <row r="40" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="112"/>
       <c r="C40" s="113"/>
       <c r="D40" s="114"/>
       <c r="E40" s="115"/>
       <c r="F40" s="116"/>
       <c r="G40" s="118"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="175">
+        <v>45244</v>
+      </c>
+      <c r="J40" s="176"/>
+      <c r="K40" s="177">
+        <v>243020</v>
+      </c>
+      <c r="L40" s="174"/>
+      <c r="M40" s="174"/>
+    </row>
+    <row r="41" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="112"/>
       <c r="C41" s="113"/>
       <c r="D41" s="114"/>
       <c r="E41" s="115"/>
       <c r="F41" s="116"/>
       <c r="G41" s="118"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I41" s="175"/>
+      <c r="J41" s="178"/>
+      <c r="K41" s="179">
+        <v>0</v>
+      </c>
+      <c r="L41" s="174"/>
+      <c r="M41" s="174"/>
+    </row>
+    <row r="42" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B42" s="112"/>
       <c r="C42" s="113"/>
       <c r="D42" s="114"/>
       <c r="E42" s="115"/>
       <c r="F42" s="116"/>
       <c r="G42" s="118"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I42" s="175"/>
+      <c r="J42" s="176"/>
+      <c r="K42" s="177">
+        <f>SUM(K37:K41)</f>
+        <v>718020</v>
+      </c>
+      <c r="L42" s="174"/>
+      <c r="M42" s="174"/>
+    </row>
+    <row r="43" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="112"/>
       <c r="C43" s="113"/>
       <c r="D43" s="114"/>
       <c r="E43" s="115"/>
       <c r="F43" s="116"/>
       <c r="G43" s="118"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I43" s="175"/>
+      <c r="J43" s="176"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="174"/>
+      <c r="M43" s="174"/>
+    </row>
+    <row r="44" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B44" s="112"/>
       <c r="C44" s="113"/>
       <c r="D44" s="114"/>
       <c r="E44" s="115"/>
       <c r="F44" s="116"/>
       <c r="G44" s="120"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I44" s="175"/>
+      <c r="J44" s="176"/>
+      <c r="K44" s="176"/>
+      <c r="L44" s="174"/>
+      <c r="M44" s="174"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="114"/>
       <c r="C45" s="113"/>
       <c r="D45" s="114"/>
       <c r="E45" s="115"/>
       <c r="F45" s="116"/>
       <c r="G45" s="118"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I45" s="174"/>
+      <c r="J45" s="174"/>
+      <c r="K45" s="174"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="174"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="114"/>
       <c r="C46" s="113"/>
       <c r="D46" s="114"/>
@@ -6936,7 +7737,7 @@
       <c r="F46" s="116"/>
       <c r="G46" s="118"/>
     </row>
-    <row r="47" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="D47" s="124"/>
       <c r="E47" s="124"/>
@@ -6952,4 +7753,2146 @@
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+  </sheetPr>
+  <dimension ref="B2:V53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="K2" s="215" t="s">
+        <v>331</v>
+      </c>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="R2" s="215" t="s">
+        <v>331</v>
+      </c>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+    </row>
+    <row r="3" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="K3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="R3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="44"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="102">
+        <v>45236</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="104">
+        <v>120399.9</v>
+      </c>
+      <c r="G4" s="136"/>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="102">
+        <v>45244</v>
+      </c>
+      <c r="L4" s="103">
+        <v>563</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="N4" s="104">
+        <v>4260</v>
+      </c>
+      <c r="O4" s="136"/>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S4" s="6">
+        <v>628</v>
+      </c>
+      <c r="T4" s="238" t="s">
+        <v>367</v>
+      </c>
+      <c r="U4" s="8">
+        <v>3055.31</v>
+      </c>
+      <c r="V4" s="136"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32">
+        <v>45236</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="214" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="33">
+        <v>14040</v>
+      </c>
+      <c r="G5" s="137"/>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L5" s="105">
+        <v>564</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="N5" s="33">
+        <v>2359.9499999999998</v>
+      </c>
+      <c r="O5" s="137"/>
+      <c r="Q5" s="6">
+        <v>2</v>
+      </c>
+      <c r="R5" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S5" s="6">
+        <v>631</v>
+      </c>
+      <c r="T5" s="238" t="s">
+        <v>368</v>
+      </c>
+      <c r="U5" s="8">
+        <v>2402.02</v>
+      </c>
+      <c r="V5" s="137"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32">
+        <v>45236</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="33">
+        <v>45370.9</v>
+      </c>
+      <c r="G6" s="137"/>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L6" s="105">
+        <v>565</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="N6" s="33">
+        <v>480</v>
+      </c>
+      <c r="O6" s="137"/>
+      <c r="Q6" s="6">
+        <v>3</v>
+      </c>
+      <c r="R6" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S6" s="6">
+        <v>632</v>
+      </c>
+      <c r="T6" s="238" t="s">
+        <v>375</v>
+      </c>
+      <c r="U6" s="8">
+        <v>480</v>
+      </c>
+      <c r="V6" s="137"/>
+    </row>
+    <row r="7" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="32">
+        <v>45237</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="33">
+        <v>21551.4</v>
+      </c>
+      <c r="G7" s="138"/>
+      <c r="J7" s="6">
+        <v>4</v>
+      </c>
+      <c r="K7" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L7" s="105">
+        <v>566</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="N7" s="33">
+        <v>10800</v>
+      </c>
+      <c r="O7" s="138"/>
+      <c r="Q7" s="6">
+        <v>4</v>
+      </c>
+      <c r="R7" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S7" s="6">
+        <v>633</v>
+      </c>
+      <c r="T7" s="238" t="s">
+        <v>376</v>
+      </c>
+      <c r="U7" s="8">
+        <v>27685.14</v>
+      </c>
+      <c r="V7" s="138"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="32">
+        <v>45237</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="33">
+        <v>18391.5</v>
+      </c>
+      <c r="G8" s="137"/>
+      <c r="J8" s="6">
+        <v>5</v>
+      </c>
+      <c r="K8" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L8" s="105">
+        <v>567</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="N8" s="33">
+        <v>31800</v>
+      </c>
+      <c r="O8" s="137"/>
+      <c r="Q8" s="6">
+        <v>5</v>
+      </c>
+      <c r="R8" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S8" s="6">
+        <v>634</v>
+      </c>
+      <c r="T8" s="238" t="s">
+        <v>377</v>
+      </c>
+      <c r="U8" s="8">
+        <v>35416.199999999997</v>
+      </c>
+      <c r="V8" s="137"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="32">
+        <v>45238</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="33">
+        <v>113438.3</v>
+      </c>
+      <c r="G9" s="137"/>
+      <c r="J9" s="6">
+        <v>6</v>
+      </c>
+      <c r="K9" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L9" s="240">
+        <v>568</v>
+      </c>
+      <c r="M9" s="213" t="s">
+        <v>338</v>
+      </c>
+      <c r="N9" s="241">
+        <v>420583.8</v>
+      </c>
+      <c r="O9" s="137"/>
+      <c r="Q9" s="6">
+        <v>6</v>
+      </c>
+      <c r="R9" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S9" s="6">
+        <v>636</v>
+      </c>
+      <c r="T9" s="238" t="s">
+        <v>378</v>
+      </c>
+      <c r="U9" s="8">
+        <v>2780.84</v>
+      </c>
+      <c r="V9" s="137"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>7</v>
+      </c>
+      <c r="C10" s="32">
+        <v>45238</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="33">
+        <v>55556</v>
+      </c>
+      <c r="G10" s="137"/>
+      <c r="J10" s="6">
+        <v>7</v>
+      </c>
+      <c r="K10" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L10" s="240">
+        <v>569</v>
+      </c>
+      <c r="M10" s="213" t="s">
+        <v>417</v>
+      </c>
+      <c r="N10" s="241">
+        <v>383539.8</v>
+      </c>
+      <c r="O10" s="137"/>
+      <c r="Q10" s="6">
+        <v>7</v>
+      </c>
+      <c r="R10" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S10" s="6">
+        <v>637</v>
+      </c>
+      <c r="T10" s="238" t="s">
+        <v>379</v>
+      </c>
+      <c r="U10" s="8">
+        <v>7920.74</v>
+      </c>
+      <c r="V10" s="137"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>8</v>
+      </c>
+      <c r="C11" s="32">
+        <v>45238</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="33">
+        <v>34197.82</v>
+      </c>
+      <c r="G11" s="137"/>
+      <c r="J11" s="6">
+        <v>8</v>
+      </c>
+      <c r="K11" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L11" s="105">
+        <v>570</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="N11" s="33">
+        <v>34359.58</v>
+      </c>
+      <c r="O11" s="137"/>
+      <c r="Q11" s="6">
+        <v>8</v>
+      </c>
+      <c r="R11" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S11" s="6">
+        <v>638</v>
+      </c>
+      <c r="T11" s="238" t="s">
+        <v>369</v>
+      </c>
+      <c r="U11" s="8">
+        <v>1570.4</v>
+      </c>
+      <c r="V11" s="137"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>9</v>
+      </c>
+      <c r="C12" s="32">
+        <v>45238</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="33">
+        <v>19671.400000000001</v>
+      </c>
+      <c r="G12" s="137"/>
+      <c r="J12" s="6">
+        <v>9</v>
+      </c>
+      <c r="K12" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L12" s="105">
+        <v>571</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="N12" s="33">
+        <v>62731.85</v>
+      </c>
+      <c r="O12" s="137"/>
+      <c r="Q12" s="6">
+        <v>9</v>
+      </c>
+      <c r="R12" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S12" s="6">
+        <v>639</v>
+      </c>
+      <c r="T12" s="238" t="s">
+        <v>380</v>
+      </c>
+      <c r="U12" s="8">
+        <v>11670.06</v>
+      </c>
+      <c r="V12" s="137"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="32">
+        <v>45239</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="33">
+        <v>76484.3</v>
+      </c>
+      <c r="G13" s="137"/>
+      <c r="J13" s="6">
+        <v>10</v>
+      </c>
+      <c r="K13" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L13" s="105">
+        <v>572</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="N13" s="33">
+        <v>30161.599999999999</v>
+      </c>
+      <c r="O13" s="137"/>
+      <c r="Q13" s="6">
+        <v>10</v>
+      </c>
+      <c r="R13" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S13" s="105">
+        <v>640</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="U13" s="33">
+        <v>4540</v>
+      </c>
+      <c r="V13" s="137"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>11</v>
+      </c>
+      <c r="C14" s="32">
+        <v>45239</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="33">
+        <v>143832.29999999999</v>
+      </c>
+      <c r="G14" s="139"/>
+      <c r="J14" s="6">
+        <v>11</v>
+      </c>
+      <c r="K14" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L14" s="105">
+        <v>575</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="N14" s="33">
+        <v>16824.7</v>
+      </c>
+      <c r="O14" s="139"/>
+      <c r="Q14" s="6">
+        <v>11</v>
+      </c>
+      <c r="R14" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S14" s="105">
+        <v>646</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="U14" s="33">
+        <v>38245</v>
+      </c>
+      <c r="V14" s="139"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>12</v>
+      </c>
+      <c r="C15" s="32">
+        <v>45239</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="33">
+        <v>61133.599999999999</v>
+      </c>
+      <c r="G15" s="137"/>
+      <c r="J15" s="6">
+        <v>12</v>
+      </c>
+      <c r="K15" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L15" s="105">
+        <v>576</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="N15" s="33">
+        <v>681</v>
+      </c>
+      <c r="O15" s="137"/>
+      <c r="Q15" s="6">
+        <v>12</v>
+      </c>
+      <c r="R15" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S15" s="105">
+        <v>648</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="U15" s="33">
+        <v>24498</v>
+      </c>
+      <c r="V15" s="137"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>13</v>
+      </c>
+      <c r="C16" s="32">
+        <v>45239</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" s="33">
+        <v>5106.8</v>
+      </c>
+      <c r="G16" s="137"/>
+      <c r="J16" s="6">
+        <v>13</v>
+      </c>
+      <c r="K16" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L16" s="105">
+        <v>580</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="N16" s="33">
+        <v>15683.9</v>
+      </c>
+      <c r="O16" s="137"/>
+      <c r="Q16" s="6">
+        <v>13</v>
+      </c>
+      <c r="R16" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S16" s="105">
+        <v>649</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="U16" s="33">
+        <v>20954.05</v>
+      </c>
+      <c r="V16" s="137"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>14</v>
+      </c>
+      <c r="C17" s="32">
+        <v>45239</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="33">
+        <v>3980.4</v>
+      </c>
+      <c r="G17" s="137"/>
+      <c r="J17" s="6">
+        <v>14</v>
+      </c>
+      <c r="K17" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L17" s="105">
+        <v>582</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="N17" s="33">
+        <v>47450</v>
+      </c>
+      <c r="O17" s="137"/>
+      <c r="Q17" s="6">
+        <v>14</v>
+      </c>
+      <c r="R17" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S17" s="105">
+        <v>650</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="U17" s="33">
+        <v>3597.9</v>
+      </c>
+      <c r="V17" s="137"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>15</v>
+      </c>
+      <c r="C18" s="32">
+        <v>45239</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" s="33">
+        <v>84768.2</v>
+      </c>
+      <c r="G18" s="137"/>
+      <c r="J18" s="6">
+        <v>15</v>
+      </c>
+      <c r="K18" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L18" s="105">
+        <v>583</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="N18" s="33">
+        <v>3580.84</v>
+      </c>
+      <c r="O18" s="137"/>
+      <c r="Q18" s="6">
+        <v>15</v>
+      </c>
+      <c r="R18" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S18" s="105">
+        <v>651</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="U18" s="33">
+        <v>2944.22</v>
+      </c>
+      <c r="V18" s="137"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>16</v>
+      </c>
+      <c r="C19" s="32">
+        <v>45240</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="33">
+        <v>155127.4</v>
+      </c>
+      <c r="G19" s="137"/>
+      <c r="J19" s="6">
+        <v>16</v>
+      </c>
+      <c r="K19" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L19" s="105">
+        <v>587</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="N19" s="33">
+        <v>17155</v>
+      </c>
+      <c r="O19" s="137"/>
+      <c r="Q19" s="6">
+        <v>16</v>
+      </c>
+      <c r="R19" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S19" s="105">
+        <v>652</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="U19" s="33">
+        <v>10000</v>
+      </c>
+      <c r="V19" s="137"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>17</v>
+      </c>
+      <c r="C20" s="32">
+        <v>45240</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="33">
+        <v>84643.36</v>
+      </c>
+      <c r="G20" s="137"/>
+      <c r="J20" s="6">
+        <v>17</v>
+      </c>
+      <c r="K20" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L20" s="105">
+        <v>589</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="N20" s="33">
+        <v>5102.1099999999997</v>
+      </c>
+      <c r="O20" s="137"/>
+      <c r="Q20" s="6">
+        <v>17</v>
+      </c>
+      <c r="R20" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S20" s="105">
+        <v>653</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="U20" s="33">
+        <v>3339.9</v>
+      </c>
+      <c r="V20" s="137"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>18</v>
+      </c>
+      <c r="C21" s="32">
+        <v>45240</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="214" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="33">
+        <v>0</v>
+      </c>
+      <c r="G21" s="137"/>
+      <c r="J21" s="6">
+        <v>18</v>
+      </c>
+      <c r="K21" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L21" s="105">
+        <v>590</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="N21" s="33">
+        <v>10260.9</v>
+      </c>
+      <c r="O21" s="137"/>
+      <c r="Q21" s="6">
+        <v>18</v>
+      </c>
+      <c r="R21" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S21" s="105">
+        <v>654</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="U21" s="33">
+        <v>880.88</v>
+      </c>
+      <c r="V21" s="137"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>19</v>
+      </c>
+      <c r="C22" s="32">
+        <v>45240</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="33">
+        <v>738.3</v>
+      </c>
+      <c r="G22" s="137"/>
+      <c r="J22" s="6">
+        <v>19</v>
+      </c>
+      <c r="K22" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L22" s="105">
+        <v>591</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="N22" s="33">
+        <v>908</v>
+      </c>
+      <c r="O22" s="137"/>
+      <c r="Q22" s="6">
+        <v>19</v>
+      </c>
+      <c r="R22" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S22" s="105">
+        <v>655</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="U22" s="33">
+        <v>26218</v>
+      </c>
+      <c r="V22" s="137"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>20</v>
+      </c>
+      <c r="C23" s="32">
+        <v>45240</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="214" t="s">
+        <v>318</v>
+      </c>
+      <c r="F23" s="33">
+        <v>124780.16</v>
+      </c>
+      <c r="G23" s="137"/>
+      <c r="J23" s="6">
+        <v>20</v>
+      </c>
+      <c r="K23" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L23" s="105">
+        <v>592</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="N23" s="33">
+        <v>960</v>
+      </c>
+      <c r="O23" s="137"/>
+      <c r="Q23" s="6">
+        <v>20</v>
+      </c>
+      <c r="R23" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S23" s="105">
+        <v>656</v>
+      </c>
+      <c r="T23" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="U23" s="33">
+        <v>8661.6</v>
+      </c>
+      <c r="V23" s="137"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>21</v>
+      </c>
+      <c r="C24" s="32">
+        <v>45240</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="33">
+        <v>17326.400000000001</v>
+      </c>
+      <c r="G24" s="137"/>
+      <c r="J24" s="6">
+        <v>21</v>
+      </c>
+      <c r="K24" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L24" s="105">
+        <v>593</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="N24" s="33">
+        <v>1135</v>
+      </c>
+      <c r="O24" s="137"/>
+      <c r="Q24" s="6">
+        <v>21</v>
+      </c>
+      <c r="R24" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S24" s="105">
+        <v>657</v>
+      </c>
+      <c r="T24" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="U24" s="33">
+        <v>4899.6000000000004</v>
+      </c>
+      <c r="V24" s="137"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>22</v>
+      </c>
+      <c r="C25" s="32">
+        <v>45241</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>322</v>
+      </c>
+      <c r="E25" s="214" t="s">
+        <v>323</v>
+      </c>
+      <c r="F25" s="33">
+        <v>8880</v>
+      </c>
+      <c r="G25" s="139"/>
+      <c r="J25" s="6">
+        <v>22</v>
+      </c>
+      <c r="K25" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L25" s="105">
+        <v>595</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="N25" s="33">
+        <v>118592.28</v>
+      </c>
+      <c r="O25" s="139"/>
+      <c r="Q25" s="6">
+        <v>22</v>
+      </c>
+      <c r="R25" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S25" s="105">
+        <v>658</v>
+      </c>
+      <c r="T25" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="U25" s="33">
+        <v>15134.72</v>
+      </c>
+      <c r="V25" s="139"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>23</v>
+      </c>
+      <c r="C26" s="32">
+        <v>45241</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>324</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="F26" s="33">
+        <v>123586.7</v>
+      </c>
+      <c r="G26" s="137"/>
+      <c r="J26" s="6">
+        <v>23</v>
+      </c>
+      <c r="K26" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L26" s="105">
+        <v>596</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="N26" s="33">
+        <v>15843</v>
+      </c>
+      <c r="O26" s="137"/>
+      <c r="Q26" s="6">
+        <v>23</v>
+      </c>
+      <c r="R26" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S26" s="105">
+        <v>659</v>
+      </c>
+      <c r="T26" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="U26" s="33">
+        <v>2449.8000000000002</v>
+      </c>
+      <c r="V26" s="137"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>24</v>
+      </c>
+      <c r="C27" s="32">
+        <v>45241</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="F27" s="33">
+        <v>11160</v>
+      </c>
+      <c r="G27" s="137"/>
+      <c r="J27" s="6">
+        <v>24</v>
+      </c>
+      <c r="K27" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L27" s="105">
+        <v>600</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="N27" s="33">
+        <v>33189.230000000003</v>
+      </c>
+      <c r="O27" s="137"/>
+      <c r="Q27" s="6">
+        <v>24</v>
+      </c>
+      <c r="R27" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S27" s="105">
+        <v>660</v>
+      </c>
+      <c r="T27" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="U27" s="33">
+        <v>2929.8</v>
+      </c>
+      <c r="V27" s="137"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>25</v>
+      </c>
+      <c r="C28" s="32">
+        <v>45241</v>
+      </c>
+      <c r="D28" s="105" t="s">
+        <v>327</v>
+      </c>
+      <c r="E28" s="214" t="s">
+        <v>328</v>
+      </c>
+      <c r="F28" s="33">
+        <v>113133.8</v>
+      </c>
+      <c r="G28" s="137"/>
+      <c r="J28" s="6">
+        <v>25</v>
+      </c>
+      <c r="K28" s="32">
+        <v>45244</v>
+      </c>
+      <c r="L28" s="105">
+        <v>602</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="N28" s="33">
+        <v>58041.73</v>
+      </c>
+      <c r="O28" s="137"/>
+      <c r="Q28" s="6">
+        <v>25</v>
+      </c>
+      <c r="R28" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S28" s="105">
+        <v>661</v>
+      </c>
+      <c r="T28" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="U28" s="33">
+        <v>4899.6000000000004</v>
+      </c>
+      <c r="V28" s="137"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>26</v>
+      </c>
+      <c r="C29" s="32">
+        <v>45241</v>
+      </c>
+      <c r="D29" s="105" t="s">
+        <v>329</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="F29" s="33">
+        <v>68468.3</v>
+      </c>
+      <c r="G29" s="137"/>
+      <c r="J29" s="6">
+        <v>26</v>
+      </c>
+      <c r="K29" s="111">
+        <v>45244</v>
+      </c>
+      <c r="L29" s="40">
+        <v>603</v>
+      </c>
+      <c r="M29" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="N29" s="42">
+        <v>57476.800000000003</v>
+      </c>
+      <c r="O29" s="140"/>
+      <c r="Q29" s="6">
+        <v>26</v>
+      </c>
+      <c r="R29" s="111">
+        <v>45245</v>
+      </c>
+      <c r="S29" s="40">
+        <v>662</v>
+      </c>
+      <c r="T29" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="U29" s="42">
+        <v>1135</v>
+      </c>
+      <c r="V29" s="140"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
+        <v>27</v>
+      </c>
+      <c r="C30" s="111"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="140"/>
+      <c r="J30" s="225">
+        <v>27</v>
+      </c>
+      <c r="K30" s="226">
+        <v>45244</v>
+      </c>
+      <c r="L30" s="227">
+        <v>604</v>
+      </c>
+      <c r="M30" s="228" t="s">
+        <v>358</v>
+      </c>
+      <c r="N30" s="229">
+        <v>2865.6</v>
+      </c>
+      <c r="O30" s="230"/>
+      <c r="Q30" s="225">
+        <v>27</v>
+      </c>
+      <c r="R30" s="226">
+        <v>45245</v>
+      </c>
+      <c r="S30" s="227">
+        <v>663</v>
+      </c>
+      <c r="T30" s="228" t="s">
+        <v>396</v>
+      </c>
+      <c r="U30" s="229">
+        <v>960</v>
+      </c>
+      <c r="V30" s="230"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="33">
+        <v>0</v>
+      </c>
+      <c r="G31" s="137"/>
+      <c r="J31" s="6">
+        <v>28</v>
+      </c>
+      <c r="K31" s="32">
+        <v>45245</v>
+      </c>
+      <c r="L31" s="105">
+        <v>616</v>
+      </c>
+      <c r="M31" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="N31" s="33">
+        <v>19561.75</v>
+      </c>
+      <c r="O31" s="137"/>
+      <c r="Q31" s="6">
+        <v>28</v>
+      </c>
+      <c r="R31" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S31" s="105">
+        <v>664</v>
+      </c>
+      <c r="T31" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="U31" s="33">
+        <v>7349.4</v>
+      </c>
+      <c r="V31" s="137"/>
+    </row>
+    <row r="32" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="112"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="122"/>
+      <c r="F32" s="123">
+        <f>SUM(F4:F31)</f>
+        <v>1525767.24</v>
+      </c>
+      <c r="G32" s="141"/>
+      <c r="J32" s="6">
+        <v>29</v>
+      </c>
+      <c r="K32" s="32">
+        <v>45245</v>
+      </c>
+      <c r="L32" s="234">
+        <v>617</v>
+      </c>
+      <c r="M32" s="236" t="s">
+        <v>360</v>
+      </c>
+      <c r="N32" s="235">
+        <v>43209.1</v>
+      </c>
+      <c r="O32" s="138"/>
+      <c r="Q32" s="6">
+        <v>29</v>
+      </c>
+      <c r="R32" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S32" s="234">
+        <v>665</v>
+      </c>
+      <c r="T32" s="236" t="s">
+        <v>398</v>
+      </c>
+      <c r="U32" s="235">
+        <v>16494.3</v>
+      </c>
+      <c r="V32" s="138"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="112"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="117"/>
+      <c r="J33" s="6">
+        <v>30</v>
+      </c>
+      <c r="K33" s="32">
+        <v>45245</v>
+      </c>
+      <c r="L33" s="6">
+        <v>620</v>
+      </c>
+      <c r="M33" s="238" t="s">
+        <v>361</v>
+      </c>
+      <c r="N33" s="8">
+        <v>35527.980000000003</v>
+      </c>
+      <c r="O33" s="237"/>
+      <c r="Q33" s="6">
+        <v>30</v>
+      </c>
+      <c r="R33" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S33" s="6">
+        <v>666</v>
+      </c>
+      <c r="T33" s="238" t="s">
+        <v>399</v>
+      </c>
+      <c r="U33" s="8">
+        <v>2449.8000000000002</v>
+      </c>
+      <c r="V33" s="237"/>
+    </row>
+    <row r="34" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="112"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="169"/>
+      <c r="J34" s="6">
+        <v>31</v>
+      </c>
+      <c r="K34" s="32">
+        <v>45245</v>
+      </c>
+      <c r="L34" s="6">
+        <v>621</v>
+      </c>
+      <c r="M34" s="238" t="s">
+        <v>362</v>
+      </c>
+      <c r="N34" s="8">
+        <v>18196.2</v>
+      </c>
+      <c r="O34" s="237"/>
+      <c r="Q34" s="6">
+        <v>31</v>
+      </c>
+      <c r="R34" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S34" s="6">
+        <v>667</v>
+      </c>
+      <c r="T34" s="238" t="s">
+        <v>372</v>
+      </c>
+      <c r="U34" s="8">
+        <v>40634.160000000003</v>
+      </c>
+      <c r="V34" s="237"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="112"/>
+      <c r="C35" s="212" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="212"/>
+      <c r="E35" s="208">
+        <f>F32-U52</f>
+        <v>-681080.15999999992</v>
+      </c>
+      <c r="F35" s="209"/>
+      <c r="G35" s="170"/>
+      <c r="J35" s="6">
+        <v>32</v>
+      </c>
+      <c r="K35" s="32">
+        <v>45245</v>
+      </c>
+      <c r="L35" s="6">
+        <v>624</v>
+      </c>
+      <c r="M35" s="238" t="s">
+        <v>363</v>
+      </c>
+      <c r="N35" s="8">
+        <v>10500</v>
+      </c>
+      <c r="O35" s="237"/>
+      <c r="Q35" s="6">
+        <v>32</v>
+      </c>
+      <c r="R35" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S35" s="6">
+        <v>668</v>
+      </c>
+      <c r="T35" s="238" t="s">
+        <v>400</v>
+      </c>
+      <c r="U35" s="8">
+        <v>11794.84</v>
+      </c>
+      <c r="V35" s="237"/>
+    </row>
+    <row r="36" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="112"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="212"/>
+      <c r="E36" s="210"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="171"/>
+      <c r="J36" s="6">
+        <v>33</v>
+      </c>
+      <c r="K36" s="32">
+        <v>45245</v>
+      </c>
+      <c r="L36" s="6">
+        <v>625</v>
+      </c>
+      <c r="M36" s="238" t="s">
+        <v>364</v>
+      </c>
+      <c r="N36" s="8">
+        <v>4455.3999999999996</v>
+      </c>
+      <c r="O36" s="237"/>
+      <c r="Q36" s="6">
+        <v>33</v>
+      </c>
+      <c r="R36" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S36" s="6">
+        <v>669</v>
+      </c>
+      <c r="T36" s="238" t="s">
+        <v>401</v>
+      </c>
+      <c r="U36" s="8">
+        <v>6417.26</v>
+      </c>
+      <c r="V36" s="237"/>
+    </row>
+    <row r="37" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="112"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="173" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" s="173"/>
+      <c r="G37" s="172"/>
+      <c r="J37" s="6">
+        <v>34</v>
+      </c>
+      <c r="K37" s="32">
+        <v>45245</v>
+      </c>
+      <c r="L37" s="6">
+        <v>626</v>
+      </c>
+      <c r="M37" s="238" t="s">
+        <v>365</v>
+      </c>
+      <c r="N37" s="8">
+        <v>15145.14</v>
+      </c>
+      <c r="O37" s="237"/>
+      <c r="Q37" s="6">
+        <v>34</v>
+      </c>
+      <c r="R37" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S37" s="6">
+        <v>670</v>
+      </c>
+      <c r="T37" s="238" t="s">
+        <v>403</v>
+      </c>
+      <c r="U37" s="8">
+        <v>11350</v>
+      </c>
+      <c r="V37" s="237"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" s="112"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="G38" s="119"/>
+      <c r="J38" s="6">
+        <v>35</v>
+      </c>
+      <c r="K38" s="32">
+        <v>45245</v>
+      </c>
+      <c r="L38" s="6">
+        <v>627</v>
+      </c>
+      <c r="M38" s="238" t="s">
+        <v>366</v>
+      </c>
+      <c r="N38" s="8">
+        <v>12249</v>
+      </c>
+      <c r="O38" s="237"/>
+      <c r="Q38" s="6">
+        <v>35</v>
+      </c>
+      <c r="R38" s="32">
+        <v>45245</v>
+      </c>
+      <c r="S38" s="6">
+        <v>671</v>
+      </c>
+      <c r="T38" s="238" t="s">
+        <v>404</v>
+      </c>
+      <c r="U38" s="8">
+        <v>32407.9</v>
+      </c>
+      <c r="V38" s="237"/>
+    </row>
+    <row r="39" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="112"/>
+      <c r="G39" s="118"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="238"/>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="237"/>
+      <c r="Q39" s="12">
+        <v>36</v>
+      </c>
+      <c r="R39" s="111">
+        <v>45245</v>
+      </c>
+      <c r="S39" s="12">
+        <v>672</v>
+      </c>
+      <c r="T39" s="242" t="s">
+        <v>405</v>
+      </c>
+      <c r="U39" s="13">
+        <v>31471.24</v>
+      </c>
+      <c r="V39" s="243"/>
+    </row>
+    <row r="40" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="266" t="s">
+        <v>418</v>
+      </c>
+      <c r="E40" s="267">
+        <v>45245</v>
+      </c>
+      <c r="F40" s="268">
+        <v>169000</v>
+      </c>
+      <c r="G40" s="269"/>
+      <c r="J40" s="231"/>
+      <c r="K40" s="232"/>
+      <c r="L40" s="232"/>
+      <c r="M40" s="232"/>
+      <c r="N40" s="239">
+        <v>0</v>
+      </c>
+      <c r="O40" s="233"/>
+      <c r="Q40" s="6">
+        <v>37</v>
+      </c>
+      <c r="R40" s="111">
+        <v>45245</v>
+      </c>
+      <c r="S40" s="216">
+        <v>673</v>
+      </c>
+      <c r="T40" s="217" t="s">
+        <v>407</v>
+      </c>
+      <c r="U40" s="218">
+        <v>3439.78</v>
+      </c>
+      <c r="V40" s="221"/>
+    </row>
+    <row r="41" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="270" t="s">
+        <v>418</v>
+      </c>
+      <c r="E41" s="271">
+        <v>45245</v>
+      </c>
+      <c r="F41" s="272">
+        <v>170000</v>
+      </c>
+      <c r="G41" s="273"/>
+      <c r="J41" s="222"/>
+      <c r="K41" s="223"/>
+      <c r="L41" s="251" t="s">
+        <v>413</v>
+      </c>
+      <c r="M41" s="252"/>
+      <c r="N41" s="219">
+        <f>SUM(N4:N40)</f>
+        <v>1545671.24</v>
+      </c>
+      <c r="O41" s="224"/>
+      <c r="Q41" s="12">
+        <v>38</v>
+      </c>
+      <c r="R41" s="111">
+        <v>45245</v>
+      </c>
+      <c r="S41" s="244">
+        <v>674</v>
+      </c>
+      <c r="T41" s="247" t="s">
+        <v>408</v>
+      </c>
+      <c r="U41" s="245">
+        <v>11806</v>
+      </c>
+      <c r="V41" s="221"/>
+    </row>
+    <row r="42" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="270"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="272">
+        <v>0</v>
+      </c>
+      <c r="G42" s="273"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+      <c r="Q42" s="6">
+        <v>39</v>
+      </c>
+      <c r="R42" s="111">
+        <v>45245</v>
+      </c>
+      <c r="S42" s="246">
+        <v>675</v>
+      </c>
+      <c r="T42" s="248" t="s">
+        <v>409</v>
+      </c>
+      <c r="U42" s="249">
+        <v>23915</v>
+      </c>
+      <c r="V42" s="221"/>
+    </row>
+    <row r="43" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="270"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="272">
+        <v>0</v>
+      </c>
+      <c r="G43" s="273"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="86"/>
+      <c r="Q43" s="12">
+        <v>40</v>
+      </c>
+      <c r="R43" s="111">
+        <v>45245</v>
+      </c>
+      <c r="S43" s="246">
+        <v>676</v>
+      </c>
+      <c r="T43" s="248" t="s">
+        <v>410</v>
+      </c>
+      <c r="U43" s="249">
+        <v>2973.6</v>
+      </c>
+      <c r="V43" s="221"/>
+    </row>
+    <row r="44" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="270"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="272">
+        <v>0</v>
+      </c>
+      <c r="G44" s="273"/>
+      <c r="K44" s="265"/>
+      <c r="L44" s="259"/>
+      <c r="M44" s="259"/>
+      <c r="Q44" s="6">
+        <v>41</v>
+      </c>
+      <c r="R44" s="111">
+        <v>45245</v>
+      </c>
+      <c r="S44" s="246">
+        <v>677</v>
+      </c>
+      <c r="T44" s="248" t="s">
+        <v>411</v>
+      </c>
+      <c r="U44" s="249">
+        <v>10568.58</v>
+      </c>
+      <c r="V44" s="221"/>
+    </row>
+    <row r="45" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="270"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="272">
+        <v>0</v>
+      </c>
+      <c r="G45" s="273"/>
+      <c r="Q45" s="12">
+        <v>42</v>
+      </c>
+      <c r="R45" s="111">
+        <v>45246</v>
+      </c>
+      <c r="S45" s="246">
+        <v>687</v>
+      </c>
+      <c r="T45" s="248" t="s">
+        <v>412</v>
+      </c>
+      <c r="U45" s="249">
+        <v>90700.5</v>
+      </c>
+      <c r="V45" s="221"/>
+    </row>
+    <row r="46" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="270"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="272">
+        <f>SUM(F40:F45)</f>
+        <v>339000</v>
+      </c>
+      <c r="G46" s="273"/>
+      <c r="Q46" s="6">
+        <v>43</v>
+      </c>
+      <c r="R46" s="111">
+        <v>45246</v>
+      </c>
+      <c r="S46" s="246">
+        <v>688</v>
+      </c>
+      <c r="T46" s="248" t="s">
+        <v>373</v>
+      </c>
+      <c r="U46" s="249">
+        <v>20300.62</v>
+      </c>
+      <c r="V46" s="221"/>
+    </row>
+    <row r="47" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="274"/>
+      <c r="E47" s="275"/>
+      <c r="F47" s="276"/>
+      <c r="G47" s="277"/>
+      <c r="Q47" s="12">
+        <v>44</v>
+      </c>
+      <c r="R47" s="111">
+        <v>45246</v>
+      </c>
+      <c r="S47" s="246">
+        <v>689</v>
+      </c>
+      <c r="T47" s="248" t="s">
+        <v>406</v>
+      </c>
+      <c r="U47" s="249">
+        <v>2449.8000000000002</v>
+      </c>
+      <c r="V47" s="221"/>
+    </row>
+    <row r="48" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q48" s="6">
+        <v>45</v>
+      </c>
+      <c r="R48" s="111">
+        <v>45246</v>
+      </c>
+      <c r="S48" s="246">
+        <v>690</v>
+      </c>
+      <c r="T48" s="248" t="s">
+        <v>402</v>
+      </c>
+      <c r="U48" s="249">
+        <v>29397.599999999999</v>
+      </c>
+      <c r="V48" s="221"/>
+    </row>
+    <row r="49" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q49" s="12">
+        <v>46</v>
+      </c>
+      <c r="R49" s="111">
+        <v>45246</v>
+      </c>
+      <c r="S49" s="255">
+        <v>693</v>
+      </c>
+      <c r="T49" s="256" t="s">
+        <v>374</v>
+      </c>
+      <c r="U49" s="249">
+        <v>35987</v>
+      </c>
+      <c r="V49" s="221"/>
+    </row>
+    <row r="50" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q50" s="220"/>
+      <c r="R50" s="253"/>
+      <c r="S50" s="257" t="s">
+        <v>415</v>
+      </c>
+      <c r="T50" s="258"/>
+      <c r="U50" s="254">
+        <f>SUM(U4:U49)</f>
+        <v>661176.16</v>
+      </c>
+      <c r="V50" s="221"/>
+    </row>
+    <row r="51" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S51" s="261" t="s">
+        <v>414</v>
+      </c>
+      <c r="T51" s="262"/>
+      <c r="U51" s="250">
+        <f>N41</f>
+        <v>1545671.24</v>
+      </c>
+      <c r="V51" s="221"/>
+    </row>
+    <row r="52" spans="17:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S52" s="263" t="s">
+        <v>416</v>
+      </c>
+      <c r="T52" s="264"/>
+      <c r="U52" s="260">
+        <f>U50+U51</f>
+        <v>2206847.4</v>
+      </c>
+      <c r="V52" s="221"/>
+    </row>
+    <row r="53" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U53" s="220"/>
+      <c r="V53" s="221"/>
+    </row>
+  </sheetData>
+  <sortState ref="R46:U48">
+    <sortCondition ref="S46:S48"/>
+  </sortState>
+  <mergeCells count="10">
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R2:V2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="OBRADOR  &amp; CENTRAL  23-28-Oct" sheetId="3" r:id="rId3"/>
     <sheet name="OBRADOR &amp; CENTRAL 30-04-Nov" sheetId="4" r:id="rId4"/>
     <sheet name="OBRADOR &amp; CENTRAL 6-11 Nov-23" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
+    <sheet name="OBRADOR &amp; CENTRAL  13-18-Noviem" sheetId="6" r:id="rId6"/>
     <sheet name="Hoja3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="467">
   <si>
     <t>FECHA</t>
   </si>
@@ -1019,9 +1019,6 @@
     <t>M-359</t>
   </si>
   <si>
-    <t>362 M</t>
-  </si>
-  <si>
     <t>M362</t>
   </si>
   <si>
@@ -1287,6 +1284,153 @@
   </si>
   <si>
     <t>DEPOSITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>363 M</t>
+  </si>
+  <si>
+    <t>M-363</t>
+  </si>
+  <si>
+    <t>364 M,</t>
+  </si>
+  <si>
+    <t>M-364</t>
+  </si>
+  <si>
+    <t>365 M</t>
+  </si>
+  <si>
+    <t>M-365</t>
+  </si>
+  <si>
+    <t>366 M</t>
+  </si>
+  <si>
+    <t>M-366</t>
+  </si>
+  <si>
+    <t>367 M</t>
+  </si>
+  <si>
+    <t>M-367</t>
+  </si>
+  <si>
+    <t>368 M</t>
+  </si>
+  <si>
+    <t>378 M</t>
+  </si>
+  <si>
+    <t>M-368</t>
+  </si>
+  <si>
+    <t>369 M</t>
+  </si>
+  <si>
+    <t>M-369</t>
+  </si>
+  <si>
+    <t>370 M</t>
+  </si>
+  <si>
+    <t>M-370</t>
+  </si>
+  <si>
+    <t>371 M</t>
+  </si>
+  <si>
+    <t>M-371</t>
+  </si>
+  <si>
+    <t>372 M</t>
+  </si>
+  <si>
+    <t>M-372</t>
+  </si>
+  <si>
+    <t>373 M</t>
+  </si>
+  <si>
+    <t>M-373</t>
+  </si>
+  <si>
+    <t>374 M</t>
+  </si>
+  <si>
+    <t>M-374</t>
+  </si>
+  <si>
+    <t>375 M</t>
+  </si>
+  <si>
+    <t>M-375</t>
+  </si>
+  <si>
+    <t>376 M</t>
+  </si>
+  <si>
+    <t>M-376</t>
+  </si>
+  <si>
+    <t>377 M</t>
+  </si>
+  <si>
+    <t>M-378</t>
+  </si>
+  <si>
+    <t>379 M</t>
+  </si>
+  <si>
+    <t>M-379</t>
+  </si>
+  <si>
+    <t>380 M</t>
+  </si>
+  <si>
+    <t>M-380</t>
+  </si>
+  <si>
+    <t>381 M</t>
+  </si>
+  <si>
+    <t>M-381</t>
+  </si>
+  <si>
+    <t>475 E1</t>
+  </si>
+  <si>
+    <t>477 E1</t>
+  </si>
+  <si>
+    <t>480 E1</t>
+  </si>
+  <si>
+    <t>481 E1</t>
+  </si>
+  <si>
+    <t>SEMANA DEL  13-18-Nov-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referencia </t>
+  </si>
+  <si>
+    <t>BBVA</t>
+  </si>
+  <si>
+    <t>SALDO</t>
+  </si>
+  <si>
+    <t>RESTA</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ESTAS NOTAS SON LAS QUE NO SE HICIERON EN LAS FECHAS DEL 16 DE OCTUBRE AL  11 DE NOVIEMBRE 2023 MERCANCIA ENTREGADA DE ALMACEN</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1574,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1509,8 +1653,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -2246,12 +2402,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2586,113 +2878,11 @@
     <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2765,12 +2955,6 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2779,53 +2963,261 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="14" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="14" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2835,13 +3227,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF33CCFF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF99FF66"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF33CCFF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
@@ -2909,16 +3302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>139211</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>102576</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1157653</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>212480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>556846</xdr:colOff>
+      <xdr:colOff>359019</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>183172</xdr:rowOff>
+      <xdr:rowOff>80595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2938,7 +3331,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9078057" y="9275884"/>
+          <a:off x="8880230" y="9173307"/>
           <a:ext cx="2996712" cy="2410557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3106,6 +3499,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>407035</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>8387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="C:\Users\ROUSS\Pictures\2023-11-21 ESCANEO\WhatsApp Image 2023-11-21 at 2.30.54 PM.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8147" t="6788" r="3099"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9873155" y="10536621"/>
+          <a:ext cx="4979035" cy="2938145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3152,6 +3595,111 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>440532</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1063943</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>225821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="C:\Users\ROUSS\Pictures\2023-11-21 ESCANEO\WhatsApp Image 2023-11-21 at 2.51.30 PM.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7259" t="10409" r="-871" b="18140"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1363266" y="7929562"/>
+          <a:ext cx="3135630" cy="2470150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>486410</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>37464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="C:\Users\ROUSS\Pictures\2023-11-21 ESCANEO\WhatsApp Image 2023-11-21 at 2.56.17 PM.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6926" t="14315" r="11819" b="7147"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="7281863" y="9701211"/>
+          <a:ext cx="3191510" cy="4076065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3428,7 +3976,7 @@
   <dimension ref="B1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="D37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3447,20 +3995,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
       <c r="I1" s="68"/>
-      <c r="J1" s="188" t="s">
+      <c r="J1" s="272" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
     </row>
     <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -4392,8 +4940,8 @@
       </c>
       <c r="G32" s="27"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="189"/>
+      <c r="J32" s="273"/>
+      <c r="K32" s="273"/>
       <c r="L32" s="147"/>
       <c r="M32" s="148"/>
     </row>
@@ -4481,10 +5029,10 @@
       <c r="G36" s="25"/>
       <c r="I36" s="68"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="192" t="s">
+      <c r="L36" s="276" t="s">
         <v>210</v>
       </c>
-      <c r="M36" s="190">
+      <c r="M36" s="274">
         <f>F47-M31</f>
         <v>1037858.16</v>
       </c>
@@ -4508,8 +5056,8 @@
       <c r="G37" s="45"/>
       <c r="I37" s="68"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="193"/>
-      <c r="M37" s="191"/>
+      <c r="L37" s="277"/>
+      <c r="M37" s="275"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -4581,10 +5129,10 @@
       <c r="K40" s="157">
         <v>220000</v>
       </c>
-      <c r="L40" s="183" t="s">
+      <c r="L40" s="267" t="s">
         <v>209</v>
       </c>
-      <c r="M40" s="184"/>
+      <c r="M40" s="268"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
@@ -4612,8 +5160,8 @@
       <c r="K41" s="159">
         <v>25000</v>
       </c>
-      <c r="L41" s="185"/>
-      <c r="M41" s="186"/>
+      <c r="L41" s="269"/>
+      <c r="M41" s="270"/>
     </row>
     <row r="42" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
@@ -4668,7 +5216,7 @@
       <c r="K43" s="159">
         <v>170000</v>
       </c>
-      <c r="L43" s="180" t="s">
+      <c r="L43" s="264" t="s">
         <v>280</v>
       </c>
       <c r="M43" s="166"/>
@@ -4699,7 +5247,7 @@
       <c r="K44" s="159">
         <v>180000</v>
       </c>
-      <c r="L44" s="181"/>
+      <c r="L44" s="265"/>
       <c r="M44" s="167"/>
     </row>
     <row r="45" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4728,7 +5276,7 @@
       <c r="K45" s="159">
         <v>60000</v>
       </c>
-      <c r="L45" s="181"/>
+      <c r="L45" s="265"/>
       <c r="M45" s="167"/>
     </row>
     <row r="46" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4747,7 +5295,7 @@
       <c r="K46" s="159">
         <v>98858</v>
       </c>
-      <c r="L46" s="181"/>
+      <c r="L46" s="265"/>
       <c r="M46" s="167"/>
     </row>
     <row r="47" spans="2:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4769,7 +5317,7 @@
       <c r="K47" s="163">
         <v>190000</v>
       </c>
-      <c r="L47" s="182"/>
+      <c r="L47" s="266"/>
       <c r="M47" s="168"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -4814,7 +5362,7 @@
   </sheetPr>
   <dimension ref="B1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4833,19 +5381,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="J1" s="188" t="s">
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="J1" s="272" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -6028,10 +6576,10 @@
       </c>
       <c r="J39" s="86"/>
       <c r="K39" s="95"/>
-      <c r="L39" s="194" t="s">
+      <c r="L39" s="278" t="s">
         <v>210</v>
       </c>
-      <c r="M39" s="196">
+      <c r="M39" s="280">
         <f>F43-M37</f>
         <v>225360.95000000007</v>
       </c>
@@ -6056,8 +6604,8 @@
         <v>190</v>
       </c>
       <c r="K40" s="94"/>
-      <c r="L40" s="195"/>
-      <c r="M40" s="197"/>
+      <c r="L40" s="279"/>
+      <c r="M40" s="281"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -6121,8 +6669,8 @@
   </sheetPr>
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView topLeftCell="G43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6141,13 +6689,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
     </row>
     <row r="3" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -6927,34 +7475,34 @@
     </row>
     <row r="45" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="F45" s="200" t="s">
+      <c r="F45" s="284" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="201"/>
-      <c r="H45" s="202"/>
+      <c r="G45" s="285"/>
+      <c r="H45" s="286"/>
       <c r="I45" s="100"/>
-      <c r="J45" s="198" t="s">
+      <c r="J45" s="282" t="s">
         <v>210</v>
       </c>
-      <c r="K45" s="199"/>
-      <c r="L45" s="206">
+      <c r="K45" s="283"/>
+      <c r="L45" s="290">
         <f>F43-982143.23</f>
         <v>213624.55000000005</v>
       </c>
-      <c r="M45" s="207"/>
-      <c r="N45" s="207"/>
+      <c r="M45" s="291"/>
+      <c r="N45" s="291"/>
       <c r="O45" s="100"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="203"/>
-      <c r="G46" s="204"/>
-      <c r="H46" s="205"/>
+      <c r="F46" s="287"/>
+      <c r="G46" s="288"/>
+      <c r="H46" s="289"/>
       <c r="I46" s="100"/>
-      <c r="J46" s="198"/>
-      <c r="K46" s="199"/>
-      <c r="L46" s="206"/>
-      <c r="M46" s="207"/>
-      <c r="N46" s="207"/>
+      <c r="J46" s="282"/>
+      <c r="K46" s="283"/>
+      <c r="L46" s="290"/>
+      <c r="M46" s="291"/>
+      <c r="N46" s="291"/>
       <c r="O46" s="100"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -6994,8 +7542,8 @@
   </sheetPr>
   <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7014,13 +7562,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
     </row>
     <row r="2" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -7564,23 +8112,23 @@
     </row>
     <row r="34" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="112"/>
-      <c r="C34" s="212" t="s">
+      <c r="C34" s="296" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="212"/>
-      <c r="E34" s="208">
+      <c r="D34" s="296"/>
+      <c r="E34" s="292">
         <f>F31-782498.42</f>
         <v>718019.03999999992</v>
       </c>
-      <c r="F34" s="209"/>
+      <c r="F34" s="293"/>
       <c r="G34" s="170"/>
     </row>
     <row r="35" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="112"/>
-      <c r="C35" s="212"/>
-      <c r="D35" s="212"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="211"/>
+      <c r="C35" s="296"/>
+      <c r="D35" s="296"/>
+      <c r="E35" s="294"/>
+      <c r="F35" s="295"/>
       <c r="G35" s="171"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -7762,8 +8310,8 @@
   </sheetPr>
   <dimension ref="B2:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7780,27 +8328,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="K2" s="215" t="s">
-        <v>331</v>
-      </c>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="R2" s="215" t="s">
-        <v>331</v>
-      </c>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="K2" s="297" t="s">
+        <v>330</v>
+      </c>
+      <c r="L2" s="297"/>
+      <c r="M2" s="297"/>
+      <c r="N2" s="297"/>
+      <c r="O2" s="297"/>
+      <c r="R2" s="297" t="s">
+        <v>330</v>
+      </c>
+      <c r="S2" s="297"/>
+      <c r="T2" s="297"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="297"/>
     </row>
     <row r="3" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -7823,7 +8371,7 @@
         <v>71</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>1</v>
@@ -7836,7 +8384,7 @@
         <v>71</v>
       </c>
       <c r="T3" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U3" s="19" t="s">
         <v>1</v>
@@ -7870,7 +8418,7 @@
         <v>563</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N4" s="104">
         <v>4260</v>
@@ -7885,8 +8433,8 @@
       <c r="S4" s="6">
         <v>628</v>
       </c>
-      <c r="T4" s="238" t="s">
-        <v>367</v>
+      <c r="T4" s="204" t="s">
+        <v>366</v>
       </c>
       <c r="U4" s="8">
         <v>3055.31</v>
@@ -7903,7 +8451,7 @@
       <c r="D5" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="E5" s="214" t="s">
+      <c r="E5" s="181" t="s">
         <v>285</v>
       </c>
       <c r="F5" s="33">
@@ -7920,7 +8468,7 @@
         <v>564</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N5" s="33">
         <v>2359.9499999999998</v>
@@ -7935,8 +8483,8 @@
       <c r="S5" s="6">
         <v>631</v>
       </c>
-      <c r="T5" s="238" t="s">
-        <v>368</v>
+      <c r="T5" s="204" t="s">
+        <v>367</v>
       </c>
       <c r="U5" s="8">
         <v>2402.02</v>
@@ -7970,7 +8518,7 @@
         <v>565</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N6" s="33">
         <v>480</v>
@@ -7985,8 +8533,8 @@
       <c r="S6" s="6">
         <v>632</v>
       </c>
-      <c r="T6" s="238" t="s">
-        <v>375</v>
+      <c r="T6" s="204" t="s">
+        <v>374</v>
       </c>
       <c r="U6" s="8">
         <v>480</v>
@@ -8020,7 +8568,7 @@
         <v>566</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N7" s="33">
         <v>10800</v>
@@ -8035,8 +8583,8 @@
       <c r="S7" s="6">
         <v>633</v>
       </c>
-      <c r="T7" s="238" t="s">
-        <v>376</v>
+      <c r="T7" s="204" t="s">
+        <v>375</v>
       </c>
       <c r="U7" s="8">
         <v>27685.14</v>
@@ -8070,7 +8618,7 @@
         <v>567</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N8" s="33">
         <v>31800</v>
@@ -8085,8 +8633,8 @@
       <c r="S8" s="6">
         <v>634</v>
       </c>
-      <c r="T8" s="238" t="s">
-        <v>377</v>
+      <c r="T8" s="204" t="s">
+        <v>376</v>
       </c>
       <c r="U8" s="8">
         <v>35416.199999999997</v>
@@ -8116,13 +8664,13 @@
       <c r="K9" s="32">
         <v>45244</v>
       </c>
-      <c r="L9" s="240">
+      <c r="L9" s="206">
         <v>568</v>
       </c>
-      <c r="M9" s="213" t="s">
-        <v>338</v>
-      </c>
-      <c r="N9" s="241">
+      <c r="M9" s="180" t="s">
+        <v>337</v>
+      </c>
+      <c r="N9" s="207">
         <v>420583.8</v>
       </c>
       <c r="O9" s="137"/>
@@ -8135,8 +8683,8 @@
       <c r="S9" s="6">
         <v>636</v>
       </c>
-      <c r="T9" s="238" t="s">
-        <v>378</v>
+      <c r="T9" s="204" t="s">
+        <v>377</v>
       </c>
       <c r="U9" s="8">
         <v>2780.84</v>
@@ -8166,13 +8714,13 @@
       <c r="K10" s="32">
         <v>45244</v>
       </c>
-      <c r="L10" s="240">
+      <c r="L10" s="206">
         <v>569</v>
       </c>
-      <c r="M10" s="213" t="s">
-        <v>417</v>
-      </c>
-      <c r="N10" s="241">
+      <c r="M10" s="180" t="s">
+        <v>416</v>
+      </c>
+      <c r="N10" s="207">
         <v>383539.8</v>
       </c>
       <c r="O10" s="137"/>
@@ -8185,8 +8733,8 @@
       <c r="S10" s="6">
         <v>637</v>
       </c>
-      <c r="T10" s="238" t="s">
-        <v>379</v>
+      <c r="T10" s="204" t="s">
+        <v>378</v>
       </c>
       <c r="U10" s="8">
         <v>7920.74</v>
@@ -8220,7 +8768,7 @@
         <v>570</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N11" s="33">
         <v>34359.58</v>
@@ -8235,8 +8783,8 @@
       <c r="S11" s="6">
         <v>638</v>
       </c>
-      <c r="T11" s="238" t="s">
-        <v>369</v>
+      <c r="T11" s="204" t="s">
+        <v>368</v>
       </c>
       <c r="U11" s="8">
         <v>1570.4</v>
@@ -8270,7 +8818,7 @@
         <v>571</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N12" s="33">
         <v>62731.85</v>
@@ -8285,8 +8833,8 @@
       <c r="S12" s="6">
         <v>639</v>
       </c>
-      <c r="T12" s="238" t="s">
-        <v>380</v>
+      <c r="T12" s="204" t="s">
+        <v>379</v>
       </c>
       <c r="U12" s="8">
         <v>11670.06</v>
@@ -8320,7 +8868,7 @@
         <v>572</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N13" s="33">
         <v>30161.599999999999</v>
@@ -8336,7 +8884,7 @@
         <v>640</v>
       </c>
       <c r="T13" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U13" s="33">
         <v>4540</v>
@@ -8370,7 +8918,7 @@
         <v>575</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N14" s="33">
         <v>16824.7</v>
@@ -8386,7 +8934,7 @@
         <v>646</v>
       </c>
       <c r="T14" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U14" s="33">
         <v>38245</v>
@@ -8420,7 +8968,7 @@
         <v>576</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N15" s="33">
         <v>681</v>
@@ -8436,7 +8984,7 @@
         <v>648</v>
       </c>
       <c r="T15" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U15" s="33">
         <v>24498</v>
@@ -8470,7 +9018,7 @@
         <v>580</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N16" s="33">
         <v>15683.9</v>
@@ -8486,7 +9034,7 @@
         <v>649</v>
       </c>
       <c r="T16" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U16" s="33">
         <v>20954.05</v>
@@ -8520,7 +9068,7 @@
         <v>582</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N17" s="33">
         <v>47450</v>
@@ -8536,7 +9084,7 @@
         <v>650</v>
       </c>
       <c r="T17" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U17" s="33">
         <v>3597.9</v>
@@ -8570,7 +9118,7 @@
         <v>583</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N18" s="33">
         <v>3580.84</v>
@@ -8586,7 +9134,7 @@
         <v>651</v>
       </c>
       <c r="T18" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U18" s="33">
         <v>2944.22</v>
@@ -8620,7 +9168,7 @@
         <v>587</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N19" s="33">
         <v>17155</v>
@@ -8636,7 +9184,7 @@
         <v>652</v>
       </c>
       <c r="T19" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U19" s="33">
         <v>10000</v>
@@ -8670,7 +9218,7 @@
         <v>589</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N20" s="33">
         <v>5102.1099999999997</v>
@@ -8686,7 +9234,7 @@
         <v>653</v>
       </c>
       <c r="T20" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U20" s="33">
         <v>3339.9</v>
@@ -8703,7 +9251,7 @@
       <c r="D21" s="105" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="214" t="s">
+      <c r="E21" s="181" t="s">
         <v>315</v>
       </c>
       <c r="F21" s="33">
@@ -8720,7 +9268,7 @@
         <v>590</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N21" s="33">
         <v>10260.9</v>
@@ -8736,7 +9284,7 @@
         <v>654</v>
       </c>
       <c r="T21" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U21" s="33">
         <v>880.88</v>
@@ -8770,7 +9318,7 @@
         <v>591</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N22" s="33">
         <v>908</v>
@@ -8786,7 +9334,7 @@
         <v>655</v>
       </c>
       <c r="T22" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U22" s="33">
         <v>26218</v>
@@ -8803,7 +9351,7 @@
       <c r="D23" s="105" t="s">
         <v>319</v>
       </c>
-      <c r="E23" s="214" t="s">
+      <c r="E23" s="181" t="s">
         <v>318</v>
       </c>
       <c r="F23" s="33">
@@ -8820,7 +9368,7 @@
         <v>592</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N23" s="33">
         <v>960</v>
@@ -8836,7 +9384,7 @@
         <v>656</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U23" s="33">
         <v>8661.6</v>
@@ -8870,7 +9418,7 @@
         <v>593</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N24" s="33">
         <v>1135</v>
@@ -8886,7 +9434,7 @@
         <v>657</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U24" s="33">
         <v>4899.6000000000004</v>
@@ -8903,7 +9451,7 @@
       <c r="D25" s="105" t="s">
         <v>322</v>
       </c>
-      <c r="E25" s="214" t="s">
+      <c r="E25" s="181" t="s">
         <v>323</v>
       </c>
       <c r="F25" s="33">
@@ -8920,7 +9468,7 @@
         <v>595</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N25" s="33">
         <v>118592.28</v>
@@ -8936,7 +9484,7 @@
         <v>658</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U25" s="33">
         <v>15134.72</v>
@@ -8970,7 +9518,7 @@
         <v>596</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N26" s="33">
         <v>15843</v>
@@ -8986,7 +9534,7 @@
         <v>659</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U26" s="33">
         <v>2449.8000000000002</v>
@@ -9020,7 +9568,7 @@
         <v>600</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N27" s="33">
         <v>33189.230000000003</v>
@@ -9036,7 +9584,7 @@
         <v>660</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U27" s="33">
         <v>2929.8</v>
@@ -9053,7 +9601,7 @@
       <c r="D28" s="105" t="s">
         <v>327</v>
       </c>
-      <c r="E28" s="214" t="s">
+      <c r="E28" s="181" t="s">
         <v>328</v>
       </c>
       <c r="F28" s="33">
@@ -9070,7 +9618,7 @@
         <v>602</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N28" s="33">
         <v>58041.73</v>
@@ -9086,7 +9634,7 @@
         <v>661</v>
       </c>
       <c r="T28" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U28" s="33">
         <v>4899.6000000000004</v>
@@ -9101,10 +9649,10 @@
         <v>45241</v>
       </c>
       <c r="D29" s="105" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>329</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>330</v>
       </c>
       <c r="F29" s="33">
         <v>68468.3</v>
@@ -9120,7 +9668,7 @@
         <v>603</v>
       </c>
       <c r="M29" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N29" s="42">
         <v>57476.800000000003</v>
@@ -9136,7 +9684,7 @@
         <v>662</v>
       </c>
       <c r="T29" s="41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U29" s="42">
         <v>1135</v>
@@ -9152,38 +9700,38 @@
       <c r="E30" s="41"/>
       <c r="F30" s="42"/>
       <c r="G30" s="140"/>
-      <c r="J30" s="225">
+      <c r="J30" s="191">
         <v>27</v>
       </c>
-      <c r="K30" s="226">
+      <c r="K30" s="192">
         <v>45244</v>
       </c>
-      <c r="L30" s="227">
+      <c r="L30" s="193">
         <v>604</v>
       </c>
-      <c r="M30" s="228" t="s">
-        <v>358</v>
-      </c>
-      <c r="N30" s="229">
+      <c r="M30" s="194" t="s">
+        <v>357</v>
+      </c>
+      <c r="N30" s="195">
         <v>2865.6</v>
       </c>
-      <c r="O30" s="230"/>
-      <c r="Q30" s="225">
+      <c r="O30" s="196"/>
+      <c r="Q30" s="191">
         <v>27</v>
       </c>
-      <c r="R30" s="226">
+      <c r="R30" s="192">
         <v>45245</v>
       </c>
-      <c r="S30" s="227">
+      <c r="S30" s="193">
         <v>663</v>
       </c>
-      <c r="T30" s="228" t="s">
-        <v>396</v>
-      </c>
-      <c r="U30" s="229">
+      <c r="T30" s="194" t="s">
+        <v>395</v>
+      </c>
+      <c r="U30" s="195">
         <v>960</v>
       </c>
-      <c r="V30" s="230"/>
+      <c r="V30" s="196"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
@@ -9204,7 +9752,7 @@
         <v>616</v>
       </c>
       <c r="M31" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N31" s="33">
         <v>19561.75</v>
@@ -9220,7 +9768,7 @@
         <v>664</v>
       </c>
       <c r="T31" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U31" s="33">
         <v>7349.4</v>
@@ -9245,13 +9793,13 @@
       <c r="K32" s="32">
         <v>45245</v>
       </c>
-      <c r="L32" s="234">
+      <c r="L32" s="200">
         <v>617</v>
       </c>
-      <c r="M32" s="236" t="s">
-        <v>360</v>
-      </c>
-      <c r="N32" s="235">
+      <c r="M32" s="202" t="s">
+        <v>359</v>
+      </c>
+      <c r="N32" s="201">
         <v>43209.1</v>
       </c>
       <c r="O32" s="138"/>
@@ -9261,13 +9809,13 @@
       <c r="R32" s="32">
         <v>45245</v>
       </c>
-      <c r="S32" s="234">
+      <c r="S32" s="200">
         <v>665</v>
       </c>
-      <c r="T32" s="236" t="s">
-        <v>398</v>
-      </c>
-      <c r="U32" s="235">
+      <c r="T32" s="202" t="s">
+        <v>397</v>
+      </c>
+      <c r="U32" s="201">
         <v>16494.3</v>
       </c>
       <c r="V32" s="138"/>
@@ -9288,13 +9836,13 @@
       <c r="L33" s="6">
         <v>620</v>
       </c>
-      <c r="M33" s="238" t="s">
-        <v>361</v>
+      <c r="M33" s="204" t="s">
+        <v>360</v>
       </c>
       <c r="N33" s="8">
         <v>35527.980000000003</v>
       </c>
-      <c r="O33" s="237"/>
+      <c r="O33" s="203"/>
       <c r="Q33" s="6">
         <v>30</v>
       </c>
@@ -9304,13 +9852,13 @@
       <c r="S33" s="6">
         <v>666</v>
       </c>
-      <c r="T33" s="238" t="s">
-        <v>399</v>
+      <c r="T33" s="204" t="s">
+        <v>398</v>
       </c>
       <c r="U33" s="8">
         <v>2449.8000000000002</v>
       </c>
-      <c r="V33" s="237"/>
+      <c r="V33" s="203"/>
     </row>
     <row r="34" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="112"/>
@@ -9328,13 +9876,13 @@
       <c r="L34" s="6">
         <v>621</v>
       </c>
-      <c r="M34" s="238" t="s">
-        <v>362</v>
+      <c r="M34" s="204" t="s">
+        <v>361</v>
       </c>
       <c r="N34" s="8">
         <v>18196.2</v>
       </c>
-      <c r="O34" s="237"/>
+      <c r="O34" s="203"/>
       <c r="Q34" s="6">
         <v>31</v>
       </c>
@@ -9344,25 +9892,25 @@
       <c r="S34" s="6">
         <v>667</v>
       </c>
-      <c r="T34" s="238" t="s">
-        <v>372</v>
+      <c r="T34" s="204" t="s">
+        <v>371</v>
       </c>
       <c r="U34" s="8">
         <v>40634.160000000003</v>
       </c>
-      <c r="V34" s="237"/>
+      <c r="V34" s="203"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="112"/>
-      <c r="C35" s="212" t="s">
+      <c r="C35" s="296" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="212"/>
-      <c r="E35" s="208">
+      <c r="D35" s="296"/>
+      <c r="E35" s="292">
         <f>F32-U52</f>
         <v>-681080.15999999992</v>
       </c>
-      <c r="F35" s="209"/>
+      <c r="F35" s="293"/>
       <c r="G35" s="170"/>
       <c r="J35" s="6">
         <v>32</v>
@@ -9373,13 +9921,13 @@
       <c r="L35" s="6">
         <v>624</v>
       </c>
-      <c r="M35" s="238" t="s">
-        <v>363</v>
+      <c r="M35" s="204" t="s">
+        <v>362</v>
       </c>
       <c r="N35" s="8">
         <v>10500</v>
       </c>
-      <c r="O35" s="237"/>
+      <c r="O35" s="203"/>
       <c r="Q35" s="6">
         <v>32</v>
       </c>
@@ -9389,20 +9937,20 @@
       <c r="S35" s="6">
         <v>668</v>
       </c>
-      <c r="T35" s="238" t="s">
-        <v>400</v>
+      <c r="T35" s="204" t="s">
+        <v>399</v>
       </c>
       <c r="U35" s="8">
         <v>11794.84</v>
       </c>
-      <c r="V35" s="237"/>
+      <c r="V35" s="203"/>
     </row>
     <row r="36" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="112"/>
-      <c r="C36" s="212"/>
-      <c r="D36" s="212"/>
-      <c r="E36" s="210"/>
-      <c r="F36" s="211"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="296"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="295"/>
       <c r="G36" s="171"/>
       <c r="J36" s="6">
         <v>33</v>
@@ -9413,13 +9961,13 @@
       <c r="L36" s="6">
         <v>625</v>
       </c>
-      <c r="M36" s="238" t="s">
-        <v>364</v>
+      <c r="M36" s="204" t="s">
+        <v>363</v>
       </c>
       <c r="N36" s="8">
         <v>4455.3999999999996</v>
       </c>
-      <c r="O36" s="237"/>
+      <c r="O36" s="203"/>
       <c r="Q36" s="6">
         <v>33</v>
       </c>
@@ -9429,13 +9977,13 @@
       <c r="S36" s="6">
         <v>669</v>
       </c>
-      <c r="T36" s="238" t="s">
-        <v>401</v>
+      <c r="T36" s="204" t="s">
+        <v>400</v>
       </c>
       <c r="U36" s="8">
         <v>6417.26</v>
       </c>
-      <c r="V36" s="237"/>
+      <c r="V36" s="203"/>
     </row>
     <row r="37" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B37" s="112"/>
@@ -9455,13 +10003,13 @@
       <c r="L37" s="6">
         <v>626</v>
       </c>
-      <c r="M37" s="238" t="s">
-        <v>365</v>
+      <c r="M37" s="204" t="s">
+        <v>364</v>
       </c>
       <c r="N37" s="8">
         <v>15145.14</v>
       </c>
-      <c r="O37" s="237"/>
+      <c r="O37" s="203"/>
       <c r="Q37" s="6">
         <v>34</v>
       </c>
@@ -9471,13 +10019,13 @@
       <c r="S37" s="6">
         <v>670</v>
       </c>
-      <c r="T37" s="238" t="s">
-        <v>403</v>
+      <c r="T37" s="204" t="s">
+        <v>402</v>
       </c>
       <c r="U37" s="8">
         <v>11350</v>
       </c>
-      <c r="V37" s="237"/>
+      <c r="V37" s="203"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="112"/>
@@ -9494,13 +10042,13 @@
       <c r="L38" s="6">
         <v>627</v>
       </c>
-      <c r="M38" s="238" t="s">
-        <v>366</v>
+      <c r="M38" s="204" t="s">
+        <v>365</v>
       </c>
       <c r="N38" s="8">
         <v>12249</v>
       </c>
-      <c r="O38" s="237"/>
+      <c r="O38" s="203"/>
       <c r="Q38" s="6">
         <v>35</v>
       </c>
@@ -9510,13 +10058,13 @@
       <c r="S38" s="6">
         <v>671</v>
       </c>
-      <c r="T38" s="238" t="s">
-        <v>404</v>
+      <c r="T38" s="204" t="s">
+        <v>403</v>
       </c>
       <c r="U38" s="8">
         <v>32407.9</v>
       </c>
-      <c r="V38" s="237"/>
+      <c r="V38" s="203"/>
     </row>
     <row r="39" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="112"/>
@@ -9524,11 +10072,11 @@
       <c r="J39" s="6"/>
       <c r="K39" s="32"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="238"/>
+      <c r="M39" s="204"/>
       <c r="N39" s="8">
         <v>0</v>
       </c>
-      <c r="O39" s="237"/>
+      <c r="O39" s="203"/>
       <c r="Q39" s="12">
         <v>36</v>
       </c>
@@ -9538,96 +10086,102 @@
       <c r="S39" s="12">
         <v>672</v>
       </c>
-      <c r="T39" s="242" t="s">
-        <v>405</v>
+      <c r="T39" s="208" t="s">
+        <v>404</v>
       </c>
       <c r="U39" s="13">
         <v>31471.24</v>
       </c>
-      <c r="V39" s="243"/>
+      <c r="V39" s="209"/>
     </row>
     <row r="40" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="266" t="s">
-        <v>418</v>
-      </c>
-      <c r="E40" s="267">
+      <c r="D40" s="223" t="s">
+        <v>417</v>
+      </c>
+      <c r="E40" s="224">
         <v>45245</v>
       </c>
-      <c r="F40" s="268">
+      <c r="F40" s="225">
         <v>169000</v>
       </c>
-      <c r="G40" s="269"/>
-      <c r="J40" s="231"/>
-      <c r="K40" s="232"/>
-      <c r="L40" s="232"/>
-      <c r="M40" s="232"/>
-      <c r="N40" s="239">
+      <c r="G40" s="226"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="198"/>
+      <c r="N40" s="205">
         <v>0</v>
       </c>
-      <c r="O40" s="233"/>
+      <c r="O40" s="199"/>
       <c r="Q40" s="6">
         <v>37</v>
       </c>
       <c r="R40" s="111">
         <v>45245</v>
       </c>
-      <c r="S40" s="216">
+      <c r="S40" s="182">
         <v>673</v>
       </c>
-      <c r="T40" s="217" t="s">
-        <v>407</v>
-      </c>
-      <c r="U40" s="218">
+      <c r="T40" s="183" t="s">
+        <v>406</v>
+      </c>
+      <c r="U40" s="184">
         <v>3439.78</v>
       </c>
-      <c r="V40" s="221"/>
+      <c r="V40" s="187"/>
     </row>
     <row r="41" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="270" t="s">
-        <v>418</v>
-      </c>
-      <c r="E41" s="271">
+      <c r="D41" s="227" t="s">
+        <v>417</v>
+      </c>
+      <c r="E41" s="228">
         <v>45245</v>
       </c>
-      <c r="F41" s="272">
+      <c r="F41" s="229">
         <v>170000</v>
       </c>
-      <c r="G41" s="273"/>
-      <c r="J41" s="222"/>
-      <c r="K41" s="223"/>
-      <c r="L41" s="251" t="s">
-        <v>413</v>
-      </c>
-      <c r="M41" s="252"/>
-      <c r="N41" s="219">
+      <c r="G41" s="230"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="189"/>
+      <c r="L41" s="298" t="s">
+        <v>412</v>
+      </c>
+      <c r="M41" s="299"/>
+      <c r="N41" s="185">
         <f>SUM(N4:N40)</f>
         <v>1545671.24</v>
       </c>
-      <c r="O41" s="224"/>
+      <c r="O41" s="190"/>
       <c r="Q41" s="12">
         <v>38</v>
       </c>
       <c r="R41" s="111">
         <v>45245</v>
       </c>
-      <c r="S41" s="244">
+      <c r="S41" s="210">
         <v>674</v>
       </c>
-      <c r="T41" s="247" t="s">
-        <v>408</v>
-      </c>
-      <c r="U41" s="245">
+      <c r="T41" s="213" t="s">
+        <v>407</v>
+      </c>
+      <c r="U41" s="211">
         <v>11806</v>
       </c>
-      <c r="V41" s="221"/>
+      <c r="V41" s="187"/>
     </row>
     <row r="42" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="270"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="272">
-        <v>0</v>
-      </c>
-      <c r="G42" s="273"/>
+      <c r="D42" s="227" t="s">
+        <v>417</v>
+      </c>
+      <c r="E42" s="228">
+        <v>45247</v>
+      </c>
+      <c r="F42" s="229">
+        <v>342080</v>
+      </c>
+      <c r="G42" s="230" t="s">
+        <v>465</v>
+      </c>
       <c r="K42" s="86"/>
       <c r="L42" s="86"/>
       <c r="M42" s="86"/>
@@ -9639,24 +10193,24 @@
       <c r="R42" s="111">
         <v>45245</v>
       </c>
-      <c r="S42" s="246">
+      <c r="S42" s="212">
         <v>675</v>
       </c>
-      <c r="T42" s="248" t="s">
-        <v>409</v>
-      </c>
-      <c r="U42" s="249">
+      <c r="T42" s="214" t="s">
+        <v>408</v>
+      </c>
+      <c r="U42" s="215">
         <v>23915</v>
       </c>
-      <c r="V42" s="221"/>
+      <c r="V42" s="187"/>
     </row>
     <row r="43" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="270"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="272">
+      <c r="D43" s="227"/>
+      <c r="E43" s="231"/>
+      <c r="F43" s="229">
         <v>0</v>
       </c>
-      <c r="G43" s="273"/>
+      <c r="G43" s="230"/>
       <c r="K43" s="86"/>
       <c r="L43" s="86"/>
       <c r="M43" s="86"/>
@@ -9668,114 +10222,134 @@
       <c r="R43" s="111">
         <v>45245</v>
       </c>
-      <c r="S43" s="246">
+      <c r="S43" s="212">
         <v>676</v>
       </c>
-      <c r="T43" s="248" t="s">
-        <v>410</v>
-      </c>
-      <c r="U43" s="249">
+      <c r="T43" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="U43" s="215">
         <v>2973.6</v>
       </c>
-      <c r="V43" s="221"/>
+      <c r="V43" s="187"/>
     </row>
     <row r="44" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="270"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="272">
+      <c r="D44" s="227"/>
+      <c r="E44" s="231"/>
+      <c r="F44" s="229">
         <v>0</v>
       </c>
-      <c r="G44" s="273"/>
-      <c r="K44" s="265"/>
-      <c r="L44" s="259"/>
-      <c r="M44" s="259"/>
-      <c r="Q44" s="6">
+      <c r="G44" s="230"/>
+      <c r="K44" s="222"/>
+      <c r="L44" s="313" t="s">
+        <v>466</v>
+      </c>
+      <c r="M44" s="314"/>
+      <c r="N44" s="314"/>
+      <c r="O44" s="314"/>
+      <c r="P44" s="315"/>
+      <c r="Q44" s="311">
         <v>41</v>
       </c>
       <c r="R44" s="111">
         <v>45245</v>
       </c>
-      <c r="S44" s="246">
+      <c r="S44" s="212">
         <v>677</v>
       </c>
-      <c r="T44" s="248" t="s">
-        <v>411</v>
-      </c>
-      <c r="U44" s="249">
+      <c r="T44" s="214" t="s">
+        <v>410</v>
+      </c>
+      <c r="U44" s="215">
         <v>10568.58</v>
       </c>
-      <c r="V44" s="221"/>
+      <c r="V44" s="187"/>
     </row>
     <row r="45" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="270"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="272">
+      <c r="D45" s="227"/>
+      <c r="E45" s="236"/>
+      <c r="F45" s="237">
         <v>0</v>
       </c>
-      <c r="G45" s="273"/>
-      <c r="Q45" s="12">
+      <c r="G45" s="230"/>
+      <c r="L45" s="316"/>
+      <c r="M45" s="317"/>
+      <c r="N45" s="317"/>
+      <c r="O45" s="317"/>
+      <c r="P45" s="318"/>
+      <c r="Q45" s="312">
         <v>42</v>
       </c>
       <c r="R45" s="111">
         <v>45246</v>
       </c>
-      <c r="S45" s="246">
+      <c r="S45" s="212">
         <v>687</v>
       </c>
-      <c r="T45" s="248" t="s">
-        <v>412</v>
-      </c>
-      <c r="U45" s="249">
+      <c r="T45" s="214" t="s">
+        <v>411</v>
+      </c>
+      <c r="U45" s="215">
         <v>90700.5</v>
       </c>
-      <c r="V45" s="221"/>
-    </row>
-    <row r="46" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="270"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="272">
+      <c r="V45" s="187"/>
+    </row>
+    <row r="46" spans="2:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="227"/>
+      <c r="E46" s="231"/>
+      <c r="F46" s="229">
         <f>SUM(F40:F45)</f>
-        <v>339000</v>
-      </c>
-      <c r="G46" s="273"/>
-      <c r="Q46" s="6">
+        <v>681080</v>
+      </c>
+      <c r="G46" s="230"/>
+      <c r="L46" s="316"/>
+      <c r="M46" s="317"/>
+      <c r="N46" s="317"/>
+      <c r="O46" s="317"/>
+      <c r="P46" s="318"/>
+      <c r="Q46" s="311">
         <v>43</v>
       </c>
       <c r="R46" s="111">
         <v>45246</v>
       </c>
-      <c r="S46" s="246">
+      <c r="S46" s="212">
         <v>688</v>
       </c>
-      <c r="T46" s="248" t="s">
-        <v>373</v>
-      </c>
-      <c r="U46" s="249">
+      <c r="T46" s="214" t="s">
+        <v>372</v>
+      </c>
+      <c r="U46" s="215">
         <v>20300.62</v>
       </c>
-      <c r="V46" s="221"/>
+      <c r="V46" s="187"/>
     </row>
     <row r="47" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="274"/>
-      <c r="E47" s="275"/>
-      <c r="F47" s="276"/>
-      <c r="G47" s="277"/>
-      <c r="Q47" s="12">
+      <c r="D47" s="232"/>
+      <c r="E47" s="233"/>
+      <c r="F47" s="234"/>
+      <c r="G47" s="235"/>
+      <c r="L47" s="319"/>
+      <c r="M47" s="320"/>
+      <c r="N47" s="320"/>
+      <c r="O47" s="320"/>
+      <c r="P47" s="321"/>
+      <c r="Q47" s="312">
         <v>44</v>
       </c>
       <c r="R47" s="111">
         <v>45246</v>
       </c>
-      <c r="S47" s="246">
+      <c r="S47" s="212">
         <v>689</v>
       </c>
-      <c r="T47" s="248" t="s">
-        <v>406</v>
-      </c>
-      <c r="U47" s="249">
+      <c r="T47" s="214" t="s">
+        <v>405</v>
+      </c>
+      <c r="U47" s="215">
         <v>2449.8000000000002</v>
       </c>
-      <c r="V47" s="221"/>
+      <c r="V47" s="187"/>
     </row>
     <row r="48" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q48" s="6">
@@ -9784,16 +10358,16 @@
       <c r="R48" s="111">
         <v>45246</v>
       </c>
-      <c r="S48" s="246">
+      <c r="S48" s="212">
         <v>690</v>
       </c>
-      <c r="T48" s="248" t="s">
-        <v>402</v>
-      </c>
-      <c r="U48" s="249">
+      <c r="T48" s="214" t="s">
+        <v>401</v>
+      </c>
+      <c r="U48" s="215">
         <v>29397.599999999999</v>
       </c>
-      <c r="V48" s="221"/>
+      <c r="V48" s="187"/>
     </row>
     <row r="49" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q49" s="12">
@@ -9802,55 +10376,55 @@
       <c r="R49" s="111">
         <v>45246</v>
       </c>
-      <c r="S49" s="255">
+      <c r="S49" s="219">
         <v>693</v>
       </c>
-      <c r="T49" s="256" t="s">
-        <v>374</v>
-      </c>
-      <c r="U49" s="249">
+      <c r="T49" s="220" t="s">
+        <v>373</v>
+      </c>
+      <c r="U49" s="215">
         <v>35987</v>
       </c>
-      <c r="V49" s="221"/>
+      <c r="V49" s="187"/>
     </row>
     <row r="50" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q50" s="220"/>
-      <c r="R50" s="253"/>
-      <c r="S50" s="257" t="s">
-        <v>415</v>
-      </c>
-      <c r="T50" s="258"/>
-      <c r="U50" s="254">
+      <c r="Q50" s="186"/>
+      <c r="R50" s="217"/>
+      <c r="S50" s="302" t="s">
+        <v>414</v>
+      </c>
+      <c r="T50" s="303"/>
+      <c r="U50" s="218">
         <f>SUM(U4:U49)</f>
         <v>661176.16</v>
       </c>
-      <c r="V50" s="221"/>
+      <c r="V50" s="187"/>
     </row>
     <row r="51" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S51" s="261" t="s">
-        <v>414</v>
-      </c>
-      <c r="T51" s="262"/>
-      <c r="U51" s="250">
+      <c r="S51" s="300" t="s">
+        <v>413</v>
+      </c>
+      <c r="T51" s="301"/>
+      <c r="U51" s="216">
         <f>N41</f>
         <v>1545671.24</v>
       </c>
-      <c r="V51" s="221"/>
+      <c r="V51" s="187"/>
     </row>
     <row r="52" spans="17:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S52" s="263" t="s">
-        <v>416</v>
-      </c>
-      <c r="T52" s="264"/>
-      <c r="U52" s="260">
+      <c r="S52" s="304" t="s">
+        <v>415</v>
+      </c>
+      <c r="T52" s="305"/>
+      <c r="U52" s="221">
         <f>U50+U51</f>
         <v>2206847.4</v>
       </c>
-      <c r="V52" s="221"/>
+      <c r="V52" s="187"/>
     </row>
     <row r="53" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U53" s="220"/>
-      <c r="V53" s="221"/>
+      <c r="U53" s="186"/>
+      <c r="V53" s="187"/>
     </row>
   </sheetData>
   <sortState ref="R46:U48">
@@ -9861,27 +10435,1178 @@
     <mergeCell ref="S51:T51"/>
     <mergeCell ref="S50:T50"/>
     <mergeCell ref="S52:T52"/>
-    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L44:P47"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C35:D36"/>
     <mergeCell ref="E35:F36"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="R2:V2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="87" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B2:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="271" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="K2" s="297" t="s">
+        <v>330</v>
+      </c>
+      <c r="L2" s="297"/>
+      <c r="M2" s="297"/>
+      <c r="N2" s="297"/>
+      <c r="O2" s="297"/>
+    </row>
+    <row r="3" spans="2:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="K3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="44"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="102">
+        <v>45243</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="F4" s="104">
+        <v>200547.52</v>
+      </c>
+      <c r="G4" s="136"/>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="102">
+        <v>45246</v>
+      </c>
+      <c r="L4" s="103">
+        <v>691</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="N4" s="104">
+        <v>1135</v>
+      </c>
+      <c r="O4" s="136"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32">
+        <v>45243</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="33">
+        <v>13247.14</v>
+      </c>
+      <c r="G5" s="137"/>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="32">
+        <v>45246</v>
+      </c>
+      <c r="L5" s="105">
+        <v>692</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="N5" s="33">
+        <v>17452</v>
+      </c>
+      <c r="O5" s="137"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32">
+        <v>45244</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="33">
+        <v>49320.76</v>
+      </c>
+      <c r="G6" s="137"/>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="32">
+        <v>45246</v>
+      </c>
+      <c r="L6" s="105">
+        <v>696</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="N6" s="33">
+        <v>18384.38</v>
+      </c>
+      <c r="O6" s="137"/>
+    </row>
+    <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="32">
+        <v>45244</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>425</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" s="33">
+        <v>12424.8</v>
+      </c>
+      <c r="G7" s="138"/>
+      <c r="J7" s="6">
+        <v>4</v>
+      </c>
+      <c r="K7" s="32">
+        <v>45246</v>
+      </c>
+      <c r="L7" s="105">
+        <v>697</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="N7" s="33">
+        <v>900</v>
+      </c>
+      <c r="O7" s="138"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="32">
+        <v>45244</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8" s="33">
+        <v>22566.5</v>
+      </c>
+      <c r="G8" s="137"/>
+      <c r="J8" s="6">
+        <v>5</v>
+      </c>
+      <c r="K8" s="32">
+        <v>45246</v>
+      </c>
+      <c r="L8" s="105">
+        <v>700</v>
+      </c>
+      <c r="M8" s="30"/>
+      <c r="N8" s="33">
+        <v>5548.5</v>
+      </c>
+      <c r="O8" s="137"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="32">
+        <v>45244</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>429</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="F9" s="33">
+        <v>7097</v>
+      </c>
+      <c r="G9" s="137"/>
+      <c r="J9" s="6">
+        <v>6</v>
+      </c>
+      <c r="K9" s="32">
+        <v>45247</v>
+      </c>
+      <c r="L9" s="105">
+        <v>703</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="33">
+        <v>110314.4</v>
+      </c>
+      <c r="O9" s="137"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>7</v>
+      </c>
+      <c r="C10" s="32">
+        <v>45245</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>432</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="F10" s="33">
+        <v>117312.94</v>
+      </c>
+      <c r="G10" s="137"/>
+      <c r="J10" s="6">
+        <v>7</v>
+      </c>
+      <c r="K10" s="32">
+        <v>45247</v>
+      </c>
+      <c r="L10" s="105">
+        <v>704</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="33">
+        <v>36887.199999999997</v>
+      </c>
+      <c r="O10" s="137"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>8</v>
+      </c>
+      <c r="C11" s="32">
+        <v>45246</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="F11" s="33">
+        <v>50703.5</v>
+      </c>
+      <c r="G11" s="137"/>
+      <c r="J11" s="6">
+        <v>8</v>
+      </c>
+      <c r="K11" s="32">
+        <v>45247</v>
+      </c>
+      <c r="L11" s="105">
+        <v>711</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="33">
+        <v>2520</v>
+      </c>
+      <c r="O11" s="137"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>9</v>
+      </c>
+      <c r="C12" s="32">
+        <v>45246</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>436</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="F12" s="33">
+        <v>112275.02</v>
+      </c>
+      <c r="G12" s="137"/>
+      <c r="J12" s="6">
+        <v>9</v>
+      </c>
+      <c r="K12" s="32">
+        <v>45247</v>
+      </c>
+      <c r="L12" s="105">
+        <v>712</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="33">
+        <v>25</v>
+      </c>
+      <c r="O12" s="137"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="32">
+        <v>45246</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>438</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="F13" s="33">
+        <v>80401</v>
+      </c>
+      <c r="G13" s="137"/>
+      <c r="J13" s="6">
+        <v>10</v>
+      </c>
+      <c r="K13" s="32">
+        <v>45247</v>
+      </c>
+      <c r="L13" s="105">
+        <v>715</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="N13" s="33">
+        <v>37744</v>
+      </c>
+      <c r="O13" s="137"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>11</v>
+      </c>
+      <c r="C14" s="32">
+        <v>45246</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" s="33">
+        <v>834.9</v>
+      </c>
+      <c r="G14" s="139"/>
+      <c r="J14" s="6">
+        <v>11</v>
+      </c>
+      <c r="K14" s="32">
+        <v>45247</v>
+      </c>
+      <c r="L14" s="105">
+        <v>716</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="33">
+        <v>84623</v>
+      </c>
+      <c r="O14" s="139"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>12</v>
+      </c>
+      <c r="C15" s="32">
+        <v>45246</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>442</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="F15" s="33">
+        <v>105988.04</v>
+      </c>
+      <c r="G15" s="137"/>
+      <c r="J15" s="6">
+        <v>12</v>
+      </c>
+      <c r="K15" s="32">
+        <v>45247</v>
+      </c>
+      <c r="L15" s="105">
+        <v>717</v>
+      </c>
+      <c r="M15" s="30"/>
+      <c r="N15" s="33">
+        <v>16900.8</v>
+      </c>
+      <c r="O15" s="137"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>13</v>
+      </c>
+      <c r="C16" s="32">
+        <v>45246</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>444</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="F16" s="33">
+        <v>65001.5</v>
+      </c>
+      <c r="G16" s="137"/>
+      <c r="J16" s="6">
+        <v>13</v>
+      </c>
+      <c r="K16" s="32">
+        <v>45247</v>
+      </c>
+      <c r="L16" s="105">
+        <v>718</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="33">
+        <v>1326</v>
+      </c>
+      <c r="O16" s="137"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>14</v>
+      </c>
+      <c r="C17" s="32">
+        <v>45247</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" s="33">
+        <v>93723</v>
+      </c>
+      <c r="G17" s="137"/>
+      <c r="J17" s="6">
+        <v>14</v>
+      </c>
+      <c r="K17" s="32">
+        <v>45247</v>
+      </c>
+      <c r="L17" s="105">
+        <v>721</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="33">
+        <v>1476.8</v>
+      </c>
+      <c r="O17" s="137"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>15</v>
+      </c>
+      <c r="C18" s="32">
+        <v>45247</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>448</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18" s="33">
+        <v>0</v>
+      </c>
+      <c r="G18" s="137"/>
+      <c r="J18" s="6">
+        <v>15</v>
+      </c>
+      <c r="K18" s="32">
+        <v>45248</v>
+      </c>
+      <c r="L18" s="105">
+        <v>731</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="33">
+        <v>44.5</v>
+      </c>
+      <c r="O18" s="137"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>16</v>
+      </c>
+      <c r="C19" s="32">
+        <v>45248</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>430</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="F19" s="33">
+        <v>27436</v>
+      </c>
+      <c r="G19" s="137"/>
+      <c r="J19" s="6">
+        <v>16</v>
+      </c>
+      <c r="K19" s="32">
+        <v>45248</v>
+      </c>
+      <c r="L19" s="105">
+        <v>732</v>
+      </c>
+      <c r="M19" s="30"/>
+      <c r="N19" s="33">
+        <v>13328</v>
+      </c>
+      <c r="O19" s="137"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>17</v>
+      </c>
+      <c r="C20" s="32">
+        <v>45248</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>450</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="F20" s="33">
+        <v>155516</v>
+      </c>
+      <c r="G20" s="137"/>
+      <c r="J20" s="6">
+        <v>17</v>
+      </c>
+      <c r="K20" s="32">
+        <v>45248</v>
+      </c>
+      <c r="L20" s="105">
+        <v>734</v>
+      </c>
+      <c r="M20" s="30"/>
+      <c r="N20" s="33">
+        <v>57</v>
+      </c>
+      <c r="O20" s="137"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>18</v>
+      </c>
+      <c r="C21" s="32">
+        <v>45248</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>452</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="F21" s="33">
+        <v>82101.600000000006</v>
+      </c>
+      <c r="G21" s="137"/>
+      <c r="J21" s="6">
+        <v>18</v>
+      </c>
+      <c r="K21" s="32">
+        <v>45248</v>
+      </c>
+      <c r="L21" s="105">
+        <v>738</v>
+      </c>
+      <c r="M21" s="30"/>
+      <c r="N21" s="33">
+        <v>74</v>
+      </c>
+      <c r="O21" s="137"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>19</v>
+      </c>
+      <c r="C22" s="238">
+        <v>45248</v>
+      </c>
+      <c r="D22" s="239" t="s">
+        <v>454</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>455</v>
+      </c>
+      <c r="F22" s="10">
+        <v>21453.5</v>
+      </c>
+      <c r="G22" s="137"/>
+      <c r="J22" s="6">
+        <v>19</v>
+      </c>
+      <c r="K22" s="32">
+        <v>45248</v>
+      </c>
+      <c r="L22" s="105">
+        <v>739</v>
+      </c>
+      <c r="M22" s="30"/>
+      <c r="N22" s="33">
+        <v>72</v>
+      </c>
+      <c r="O22" s="137"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>20</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="137"/>
+      <c r="J23" s="6">
+        <v>20</v>
+      </c>
+      <c r="K23" s="32">
+        <v>45248</v>
+      </c>
+      <c r="L23" s="105">
+        <v>742</v>
+      </c>
+      <c r="M23" s="30"/>
+      <c r="N23" s="33">
+        <v>7</v>
+      </c>
+      <c r="O23" s="137"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>21</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="137"/>
+      <c r="J24" s="6">
+        <v>21</v>
+      </c>
+      <c r="K24" s="32">
+        <v>45248</v>
+      </c>
+      <c r="L24" s="105">
+        <v>746</v>
+      </c>
+      <c r="M24" s="30"/>
+      <c r="N24" s="33">
+        <v>17528</v>
+      </c>
+      <c r="O24" s="137"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>22</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="139"/>
+      <c r="J25" s="6">
+        <v>22</v>
+      </c>
+      <c r="K25" s="32">
+        <v>45248</v>
+      </c>
+      <c r="L25" s="105">
+        <v>747</v>
+      </c>
+      <c r="M25" s="30"/>
+      <c r="N25" s="33">
+        <v>97.5</v>
+      </c>
+      <c r="O25" s="139"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>23</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="137"/>
+      <c r="J26" s="6">
+        <v>23</v>
+      </c>
+      <c r="K26" s="32">
+        <v>45248</v>
+      </c>
+      <c r="L26" s="105">
+        <v>752</v>
+      </c>
+      <c r="M26" s="30"/>
+      <c r="N26" s="33">
+        <v>182</v>
+      </c>
+      <c r="O26" s="137"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>24</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="137"/>
+      <c r="J27" s="6">
+        <v>24</v>
+      </c>
+      <c r="K27" s="32">
+        <v>45248</v>
+      </c>
+      <c r="L27" s="105">
+        <v>753</v>
+      </c>
+      <c r="M27" s="30"/>
+      <c r="N27" s="33">
+        <v>36</v>
+      </c>
+      <c r="O27" s="137"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>25</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="137"/>
+      <c r="J28" s="6">
+        <v>25</v>
+      </c>
+      <c r="K28" s="32"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="137"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>26</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="137"/>
+      <c r="J29" s="6">
+        <v>26</v>
+      </c>
+      <c r="K29" s="111"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="140"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
+        <v>27</v>
+      </c>
+      <c r="C30" s="111"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="140"/>
+      <c r="J30" s="191">
+        <v>27</v>
+      </c>
+      <c r="K30" s="192"/>
+      <c r="L30" s="193"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="195"/>
+      <c r="O30" s="196"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="33">
+        <v>0</v>
+      </c>
+      <c r="G31" s="137"/>
+      <c r="J31" s="6">
+        <v>28</v>
+      </c>
+      <c r="K31" s="32"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="137"/>
+    </row>
+    <row r="32" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="112"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="122"/>
+      <c r="F32" s="123">
+        <f>SUM(F4:F31)</f>
+        <v>1217950.7200000002</v>
+      </c>
+      <c r="G32" s="141"/>
+      <c r="J32" s="6">
+        <v>29</v>
+      </c>
+      <c r="K32" s="32"/>
+      <c r="L32" s="200"/>
+      <c r="M32" s="202"/>
+      <c r="N32" s="201"/>
+      <c r="O32" s="138"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="112"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="117"/>
+      <c r="J33" s="6">
+        <v>30</v>
+      </c>
+      <c r="K33" s="32"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="203"/>
+    </row>
+    <row r="34" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="112"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="169"/>
+      <c r="J34" s="6">
+        <v>31</v>
+      </c>
+      <c r="K34" s="32"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="203"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="112"/>
+      <c r="C35" s="296" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="296"/>
+      <c r="E35" s="292">
+        <f>F32-N41</f>
+        <v>851287.64000000025</v>
+      </c>
+      <c r="F35" s="293"/>
+      <c r="G35" s="170"/>
+      <c r="J35" s="6">
+        <v>32</v>
+      </c>
+      <c r="K35" s="32"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="203"/>
+    </row>
+    <row r="36" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="112"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="296"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="171"/>
+      <c r="J36" s="6">
+        <v>33</v>
+      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="203"/>
+    </row>
+    <row r="37" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="112"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="173" t="s">
+        <v>460</v>
+      </c>
+      <c r="F37" s="173"/>
+      <c r="G37" s="172"/>
+      <c r="J37" s="6">
+        <v>34</v>
+      </c>
+      <c r="K37" s="32"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="203"/>
+    </row>
+    <row r="38" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="112"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="G38" s="119"/>
+      <c r="J38" s="6">
+        <v>35</v>
+      </c>
+      <c r="K38" s="32"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="203"/>
+    </row>
+    <row r="39" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="112"/>
+      <c r="D39" s="223" t="s">
+        <v>462</v>
+      </c>
+      <c r="E39" s="240" t="s">
+        <v>461</v>
+      </c>
+      <c r="G39" s="118"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="204"/>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="203"/>
+    </row>
+    <row r="40" spans="2:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="241" t="s">
+        <v>463</v>
+      </c>
+      <c r="E40" s="242"/>
+      <c r="F40" s="243">
+        <v>-851287.64</v>
+      </c>
+      <c r="G40" s="244"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="198"/>
+      <c r="N40" s="205">
+        <v>0</v>
+      </c>
+      <c r="O40" s="199"/>
+    </row>
+    <row r="41" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="245">
+        <v>45247</v>
+      </c>
+      <c r="E41" s="246">
+        <v>8477</v>
+      </c>
+      <c r="F41" s="184">
+        <v>240040</v>
+      </c>
+      <c r="G41" s="247"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="189"/>
+      <c r="L41" s="298" t="s">
+        <v>412</v>
+      </c>
+      <c r="M41" s="299"/>
+      <c r="N41" s="185">
+        <f>SUM(N4:N40)</f>
+        <v>366663.07999999996</v>
+      </c>
+      <c r="O41" s="190"/>
+    </row>
+    <row r="42" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="245">
+        <v>45247</v>
+      </c>
+      <c r="E42" s="246">
+        <v>8484</v>
+      </c>
+      <c r="F42" s="184">
+        <v>100000</v>
+      </c>
+      <c r="G42" s="247"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+    </row>
+    <row r="43" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="245">
+        <v>45247</v>
+      </c>
+      <c r="E43" s="246">
+        <v>8485</v>
+      </c>
+      <c r="F43" s="184">
+        <v>100000</v>
+      </c>
+      <c r="G43" s="247"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="86"/>
+    </row>
+    <row r="44" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="245">
+        <v>45247</v>
+      </c>
+      <c r="E44" s="246">
+        <v>8486</v>
+      </c>
+      <c r="F44" s="184">
+        <v>100000</v>
+      </c>
+      <c r="G44" s="247"/>
+      <c r="K44" s="222"/>
+      <c r="L44" s="306"/>
+      <c r="M44" s="306"/>
+    </row>
+    <row r="45" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="248"/>
+      <c r="E45" s="249"/>
+      <c r="F45" s="250">
+        <v>0</v>
+      </c>
+      <c r="G45" s="251"/>
+      <c r="J45" s="256"/>
+      <c r="K45" s="257"/>
+      <c r="L45" s="257"/>
+      <c r="M45" s="258"/>
+    </row>
+    <row r="46" spans="2:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="252"/>
+      <c r="E46" s="309" t="s">
+        <v>464</v>
+      </c>
+      <c r="F46" s="307">
+        <f>SUM(F40:F45)</f>
+        <v>-311247.64</v>
+      </c>
+      <c r="G46" s="253"/>
+      <c r="J46" s="259"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="260"/>
+    </row>
+    <row r="47" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="254"/>
+      <c r="E47" s="310"/>
+      <c r="F47" s="308"/>
+      <c r="G47" s="255"/>
+      <c r="J47" s="261"/>
+      <c r="K47" s="262"/>
+      <c r="L47" s="262"/>
+      <c r="M47" s="263"/>
+    </row>
+  </sheetData>
+  <sortState ref="D41:F44">
+    <sortCondition ref="E41:E44"/>
+  </sortState>
+  <mergeCells count="8">
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="L41:M41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="OBRADOR &amp; CENTRAL 6-11 Nov-23" sheetId="5" r:id="rId5"/>
     <sheet name="OBRADOR &amp; CENTRAL  13-18-Noviem" sheetId="6" r:id="rId6"/>
     <sheet name="Hoja3" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="467">
   <si>
     <t>FECHA</t>
   </si>
@@ -1666,7 +1668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -2538,12 +2540,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3044,6 +3059,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="34"/>
     </xf>
@@ -3143,81 +3167,98 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="14" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="14" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="14" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="14" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3656,23 +3697,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>486410</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>37464</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="C:\Users\ROUSS\Pictures\2023-11-21 ESCANEO\WhatsApp Image 2023-11-21 at 2.56.17 PM.jpeg"/>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\ROUSS\Pictures\2023-11-22 ESCANEO\WhatsApp Image 2023-11-24 at 9.44.04 AM.jpeg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -3680,13 +3721,15 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="6926" t="14315" r="11819" b="7147"/>
-        <a:stretch/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="7281863" y="9701211"/>
-          <a:ext cx="3191510" cy="4076065"/>
+        <a:xfrm>
+          <a:off x="6086475" y="10182225"/>
+          <a:ext cx="5612130" cy="4125595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3695,11 +3738,58 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>497205</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="F:\02 IMAGENES\AC.-  NOTAS PRODUCCION &amp; OBRADOR 2023-2024\22.- NOTAS PRODUCCION &amp; OBRADOR 13-18 NOV-23.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6353175" y="6934200"/>
+          <a:ext cx="5612130" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3995,20 +4085,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="271" t="s">
+      <c r="C1" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
       <c r="I1" s="68"/>
-      <c r="J1" s="272" t="s">
+      <c r="J1" s="275" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
+      <c r="K1" s="275"/>
+      <c r="L1" s="275"/>
+      <c r="M1" s="275"/>
     </row>
     <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -4940,8 +5030,8 @@
       </c>
       <c r="G32" s="27"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="273"/>
-      <c r="K32" s="273"/>
+      <c r="J32" s="276"/>
+      <c r="K32" s="276"/>
       <c r="L32" s="147"/>
       <c r="M32" s="148"/>
     </row>
@@ -5029,10 +5119,10 @@
       <c r="G36" s="25"/>
       <c r="I36" s="68"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="276" t="s">
+      <c r="L36" s="279" t="s">
         <v>210</v>
       </c>
-      <c r="M36" s="274">
+      <c r="M36" s="277">
         <f>F47-M31</f>
         <v>1037858.16</v>
       </c>
@@ -5056,8 +5146,8 @@
       <c r="G37" s="45"/>
       <c r="I37" s="68"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="277"/>
-      <c r="M37" s="275"/>
+      <c r="L37" s="280"/>
+      <c r="M37" s="278"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -5129,10 +5219,10 @@
       <c r="K40" s="157">
         <v>220000</v>
       </c>
-      <c r="L40" s="267" t="s">
+      <c r="L40" s="270" t="s">
         <v>209</v>
       </c>
-      <c r="M40" s="268"/>
+      <c r="M40" s="271"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
@@ -5160,8 +5250,8 @@
       <c r="K41" s="159">
         <v>25000</v>
       </c>
-      <c r="L41" s="269"/>
-      <c r="M41" s="270"/>
+      <c r="L41" s="272"/>
+      <c r="M41" s="273"/>
     </row>
     <row r="42" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
@@ -5216,7 +5306,7 @@
       <c r="K43" s="159">
         <v>170000</v>
       </c>
-      <c r="L43" s="264" t="s">
+      <c r="L43" s="267" t="s">
         <v>280</v>
       </c>
       <c r="M43" s="166"/>
@@ -5247,7 +5337,7 @@
       <c r="K44" s="159">
         <v>180000</v>
       </c>
-      <c r="L44" s="265"/>
+      <c r="L44" s="268"/>
       <c r="M44" s="167"/>
     </row>
     <row r="45" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5276,7 +5366,7 @@
       <c r="K45" s="159">
         <v>60000</v>
       </c>
-      <c r="L45" s="265"/>
+      <c r="L45" s="268"/>
       <c r="M45" s="167"/>
     </row>
     <row r="46" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5295,7 +5385,7 @@
       <c r="K46" s="159">
         <v>98858</v>
       </c>
-      <c r="L46" s="265"/>
+      <c r="L46" s="268"/>
       <c r="M46" s="167"/>
     </row>
     <row r="47" spans="2:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5317,7 +5407,7 @@
       <c r="K47" s="163">
         <v>190000</v>
       </c>
-      <c r="L47" s="266"/>
+      <c r="L47" s="269"/>
       <c r="M47" s="168"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -5381,19 +5471,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="271" t="s">
+      <c r="C1" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="J1" s="272" t="s">
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="J1" s="275" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
+      <c r="K1" s="275"/>
+      <c r="L1" s="275"/>
+      <c r="M1" s="275"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -6576,10 +6666,10 @@
       </c>
       <c r="J39" s="86"/>
       <c r="K39" s="95"/>
-      <c r="L39" s="278" t="s">
+      <c r="L39" s="281" t="s">
         <v>210</v>
       </c>
-      <c r="M39" s="280">
+      <c r="M39" s="283">
         <f>F43-M37</f>
         <v>225360.95000000007</v>
       </c>
@@ -6604,8 +6694,8 @@
         <v>190</v>
       </c>
       <c r="K40" s="94"/>
-      <c r="L40" s="279"/>
-      <c r="M40" s="281"/>
+      <c r="L40" s="282"/>
+      <c r="M40" s="284"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -6689,13 +6779,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="271" t="s">
+      <c r="C2" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
     </row>
     <row r="3" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -7475,34 +7565,34 @@
     </row>
     <row r="45" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="F45" s="284" t="s">
+      <c r="F45" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="285"/>
-      <c r="H45" s="286"/>
+      <c r="G45" s="288"/>
+      <c r="H45" s="289"/>
       <c r="I45" s="100"/>
-      <c r="J45" s="282" t="s">
+      <c r="J45" s="285" t="s">
         <v>210</v>
       </c>
-      <c r="K45" s="283"/>
-      <c r="L45" s="290">
+      <c r="K45" s="286"/>
+      <c r="L45" s="293">
         <f>F43-982143.23</f>
         <v>213624.55000000005</v>
       </c>
-      <c r="M45" s="291"/>
-      <c r="N45" s="291"/>
+      <c r="M45" s="294"/>
+      <c r="N45" s="294"/>
       <c r="O45" s="100"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="287"/>
-      <c r="G46" s="288"/>
-      <c r="H46" s="289"/>
+      <c r="F46" s="290"/>
+      <c r="G46" s="291"/>
+      <c r="H46" s="292"/>
       <c r="I46" s="100"/>
-      <c r="J46" s="282"/>
-      <c r="K46" s="283"/>
-      <c r="L46" s="290"/>
-      <c r="M46" s="291"/>
-      <c r="N46" s="291"/>
+      <c r="J46" s="285"/>
+      <c r="K46" s="286"/>
+      <c r="L46" s="293"/>
+      <c r="M46" s="294"/>
+      <c r="N46" s="294"/>
       <c r="O46" s="100"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -7562,13 +7652,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="271" t="s">
+      <c r="C1" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
     </row>
     <row r="2" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -8112,23 +8202,23 @@
     </row>
     <row r="34" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="112"/>
-      <c r="C34" s="296" t="s">
+      <c r="C34" s="299" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="296"/>
-      <c r="E34" s="292">
+      <c r="D34" s="299"/>
+      <c r="E34" s="295">
         <f>F31-782498.42</f>
         <v>718019.03999999992</v>
       </c>
-      <c r="F34" s="293"/>
+      <c r="F34" s="296"/>
       <c r="G34" s="170"/>
     </row>
     <row r="35" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="112"/>
-      <c r="C35" s="296"/>
-      <c r="D35" s="296"/>
-      <c r="E35" s="294"/>
-      <c r="F35" s="295"/>
+      <c r="C35" s="299"/>
+      <c r="D35" s="299"/>
+      <c r="E35" s="297"/>
+      <c r="F35" s="298"/>
       <c r="G35" s="171"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -8310,8 +8400,8 @@
   </sheetPr>
   <dimension ref="B2:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="L25" workbookViewId="0">
+      <selection activeCell="X35" sqref="X34:X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8328,27 +8418,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="271" t="s">
+      <c r="C2" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="K2" s="297" t="s">
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="K2" s="317" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="297"/>
-      <c r="M2" s="297"/>
-      <c r="N2" s="297"/>
-      <c r="O2" s="297"/>
-      <c r="R2" s="297" t="s">
+      <c r="L2" s="317"/>
+      <c r="M2" s="317"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="317"/>
+      <c r="R2" s="317" t="s">
         <v>330</v>
       </c>
-      <c r="S2" s="297"/>
-      <c r="T2" s="297"/>
-      <c r="U2" s="297"/>
-      <c r="V2" s="297"/>
+      <c r="S2" s="317"/>
+      <c r="T2" s="317"/>
+      <c r="U2" s="317"/>
+      <c r="V2" s="317"/>
     </row>
     <row r="3" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -8621,7 +8711,7 @@
         <v>336</v>
       </c>
       <c r="N8" s="33">
-        <v>31800</v>
+        <v>31800.9</v>
       </c>
       <c r="O8" s="137"/>
       <c r="Q8" s="6">
@@ -9902,15 +9992,15 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="112"/>
-      <c r="C35" s="296" t="s">
+      <c r="C35" s="299" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="296"/>
-      <c r="E35" s="292">
+      <c r="D35" s="299"/>
+      <c r="E35" s="295">
         <f>F32-U52</f>
-        <v>-681080.15999999992</v>
-      </c>
-      <c r="F35" s="293"/>
+        <v>-681081.05999999982</v>
+      </c>
+      <c r="F35" s="296"/>
       <c r="G35" s="170"/>
       <c r="J35" s="6">
         <v>32</v>
@@ -9947,10 +10037,10 @@
     </row>
     <row r="36" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="112"/>
-      <c r="C36" s="296"/>
-      <c r="D36" s="296"/>
-      <c r="E36" s="294"/>
-      <c r="F36" s="295"/>
+      <c r="C36" s="299"/>
+      <c r="D36" s="299"/>
+      <c r="E36" s="297"/>
+      <c r="F36" s="298"/>
       <c r="G36" s="171"/>
       <c r="J36" s="6">
         <v>33</v>
@@ -10143,13 +10233,13 @@
       <c r="G41" s="230"/>
       <c r="J41" s="188"/>
       <c r="K41" s="189"/>
-      <c r="L41" s="298" t="s">
+      <c r="L41" s="300" t="s">
         <v>412</v>
       </c>
-      <c r="M41" s="299"/>
+      <c r="M41" s="301"/>
       <c r="N41" s="185">
         <f>SUM(N4:N40)</f>
-        <v>1545671.24</v>
+        <v>1545672.14</v>
       </c>
       <c r="O41" s="190"/>
       <c r="Q41" s="12">
@@ -10241,14 +10331,14 @@
       </c>
       <c r="G44" s="230"/>
       <c r="K44" s="222"/>
-      <c r="L44" s="313" t="s">
+      <c r="L44" s="308" t="s">
         <v>466</v>
       </c>
-      <c r="M44" s="314"/>
-      <c r="N44" s="314"/>
-      <c r="O44" s="314"/>
-      <c r="P44" s="315"/>
-      <c r="Q44" s="311">
+      <c r="M44" s="309"/>
+      <c r="N44" s="309"/>
+      <c r="O44" s="309"/>
+      <c r="P44" s="310"/>
+      <c r="Q44" s="265">
         <v>41</v>
       </c>
       <c r="R44" s="111">
@@ -10272,12 +10362,12 @@
         <v>0</v>
       </c>
       <c r="G45" s="230"/>
-      <c r="L45" s="316"/>
-      <c r="M45" s="317"/>
-      <c r="N45" s="317"/>
-      <c r="O45" s="317"/>
-      <c r="P45" s="318"/>
-      <c r="Q45" s="312">
+      <c r="L45" s="311"/>
+      <c r="M45" s="312"/>
+      <c r="N45" s="312"/>
+      <c r="O45" s="312"/>
+      <c r="P45" s="313"/>
+      <c r="Q45" s="266">
         <v>42</v>
       </c>
       <c r="R45" s="111">
@@ -10302,12 +10392,12 @@
         <v>681080</v>
       </c>
       <c r="G46" s="230"/>
-      <c r="L46" s="316"/>
-      <c r="M46" s="317"/>
-      <c r="N46" s="317"/>
-      <c r="O46" s="317"/>
-      <c r="P46" s="318"/>
-      <c r="Q46" s="311">
+      <c r="L46" s="311"/>
+      <c r="M46" s="312"/>
+      <c r="N46" s="312"/>
+      <c r="O46" s="312"/>
+      <c r="P46" s="313"/>
+      <c r="Q46" s="265">
         <v>43</v>
       </c>
       <c r="R46" s="111">
@@ -10322,19 +10412,21 @@
       <c r="U46" s="215">
         <v>20300.62</v>
       </c>
-      <c r="V46" s="187"/>
+      <c r="V46" s="187" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="47" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="232"/>
       <c r="E47" s="233"/>
       <c r="F47" s="234"/>
       <c r="G47" s="235"/>
-      <c r="L47" s="319"/>
-      <c r="M47" s="320"/>
-      <c r="N47" s="320"/>
-      <c r="O47" s="320"/>
-      <c r="P47" s="321"/>
-      <c r="Q47" s="312">
+      <c r="L47" s="314"/>
+      <c r="M47" s="315"/>
+      <c r="N47" s="315"/>
+      <c r="O47" s="315"/>
+      <c r="P47" s="316"/>
+      <c r="Q47" s="266">
         <v>44</v>
       </c>
       <c r="R47" s="111">
@@ -10390,10 +10482,10 @@
     <row r="50" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q50" s="186"/>
       <c r="R50" s="217"/>
-      <c r="S50" s="302" t="s">
+      <c r="S50" s="304" t="s">
         <v>414</v>
       </c>
-      <c r="T50" s="303"/>
+      <c r="T50" s="305"/>
       <c r="U50" s="218">
         <f>SUM(U4:U49)</f>
         <v>661176.16</v>
@@ -10401,24 +10493,24 @@
       <c r="V50" s="187"/>
     </row>
     <row r="51" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S51" s="300" t="s">
+      <c r="S51" s="302" t="s">
         <v>413</v>
       </c>
-      <c r="T51" s="301"/>
+      <c r="T51" s="303"/>
       <c r="U51" s="216">
         <f>N41</f>
-        <v>1545671.24</v>
+        <v>1545672.14</v>
       </c>
       <c r="V51" s="187"/>
     </row>
     <row r="52" spans="17:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S52" s="304" t="s">
+      <c r="S52" s="306" t="s">
         <v>415</v>
       </c>
-      <c r="T52" s="305"/>
+      <c r="T52" s="307"/>
       <c r="U52" s="221">
         <f>U50+U51</f>
-        <v>2206847.4</v>
+        <v>2206848.2999999998</v>
       </c>
       <c r="V52" s="187"/>
     </row>
@@ -10431,19 +10523,19 @@
     <sortCondition ref="S46:S48"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R2:V2"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="S51:T51"/>
     <mergeCell ref="S50:T50"/>
     <mergeCell ref="S52:T52"/>
     <mergeCell ref="L44:P47"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R2:V2"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="87" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.59055118110236227" right="0.23622047244094491" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10453,10 +10545,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B2:O47"/>
+  <dimension ref="B2:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10472,20 +10564,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="271" t="s">
+      <c r="C2" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="K2" s="297" t="s">
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="K2" s="317" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="297"/>
-      <c r="M2" s="297"/>
-      <c r="N2" s="297"/>
-      <c r="O2" s="297"/>
+      <c r="L2" s="317"/>
+      <c r="M2" s="317"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="317"/>
     </row>
     <row r="3" spans="2:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -11278,16 +11370,14 @@
       <c r="E29" s="30"/>
       <c r="F29" s="33"/>
       <c r="G29" s="137"/>
-      <c r="J29" s="6">
-        <v>26</v>
-      </c>
+      <c r="J29" s="6"/>
       <c r="K29" s="111"/>
       <c r="L29" s="40"/>
       <c r="M29" s="41"/>
       <c r="N29" s="42"/>
       <c r="O29" s="140"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <v>27</v>
       </c>
@@ -11296,16 +11386,16 @@
       <c r="E30" s="41"/>
       <c r="F30" s="42"/>
       <c r="G30" s="140"/>
-      <c r="J30" s="191">
-        <v>27</v>
-      </c>
-      <c r="K30" s="192"/>
-      <c r="L30" s="193"/>
-      <c r="M30" s="194"/>
-      <c r="N30" s="195"/>
-      <c r="O30" s="196"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="198"/>
+      <c r="M30" s="198"/>
+      <c r="N30" s="205">
+        <v>0</v>
+      </c>
+      <c r="O30" s="199"/>
+    </row>
+    <row r="31" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="32"/>
       <c r="D31" s="105"/>
@@ -11314,14 +11404,17 @@
         <v>0</v>
       </c>
       <c r="G31" s="137"/>
-      <c r="J31" s="6">
-        <v>28</v>
-      </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="137"/>
+      <c r="J31" s="188"/>
+      <c r="K31" s="189"/>
+      <c r="L31" s="300" t="s">
+        <v>412</v>
+      </c>
+      <c r="M31" s="301"/>
+      <c r="N31" s="185">
+        <f>SUM(N4:N30)</f>
+        <v>366663.07999999996</v>
+      </c>
+      <c r="O31" s="190"/>
     </row>
     <row r="32" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="112"/>
@@ -11335,14 +11428,12 @@
         <v>1217950.7200000002</v>
       </c>
       <c r="G32" s="141"/>
-      <c r="J32" s="6">
-        <v>29</v>
-      </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="200"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="201"/>
-      <c r="O32" s="138"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="327"/>
+      <c r="M32" s="328"/>
+      <c r="N32" s="329"/>
+      <c r="O32" s="330"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="112"/>
@@ -11351,14 +11442,12 @@
       <c r="E33" s="115"/>
       <c r="F33" s="116"/>
       <c r="G33" s="117"/>
-      <c r="J33" s="6">
-        <v>30</v>
-      </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="203"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="331"/>
     </row>
     <row r="34" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="112"/>
@@ -11367,51 +11456,45 @@
       <c r="E34" s="100"/>
       <c r="F34" s="165"/>
       <c r="G34" s="169"/>
-      <c r="J34" s="6">
-        <v>31</v>
-      </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="203"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="331"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="112"/>
-      <c r="C35" s="296" t="s">
+      <c r="C35" s="299" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="296"/>
-      <c r="E35" s="292">
-        <f>F32-N41</f>
+      <c r="D35" s="299"/>
+      <c r="E35" s="295">
+        <f>F32-N31</f>
         <v>851287.64000000025</v>
       </c>
-      <c r="F35" s="293"/>
+      <c r="F35" s="296"/>
       <c r="G35" s="170"/>
-      <c r="J35" s="6">
-        <v>32</v>
-      </c>
-      <c r="K35" s="32"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="203"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="331"/>
     </row>
     <row r="36" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="112"/>
-      <c r="C36" s="296"/>
-      <c r="D36" s="296"/>
-      <c r="E36" s="294"/>
-      <c r="F36" s="295"/>
+      <c r="C36" s="299"/>
+      <c r="D36" s="299"/>
+      <c r="E36" s="297"/>
+      <c r="F36" s="298"/>
       <c r="G36" s="171"/>
-      <c r="J36" s="6">
-        <v>33</v>
-      </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="203"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="331"/>
     </row>
     <row r="37" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B37" s="112"/>
@@ -11422,14 +11505,12 @@
       </c>
       <c r="F37" s="173"/>
       <c r="G37" s="172"/>
-      <c r="J37" s="6">
-        <v>34</v>
-      </c>
-      <c r="K37" s="32"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="203"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="331"/>
     </row>
     <row r="38" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="112"/>
@@ -11437,14 +11518,12 @@
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
       <c r="G38" s="119"/>
-      <c r="J38" s="6">
-        <v>35</v>
-      </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="203"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="331"/>
     </row>
     <row r="39" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="112"/>
@@ -11455,14 +11534,12 @@
         <v>461</v>
       </c>
       <c r="G39" s="118"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="204"/>
-      <c r="N39" s="8">
-        <v>0</v>
-      </c>
-      <c r="O39" s="203"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="332"/>
+      <c r="N39" s="333"/>
+      <c r="O39" s="331"/>
     </row>
     <row r="40" spans="2:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D40" s="241" t="s">
@@ -11473,16 +11550,14 @@
         <v>-851287.64</v>
       </c>
       <c r="G40" s="244"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="198"/>
-      <c r="L40" s="198"/>
-      <c r="M40" s="198"/>
-      <c r="N40" s="205">
-        <v>0</v>
-      </c>
-      <c r="O40" s="199"/>
-    </row>
-    <row r="41" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86"/>
+    </row>
+    <row r="41" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="245">
         <v>45247</v>
       </c>
@@ -11493,17 +11568,6 @@
         <v>240040</v>
       </c>
       <c r="G41" s="247"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="189"/>
-      <c r="L41" s="298" t="s">
-        <v>412</v>
-      </c>
-      <c r="M41" s="299"/>
-      <c r="N41" s="185">
-        <f>SUM(N4:N40)</f>
-        <v>366663.07999999996</v>
-      </c>
-      <c r="O41" s="190"/>
     </row>
     <row r="42" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="245">
@@ -11551,62 +11615,108 @@
       </c>
       <c r="G44" s="247"/>
       <c r="K44" s="222"/>
-      <c r="L44" s="306"/>
-      <c r="M44" s="306"/>
+      <c r="L44" s="322"/>
+      <c r="M44" s="322"/>
     </row>
     <row r="45" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="248"/>
-      <c r="E45" s="249"/>
-      <c r="F45" s="250">
+      <c r="D45" s="323">
+        <v>45251</v>
+      </c>
+      <c r="E45" s="324">
+        <v>8514</v>
+      </c>
+      <c r="F45" s="325">
+        <v>150000</v>
+      </c>
+      <c r="G45" s="326"/>
+      <c r="K45" s="222"/>
+      <c r="L45" s="264"/>
+      <c r="M45" s="264"/>
+    </row>
+    <row r="46" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="323">
+        <v>45251</v>
+      </c>
+      <c r="E46" s="324">
+        <v>8531</v>
+      </c>
+      <c r="F46" s="325">
+        <v>21248</v>
+      </c>
+      <c r="G46" s="326"/>
+      <c r="K46" s="222"/>
+      <c r="L46" s="264"/>
+      <c r="M46" s="264"/>
+    </row>
+    <row r="47" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="323">
+        <v>45251</v>
+      </c>
+      <c r="E47" s="324">
+        <v>8532</v>
+      </c>
+      <c r="F47" s="325">
+        <v>140000</v>
+      </c>
+      <c r="G47" s="326"/>
+      <c r="K47" s="222"/>
+      <c r="L47" s="264"/>
+      <c r="M47" s="264"/>
+    </row>
+    <row r="48" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="248"/>
+      <c r="E48" s="249"/>
+      <c r="F48" s="250">
         <v>0</v>
       </c>
-      <c r="G45" s="251"/>
-      <c r="J45" s="256"/>
-      <c r="K45" s="257"/>
-      <c r="L45" s="257"/>
-      <c r="M45" s="258"/>
-    </row>
-    <row r="46" spans="2:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="252"/>
-      <c r="E46" s="309" t="s">
+      <c r="G48" s="251"/>
+      <c r="J48" s="256"/>
+      <c r="K48" s="257"/>
+      <c r="L48" s="257"/>
+      <c r="M48" s="258"/>
+    </row>
+    <row r="49" spans="4:13" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="252"/>
+      <c r="E49" s="320" t="s">
         <v>464</v>
       </c>
-      <c r="F46" s="307">
-        <f>SUM(F40:F45)</f>
-        <v>-311247.64</v>
-      </c>
-      <c r="G46" s="253"/>
-      <c r="J46" s="259"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="260"/>
-    </row>
-    <row r="47" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="254"/>
-      <c r="E47" s="310"/>
-      <c r="F47" s="308"/>
-      <c r="G47" s="255"/>
-      <c r="J47" s="261"/>
-      <c r="K47" s="262"/>
-      <c r="L47" s="262"/>
-      <c r="M47" s="263"/>
+      <c r="F49" s="318">
+        <f>SUM(F40:F48)</f>
+        <v>0.35999999998603016</v>
+      </c>
+      <c r="G49" s="253"/>
+      <c r="J49" s="259"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="260"/>
+    </row>
+    <row r="50" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="254"/>
+      <c r="E50" s="321"/>
+      <c r="F50" s="319"/>
+      <c r="G50" s="255"/>
+      <c r="J50" s="261"/>
+      <c r="K50" s="262"/>
+      <c r="L50" s="262"/>
+      <c r="M50" s="263"/>
     </row>
   </sheetData>
   <sortState ref="D41:F44">
     <sortCondition ref="E41:E44"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C35:D36"/>
     <mergeCell ref="E35:F36"/>
     <mergeCell ref="K2:O2"/>
-    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L31:M31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11620,4 +11730,30 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="520">
   <si>
     <t>FECHA</t>
   </si>
@@ -1433,6 +1433,165 @@
   </si>
   <si>
     <t>ESTAS NOTAS SON LAS QUE NO SE HICIERON EN LAS FECHAS DEL 16 DE OCTUBRE AL  11 DE NOVIEMBRE 2023 MERCANCIA ENTREGADA DE ALMACEN</t>
+  </si>
+  <si>
+    <t>cancelada</t>
+  </si>
+  <si>
+    <t>0381 M</t>
+  </si>
+  <si>
+    <t>0383 M</t>
+  </si>
+  <si>
+    <t>382 M</t>
+  </si>
+  <si>
+    <t>384 M</t>
+  </si>
+  <si>
+    <t>385 M</t>
+  </si>
+  <si>
+    <t>386 M</t>
+  </si>
+  <si>
+    <t>387 M</t>
+  </si>
+  <si>
+    <t>388 M</t>
+  </si>
+  <si>
+    <t>389 M</t>
+  </si>
+  <si>
+    <t>M-382</t>
+  </si>
+  <si>
+    <t>M-383</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>M384</t>
+  </si>
+  <si>
+    <t>M 387</t>
+  </si>
+  <si>
+    <t>M-385</t>
+  </si>
+  <si>
+    <t>M-386</t>
+  </si>
+  <si>
+    <t>399 M</t>
+  </si>
+  <si>
+    <t>M-388</t>
+  </si>
+  <si>
+    <t>M-389</t>
+  </si>
+  <si>
+    <t>390 M</t>
+  </si>
+  <si>
+    <t>M-390</t>
+  </si>
+  <si>
+    <t>391 M</t>
+  </si>
+  <si>
+    <t>M-391</t>
+  </si>
+  <si>
+    <t>392 M</t>
+  </si>
+  <si>
+    <t>M-392</t>
+  </si>
+  <si>
+    <t>393 M</t>
+  </si>
+  <si>
+    <t>M-393</t>
+  </si>
+  <si>
+    <t>394 M</t>
+  </si>
+  <si>
+    <t>M-394</t>
+  </si>
+  <si>
+    <t>395 M</t>
+  </si>
+  <si>
+    <t>M-395</t>
+  </si>
+  <si>
+    <t>396 M</t>
+  </si>
+  <si>
+    <t>M-396</t>
+  </si>
+  <si>
+    <t>397 M</t>
+  </si>
+  <si>
+    <t>M-397</t>
+  </si>
+  <si>
+    <t>398 M</t>
+  </si>
+  <si>
+    <t>M-398</t>
+  </si>
+  <si>
+    <t>M-399</t>
+  </si>
+  <si>
+    <t>400 M</t>
+  </si>
+  <si>
+    <t>401 M</t>
+  </si>
+  <si>
+    <t>M-401</t>
+  </si>
+  <si>
+    <t>402 M</t>
+  </si>
+  <si>
+    <t>M-402</t>
+  </si>
+  <si>
+    <t>403 M</t>
+  </si>
+  <si>
+    <t>M-403</t>
+  </si>
+  <si>
+    <t>404 M</t>
+  </si>
+  <si>
+    <t>M-404</t>
+  </si>
+  <si>
+    <t>405 M</t>
+  </si>
+  <si>
+    <t>M-405</t>
+  </si>
+  <si>
+    <t>406 M</t>
+  </si>
+  <si>
+    <t>M-406</t>
+  </si>
+  <si>
+    <t>FALTA ORIGINAL OSIRIS</t>
   </si>
 </sst>
 </file>
@@ -2558,7 +2717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="334">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3068,174 +3227,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="14" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="14" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3259,6 +3250,179 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="14" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="14" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4065,8 +4229,8 @@
   </sheetPr>
   <dimension ref="B1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView topLeftCell="B28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4085,20 +4249,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="274" t="s">
+      <c r="C1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="68"/>
-      <c r="J1" s="275" t="s">
+      <c r="J1" s="286" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
     </row>
     <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -5030,8 +5194,8 @@
       </c>
       <c r="G32" s="27"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="276"/>
-      <c r="K32" s="276"/>
+      <c r="J32" s="287"/>
+      <c r="K32" s="287"/>
       <c r="L32" s="147"/>
       <c r="M32" s="148"/>
     </row>
@@ -5089,7 +5253,9 @@
       <c r="D35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="334" t="s">
+        <v>467</v>
+      </c>
       <c r="F35" s="8">
         <v>0</v>
       </c>
@@ -5119,10 +5285,10 @@
       <c r="G36" s="25"/>
       <c r="I36" s="68"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="279" t="s">
+      <c r="L36" s="290" t="s">
         <v>210</v>
       </c>
-      <c r="M36" s="277">
+      <c r="M36" s="288">
         <f>F47-M31</f>
         <v>1037858.16</v>
       </c>
@@ -5146,8 +5312,8 @@
       <c r="G37" s="45"/>
       <c r="I37" s="68"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="280"/>
-      <c r="M37" s="278"/>
+      <c r="L37" s="291"/>
+      <c r="M37" s="289"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -5219,10 +5385,10 @@
       <c r="K40" s="157">
         <v>220000</v>
       </c>
-      <c r="L40" s="270" t="s">
+      <c r="L40" s="281" t="s">
         <v>209</v>
       </c>
-      <c r="M40" s="271"/>
+      <c r="M40" s="282"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
@@ -5250,8 +5416,8 @@
       <c r="K41" s="159">
         <v>25000</v>
       </c>
-      <c r="L41" s="272"/>
-      <c r="M41" s="273"/>
+      <c r="L41" s="283"/>
+      <c r="M41" s="284"/>
     </row>
     <row r="42" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
@@ -5306,7 +5472,7 @@
       <c r="K43" s="159">
         <v>170000</v>
       </c>
-      <c r="L43" s="267" t="s">
+      <c r="L43" s="278" t="s">
         <v>280</v>
       </c>
       <c r="M43" s="166"/>
@@ -5337,7 +5503,7 @@
       <c r="K44" s="159">
         <v>180000</v>
       </c>
-      <c r="L44" s="268"/>
+      <c r="L44" s="279"/>
       <c r="M44" s="167"/>
     </row>
     <row r="45" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5366,7 +5532,7 @@
       <c r="K45" s="159">
         <v>60000</v>
       </c>
-      <c r="L45" s="268"/>
+      <c r="L45" s="279"/>
       <c r="M45" s="167"/>
     </row>
     <row r="46" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5385,7 +5551,7 @@
       <c r="K46" s="159">
         <v>98858</v>
       </c>
-      <c r="L46" s="268"/>
+      <c r="L46" s="279"/>
       <c r="M46" s="167"/>
     </row>
     <row r="47" spans="2:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5407,7 +5573,7 @@
       <c r="K47" s="163">
         <v>190000</v>
       </c>
-      <c r="L47" s="269"/>
+      <c r="L47" s="280"/>
       <c r="M47" s="168"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -5471,19 +5637,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="274" t="s">
+      <c r="C1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="J1" s="275" t="s">
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="J1" s="286" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -6666,10 +6832,10 @@
       </c>
       <c r="J39" s="86"/>
       <c r="K39" s="95"/>
-      <c r="L39" s="281" t="s">
+      <c r="L39" s="292" t="s">
         <v>210</v>
       </c>
-      <c r="M39" s="283">
+      <c r="M39" s="294">
         <f>F43-M37</f>
         <v>225360.95000000007</v>
       </c>
@@ -6694,8 +6860,8 @@
         <v>190</v>
       </c>
       <c r="K40" s="94"/>
-      <c r="L40" s="282"/>
-      <c r="M40" s="284"/>
+      <c r="L40" s="293"/>
+      <c r="M40" s="295"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -6779,13 +6945,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="274" t="s">
+      <c r="C2" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="274"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
     </row>
     <row r="3" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -7565,34 +7731,34 @@
     </row>
     <row r="45" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="F45" s="287" t="s">
+      <c r="F45" s="298" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="288"/>
-      <c r="H45" s="289"/>
+      <c r="G45" s="299"/>
+      <c r="H45" s="300"/>
       <c r="I45" s="100"/>
-      <c r="J45" s="285" t="s">
+      <c r="J45" s="296" t="s">
         <v>210</v>
       </c>
-      <c r="K45" s="286"/>
-      <c r="L45" s="293">
+      <c r="K45" s="297"/>
+      <c r="L45" s="304">
         <f>F43-982143.23</f>
         <v>213624.55000000005</v>
       </c>
-      <c r="M45" s="294"/>
-      <c r="N45" s="294"/>
+      <c r="M45" s="305"/>
+      <c r="N45" s="305"/>
       <c r="O45" s="100"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="290"/>
-      <c r="G46" s="291"/>
-      <c r="H46" s="292"/>
+      <c r="F46" s="301"/>
+      <c r="G46" s="302"/>
+      <c r="H46" s="303"/>
       <c r="I46" s="100"/>
-      <c r="J46" s="285"/>
-      <c r="K46" s="286"/>
-      <c r="L46" s="293"/>
-      <c r="M46" s="294"/>
-      <c r="N46" s="294"/>
+      <c r="J46" s="296"/>
+      <c r="K46" s="297"/>
+      <c r="L46" s="304"/>
+      <c r="M46" s="305"/>
+      <c r="N46" s="305"/>
       <c r="O46" s="100"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -7652,13 +7818,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="274" t="s">
+      <c r="C1" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
     </row>
     <row r="2" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -8202,23 +8368,23 @@
     </row>
     <row r="34" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="112"/>
-      <c r="C34" s="299" t="s">
+      <c r="C34" s="310" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="299"/>
-      <c r="E34" s="295">
+      <c r="D34" s="310"/>
+      <c r="E34" s="306">
         <f>F31-782498.42</f>
         <v>718019.03999999992</v>
       </c>
-      <c r="F34" s="296"/>
+      <c r="F34" s="307"/>
       <c r="G34" s="170"/>
     </row>
     <row r="35" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="112"/>
-      <c r="C35" s="299"/>
-      <c r="D35" s="299"/>
-      <c r="E35" s="297"/>
-      <c r="F35" s="298"/>
+      <c r="C35" s="310"/>
+      <c r="D35" s="310"/>
+      <c r="E35" s="308"/>
+      <c r="F35" s="309"/>
       <c r="G35" s="171"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -8418,27 +8584,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="274" t="s">
+      <c r="C2" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="274"/>
-      <c r="K2" s="317" t="s">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="K2" s="311" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="317"/>
-      <c r="M2" s="317"/>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
-      <c r="R2" s="317" t="s">
+      <c r="L2" s="311"/>
+      <c r="M2" s="311"/>
+      <c r="N2" s="311"/>
+      <c r="O2" s="311"/>
+      <c r="R2" s="311" t="s">
         <v>330</v>
       </c>
-      <c r="S2" s="317"/>
-      <c r="T2" s="317"/>
-      <c r="U2" s="317"/>
-      <c r="V2" s="317"/>
+      <c r="S2" s="311"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
     </row>
     <row r="3" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -9992,15 +10158,15 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="112"/>
-      <c r="C35" s="299" t="s">
+      <c r="C35" s="310" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="299"/>
-      <c r="E35" s="295">
+      <c r="D35" s="310"/>
+      <c r="E35" s="306">
         <f>F32-U52</f>
         <v>-681081.05999999982</v>
       </c>
-      <c r="F35" s="296"/>
+      <c r="F35" s="307"/>
       <c r="G35" s="170"/>
       <c r="J35" s="6">
         <v>32</v>
@@ -10037,10 +10203,10 @@
     </row>
     <row r="36" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="112"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="299"/>
-      <c r="E36" s="297"/>
-      <c r="F36" s="298"/>
+      <c r="C36" s="310"/>
+      <c r="D36" s="310"/>
+      <c r="E36" s="308"/>
+      <c r="F36" s="309"/>
       <c r="G36" s="171"/>
       <c r="J36" s="6">
         <v>33</v>
@@ -10233,10 +10399,10 @@
       <c r="G41" s="230"/>
       <c r="J41" s="188"/>
       <c r="K41" s="189"/>
-      <c r="L41" s="300" t="s">
+      <c r="L41" s="312" t="s">
         <v>412</v>
       </c>
-      <c r="M41" s="301"/>
+      <c r="M41" s="313"/>
       <c r="N41" s="185">
         <f>SUM(N4:N40)</f>
         <v>1545672.14</v>
@@ -10331,13 +10497,13 @@
       </c>
       <c r="G44" s="230"/>
       <c r="K44" s="222"/>
-      <c r="L44" s="308" t="s">
+      <c r="L44" s="320" t="s">
         <v>466</v>
       </c>
-      <c r="M44" s="309"/>
-      <c r="N44" s="309"/>
-      <c r="O44" s="309"/>
-      <c r="P44" s="310"/>
+      <c r="M44" s="321"/>
+      <c r="N44" s="321"/>
+      <c r="O44" s="321"/>
+      <c r="P44" s="322"/>
       <c r="Q44" s="265">
         <v>41</v>
       </c>
@@ -10362,11 +10528,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="230"/>
-      <c r="L45" s="311"/>
-      <c r="M45" s="312"/>
-      <c r="N45" s="312"/>
-      <c r="O45" s="312"/>
-      <c r="P45" s="313"/>
+      <c r="L45" s="323"/>
+      <c r="M45" s="324"/>
+      <c r="N45" s="324"/>
+      <c r="O45" s="324"/>
+      <c r="P45" s="325"/>
       <c r="Q45" s="266">
         <v>42</v>
       </c>
@@ -10392,11 +10558,11 @@
         <v>681080</v>
       </c>
       <c r="G46" s="230"/>
-      <c r="L46" s="311"/>
-      <c r="M46" s="312"/>
-      <c r="N46" s="312"/>
-      <c r="O46" s="312"/>
-      <c r="P46" s="313"/>
+      <c r="L46" s="323"/>
+      <c r="M46" s="324"/>
+      <c r="N46" s="324"/>
+      <c r="O46" s="324"/>
+      <c r="P46" s="325"/>
       <c r="Q46" s="265">
         <v>43</v>
       </c>
@@ -10421,11 +10587,11 @@
       <c r="E47" s="233"/>
       <c r="F47" s="234"/>
       <c r="G47" s="235"/>
-      <c r="L47" s="314"/>
-      <c r="M47" s="315"/>
-      <c r="N47" s="315"/>
-      <c r="O47" s="315"/>
-      <c r="P47" s="316"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="327"/>
+      <c r="N47" s="327"/>
+      <c r="O47" s="327"/>
+      <c r="P47" s="328"/>
       <c r="Q47" s="266">
         <v>44</v>
       </c>
@@ -10482,10 +10648,10 @@
     <row r="50" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q50" s="186"/>
       <c r="R50" s="217"/>
-      <c r="S50" s="304" t="s">
+      <c r="S50" s="316" t="s">
         <v>414</v>
       </c>
-      <c r="T50" s="305"/>
+      <c r="T50" s="317"/>
       <c r="U50" s="218">
         <f>SUM(U4:U49)</f>
         <v>661176.16</v>
@@ -10493,10 +10659,10 @@
       <c r="V50" s="187"/>
     </row>
     <row r="51" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S51" s="302" t="s">
+      <c r="S51" s="314" t="s">
         <v>413</v>
       </c>
-      <c r="T51" s="303"/>
+      <c r="T51" s="315"/>
       <c r="U51" s="216">
         <f>N41</f>
         <v>1545672.14</v>
@@ -10504,10 +10670,10 @@
       <c r="V51" s="187"/>
     </row>
     <row r="52" spans="17:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S52" s="306" t="s">
+      <c r="S52" s="318" t="s">
         <v>415</v>
       </c>
-      <c r="T52" s="307"/>
+      <c r="T52" s="319"/>
       <c r="U52" s="221">
         <f>U50+U51</f>
         <v>2206848.2999999998</v>
@@ -10523,16 +10689,16 @@
     <sortCondition ref="S46:S48"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="L44:P47"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C35:D36"/>
     <mergeCell ref="E35:F36"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="R2:V2"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="L44:P47"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.23622047244094491" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10547,8 +10713,8 @@
   </sheetPr>
   <dimension ref="B2:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10564,20 +10730,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="274" t="s">
+      <c r="C2" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="274"/>
-      <c r="K2" s="317" t="s">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="K2" s="311" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="317"/>
-      <c r="M2" s="317"/>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
+      <c r="L2" s="311"/>
+      <c r="M2" s="311"/>
+      <c r="N2" s="311"/>
+      <c r="O2" s="311"/>
     </row>
     <row r="3" spans="2:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -11406,10 +11572,10 @@
       <c r="G31" s="137"/>
       <c r="J31" s="188"/>
       <c r="K31" s="189"/>
-      <c r="L31" s="300" t="s">
+      <c r="L31" s="312" t="s">
         <v>412</v>
       </c>
-      <c r="M31" s="301"/>
+      <c r="M31" s="313"/>
       <c r="N31" s="185">
         <f>SUM(N4:N30)</f>
         <v>366663.07999999996</v>
@@ -11430,10 +11596,10 @@
       <c r="G32" s="141"/>
       <c r="J32" s="112"/>
       <c r="K32" s="113"/>
-      <c r="L32" s="327"/>
-      <c r="M32" s="328"/>
-      <c r="N32" s="329"/>
-      <c r="O32" s="330"/>
+      <c r="L32" s="271"/>
+      <c r="M32" s="272"/>
+      <c r="N32" s="273"/>
+      <c r="O32" s="274"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="112"/>
@@ -11447,7 +11613,7 @@
       <c r="L33" s="114"/>
       <c r="M33" s="115"/>
       <c r="N33" s="116"/>
-      <c r="O33" s="331"/>
+      <c r="O33" s="275"/>
     </row>
     <row r="34" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="112"/>
@@ -11461,40 +11627,40 @@
       <c r="L34" s="114"/>
       <c r="M34" s="115"/>
       <c r="N34" s="116"/>
-      <c r="O34" s="331"/>
+      <c r="O34" s="275"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="112"/>
-      <c r="C35" s="299" t="s">
+      <c r="C35" s="310" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="299"/>
-      <c r="E35" s="295">
+      <c r="D35" s="310"/>
+      <c r="E35" s="306">
         <f>F32-N31</f>
         <v>851287.64000000025</v>
       </c>
-      <c r="F35" s="296"/>
+      <c r="F35" s="307"/>
       <c r="G35" s="170"/>
       <c r="J35" s="112"/>
       <c r="K35" s="113"/>
       <c r="L35" s="114"/>
       <c r="M35" s="115"/>
       <c r="N35" s="116"/>
-      <c r="O35" s="331"/>
+      <c r="O35" s="275"/>
     </row>
     <row r="36" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="112"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="299"/>
-      <c r="E36" s="297"/>
-      <c r="F36" s="298"/>
+      <c r="C36" s="310"/>
+      <c r="D36" s="310"/>
+      <c r="E36" s="308"/>
+      <c r="F36" s="309"/>
       <c r="G36" s="171"/>
       <c r="J36" s="112"/>
       <c r="K36" s="113"/>
       <c r="L36" s="114"/>
       <c r="M36" s="115"/>
       <c r="N36" s="116"/>
-      <c r="O36" s="331"/>
+      <c r="O36" s="275"/>
     </row>
     <row r="37" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B37" s="112"/>
@@ -11510,7 +11676,7 @@
       <c r="L37" s="114"/>
       <c r="M37" s="115"/>
       <c r="N37" s="116"/>
-      <c r="O37" s="331"/>
+      <c r="O37" s="275"/>
     </row>
     <row r="38" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="112"/>
@@ -11523,7 +11689,7 @@
       <c r="L38" s="114"/>
       <c r="M38" s="115"/>
       <c r="N38" s="116"/>
-      <c r="O38" s="331"/>
+      <c r="O38" s="275"/>
     </row>
     <row r="39" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="112"/>
@@ -11537,9 +11703,9 @@
       <c r="J39" s="112"/>
       <c r="K39" s="113"/>
       <c r="L39" s="112"/>
-      <c r="M39" s="332"/>
-      <c r="N39" s="333"/>
-      <c r="O39" s="331"/>
+      <c r="M39" s="276"/>
+      <c r="N39" s="277"/>
+      <c r="O39" s="275"/>
     </row>
     <row r="40" spans="2:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D40" s="241" t="s">
@@ -11615,50 +11781,50 @@
       </c>
       <c r="G44" s="247"/>
       <c r="K44" s="222"/>
-      <c r="L44" s="322"/>
-      <c r="M44" s="322"/>
+      <c r="L44" s="333"/>
+      <c r="M44" s="333"/>
     </row>
     <row r="45" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="323">
+      <c r="D45" s="267">
         <v>45251</v>
       </c>
-      <c r="E45" s="324">
+      <c r="E45" s="268">
         <v>8514</v>
       </c>
-      <c r="F45" s="325">
+      <c r="F45" s="269">
         <v>150000</v>
       </c>
-      <c r="G45" s="326"/>
+      <c r="G45" s="270"/>
       <c r="K45" s="222"/>
       <c r="L45" s="264"/>
       <c r="M45" s="264"/>
     </row>
     <row r="46" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="323">
+      <c r="D46" s="267">
         <v>45251</v>
       </c>
-      <c r="E46" s="324">
+      <c r="E46" s="268">
         <v>8531</v>
       </c>
-      <c r="F46" s="325">
+      <c r="F46" s="269">
         <v>21248</v>
       </c>
-      <c r="G46" s="326"/>
+      <c r="G46" s="270"/>
       <c r="K46" s="222"/>
       <c r="L46" s="264"/>
       <c r="M46" s="264"/>
     </row>
     <row r="47" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="323">
+      <c r="D47" s="267">
         <v>45251</v>
       </c>
-      <c r="E47" s="324">
+      <c r="E47" s="268">
         <v>8532</v>
       </c>
-      <c r="F47" s="325">
+      <c r="F47" s="269">
         <v>140000</v>
       </c>
-      <c r="G47" s="326"/>
+      <c r="G47" s="270"/>
       <c r="K47" s="222"/>
       <c r="L47" s="264"/>
       <c r="M47" s="264"/>
@@ -11677,10 +11843,10 @@
     </row>
     <row r="49" spans="4:13" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D49" s="252"/>
-      <c r="E49" s="320" t="s">
+      <c r="E49" s="331" t="s">
         <v>464</v>
       </c>
-      <c r="F49" s="318">
+      <c r="F49" s="329">
         <f>SUM(F40:F48)</f>
         <v>0.35999999998603016</v>
       </c>
@@ -11692,8 +11858,8 @@
     </row>
     <row r="50" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="254"/>
-      <c r="E50" s="321"/>
-      <c r="F50" s="319"/>
+      <c r="E50" s="332"/>
+      <c r="F50" s="330"/>
       <c r="G50" s="255"/>
       <c r="J50" s="261"/>
       <c r="K50" s="262"/>
@@ -11722,12 +11888,742 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="285" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="285"/>
+    </row>
+    <row r="3" spans="3:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="102">
+        <v>45248</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="G4" s="104">
+        <v>21453.5</v>
+      </c>
+      <c r="H4" s="136"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="32">
+        <v>45248</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="G5" s="33">
+        <v>134944.20000000001</v>
+      </c>
+      <c r="H5" s="137"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="32">
+        <v>45250</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>469</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+      <c r="H6" s="335" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="32">
+        <v>45250</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>471</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" s="33">
+        <v>13412.16</v>
+      </c>
+      <c r="H7" s="138"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="32">
+        <v>45250</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>472</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" s="33">
+        <v>8530.5</v>
+      </c>
+      <c r="H8" s="137"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="32">
+        <v>45250</v>
+      </c>
+      <c r="E9" s="105" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="G9" s="33">
+        <v>137879.70000000001</v>
+      </c>
+      <c r="H9" s="137"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="6">
+        <v>7</v>
+      </c>
+      <c r="D10" s="32">
+        <v>45250</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>474</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="G10" s="33">
+        <v>117523.6</v>
+      </c>
+      <c r="H10" s="137"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="32">
+        <v>45250</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>475</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="G11" s="33">
+        <v>560</v>
+      </c>
+      <c r="H11" s="336" t="s">
+        <v>519</v>
+      </c>
+      <c r="I11" s="94"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="6">
+        <v>9</v>
+      </c>
+      <c r="D12" s="32">
+        <v>45250</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>476</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="G12" s="33">
+        <v>840</v>
+      </c>
+      <c r="H12" s="137"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="32">
+        <v>45251</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>487</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="G13" s="33">
+        <v>13045.26</v>
+      </c>
+      <c r="H13" s="137"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="6">
+        <v>11</v>
+      </c>
+      <c r="D14" s="32">
+        <v>45251</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>489</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="G14" s="33">
+        <v>208899</v>
+      </c>
+      <c r="H14" s="139"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="6">
+        <v>12</v>
+      </c>
+      <c r="D15" s="32">
+        <v>45251</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>491</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="G15" s="33">
+        <v>35336.28</v>
+      </c>
+      <c r="H15" s="137"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
+        <v>13</v>
+      </c>
+      <c r="D16" s="32">
+        <v>45251</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>493</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="G16" s="33">
+        <v>64067.4</v>
+      </c>
+      <c r="H16" s="137"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="6">
+        <v>14</v>
+      </c>
+      <c r="D17" s="32">
+        <v>45252</v>
+      </c>
+      <c r="E17" s="105" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="G17" s="33">
+        <v>151327.5</v>
+      </c>
+      <c r="H17" s="137"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="6">
+        <v>15</v>
+      </c>
+      <c r="D18" s="32">
+        <v>45252</v>
+      </c>
+      <c r="E18" s="105" t="s">
+        <v>497</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="G18" s="33">
+        <v>37118.800000000003</v>
+      </c>
+      <c r="H18" s="137"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="6">
+        <v>16</v>
+      </c>
+      <c r="D19" s="32">
+        <v>45253</v>
+      </c>
+      <c r="E19" s="105" t="s">
+        <v>499</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="G19" s="33">
+        <v>23288.82</v>
+      </c>
+      <c r="H19" s="137"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="6">
+        <v>17</v>
+      </c>
+      <c r="D20" s="32">
+        <v>45253</v>
+      </c>
+      <c r="E20" s="105" t="s">
+        <v>501</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="G20" s="33">
+        <v>89378.4</v>
+      </c>
+      <c r="H20" s="137"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="6">
+        <v>18</v>
+      </c>
+      <c r="D21" s="32">
+        <v>45253</v>
+      </c>
+      <c r="E21" s="105" t="s">
+        <v>503</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="G21" s="33">
+        <v>3980.4</v>
+      </c>
+      <c r="H21" s="137"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="6">
+        <v>19</v>
+      </c>
+      <c r="D22" s="32">
+        <v>45253</v>
+      </c>
+      <c r="E22" s="105" t="s">
+        <v>484</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="G22" s="33">
+        <v>7639.92</v>
+      </c>
+      <c r="H22" s="137"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="6">
+        <v>20</v>
+      </c>
+      <c r="D23" s="32">
+        <v>45253</v>
+      </c>
+      <c r="E23" s="105" t="s">
+        <v>506</v>
+      </c>
+      <c r="F23" s="85"/>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="137"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="6">
+        <v>21</v>
+      </c>
+      <c r="D24" s="32">
+        <v>45254</v>
+      </c>
+      <c r="E24" s="105" t="s">
+        <v>507</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="G24" s="33">
+        <v>149732.70000000001</v>
+      </c>
+      <c r="H24" s="137"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="6">
+        <v>22</v>
+      </c>
+      <c r="D25" s="32">
+        <v>45254</v>
+      </c>
+      <c r="E25" s="105" t="s">
+        <v>509</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="G25" s="33">
+        <v>3883.68</v>
+      </c>
+      <c r="H25" s="139"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="6">
+        <v>23</v>
+      </c>
+      <c r="D26" s="32">
+        <v>45254</v>
+      </c>
+      <c r="E26" s="105" t="s">
+        <v>511</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="G26" s="33">
+        <v>10155.6</v>
+      </c>
+      <c r="H26" s="137"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="6">
+        <v>24</v>
+      </c>
+      <c r="D27" s="32">
+        <v>45255</v>
+      </c>
+      <c r="E27" s="105" t="s">
+        <v>513</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="G27" s="33">
+        <v>49860.1</v>
+      </c>
+      <c r="H27" s="137"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="6">
+        <v>25</v>
+      </c>
+      <c r="D28" s="32">
+        <v>45255</v>
+      </c>
+      <c r="E28" s="105" t="s">
+        <v>515</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="G28" s="33">
+        <v>259390</v>
+      </c>
+      <c r="H28" s="137"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="6">
+        <v>26</v>
+      </c>
+      <c r="D29" s="32">
+        <v>45255</v>
+      </c>
+      <c r="E29" s="105" t="s">
+        <v>517</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="G29" s="33">
+        <v>96955</v>
+      </c>
+      <c r="H29" s="137"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="12">
+        <v>27</v>
+      </c>
+      <c r="D30" s="111"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="140"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="33">
+        <v>0</v>
+      </c>
+      <c r="H31" s="137"/>
+    </row>
+    <row r="32" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="122"/>
+      <c r="G32" s="123">
+        <f>SUM(G4:G31)</f>
+        <v>1639202.52</v>
+      </c>
+      <c r="H32" s="141"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="117"/>
+    </row>
+    <row r="34" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="112"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="169"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="112"/>
+      <c r="D35" s="310" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="310"/>
+      <c r="F35" s="306">
+        <f>G32-O31</f>
+        <v>1639202.52</v>
+      </c>
+      <c r="G35" s="307"/>
+      <c r="H35" s="170"/>
+    </row>
+    <row r="36" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="112"/>
+      <c r="D36" s="310"/>
+      <c r="E36" s="310"/>
+      <c r="F36" s="308"/>
+      <c r="G36" s="309"/>
+      <c r="H36" s="171"/>
+    </row>
+    <row r="37" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="112"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="173" t="s">
+        <v>460</v>
+      </c>
+      <c r="G37" s="173"/>
+      <c r="H37" s="172"/>
+    </row>
+    <row r="38" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="112"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="H38" s="119"/>
+    </row>
+    <row r="39" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="112"/>
+      <c r="E39" s="223" t="s">
+        <v>462</v>
+      </c>
+      <c r="F39" s="240" t="s">
+        <v>461</v>
+      </c>
+      <c r="H39" s="118"/>
+    </row>
+    <row r="40" spans="3:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="241" t="s">
+        <v>463</v>
+      </c>
+      <c r="F40" s="242"/>
+      <c r="G40" s="243">
+        <v>-851287.64</v>
+      </c>
+      <c r="H40" s="244"/>
+    </row>
+    <row r="41" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="245">
+        <v>45247</v>
+      </c>
+      <c r="F41" s="246">
+        <v>8477</v>
+      </c>
+      <c r="G41" s="184">
+        <v>240040</v>
+      </c>
+      <c r="H41" s="247"/>
+    </row>
+    <row r="42" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="245">
+        <v>45247</v>
+      </c>
+      <c r="F42" s="246">
+        <v>8484</v>
+      </c>
+      <c r="G42" s="184">
+        <v>100000</v>
+      </c>
+      <c r="H42" s="247"/>
+    </row>
+    <row r="43" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="245">
+        <v>45247</v>
+      </c>
+      <c r="F43" s="246">
+        <v>8485</v>
+      </c>
+      <c r="G43" s="184">
+        <v>100000</v>
+      </c>
+      <c r="H43" s="247"/>
+    </row>
+    <row r="44" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="245">
+        <v>45247</v>
+      </c>
+      <c r="F44" s="246">
+        <v>8486</v>
+      </c>
+      <c r="G44" s="184">
+        <v>100000</v>
+      </c>
+      <c r="H44" s="247"/>
+    </row>
+    <row r="45" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="267">
+        <v>45251</v>
+      </c>
+      <c r="F45" s="268">
+        <v>8514</v>
+      </c>
+      <c r="G45" s="269">
+        <v>150000</v>
+      </c>
+      <c r="H45" s="270"/>
+    </row>
+    <row r="46" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="267">
+        <v>45251</v>
+      </c>
+      <c r="F46" s="268">
+        <v>8531</v>
+      </c>
+      <c r="G46" s="269">
+        <v>21248</v>
+      </c>
+      <c r="H46" s="270"/>
+    </row>
+    <row r="47" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="267">
+        <v>45251</v>
+      </c>
+      <c r="F47" s="268">
+        <v>8532</v>
+      </c>
+      <c r="G47" s="269">
+        <v>140000</v>
+      </c>
+      <c r="H47" s="270"/>
+    </row>
+    <row r="48" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="248"/>
+      <c r="F48" s="249"/>
+      <c r="G48" s="250">
+        <v>0</v>
+      </c>
+      <c r="H48" s="251"/>
+    </row>
+    <row r="49" spans="5:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="252"/>
+      <c r="F49" s="331" t="s">
+        <v>464</v>
+      </c>
+      <c r="G49" s="329">
+        <f>SUM(G40:G48)</f>
+        <v>0.35999999998603016</v>
+      </c>
+      <c r="H49" s="253"/>
+    </row>
+    <row r="50" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="254"/>
+      <c r="F50" s="332"/>
+      <c r="G50" s="330"/>
+      <c r="H50" s="255"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="F35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11748,7 +12644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -18,7 +18,7 @@
     <sheet name="OBRADOR &amp; CENTRAL 30-04-Nov" sheetId="4" r:id="rId4"/>
     <sheet name="OBRADOR &amp; CENTRAL 6-11 Nov-23" sheetId="5" r:id="rId5"/>
     <sheet name="OBRADOR &amp; CENTRAL  13-18-Noviem" sheetId="6" r:id="rId6"/>
-    <sheet name="Hoja3" sheetId="7" r:id="rId7"/>
+    <sheet name="OBRADOR  &amp; CENTRAL 18-25 Nov-23" sheetId="7" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="8" r:id="rId8"/>
     <sheet name="Hoja2" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="530">
   <si>
     <t>FECHA</t>
   </si>
@@ -1592,6 +1592,36 @@
   </si>
   <si>
     <t>FALTA ORIGINAL OSIRIS</t>
+  </si>
+  <si>
+    <t>M-400</t>
+  </si>
+  <si>
+    <t>408 M</t>
+  </si>
+  <si>
+    <t>M-408</t>
+  </si>
+  <si>
+    <t>409 M</t>
+  </si>
+  <si>
+    <t>M-409</t>
+  </si>
+  <si>
+    <t>410 M</t>
+  </si>
+  <si>
+    <t>M-410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>SEMANA DEL  18--25--Nov-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALIDAS  OBRADOR     A   CENTRAL  </t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1631,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1734,6 +1764,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -2717,7 +2762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3250,6 +3295,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="34"/>
     </xf>
@@ -3349,60 +3398,60 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="14" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3418,11 +3467,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3432,6 +3478,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF33CCFF"/>
@@ -3439,7 +3486,6 @@
       <color rgb="FF66FF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF99FF66"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
@@ -3961,6 +4007,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\ROUSS\Pictures\2023-11-28 ESCANEO\CENTRAL &amp; OBRADOR  20-25 NOV-2023.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8791575" y="76199"/>
+          <a:ext cx="6762750" cy="9572625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector angular 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5657852" y="7639054"/>
+          <a:ext cx="8820148" cy="1142996"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4249,20 +4397,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="285" t="s">
+      <c r="C1" s="287" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
       <c r="I1" s="68"/>
-      <c r="J1" s="286" t="s">
+      <c r="J1" s="288" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
     </row>
     <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -5194,8 +5342,8 @@
       </c>
       <c r="G32" s="27"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="287"/>
-      <c r="K32" s="287"/>
+      <c r="J32" s="289"/>
+      <c r="K32" s="289"/>
       <c r="L32" s="147"/>
       <c r="M32" s="148"/>
     </row>
@@ -5253,7 +5401,7 @@
       <c r="D35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="334" t="s">
+      <c r="E35" s="278" t="s">
         <v>467</v>
       </c>
       <c r="F35" s="8">
@@ -5285,10 +5433,10 @@
       <c r="G36" s="25"/>
       <c r="I36" s="68"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="290" t="s">
+      <c r="L36" s="292" t="s">
         <v>210</v>
       </c>
-      <c r="M36" s="288">
+      <c r="M36" s="290">
         <f>F47-M31</f>
         <v>1037858.16</v>
       </c>
@@ -5312,8 +5460,8 @@
       <c r="G37" s="45"/>
       <c r="I37" s="68"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="291"/>
-      <c r="M37" s="289"/>
+      <c r="L37" s="293"/>
+      <c r="M37" s="291"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -5385,10 +5533,10 @@
       <c r="K40" s="157">
         <v>220000</v>
       </c>
-      <c r="L40" s="281" t="s">
+      <c r="L40" s="283" t="s">
         <v>209</v>
       </c>
-      <c r="M40" s="282"/>
+      <c r="M40" s="284"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
@@ -5416,8 +5564,8 @@
       <c r="K41" s="159">
         <v>25000</v>
       </c>
-      <c r="L41" s="283"/>
-      <c r="M41" s="284"/>
+      <c r="L41" s="285"/>
+      <c r="M41" s="286"/>
     </row>
     <row r="42" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
@@ -5472,7 +5620,7 @@
       <c r="K43" s="159">
         <v>170000</v>
       </c>
-      <c r="L43" s="278" t="s">
+      <c r="L43" s="280" t="s">
         <v>280</v>
       </c>
       <c r="M43" s="166"/>
@@ -5503,7 +5651,7 @@
       <c r="K44" s="159">
         <v>180000</v>
       </c>
-      <c r="L44" s="279"/>
+      <c r="L44" s="281"/>
       <c r="M44" s="167"/>
     </row>
     <row r="45" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5532,7 +5680,7 @@
       <c r="K45" s="159">
         <v>60000</v>
       </c>
-      <c r="L45" s="279"/>
+      <c r="L45" s="281"/>
       <c r="M45" s="167"/>
     </row>
     <row r="46" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5551,7 +5699,7 @@
       <c r="K46" s="159">
         <v>98858</v>
       </c>
-      <c r="L46" s="279"/>
+      <c r="L46" s="281"/>
       <c r="M46" s="167"/>
     </row>
     <row r="47" spans="2:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5573,7 +5721,7 @@
       <c r="K47" s="163">
         <v>190000</v>
       </c>
-      <c r="L47" s="280"/>
+      <c r="L47" s="282"/>
       <c r="M47" s="168"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -5637,19 +5785,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="285" t="s">
+      <c r="C1" s="287" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="J1" s="286" t="s">
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="J1" s="288" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -6832,10 +6980,10 @@
       </c>
       <c r="J39" s="86"/>
       <c r="K39" s="95"/>
-      <c r="L39" s="292" t="s">
+      <c r="L39" s="294" t="s">
         <v>210</v>
       </c>
-      <c r="M39" s="294">
+      <c r="M39" s="296">
         <f>F43-M37</f>
         <v>225360.95000000007</v>
       </c>
@@ -6860,8 +7008,8 @@
         <v>190</v>
       </c>
       <c r="K40" s="94"/>
-      <c r="L40" s="293"/>
-      <c r="M40" s="295"/>
+      <c r="L40" s="295"/>
+      <c r="M40" s="297"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -6945,13 +7093,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="287" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
     </row>
     <row r="3" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -7731,34 +7879,34 @@
     </row>
     <row r="45" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="F45" s="298" t="s">
+      <c r="F45" s="300" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="299"/>
-      <c r="H45" s="300"/>
+      <c r="G45" s="301"/>
+      <c r="H45" s="302"/>
       <c r="I45" s="100"/>
-      <c r="J45" s="296" t="s">
+      <c r="J45" s="298" t="s">
         <v>210</v>
       </c>
-      <c r="K45" s="297"/>
-      <c r="L45" s="304">
+      <c r="K45" s="299"/>
+      <c r="L45" s="306">
         <f>F43-982143.23</f>
         <v>213624.55000000005</v>
       </c>
-      <c r="M45" s="305"/>
-      <c r="N45" s="305"/>
+      <c r="M45" s="307"/>
+      <c r="N45" s="307"/>
       <c r="O45" s="100"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="301"/>
-      <c r="G46" s="302"/>
-      <c r="H46" s="303"/>
+      <c r="F46" s="303"/>
+      <c r="G46" s="304"/>
+      <c r="H46" s="305"/>
       <c r="I46" s="100"/>
-      <c r="J46" s="296"/>
-      <c r="K46" s="297"/>
-      <c r="L46" s="304"/>
-      <c r="M46" s="305"/>
-      <c r="N46" s="305"/>
+      <c r="J46" s="298"/>
+      <c r="K46" s="299"/>
+      <c r="L46" s="306"/>
+      <c r="M46" s="307"/>
+      <c r="N46" s="307"/>
       <c r="O46" s="100"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -7818,13 +7966,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="285" t="s">
+      <c r="C1" s="287" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
     </row>
     <row r="2" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -8368,23 +8516,23 @@
     </row>
     <row r="34" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="112"/>
-      <c r="C34" s="310" t="s">
+      <c r="C34" s="312" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="310"/>
-      <c r="E34" s="306">
+      <c r="D34" s="312"/>
+      <c r="E34" s="308">
         <f>F31-782498.42</f>
         <v>718019.03999999992</v>
       </c>
-      <c r="F34" s="307"/>
+      <c r="F34" s="309"/>
       <c r="G34" s="170"/>
     </row>
     <row r="35" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="112"/>
-      <c r="C35" s="310"/>
-      <c r="D35" s="310"/>
-      <c r="E35" s="308"/>
-      <c r="F35" s="309"/>
+      <c r="C35" s="312"/>
+      <c r="D35" s="312"/>
+      <c r="E35" s="310"/>
+      <c r="F35" s="311"/>
       <c r="G35" s="171"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -8584,27 +8732,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="287" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="K2" s="311" t="s">
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="K2" s="330" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="311"/>
-      <c r="M2" s="311"/>
-      <c r="N2" s="311"/>
-      <c r="O2" s="311"/>
-      <c r="R2" s="311" t="s">
+      <c r="L2" s="330"/>
+      <c r="M2" s="330"/>
+      <c r="N2" s="330"/>
+      <c r="O2" s="330"/>
+      <c r="R2" s="330" t="s">
         <v>330</v>
       </c>
-      <c r="S2" s="311"/>
-      <c r="T2" s="311"/>
-      <c r="U2" s="311"/>
-      <c r="V2" s="311"/>
+      <c r="S2" s="330"/>
+      <c r="T2" s="330"/>
+      <c r="U2" s="330"/>
+      <c r="V2" s="330"/>
     </row>
     <row r="3" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -10158,15 +10306,15 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="112"/>
-      <c r="C35" s="310" t="s">
+      <c r="C35" s="312" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="310"/>
-      <c r="E35" s="306">
+      <c r="D35" s="312"/>
+      <c r="E35" s="308">
         <f>F32-U52</f>
         <v>-681081.05999999982</v>
       </c>
-      <c r="F35" s="307"/>
+      <c r="F35" s="309"/>
       <c r="G35" s="170"/>
       <c r="J35" s="6">
         <v>32</v>
@@ -10203,10 +10351,10 @@
     </row>
     <row r="36" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="112"/>
-      <c r="C36" s="310"/>
-      <c r="D36" s="310"/>
-      <c r="E36" s="308"/>
-      <c r="F36" s="309"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="310"/>
+      <c r="F36" s="311"/>
       <c r="G36" s="171"/>
       <c r="J36" s="6">
         <v>33</v>
@@ -10399,10 +10547,10 @@
       <c r="G41" s="230"/>
       <c r="J41" s="188"/>
       <c r="K41" s="189"/>
-      <c r="L41" s="312" t="s">
+      <c r="L41" s="313" t="s">
         <v>412</v>
       </c>
-      <c r="M41" s="313"/>
+      <c r="M41" s="314"/>
       <c r="N41" s="185">
         <f>SUM(N4:N40)</f>
         <v>1545672.14</v>
@@ -10497,13 +10645,13 @@
       </c>
       <c r="G44" s="230"/>
       <c r="K44" s="222"/>
-      <c r="L44" s="320" t="s">
+      <c r="L44" s="321" t="s">
         <v>466</v>
       </c>
-      <c r="M44" s="321"/>
-      <c r="N44" s="321"/>
-      <c r="O44" s="321"/>
-      <c r="P44" s="322"/>
+      <c r="M44" s="322"/>
+      <c r="N44" s="322"/>
+      <c r="O44" s="322"/>
+      <c r="P44" s="323"/>
       <c r="Q44" s="265">
         <v>41</v>
       </c>
@@ -10528,11 +10676,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="230"/>
-      <c r="L45" s="323"/>
-      <c r="M45" s="324"/>
-      <c r="N45" s="324"/>
-      <c r="O45" s="324"/>
-      <c r="P45" s="325"/>
+      <c r="L45" s="324"/>
+      <c r="M45" s="325"/>
+      <c r="N45" s="325"/>
+      <c r="O45" s="325"/>
+      <c r="P45" s="326"/>
       <c r="Q45" s="266">
         <v>42</v>
       </c>
@@ -10558,11 +10706,11 @@
         <v>681080</v>
       </c>
       <c r="G46" s="230"/>
-      <c r="L46" s="323"/>
-      <c r="M46" s="324"/>
-      <c r="N46" s="324"/>
-      <c r="O46" s="324"/>
-      <c r="P46" s="325"/>
+      <c r="L46" s="324"/>
+      <c r="M46" s="325"/>
+      <c r="N46" s="325"/>
+      <c r="O46" s="325"/>
+      <c r="P46" s="326"/>
       <c r="Q46" s="265">
         <v>43</v>
       </c>
@@ -10587,11 +10735,11 @@
       <c r="E47" s="233"/>
       <c r="F47" s="234"/>
       <c r="G47" s="235"/>
-      <c r="L47" s="326"/>
-      <c r="M47" s="327"/>
-      <c r="N47" s="327"/>
-      <c r="O47" s="327"/>
-      <c r="P47" s="328"/>
+      <c r="L47" s="327"/>
+      <c r="M47" s="328"/>
+      <c r="N47" s="328"/>
+      <c r="O47" s="328"/>
+      <c r="P47" s="329"/>
       <c r="Q47" s="266">
         <v>44</v>
       </c>
@@ -10648,10 +10796,10 @@
     <row r="50" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q50" s="186"/>
       <c r="R50" s="217"/>
-      <c r="S50" s="316" t="s">
+      <c r="S50" s="317" t="s">
         <v>414</v>
       </c>
-      <c r="T50" s="317"/>
+      <c r="T50" s="318"/>
       <c r="U50" s="218">
         <f>SUM(U4:U49)</f>
         <v>661176.16</v>
@@ -10659,10 +10807,10 @@
       <c r="V50" s="187"/>
     </row>
     <row r="51" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S51" s="314" t="s">
+      <c r="S51" s="315" t="s">
         <v>413</v>
       </c>
-      <c r="T51" s="315"/>
+      <c r="T51" s="316"/>
       <c r="U51" s="216">
         <f>N41</f>
         <v>1545672.14</v>
@@ -10670,10 +10818,10 @@
       <c r="V51" s="187"/>
     </row>
     <row r="52" spans="17:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S52" s="318" t="s">
+      <c r="S52" s="319" t="s">
         <v>415</v>
       </c>
-      <c r="T52" s="319"/>
+      <c r="T52" s="320"/>
       <c r="U52" s="221">
         <f>U50+U51</f>
         <v>2206848.2999999998</v>
@@ -10689,16 +10837,16 @@
     <sortCondition ref="S46:S48"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R2:V2"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="S51:T51"/>
     <mergeCell ref="S50:T50"/>
     <mergeCell ref="S52:T52"/>
     <mergeCell ref="L44:P47"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R2:V2"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.23622047244094491" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10713,8 +10861,8 @@
   </sheetPr>
   <dimension ref="B2:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10730,20 +10878,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="287" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="K2" s="311" t="s">
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="K2" s="330" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="311"/>
-      <c r="M2" s="311"/>
-      <c r="N2" s="311"/>
-      <c r="O2" s="311"/>
+      <c r="L2" s="330"/>
+      <c r="M2" s="330"/>
+      <c r="N2" s="330"/>
+      <c r="O2" s="330"/>
     </row>
     <row r="3" spans="2:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -11572,10 +11720,10 @@
       <c r="G31" s="137"/>
       <c r="J31" s="188"/>
       <c r="K31" s="189"/>
-      <c r="L31" s="312" t="s">
+      <c r="L31" s="313" t="s">
         <v>412</v>
       </c>
-      <c r="M31" s="313"/>
+      <c r="M31" s="314"/>
       <c r="N31" s="185">
         <f>SUM(N4:N30)</f>
         <v>366663.07999999996</v>
@@ -11631,15 +11779,15 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="112"/>
-      <c r="C35" s="310" t="s">
+      <c r="C35" s="312" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="310"/>
-      <c r="E35" s="306">
+      <c r="D35" s="312"/>
+      <c r="E35" s="308">
         <f>F32-N31</f>
         <v>851287.64000000025</v>
       </c>
-      <c r="F35" s="307"/>
+      <c r="F35" s="309"/>
       <c r="G35" s="170"/>
       <c r="J35" s="112"/>
       <c r="K35" s="113"/>
@@ -11650,10 +11798,10 @@
     </row>
     <row r="36" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="112"/>
-      <c r="C36" s="310"/>
-      <c r="D36" s="310"/>
-      <c r="E36" s="308"/>
-      <c r="F36" s="309"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="310"/>
+      <c r="F36" s="311"/>
       <c r="G36" s="171"/>
       <c r="J36" s="112"/>
       <c r="K36" s="113"/>
@@ -11781,8 +11929,8 @@
       </c>
       <c r="G44" s="247"/>
       <c r="K44" s="222"/>
-      <c r="L44" s="333"/>
-      <c r="M44" s="333"/>
+      <c r="L44" s="335"/>
+      <c r="M44" s="335"/>
     </row>
     <row r="45" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="267">
@@ -11843,10 +11991,10 @@
     </row>
     <row r="49" spans="4:13" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D49" s="252"/>
-      <c r="E49" s="331" t="s">
+      <c r="E49" s="333" t="s">
         <v>464</v>
       </c>
-      <c r="F49" s="329">
+      <c r="F49" s="331">
         <f>SUM(F40:F48)</f>
         <v>0.35999999998603016</v>
       </c>
@@ -11858,8 +12006,8 @@
     </row>
     <row r="50" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="254"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="330"/>
+      <c r="E50" s="334"/>
+      <c r="F50" s="332"/>
       <c r="G50" s="255"/>
       <c r="J50" s="261"/>
       <c r="K50" s="262"/>
@@ -11888,10 +12036,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I50"/>
+  <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+  </sheetPr>
+  <dimension ref="C2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11905,16 +12056,16 @@
     <col min="9" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="285" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="285"/>
-    </row>
-    <row r="3" spans="3:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="287" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="287"/>
+    </row>
+    <row r="3" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="43" t="s">
         <v>0</v>
       </c>
@@ -11929,7 +12080,7 @@
       </c>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="6">
         <v>1</v>
       </c>
@@ -11947,7 +12098,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -11965,7 +12116,7 @@
       </c>
       <c r="H5" s="137"/>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="6">
         <v>3</v>
       </c>
@@ -11981,11 +12132,11 @@
       <c r="G6" s="33">
         <v>0</v>
       </c>
-      <c r="H6" s="335" t="s">
+      <c r="H6" s="279" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -12003,7 +12154,7 @@
       </c>
       <c r="H7" s="138"/>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="6">
         <v>5</v>
       </c>
@@ -12021,7 +12172,7 @@
       </c>
       <c r="H8" s="137"/>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="6">
         <v>6</v>
       </c>
@@ -12039,7 +12190,7 @@
       </c>
       <c r="H9" s="137"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="6">
         <v>7</v>
       </c>
@@ -12057,7 +12208,7 @@
       </c>
       <c r="H10" s="137"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="6">
         <v>8</v>
       </c>
@@ -12076,9 +12227,10 @@
       <c r="H11" s="336" t="s">
         <v>519</v>
       </c>
-      <c r="I11" s="94"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="337"/>
+      <c r="J11" s="337"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="6">
         <v>9</v>
       </c>
@@ -12096,7 +12248,7 @@
       </c>
       <c r="H12" s="137"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="6">
         <v>10</v>
       </c>
@@ -12114,7 +12266,7 @@
       </c>
       <c r="H13" s="137"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="6">
         <v>11</v>
       </c>
@@ -12132,7 +12284,7 @@
       </c>
       <c r="H14" s="139"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" s="6">
         <v>12</v>
       </c>
@@ -12150,7 +12302,7 @@
       </c>
       <c r="H15" s="137"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="6">
         <v>13</v>
       </c>
@@ -12286,9 +12438,11 @@
       <c r="E23" s="105" t="s">
         <v>506</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="10">
-        <v>0</v>
+      <c r="F23" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="G23" s="33">
+        <v>13455.2</v>
       </c>
       <c r="H23" s="137"/>
     </row>
@@ -12404,227 +12558,221 @@
       <c r="C30" s="12">
         <v>27</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
+      <c r="D30" s="111">
+        <v>45255</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="G30" s="42">
+        <v>54408.4</v>
+      </c>
       <c r="H30" s="140"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="6"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="33">
-        <v>0</v>
-      </c>
-      <c r="H31" s="137"/>
-    </row>
-    <row r="32" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="122"/>
-      <c r="G32" s="123">
-        <f>SUM(G4:G31)</f>
-        <v>1639202.52</v>
-      </c>
-      <c r="H32" s="141"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="6">
+        <v>28</v>
+      </c>
+      <c r="D31" s="111">
+        <v>45255</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="G31" s="42">
+        <v>28232.7</v>
+      </c>
+      <c r="H31" s="140"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="12">
+        <v>29</v>
+      </c>
+      <c r="D32" s="32">
+        <v>45255</v>
+      </c>
+      <c r="E32" s="105" t="s">
+        <v>525</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="G32" s="33">
+        <v>900</v>
+      </c>
+      <c r="H32" s="137"/>
+    </row>
+    <row r="33" spans="3:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="112"/>
       <c r="D33" s="113"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="117"/>
-    </row>
-    <row r="34" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="122"/>
+      <c r="G33" s="123">
+        <f>SUM(G4:G32)</f>
+        <v>1736198.8199999998</v>
+      </c>
+      <c r="H33" s="141"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="112"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="169"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="113"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="117"/>
+    </row>
+    <row r="35" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="112"/>
-      <c r="D35" s="310" t="s">
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="169"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="112"/>
+      <c r="D36" s="312" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="310"/>
-      <c r="F35" s="306">
-        <f>G32-O31</f>
-        <v>1639202.52</v>
-      </c>
-      <c r="G35" s="307"/>
-      <c r="H35" s="170"/>
-    </row>
-    <row r="36" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="112"/>
-      <c r="D36" s="310"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="308"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="308">
+        <f>G33-O32-547174.52</f>
+        <v>1189024.2999999998</v>
+      </c>
       <c r="G36" s="309"/>
-      <c r="H36" s="171"/>
-    </row>
-    <row r="37" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H36" s="170"/>
+      <c r="K36" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="112"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="173" t="s">
-        <v>460</v>
-      </c>
-      <c r="G37" s="173"/>
-      <c r="H37" s="172"/>
-    </row>
-    <row r="38" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="312"/>
+      <c r="E37" s="312"/>
+      <c r="F37" s="310"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="171"/>
+    </row>
+    <row r="38" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C38" s="112"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="H38" s="119"/>
-    </row>
-    <row r="39" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="173" t="s">
+        <v>528</v>
+      </c>
+      <c r="G38" s="173"/>
+      <c r="H38" s="172"/>
+    </row>
+    <row r="39" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="112"/>
-      <c r="E39" s="223" t="s">
+      <c r="D39" s="86"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="H39" s="119"/>
+    </row>
+    <row r="40" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="112"/>
+      <c r="E40" s="223" t="s">
         <v>462</v>
       </c>
-      <c r="F39" s="240" t="s">
+      <c r="F40" s="240" t="s">
         <v>461</v>
       </c>
-      <c r="H39" s="118"/>
-    </row>
-    <row r="40" spans="3:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="241" t="s">
+      <c r="H40" s="118"/>
+    </row>
+    <row r="41" spans="3:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="241" t="s">
         <v>463</v>
       </c>
-      <c r="F40" s="242"/>
-      <c r="G40" s="243">
-        <v>-851287.64</v>
-      </c>
-      <c r="H40" s="244"/>
-    </row>
-    <row r="41" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="245">
-        <v>45247</v>
-      </c>
-      <c r="F41" s="246">
-        <v>8477</v>
-      </c>
-      <c r="G41" s="184">
-        <v>240040</v>
-      </c>
-      <c r="H41" s="247"/>
-    </row>
-    <row r="42" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="245">
-        <v>45247</v>
-      </c>
-      <c r="F42" s="246">
-        <v>8484</v>
-      </c>
-      <c r="G42" s="184">
-        <v>100000</v>
-      </c>
+      <c r="F41" s="242"/>
+      <c r="G41" s="243"/>
+      <c r="H41" s="244"/>
+    </row>
+    <row r="42" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="245"/>
+      <c r="F42" s="246"/>
+      <c r="G42" s="184"/>
       <c r="H42" s="247"/>
     </row>
-    <row r="43" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="245">
-        <v>45247</v>
-      </c>
-      <c r="F43" s="246">
-        <v>8485</v>
-      </c>
-      <c r="G43" s="184">
-        <v>100000</v>
-      </c>
+    <row r="43" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="245"/>
+      <c r="F43" s="246"/>
+      <c r="G43" s="184"/>
       <c r="H43" s="247"/>
     </row>
-    <row r="44" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="245">
-        <v>45247</v>
-      </c>
-      <c r="F44" s="246">
-        <v>8486</v>
-      </c>
-      <c r="G44" s="184">
-        <v>100000</v>
-      </c>
+    <row r="44" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="245"/>
+      <c r="F44" s="246"/>
+      <c r="G44" s="184"/>
       <c r="H44" s="247"/>
     </row>
-    <row r="45" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="267">
-        <v>45251</v>
-      </c>
-      <c r="F45" s="268">
-        <v>8514</v>
-      </c>
-      <c r="G45" s="269">
-        <v>150000</v>
-      </c>
-      <c r="H45" s="270"/>
-    </row>
-    <row r="46" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="267">
-        <v>45251</v>
-      </c>
-      <c r="F46" s="268">
-        <v>8531</v>
-      </c>
-      <c r="G46" s="269">
-        <v>21248</v>
-      </c>
+    <row r="45" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="245"/>
+      <c r="F45" s="246"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="247"/>
+    </row>
+    <row r="46" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="267"/>
+      <c r="F46" s="268"/>
+      <c r="G46" s="269"/>
       <c r="H46" s="270"/>
     </row>
-    <row r="47" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="267">
-        <v>45251</v>
-      </c>
-      <c r="F47" s="268">
-        <v>8532</v>
-      </c>
-      <c r="G47" s="269">
-        <v>140000</v>
-      </c>
+    <row r="47" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="267"/>
+      <c r="F47" s="268"/>
+      <c r="G47" s="269"/>
       <c r="H47" s="270"/>
     </row>
-    <row r="48" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="248"/>
-      <c r="F48" s="249"/>
-      <c r="G48" s="250">
+    <row r="48" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="267"/>
+      <c r="F48" s="268"/>
+      <c r="G48" s="269"/>
+      <c r="H48" s="270"/>
+    </row>
+    <row r="49" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="248"/>
+      <c r="F49" s="249"/>
+      <c r="G49" s="250">
         <v>0</v>
       </c>
-      <c r="H48" s="251"/>
-    </row>
-    <row r="49" spans="5:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="252"/>
-      <c r="F49" s="331" t="s">
+      <c r="H49" s="251"/>
+    </row>
+    <row r="50" spans="5:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="252"/>
+      <c r="F50" s="333" t="s">
         <v>464</v>
       </c>
-      <c r="G49" s="329">
-        <f>SUM(G40:G48)</f>
-        <v>0.35999999998603016</v>
-      </c>
-      <c r="H49" s="253"/>
-    </row>
-    <row r="50" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="254"/>
-      <c r="F50" s="332"/>
-      <c r="G50" s="330"/>
-      <c r="H50" s="255"/>
+      <c r="G50" s="331">
+        <f>SUM(G41:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="253"/>
+    </row>
+    <row r="51" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="254"/>
+      <c r="F51" s="334"/>
+      <c r="G51" s="332"/>
+      <c r="H51" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="F35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="OBRADOR &amp; CENTRAL 6-11 Nov-23" sheetId="5" r:id="rId5"/>
     <sheet name="OBRADOR &amp; CENTRAL  13-18-Noviem" sheetId="6" r:id="rId6"/>
     <sheet name="OBRADOR  &amp; CENTRAL 18-25 Nov-23" sheetId="7" r:id="rId7"/>
-    <sheet name="Hoja1" sheetId="8" r:id="rId8"/>
+    <sheet name=" DEBE  CENTRAL A ZAVALETA    " sheetId="8" r:id="rId8"/>
     <sheet name="Hoja2" sheetId="9" r:id="rId9"/>
+    <sheet name="Hoja1" sheetId="10" r:id="rId10"/>
+    <sheet name="Hoja3" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="533">
   <si>
     <t>FECHA</t>
   </si>
@@ -1622,6 +1624,15 @@
   </si>
   <si>
     <t xml:space="preserve">SALIDAS  OBRADOR     A   CENTRAL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBE CENTRAL A ZAVALETA </t>
+  </si>
+  <si>
+    <t>DEBE ZAVALETA A PRODUCCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBE PAGAR CENTRAL A ZAVALETA </t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1871,6 +1882,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="70">
     <border>
@@ -2762,7 +2779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3299,6 +3316,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="34"/>
     </xf>
@@ -3398,6 +3417,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3449,9 +3471,6 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="14" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3467,8 +3486,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3478,11 +3528,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF33CCFF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF99FF66"/>
@@ -4109,6 +4159,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50165</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="381000"/>
+          <a:ext cx="6984365" cy="4466590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="571500"/>
+          <a:ext cx="6858000" cy="4024630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4397,20 +4524,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="287" t="s">
+      <c r="C1" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
       <c r="I1" s="68"/>
-      <c r="J1" s="288" t="s">
+      <c r="J1" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
     </row>
     <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -5342,8 +5469,8 @@
       </c>
       <c r="G32" s="27"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="289"/>
-      <c r="K32" s="289"/>
+      <c r="J32" s="291"/>
+      <c r="K32" s="291"/>
       <c r="L32" s="147"/>
       <c r="M32" s="148"/>
     </row>
@@ -5433,10 +5560,10 @@
       <c r="G36" s="25"/>
       <c r="I36" s="68"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="292" t="s">
+      <c r="L36" s="294" t="s">
         <v>210</v>
       </c>
-      <c r="M36" s="290">
+      <c r="M36" s="292">
         <f>F47-M31</f>
         <v>1037858.16</v>
       </c>
@@ -5460,8 +5587,8 @@
       <c r="G37" s="45"/>
       <c r="I37" s="68"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="293"/>
-      <c r="M37" s="291"/>
+      <c r="L37" s="295"/>
+      <c r="M37" s="293"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -5533,10 +5660,10 @@
       <c r="K40" s="157">
         <v>220000</v>
       </c>
-      <c r="L40" s="283" t="s">
+      <c r="L40" s="285" t="s">
         <v>209</v>
       </c>
-      <c r="M40" s="284"/>
+      <c r="M40" s="286"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
@@ -5564,8 +5691,8 @@
       <c r="K41" s="159">
         <v>25000</v>
       </c>
-      <c r="L41" s="285"/>
-      <c r="M41" s="286"/>
+      <c r="L41" s="287"/>
+      <c r="M41" s="288"/>
     </row>
     <row r="42" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
@@ -5620,7 +5747,7 @@
       <c r="K43" s="159">
         <v>170000</v>
       </c>
-      <c r="L43" s="280" t="s">
+      <c r="L43" s="282" t="s">
         <v>280</v>
       </c>
       <c r="M43" s="166"/>
@@ -5651,7 +5778,7 @@
       <c r="K44" s="159">
         <v>180000</v>
       </c>
-      <c r="L44" s="281"/>
+      <c r="L44" s="283"/>
       <c r="M44" s="167"/>
     </row>
     <row r="45" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5680,7 +5807,7 @@
       <c r="K45" s="159">
         <v>60000</v>
       </c>
-      <c r="L45" s="281"/>
+      <c r="L45" s="283"/>
       <c r="M45" s="167"/>
     </row>
     <row r="46" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5699,7 +5826,7 @@
       <c r="K46" s="159">
         <v>98858</v>
       </c>
-      <c r="L46" s="281"/>
+      <c r="L46" s="283"/>
       <c r="M46" s="167"/>
     </row>
     <row r="47" spans="2:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5721,7 +5848,7 @@
       <c r="K47" s="163">
         <v>190000</v>
       </c>
-      <c r="L47" s="282"/>
+      <c r="L47" s="284"/>
       <c r="M47" s="168"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -5756,6 +5883,30 @@
   <pageMargins left="2.23" right="0.23622047244094491" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5785,19 +5936,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="287" t="s">
+      <c r="C1" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="J1" s="288" t="s">
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="J1" s="290" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -6980,10 +7131,10 @@
       </c>
       <c r="J39" s="86"/>
       <c r="K39" s="95"/>
-      <c r="L39" s="294" t="s">
+      <c r="L39" s="296" t="s">
         <v>210</v>
       </c>
-      <c r="M39" s="296">
+      <c r="M39" s="298">
         <f>F43-M37</f>
         <v>225360.95000000007</v>
       </c>
@@ -7008,8 +7159,8 @@
         <v>190</v>
       </c>
       <c r="K40" s="94"/>
-      <c r="L40" s="295"/>
-      <c r="M40" s="297"/>
+      <c r="L40" s="297"/>
+      <c r="M40" s="299"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -7093,13 +7244,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="287" t="s">
+      <c r="C2" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
     </row>
     <row r="3" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -7879,34 +8030,34 @@
     </row>
     <row r="45" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="F45" s="300" t="s">
+      <c r="F45" s="302" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="301"/>
-      <c r="H45" s="302"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="304"/>
       <c r="I45" s="100"/>
-      <c r="J45" s="298" t="s">
+      <c r="J45" s="300" t="s">
         <v>210</v>
       </c>
-      <c r="K45" s="299"/>
-      <c r="L45" s="306">
+      <c r="K45" s="301"/>
+      <c r="L45" s="308">
         <f>F43-982143.23</f>
         <v>213624.55000000005</v>
       </c>
-      <c r="M45" s="307"/>
-      <c r="N45" s="307"/>
+      <c r="M45" s="309"/>
+      <c r="N45" s="309"/>
       <c r="O45" s="100"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="303"/>
-      <c r="G46" s="304"/>
-      <c r="H46" s="305"/>
+      <c r="F46" s="305"/>
+      <c r="G46" s="306"/>
+      <c r="H46" s="307"/>
       <c r="I46" s="100"/>
-      <c r="J46" s="298"/>
-      <c r="K46" s="299"/>
-      <c r="L46" s="306"/>
-      <c r="M46" s="307"/>
-      <c r="N46" s="307"/>
+      <c r="J46" s="300"/>
+      <c r="K46" s="301"/>
+      <c r="L46" s="308"/>
+      <c r="M46" s="309"/>
+      <c r="N46" s="309"/>
       <c r="O46" s="100"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -7966,13 +8117,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="287" t="s">
+      <c r="C1" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
     </row>
     <row r="2" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -8516,23 +8667,23 @@
     </row>
     <row r="34" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="112"/>
-      <c r="C34" s="312" t="s">
+      <c r="C34" s="314" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="312"/>
-      <c r="E34" s="308">
+      <c r="D34" s="314"/>
+      <c r="E34" s="310">
         <f>F31-782498.42</f>
         <v>718019.03999999992</v>
       </c>
-      <c r="F34" s="309"/>
+      <c r="F34" s="311"/>
       <c r="G34" s="170"/>
     </row>
     <row r="35" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="112"/>
-      <c r="C35" s="312"/>
-      <c r="D35" s="312"/>
-      <c r="E35" s="310"/>
-      <c r="F35" s="311"/>
+      <c r="C35" s="314"/>
+      <c r="D35" s="314"/>
+      <c r="E35" s="312"/>
+      <c r="F35" s="313"/>
       <c r="G35" s="171"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -8732,27 +8883,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="287" t="s">
+      <c r="C2" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="K2" s="330" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="K2" s="315" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="330"/>
-      <c r="M2" s="330"/>
-      <c r="N2" s="330"/>
-      <c r="O2" s="330"/>
-      <c r="R2" s="330" t="s">
+      <c r="L2" s="315"/>
+      <c r="M2" s="315"/>
+      <c r="N2" s="315"/>
+      <c r="O2" s="315"/>
+      <c r="R2" s="315" t="s">
         <v>330</v>
       </c>
-      <c r="S2" s="330"/>
-      <c r="T2" s="330"/>
-      <c r="U2" s="330"/>
-      <c r="V2" s="330"/>
+      <c r="S2" s="315"/>
+      <c r="T2" s="315"/>
+      <c r="U2" s="315"/>
+      <c r="V2" s="315"/>
     </row>
     <row r="3" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -10306,15 +10457,15 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="112"/>
-      <c r="C35" s="312" t="s">
+      <c r="C35" s="314" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="312"/>
-      <c r="E35" s="308">
+      <c r="D35" s="314"/>
+      <c r="E35" s="310">
         <f>F32-U52</f>
         <v>-681081.05999999982</v>
       </c>
-      <c r="F35" s="309"/>
+      <c r="F35" s="311"/>
       <c r="G35" s="170"/>
       <c r="J35" s="6">
         <v>32</v>
@@ -10351,10 +10502,10 @@
     </row>
     <row r="36" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="112"/>
-      <c r="C36" s="312"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="311"/>
+      <c r="C36" s="314"/>
+      <c r="D36" s="314"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="313"/>
       <c r="G36" s="171"/>
       <c r="J36" s="6">
         <v>33</v>
@@ -10547,10 +10698,10 @@
       <c r="G41" s="230"/>
       <c r="J41" s="188"/>
       <c r="K41" s="189"/>
-      <c r="L41" s="313" t="s">
+      <c r="L41" s="316" t="s">
         <v>412</v>
       </c>
-      <c r="M41" s="314"/>
+      <c r="M41" s="317"/>
       <c r="N41" s="185">
         <f>SUM(N4:N40)</f>
         <v>1545672.14</v>
@@ -10645,13 +10796,13 @@
       </c>
       <c r="G44" s="230"/>
       <c r="K44" s="222"/>
-      <c r="L44" s="321" t="s">
+      <c r="L44" s="324" t="s">
         <v>466</v>
       </c>
-      <c r="M44" s="322"/>
-      <c r="N44" s="322"/>
-      <c r="O44" s="322"/>
-      <c r="P44" s="323"/>
+      <c r="M44" s="325"/>
+      <c r="N44" s="325"/>
+      <c r="O44" s="325"/>
+      <c r="P44" s="326"/>
       <c r="Q44" s="265">
         <v>41</v>
       </c>
@@ -10676,11 +10827,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="230"/>
-      <c r="L45" s="324"/>
-      <c r="M45" s="325"/>
-      <c r="N45" s="325"/>
-      <c r="O45" s="325"/>
-      <c r="P45" s="326"/>
+      <c r="L45" s="327"/>
+      <c r="M45" s="328"/>
+      <c r="N45" s="328"/>
+      <c r="O45" s="328"/>
+      <c r="P45" s="329"/>
       <c r="Q45" s="266">
         <v>42</v>
       </c>
@@ -10706,11 +10857,11 @@
         <v>681080</v>
       </c>
       <c r="G46" s="230"/>
-      <c r="L46" s="324"/>
-      <c r="M46" s="325"/>
-      <c r="N46" s="325"/>
-      <c r="O46" s="325"/>
-      <c r="P46" s="326"/>
+      <c r="L46" s="327"/>
+      <c r="M46" s="328"/>
+      <c r="N46" s="328"/>
+      <c r="O46" s="328"/>
+      <c r="P46" s="329"/>
       <c r="Q46" s="265">
         <v>43</v>
       </c>
@@ -10735,11 +10886,11 @@
       <c r="E47" s="233"/>
       <c r="F47" s="234"/>
       <c r="G47" s="235"/>
-      <c r="L47" s="327"/>
-      <c r="M47" s="328"/>
-      <c r="N47" s="328"/>
-      <c r="O47" s="328"/>
-      <c r="P47" s="329"/>
+      <c r="L47" s="330"/>
+      <c r="M47" s="331"/>
+      <c r="N47" s="331"/>
+      <c r="O47" s="331"/>
+      <c r="P47" s="332"/>
       <c r="Q47" s="266">
         <v>44</v>
       </c>
@@ -10796,10 +10947,10 @@
     <row r="50" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q50" s="186"/>
       <c r="R50" s="217"/>
-      <c r="S50" s="317" t="s">
+      <c r="S50" s="320" t="s">
         <v>414</v>
       </c>
-      <c r="T50" s="318"/>
+      <c r="T50" s="321"/>
       <c r="U50" s="218">
         <f>SUM(U4:U49)</f>
         <v>661176.16</v>
@@ -10807,10 +10958,10 @@
       <c r="V50" s="187"/>
     </row>
     <row r="51" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S51" s="315" t="s">
+      <c r="S51" s="318" t="s">
         <v>413</v>
       </c>
-      <c r="T51" s="316"/>
+      <c r="T51" s="319"/>
       <c r="U51" s="216">
         <f>N41</f>
         <v>1545672.14</v>
@@ -10818,10 +10969,10 @@
       <c r="V51" s="187"/>
     </row>
     <row r="52" spans="17:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S52" s="319" t="s">
+      <c r="S52" s="322" t="s">
         <v>415</v>
       </c>
-      <c r="T52" s="320"/>
+      <c r="T52" s="323"/>
       <c r="U52" s="221">
         <f>U50+U51</f>
         <v>2206848.2999999998</v>
@@ -10837,16 +10988,16 @@
     <sortCondition ref="S46:S48"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="L44:P47"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C35:D36"/>
     <mergeCell ref="E35:F36"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="R2:V2"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="L44:P47"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.23622047244094491" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10878,20 +11029,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="287" t="s">
+      <c r="C2" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="K2" s="330" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="K2" s="315" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="330"/>
-      <c r="M2" s="330"/>
-      <c r="N2" s="330"/>
-      <c r="O2" s="330"/>
+      <c r="L2" s="315"/>
+      <c r="M2" s="315"/>
+      <c r="N2" s="315"/>
+      <c r="O2" s="315"/>
     </row>
     <row r="3" spans="2:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -11720,10 +11871,10 @@
       <c r="G31" s="137"/>
       <c r="J31" s="188"/>
       <c r="K31" s="189"/>
-      <c r="L31" s="313" t="s">
+      <c r="L31" s="316" t="s">
         <v>412</v>
       </c>
-      <c r="M31" s="314"/>
+      <c r="M31" s="317"/>
       <c r="N31" s="185">
         <f>SUM(N4:N30)</f>
         <v>366663.07999999996</v>
@@ -11779,15 +11930,15 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="112"/>
-      <c r="C35" s="312" t="s">
+      <c r="C35" s="314" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="312"/>
-      <c r="E35" s="308">
+      <c r="D35" s="314"/>
+      <c r="E35" s="310">
         <f>F32-N31</f>
         <v>851287.64000000025</v>
       </c>
-      <c r="F35" s="309"/>
+      <c r="F35" s="311"/>
       <c r="G35" s="170"/>
       <c r="J35" s="112"/>
       <c r="K35" s="113"/>
@@ -11798,10 +11949,10 @@
     </row>
     <row r="36" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="112"/>
-      <c r="C36" s="312"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="311"/>
+      <c r="C36" s="314"/>
+      <c r="D36" s="314"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="313"/>
       <c r="G36" s="171"/>
       <c r="J36" s="112"/>
       <c r="K36" s="113"/>
@@ -11929,8 +12080,8 @@
       </c>
       <c r="G44" s="247"/>
       <c r="K44" s="222"/>
-      <c r="L44" s="335"/>
-      <c r="M44" s="335"/>
+      <c r="L44" s="337"/>
+      <c r="M44" s="337"/>
     </row>
     <row r="45" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="267">
@@ -11991,10 +12142,10 @@
     </row>
     <row r="49" spans="4:13" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D49" s="252"/>
-      <c r="E49" s="333" t="s">
+      <c r="E49" s="335" t="s">
         <v>464</v>
       </c>
-      <c r="F49" s="331">
+      <c r="F49" s="333">
         <f>SUM(F40:F48)</f>
         <v>0.35999999998603016</v>
       </c>
@@ -12006,8 +12157,8 @@
     </row>
     <row r="50" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="254"/>
-      <c r="E50" s="334"/>
-      <c r="F50" s="332"/>
+      <c r="E50" s="336"/>
+      <c r="F50" s="334"/>
       <c r="G50" s="255"/>
       <c r="J50" s="261"/>
       <c r="K50" s="262"/>
@@ -12041,7 +12192,7 @@
   </sheetPr>
   <dimension ref="C2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
@@ -12057,13 +12208,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="287" t="s">
+      <c r="D2" s="289" t="s">
         <v>529</v>
       </c>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="H2" s="287"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
     </row>
     <row r="3" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="43" t="s">
@@ -12224,11 +12375,11 @@
       <c r="G11" s="33">
         <v>560</v>
       </c>
-      <c r="H11" s="336" t="s">
+      <c r="H11" s="280" t="s">
         <v>519</v>
       </c>
-      <c r="I11" s="337"/>
-      <c r="J11" s="337"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="281"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="6">
@@ -12639,15 +12790,15 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="112"/>
-      <c r="D36" s="312" t="s">
+      <c r="D36" s="314" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="312"/>
-      <c r="F36" s="308">
+      <c r="E36" s="314"/>
+      <c r="F36" s="310">
         <f>G33-O32-547174.52</f>
         <v>1189024.2999999998</v>
       </c>
-      <c r="G36" s="309"/>
+      <c r="G36" s="311"/>
       <c r="H36" s="170"/>
       <c r="K36" t="s">
         <v>527</v>
@@ -12655,10 +12806,10 @@
     </row>
     <row r="37" spans="3:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="112"/>
-      <c r="D37" s="312"/>
-      <c r="E37" s="312"/>
-      <c r="F37" s="310"/>
-      <c r="G37" s="311"/>
+      <c r="D37" s="314"/>
+      <c r="E37" s="314"/>
+      <c r="F37" s="312"/>
+      <c r="G37" s="313"/>
       <c r="H37" s="171"/>
     </row>
     <row r="38" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -12748,10 +12899,10 @@
     </row>
     <row r="50" spans="5:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E50" s="252"/>
-      <c r="F50" s="333" t="s">
+      <c r="F50" s="335" t="s">
         <v>464</v>
       </c>
-      <c r="G50" s="331">
+      <c r="G50" s="333">
         <f>SUM(G41:G49)</f>
         <v>0</v>
       </c>
@@ -12759,8 +12910,8 @@
     </row>
     <row r="51" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="254"/>
-      <c r="F51" s="334"/>
-      <c r="G51" s="332"/>
+      <c r="F51" s="336"/>
+      <c r="G51" s="334"/>
       <c r="H51" s="255"/>
     </row>
   </sheetData>
@@ -12778,13 +12929,135 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF66FFFF"/>
+  </sheetPr>
+  <dimension ref="D29:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="29" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D29" s="347">
+        <v>45258</v>
+      </c>
+      <c r="E29" s="338" t="s">
+        <v>530</v>
+      </c>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="339">
+        <v>434277.18</v>
+      </c>
+      <c r="I29" s="339"/>
+    </row>
+    <row r="30" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D30" s="347">
+        <v>45257</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="340">
+        <v>-180418.38</v>
+      </c>
+      <c r="I30" s="341"/>
+    </row>
+    <row r="31" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="342"/>
+      <c r="F31" s="342"/>
+      <c r="G31" s="342"/>
+      <c r="H31" s="343">
+        <v>0</v>
+      </c>
+      <c r="I31" s="344"/>
+    </row>
+    <row r="32" spans="4:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="348" t="s">
+        <v>532</v>
+      </c>
+      <c r="F32" s="349"/>
+      <c r="G32" s="350"/>
+      <c r="H32" s="345">
+        <f t="shared" ref="H32:I32" si="0">SUM(H29:I31)</f>
+        <v>253858.8</v>
+      </c>
+      <c r="I32" s="346"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="E32:G32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE  NOTAS CENTRAL  OCT-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23865" windowHeight="11130" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS  CENTRAL 16  al  21 Oct  " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="533">
   <si>
     <t>FECHA</t>
   </si>
@@ -2779,7 +2779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3318,6 +3318,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="34"/>
     </xf>
@@ -3486,7 +3489,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3496,7 +3498,6 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3509,7 +3510,6 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3519,6 +3519,10 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4524,20 +4528,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="289" t="s">
+      <c r="C1" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
       <c r="I1" s="68"/>
-      <c r="J1" s="290" t="s">
+      <c r="J1" s="293" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
     </row>
     <row r="2" spans="2:13" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -5469,8 +5473,8 @@
       </c>
       <c r="G32" s="27"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="291"/>
-      <c r="K32" s="291"/>
+      <c r="J32" s="294"/>
+      <c r="K32" s="294"/>
       <c r="L32" s="147"/>
       <c r="M32" s="148"/>
     </row>
@@ -5560,10 +5564,10 @@
       <c r="G36" s="25"/>
       <c r="I36" s="68"/>
       <c r="K36" s="99"/>
-      <c r="L36" s="294" t="s">
+      <c r="L36" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="M36" s="292">
+      <c r="M36" s="295">
         <f>F47-M31</f>
         <v>1037858.16</v>
       </c>
@@ -5587,8 +5591,8 @@
       <c r="G37" s="45"/>
       <c r="I37" s="68"/>
       <c r="K37" s="99"/>
-      <c r="L37" s="295"/>
-      <c r="M37" s="293"/>
+      <c r="L37" s="298"/>
+      <c r="M37" s="296"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -5660,10 +5664,10 @@
       <c r="K40" s="157">
         <v>220000</v>
       </c>
-      <c r="L40" s="285" t="s">
+      <c r="L40" s="288" t="s">
         <v>209</v>
       </c>
-      <c r="M40" s="286"/>
+      <c r="M40" s="289"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
@@ -5691,8 +5695,8 @@
       <c r="K41" s="159">
         <v>25000</v>
       </c>
-      <c r="L41" s="287"/>
-      <c r="M41" s="288"/>
+      <c r="L41" s="290"/>
+      <c r="M41" s="291"/>
     </row>
     <row r="42" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
@@ -5747,7 +5751,7 @@
       <c r="K43" s="159">
         <v>170000</v>
       </c>
-      <c r="L43" s="282" t="s">
+      <c r="L43" s="285" t="s">
         <v>280</v>
       </c>
       <c r="M43" s="166"/>
@@ -5778,7 +5782,7 @@
       <c r="K44" s="159">
         <v>180000</v>
       </c>
-      <c r="L44" s="283"/>
+      <c r="L44" s="286"/>
       <c r="M44" s="167"/>
     </row>
     <row r="45" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,7 +5811,7 @@
       <c r="K45" s="159">
         <v>60000</v>
       </c>
-      <c r="L45" s="283"/>
+      <c r="L45" s="286"/>
       <c r="M45" s="167"/>
     </row>
     <row r="46" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5826,7 +5830,7 @@
       <c r="K46" s="159">
         <v>98858</v>
       </c>
-      <c r="L46" s="283"/>
+      <c r="L46" s="286"/>
       <c r="M46" s="167"/>
     </row>
     <row r="47" spans="2:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5848,7 +5852,7 @@
       <c r="K47" s="163">
         <v>190000</v>
       </c>
-      <c r="L47" s="284"/>
+      <c r="L47" s="287"/>
       <c r="M47" s="168"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -5936,19 +5940,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="289" t="s">
+      <c r="C1" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="J1" s="290" t="s">
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="J1" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
     </row>
     <row r="2" spans="2:13" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -7131,10 +7135,10 @@
       </c>
       <c r="J39" s="86"/>
       <c r="K39" s="95"/>
-      <c r="L39" s="296" t="s">
+      <c r="L39" s="299" t="s">
         <v>210</v>
       </c>
-      <c r="M39" s="298">
+      <c r="M39" s="301">
         <f>F43-M37</f>
         <v>225360.95000000007</v>
       </c>
@@ -7159,8 +7163,8 @@
         <v>190</v>
       </c>
       <c r="K40" s="94"/>
-      <c r="L40" s="297"/>
-      <c r="M40" s="299"/>
+      <c r="L40" s="300"/>
+      <c r="M40" s="302"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -7244,13 +7248,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="289" t="s">
+      <c r="C2" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
     </row>
     <row r="3" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -8030,34 +8034,34 @@
     </row>
     <row r="45" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="F45" s="302" t="s">
+      <c r="F45" s="305" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="303"/>
-      <c r="H45" s="304"/>
+      <c r="G45" s="306"/>
+      <c r="H45" s="307"/>
       <c r="I45" s="100"/>
-      <c r="J45" s="300" t="s">
+      <c r="J45" s="303" t="s">
         <v>210</v>
       </c>
-      <c r="K45" s="301"/>
-      <c r="L45" s="308">
+      <c r="K45" s="304"/>
+      <c r="L45" s="311">
         <f>F43-982143.23</f>
         <v>213624.55000000005</v>
       </c>
-      <c r="M45" s="309"/>
-      <c r="N45" s="309"/>
+      <c r="M45" s="312"/>
+      <c r="N45" s="312"/>
       <c r="O45" s="100"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="305"/>
-      <c r="G46" s="306"/>
-      <c r="H46" s="307"/>
+      <c r="F46" s="308"/>
+      <c r="G46" s="309"/>
+      <c r="H46" s="310"/>
       <c r="I46" s="100"/>
-      <c r="J46" s="300"/>
-      <c r="K46" s="301"/>
-      <c r="L46" s="308"/>
-      <c r="M46" s="309"/>
-      <c r="N46" s="309"/>
+      <c r="J46" s="303"/>
+      <c r="K46" s="304"/>
+      <c r="L46" s="311"/>
+      <c r="M46" s="312"/>
+      <c r="N46" s="312"/>
       <c r="O46" s="100"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -8097,7 +8101,7 @@
   </sheetPr>
   <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="C16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -8117,13 +8121,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="289" t="s">
+      <c r="C1" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
     </row>
     <row r="2" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
@@ -8667,23 +8671,23 @@
     </row>
     <row r="34" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="112"/>
-      <c r="C34" s="314" t="s">
+      <c r="C34" s="317" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="314"/>
-      <c r="E34" s="310">
+      <c r="D34" s="317"/>
+      <c r="E34" s="313">
         <f>F31-782498.42</f>
         <v>718019.03999999992</v>
       </c>
-      <c r="F34" s="311"/>
+      <c r="F34" s="314"/>
       <c r="G34" s="170"/>
     </row>
     <row r="35" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="112"/>
-      <c r="C35" s="314"/>
-      <c r="D35" s="314"/>
-      <c r="E35" s="312"/>
-      <c r="F35" s="313"/>
+      <c r="C35" s="317"/>
+      <c r="D35" s="317"/>
+      <c r="E35" s="315"/>
+      <c r="F35" s="316"/>
       <c r="G35" s="171"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -8865,7 +8869,7 @@
   </sheetPr>
   <dimension ref="B2:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="L25" workbookViewId="0">
+    <sheetView topLeftCell="H28" workbookViewId="0">
       <selection activeCell="X35" sqref="X34:X35"/>
     </sheetView>
   </sheetViews>
@@ -8883,27 +8887,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="289" t="s">
+      <c r="C2" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="K2" s="315" t="s">
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="K2" s="318" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="315"/>
-      <c r="O2" s="315"/>
-      <c r="R2" s="315" t="s">
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="318"/>
+      <c r="O2" s="318"/>
+      <c r="R2" s="318" t="s">
         <v>330</v>
       </c>
-      <c r="S2" s="315"/>
-      <c r="T2" s="315"/>
-      <c r="U2" s="315"/>
-      <c r="V2" s="315"/>
+      <c r="S2" s="318"/>
+      <c r="T2" s="318"/>
+      <c r="U2" s="318"/>
+      <c r="V2" s="318"/>
     </row>
     <row r="3" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -10457,15 +10461,15 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="112"/>
-      <c r="C35" s="314" t="s">
+      <c r="C35" s="317" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="314"/>
-      <c r="E35" s="310">
+      <c r="D35" s="317"/>
+      <c r="E35" s="313">
         <f>F32-U52</f>
         <v>-681081.05999999982</v>
       </c>
-      <c r="F35" s="311"/>
+      <c r="F35" s="314"/>
       <c r="G35" s="170"/>
       <c r="J35" s="6">
         <v>32</v>
@@ -10502,10 +10506,10 @@
     </row>
     <row r="36" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="112"/>
-      <c r="C36" s="314"/>
-      <c r="D36" s="314"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="313"/>
+      <c r="C36" s="317"/>
+      <c r="D36" s="317"/>
+      <c r="E36" s="315"/>
+      <c r="F36" s="316"/>
       <c r="G36" s="171"/>
       <c r="J36" s="6">
         <v>33</v>
@@ -10698,10 +10702,10 @@
       <c r="G41" s="230"/>
       <c r="J41" s="188"/>
       <c r="K41" s="189"/>
-      <c r="L41" s="316" t="s">
+      <c r="L41" s="319" t="s">
         <v>412</v>
       </c>
-      <c r="M41" s="317"/>
+      <c r="M41" s="320"/>
       <c r="N41" s="185">
         <f>SUM(N4:N40)</f>
         <v>1545672.14</v>
@@ -10796,13 +10800,13 @@
       </c>
       <c r="G44" s="230"/>
       <c r="K44" s="222"/>
-      <c r="L44" s="324" t="s">
+      <c r="L44" s="327" t="s">
         <v>466</v>
       </c>
-      <c r="M44" s="325"/>
-      <c r="N44" s="325"/>
-      <c r="O44" s="325"/>
-      <c r="P44" s="326"/>
+      <c r="M44" s="328"/>
+      <c r="N44" s="328"/>
+      <c r="O44" s="328"/>
+      <c r="P44" s="329"/>
       <c r="Q44" s="265">
         <v>41</v>
       </c>
@@ -10827,11 +10831,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="230"/>
-      <c r="L45" s="327"/>
-      <c r="M45" s="328"/>
-      <c r="N45" s="328"/>
-      <c r="O45" s="328"/>
-      <c r="P45" s="329"/>
+      <c r="L45" s="330"/>
+      <c r="M45" s="331"/>
+      <c r="N45" s="331"/>
+      <c r="O45" s="331"/>
+      <c r="P45" s="332"/>
       <c r="Q45" s="266">
         <v>42</v>
       </c>
@@ -10857,11 +10861,11 @@
         <v>681080</v>
       </c>
       <c r="G46" s="230"/>
-      <c r="L46" s="327"/>
-      <c r="M46" s="328"/>
-      <c r="N46" s="328"/>
-      <c r="O46" s="328"/>
-      <c r="P46" s="329"/>
+      <c r="L46" s="330"/>
+      <c r="M46" s="331"/>
+      <c r="N46" s="331"/>
+      <c r="O46" s="331"/>
+      <c r="P46" s="332"/>
       <c r="Q46" s="265">
         <v>43</v>
       </c>
@@ -10886,11 +10890,11 @@
       <c r="E47" s="233"/>
       <c r="F47" s="234"/>
       <c r="G47" s="235"/>
-      <c r="L47" s="330"/>
-      <c r="M47" s="331"/>
-      <c r="N47" s="331"/>
-      <c r="O47" s="331"/>
-      <c r="P47" s="332"/>
+      <c r="L47" s="333"/>
+      <c r="M47" s="334"/>
+      <c r="N47" s="334"/>
+      <c r="O47" s="334"/>
+      <c r="P47" s="335"/>
       <c r="Q47" s="266">
         <v>44</v>
       </c>
@@ -10947,10 +10951,10 @@
     <row r="50" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q50" s="186"/>
       <c r="R50" s="217"/>
-      <c r="S50" s="320" t="s">
+      <c r="S50" s="323" t="s">
         <v>414</v>
       </c>
-      <c r="T50" s="321"/>
+      <c r="T50" s="324"/>
       <c r="U50" s="218">
         <f>SUM(U4:U49)</f>
         <v>661176.16</v>
@@ -10958,10 +10962,10 @@
       <c r="V50" s="187"/>
     </row>
     <row r="51" spans="17:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S51" s="318" t="s">
+      <c r="S51" s="321" t="s">
         <v>413</v>
       </c>
-      <c r="T51" s="319"/>
+      <c r="T51" s="322"/>
       <c r="U51" s="216">
         <f>N41</f>
         <v>1545672.14</v>
@@ -10969,10 +10973,10 @@
       <c r="V51" s="187"/>
     </row>
     <row r="52" spans="17:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S52" s="322" t="s">
+      <c r="S52" s="325" t="s">
         <v>415</v>
       </c>
-      <c r="T52" s="323"/>
+      <c r="T52" s="326"/>
       <c r="U52" s="221">
         <f>U50+U51</f>
         <v>2206848.2999999998</v>
@@ -11012,8 +11016,8 @@
   </sheetPr>
   <dimension ref="B2:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11029,20 +11033,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="289" t="s">
+      <c r="C2" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="K2" s="315" t="s">
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="K2" s="318" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="315"/>
-      <c r="O2" s="315"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="318"/>
+      <c r="O2" s="318"/>
     </row>
     <row r="3" spans="2:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="43" t="s">
@@ -11871,10 +11875,10 @@
       <c r="G31" s="137"/>
       <c r="J31" s="188"/>
       <c r="K31" s="189"/>
-      <c r="L31" s="316" t="s">
+      <c r="L31" s="319" t="s">
         <v>412</v>
       </c>
-      <c r="M31" s="317"/>
+      <c r="M31" s="320"/>
       <c r="N31" s="185">
         <f>SUM(N4:N30)</f>
         <v>366663.07999999996</v>
@@ -11930,15 +11934,15 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="112"/>
-      <c r="C35" s="314" t="s">
+      <c r="C35" s="317" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="314"/>
-      <c r="E35" s="310">
+      <c r="D35" s="317"/>
+      <c r="E35" s="313">
         <f>F32-N31</f>
         <v>851287.64000000025</v>
       </c>
-      <c r="F35" s="311"/>
+      <c r="F35" s="314"/>
       <c r="G35" s="170"/>
       <c r="J35" s="112"/>
       <c r="K35" s="113"/>
@@ -11949,10 +11953,10 @@
     </row>
     <row r="36" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="112"/>
-      <c r="C36" s="314"/>
-      <c r="D36" s="314"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="313"/>
+      <c r="C36" s="317"/>
+      <c r="D36" s="317"/>
+      <c r="E36" s="315"/>
+      <c r="F36" s="316"/>
       <c r="G36" s="171"/>
       <c r="J36" s="112"/>
       <c r="K36" s="113"/>
@@ -12080,8 +12084,8 @@
       </c>
       <c r="G44" s="247"/>
       <c r="K44" s="222"/>
-      <c r="L44" s="337"/>
-      <c r="M44" s="337"/>
+      <c r="L44" s="340"/>
+      <c r="M44" s="340"/>
     </row>
     <row r="45" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="267">
@@ -12142,10 +12146,10 @@
     </row>
     <row r="49" spans="4:13" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D49" s="252"/>
-      <c r="E49" s="335" t="s">
+      <c r="E49" s="338" t="s">
         <v>464</v>
       </c>
-      <c r="F49" s="333">
+      <c r="F49" s="336">
         <f>SUM(F40:F48)</f>
         <v>0.35999999998603016</v>
       </c>
@@ -12157,8 +12161,8 @@
     </row>
     <row r="50" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="254"/>
-      <c r="E50" s="336"/>
-      <c r="F50" s="334"/>
+      <c r="E50" s="339"/>
+      <c r="F50" s="337"/>
       <c r="G50" s="255"/>
       <c r="J50" s="261"/>
       <c r="K50" s="262"/>
@@ -12192,8 +12196,8 @@
   </sheetPr>
   <dimension ref="C2:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12208,13 +12212,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="289" t="s">
+      <c r="D2" s="292" t="s">
         <v>529</v>
       </c>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="H2" s="292"/>
     </row>
     <row r="3" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="43" t="s">
@@ -12790,15 +12794,15 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="112"/>
-      <c r="D36" s="314" t="s">
+      <c r="D36" s="317" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="314"/>
-      <c r="F36" s="310">
+      <c r="E36" s="317"/>
+      <c r="F36" s="313">
         <f>G33-O32-547174.52</f>
         <v>1189024.2999999998</v>
       </c>
-      <c r="G36" s="311"/>
+      <c r="G36" s="314"/>
       <c r="H36" s="170"/>
       <c r="K36" t="s">
         <v>527</v>
@@ -12806,10 +12810,10 @@
     </row>
     <row r="37" spans="3:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="112"/>
-      <c r="D37" s="314"/>
-      <c r="E37" s="314"/>
-      <c r="F37" s="312"/>
-      <c r="G37" s="313"/>
+      <c r="D37" s="317"/>
+      <c r="E37" s="317"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="316"/>
       <c r="H37" s="171"/>
     </row>
     <row r="38" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -12840,21 +12844,33 @@
       <c r="H40" s="118"/>
     </row>
     <row r="41" spans="3:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="241" t="s">
-        <v>463</v>
-      </c>
-      <c r="F41" s="242"/>
-      <c r="G41" s="243"/>
+      <c r="E41" s="351">
+        <v>45258</v>
+      </c>
+      <c r="F41" s="242">
+        <v>8587</v>
+      </c>
+      <c r="G41" s="352">
+        <v>146000</v>
+      </c>
       <c r="H41" s="244"/>
     </row>
     <row r="42" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="245"/>
-      <c r="F42" s="246"/>
-      <c r="G42" s="184"/>
+      <c r="E42" s="245">
+        <v>45258</v>
+      </c>
+      <c r="F42" s="246">
+        <v>8586</v>
+      </c>
+      <c r="G42" s="184">
+        <v>85000</v>
+      </c>
       <c r="H42" s="247"/>
     </row>
     <row r="43" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="245"/>
+      <c r="E43" s="245">
+        <v>45258</v>
+      </c>
       <c r="F43" s="246"/>
       <c r="G43" s="184"/>
       <c r="H43" s="247"/>
@@ -12899,19 +12915,19 @@
     </row>
     <row r="50" spans="5:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E50" s="252"/>
-      <c r="F50" s="335" t="s">
+      <c r="F50" s="338" t="s">
         <v>464</v>
       </c>
-      <c r="G50" s="333">
+      <c r="G50" s="336">
         <f>SUM(G41:G49)</f>
-        <v>0</v>
+        <v>231000</v>
       </c>
       <c r="H50" s="253"/>
     </row>
     <row r="51" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="254"/>
-      <c r="F51" s="336"/>
-      <c r="G51" s="334"/>
+      <c r="F51" s="339"/>
+      <c r="G51" s="337"/>
       <c r="H51" s="255"/>
     </row>
   </sheetData>
@@ -12923,7 +12939,8 @@
     <mergeCell ref="G50:G51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12934,8 +12951,8 @@
   </sheetPr>
   <dimension ref="D29:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12944,21 +12961,21 @@
   </cols>
   <sheetData>
     <row r="29" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D29" s="347">
+      <c r="D29" s="284">
         <v>45258</v>
       </c>
-      <c r="E29" s="338" t="s">
+      <c r="E29" s="282" t="s">
         <v>530</v>
       </c>
       <c r="F29" s="69"/>
       <c r="G29" s="69"/>
-      <c r="H29" s="339">
+      <c r="H29" s="341">
         <v>434277.18</v>
       </c>
-      <c r="I29" s="339"/>
+      <c r="I29" s="341"/>
     </row>
     <row r="30" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D30" s="347">
+      <c r="D30" s="284">
         <v>45257</v>
       </c>
       <c r="E30" s="26" t="s">
@@ -12966,19 +12983,19 @@
       </c>
       <c r="F30" s="69"/>
       <c r="G30" s="69"/>
-      <c r="H30" s="340">
+      <c r="H30" s="342">
         <v>-180418.38</v>
       </c>
-      <c r="I30" s="341"/>
+      <c r="I30" s="343"/>
     </row>
     <row r="31" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="342"/>
-      <c r="F31" s="342"/>
-      <c r="G31" s="342"/>
-      <c r="H31" s="343">
+      <c r="E31" s="283"/>
+      <c r="F31" s="283"/>
+      <c r="G31" s="283"/>
+      <c r="H31" s="344">
         <v>0</v>
       </c>
-      <c r="I31" s="344"/>
+      <c r="I31" s="345"/>
     </row>
     <row r="32" spans="4:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="348" t="s">
@@ -12986,11 +13003,11 @@
       </c>
       <c r="F32" s="349"/>
       <c r="G32" s="350"/>
-      <c r="H32" s="345">
-        <f t="shared" ref="H32:I32" si="0">SUM(H29:I31)</f>
+      <c r="H32" s="346">
+        <f t="shared" ref="H32" si="0">SUM(H29:I31)</f>
         <v>253858.8</v>
       </c>
-      <c r="I32" s="346"/>
+      <c r="I32" s="347"/>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E33" s="86"/>
